--- a/COVID-19 Apps/Population Data.xlsx
+++ b/COVID-19 Apps/Population Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zur Bonsen Georg\Documents\Programme\Beyond4P_Apps\COVID-19 Apps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CA7D6A-BE4B-473D-BA39-64E74E7DAC1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5A371A-20B7-4F3B-8B05-C116EFB9B0AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{F1D96CA6-85D8-47A9-B3B5-9350C0EB077E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{F1D96CA6-85D8-47A9-B3B5-9350C0EB077E}"/>
   </bookViews>
   <sheets>
     <sheet name="Basedata" sheetId="3" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="China" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Basedata!$A$1:$D$362</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">World!$A$2:$L$239</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="686">
   <si>
     <t>Search:</t>
   </si>
@@ -2131,6 +2132,18 @@
   </si>
   <si>
     <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Favorites</t>
+  </si>
+  <si>
+    <t>XU</t>
+  </si>
+  <si>
+    <t>U</t>
   </si>
 </sst>
 </file>
@@ -2398,7 +2411,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -2545,6 +2558,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2884,4535 +2900,4808 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D644D2AC-849B-4939-9630-637ED8DE136D}">
-  <dimension ref="A1:D362"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="G107" sqref="G107"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A219" sqref="A219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" style="52" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
+        <v>683</v>
+      </c>
+      <c r="B1" t="s">
         <v>294</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="C1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="21" cm="1">
-        <f t="array" ref="B2">INDEX(World!C:C,Basedata!C2)</f>
+      <c r="C2" s="21" cm="1">
+        <f t="array" ref="C2">INDEX(World!C:C,Basedata!D2)</f>
         <v>38928346</v>
       </c>
-      <c r="C2">
-        <f>MATCH(A2,World!B:B,0)</f>
+      <c r="D2">
+        <f>MATCH(B2,World!B:B,0)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="21" cm="1">
-        <f t="array" ref="B3">INDEX(World!C:C,Basedata!C3)</f>
+      <c r="C3" s="21" cm="1">
+        <f t="array" ref="C3">INDEX(World!C:C,Basedata!D3)</f>
         <v>2877797</v>
       </c>
-      <c r="C3">
-        <f>MATCH(A3,World!B:B,0)</f>
+      <c r="D3">
+        <f>MATCH(B3,World!B:B,0)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="21" cm="1">
-        <f t="array" ref="B4">INDEX(World!C:C,Basedata!C4)</f>
+      <c r="C4" s="21" cm="1">
+        <f t="array" ref="C4">INDEX(World!C:C,Basedata!D4)</f>
         <v>43851044</v>
       </c>
-      <c r="C4">
-        <f>MATCH(A4,World!B:B,0)</f>
+      <c r="D4">
+        <f>MATCH(B4,World!B:B,0)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="21" cm="1">
-        <f t="array" ref="B5">INDEX(World!C:C,Basedata!C5)</f>
+      <c r="C5" s="21" cm="1">
+        <f t="array" ref="C5">INDEX(World!C:C,Basedata!D5)</f>
         <v>77265</v>
       </c>
-      <c r="C5">
-        <f>MATCH(A5,World!B:B,0)</f>
+      <c r="D5">
+        <f>MATCH(B5,World!B:B,0)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="21" cm="1">
-        <f t="array" ref="B6">INDEX(World!C:C,Basedata!C6)</f>
+      <c r="C6" s="21" cm="1">
+        <f t="array" ref="C6">INDEX(World!C:C,Basedata!D6)</f>
         <v>97929</v>
       </c>
-      <c r="C6">
-        <f>MATCH(A6,World!B:B,0)</f>
+      <c r="D6">
+        <f>MATCH(B6,World!B:B,0)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="21" cm="1">
-        <f t="array" ref="B7">INDEX(World!C:C,Basedata!C7)</f>
+      <c r="C7" s="21" cm="1">
+        <f t="array" ref="C7">INDEX(World!C:C,Basedata!D7)</f>
         <v>45195774</v>
       </c>
-      <c r="C7">
-        <f>MATCH(A7,World!B:B,0)</f>
+      <c r="D7">
+        <f>MATCH(B7,World!B:B,0)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="21" cm="1">
-        <f t="array" ref="B8">INDEX(World!C:C,Basedata!C8)</f>
+      <c r="C8" s="21" cm="1">
+        <f t="array" ref="C8">INDEX(World!C:C,Basedata!D8)</f>
         <v>2963243</v>
       </c>
-      <c r="C8">
-        <f>MATCH(A8,World!B:B,0)</f>
+      <c r="D8">
+        <f>MATCH(B8,World!B:B,0)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="21" cm="1">
-        <f t="array" ref="B9">INDEX(World!C:C,Basedata!C9)</f>
+      <c r="C9" s="21" cm="1">
+        <f t="array" ref="C9">INDEX(World!C:C,Basedata!D9)</f>
         <v>106766</v>
       </c>
-      <c r="C9">
-        <f>MATCH(A9,World!B:B,0)</f>
+      <c r="D9">
+        <f>MATCH(B9,World!B:B,0)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="52" t="s">
+        <v>682</v>
+      </c>
+      <c r="B10" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="21" cm="1">
-        <f t="array" ref="B10">INDEX(World!C:C,Basedata!C10)</f>
+      <c r="C10" s="21" cm="1">
+        <f t="array" ref="C10">INDEX(World!C:C,Basedata!D10)</f>
         <v>25499884</v>
       </c>
-      <c r="C10">
-        <f>MATCH(A10,World!B:B,0)</f>
+      <c r="D10">
+        <f>MATCH(B10,World!B:B,0)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>295</v>
       </c>
-      <c r="B11" s="22">
+      <c r="C11" s="22">
         <v>366900</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>296</v>
       </c>
-      <c r="B12" s="22">
+      <c r="C12" s="22">
         <v>7317500</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>297</v>
       </c>
-      <c r="B13" s="22">
+      <c r="C13" s="22">
         <v>231200</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>298</v>
       </c>
-      <c r="B14" s="22">
+      <c r="C14" s="22">
         <v>4599400</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>299</v>
       </c>
-      <c r="B15" s="22">
+      <c r="C15" s="22">
         <v>1659800</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>300</v>
       </c>
-      <c r="B16" s="22">
+      <c r="C16" s="22">
         <v>511000</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>301</v>
       </c>
-      <c r="B17" s="22">
+      <c r="C17" s="22">
         <v>5640900</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>302</v>
       </c>
-      <c r="B18" s="22">
+      <c r="C18" s="22">
         <v>2366900</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="52" t="s">
+        <v>682</v>
+      </c>
+      <c r="B19" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="21" cm="1">
-        <f t="array" ref="B19">INDEX(World!C:C,Basedata!C19)</f>
+      <c r="C19" s="21" cm="1">
+        <f t="array" ref="C19">INDEX(World!C:C,Basedata!D19)</f>
         <v>9006398</v>
       </c>
-      <c r="C19">
-        <f>MATCH(A19,World!B:B,0)</f>
+      <c r="D19">
+        <f>MATCH(B19,World!B:B,0)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="21" cm="1">
-        <f t="array" ref="B20">INDEX(World!C:C,Basedata!C20)</f>
+      <c r="C20" s="21" cm="1">
+        <f t="array" ref="C20">INDEX(World!C:C,Basedata!D20)</f>
         <v>10139177</v>
       </c>
-      <c r="C20">
-        <f>MATCH(A20,World!B:B,0)</f>
+      <c r="D20">
+        <f>MATCH(B20,World!B:B,0)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="21" cm="1">
-        <f t="array" ref="B21">INDEX(World!C:C,Basedata!C21)</f>
+      <c r="C21" s="21" cm="1">
+        <f t="array" ref="C21">INDEX(World!C:C,Basedata!D21)</f>
         <v>1701575</v>
       </c>
-      <c r="C21">
-        <f>MATCH(A21,World!B:B,0)</f>
+      <c r="D21">
+        <f>MATCH(B21,World!B:B,0)</f>
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="21" cm="1">
-        <f t="array" ref="B22">INDEX(World!C:C,Basedata!C22)</f>
+      <c r="C22" s="21" cm="1">
+        <f t="array" ref="C22">INDEX(World!C:C,Basedata!D22)</f>
         <v>164689383</v>
       </c>
-      <c r="C22">
-        <f>MATCH(A22,World!B:B,0)</f>
+      <c r="D22">
+        <f>MATCH(B22,World!B:B,0)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="21" cm="1">
-        <f t="array" ref="B23">INDEX(World!C:C,Basedata!C23)</f>
+      <c r="C23" s="21" cm="1">
+        <f t="array" ref="C23">INDEX(World!C:C,Basedata!D23)</f>
         <v>9449323</v>
       </c>
-      <c r="C23">
-        <f>MATCH(A23,World!B:B,0)</f>
+      <c r="D23">
+        <f>MATCH(B23,World!B:B,0)</f>
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="21" cm="1">
-        <f t="array" ref="B24">INDEX(World!C:C,Basedata!C24)</f>
+      <c r="C24" s="21" cm="1">
+        <f t="array" ref="C24">INDEX(World!C:C,Basedata!D24)</f>
         <v>11589623</v>
       </c>
-      <c r="C24">
-        <f>MATCH(A24,World!B:B,0)</f>
+      <c r="D24">
+        <f>MATCH(B24,World!B:B,0)</f>
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="21" cm="1">
-        <f t="array" ref="B25">INDEX(World!C:C,Basedata!C25)</f>
+      <c r="C25" s="21" cm="1">
+        <f t="array" ref="C25">INDEX(World!C:C,Basedata!D25)</f>
         <v>771608</v>
       </c>
-      <c r="C25">
-        <f>MATCH(A25,World!B:B,0)</f>
+      <c r="D25">
+        <f>MATCH(B25,World!B:B,0)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="21" cm="1">
-        <f t="array" ref="B26">INDEX(World!C:C,Basedata!C26)</f>
+      <c r="C26" s="21" cm="1">
+        <f t="array" ref="C26">INDEX(World!C:C,Basedata!D26)</f>
         <v>11673021</v>
       </c>
-      <c r="C26">
-        <f>MATCH(A26,World!B:B,0)</f>
+      <c r="D26">
+        <f>MATCH(B26,World!B:B,0)</f>
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="21" cm="1">
-        <f t="array" ref="B27">INDEX(World!C:C,Basedata!C27)</f>
+      <c r="C27" s="21" cm="1">
+        <f t="array" ref="C27">INDEX(World!C:C,Basedata!D27)</f>
         <v>3280819</v>
       </c>
-      <c r="C27">
-        <f>MATCH(A27,World!B:B,0)</f>
+      <c r="D27">
+        <f>MATCH(B27,World!B:B,0)</f>
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="21" cm="1">
-        <f t="array" ref="B28">INDEX(World!C:C,Basedata!C28)</f>
+      <c r="C28" s="21" cm="1">
+        <f t="array" ref="C28">INDEX(World!C:C,Basedata!D28)</f>
         <v>212559417</v>
       </c>
-      <c r="C28">
-        <f>MATCH(A28,World!B:B,0)</f>
+      <c r="D28">
+        <f>MATCH(B28,World!B:B,0)</f>
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="21" cm="1">
-        <f t="array" ref="B29">INDEX(World!C:C,Basedata!C29)</f>
+      <c r="C29" s="21" cm="1">
+        <f t="array" ref="C29">INDEX(World!C:C,Basedata!D29)</f>
         <v>437479</v>
       </c>
-      <c r="C29">
-        <f>MATCH(A29,World!B:B,0)</f>
+      <c r="D29">
+        <f>MATCH(B29,World!B:B,0)</f>
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="21" cm="1">
-        <f t="array" ref="B30">INDEX(World!C:C,Basedata!C30)</f>
+      <c r="C30" s="21" cm="1">
+        <f t="array" ref="C30">INDEX(World!C:C,Basedata!D30)</f>
         <v>6948445</v>
       </c>
-      <c r="C30">
-        <f>MATCH(A30,World!B:B,0)</f>
+      <c r="D30">
+        <f>MATCH(B30,World!B:B,0)</f>
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="21" cm="1">
-        <f t="array" ref="B31">INDEX(World!C:C,Basedata!C31)</f>
+      <c r="C31" s="21" cm="1">
+        <f t="array" ref="C31">INDEX(World!C:C,Basedata!D31)</f>
         <v>20903273</v>
       </c>
-      <c r="C31">
-        <f>MATCH(A31,World!B:B,0)</f>
+      <c r="D31">
+        <f>MATCH(B31,World!B:B,0)</f>
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="21" cm="1">
-        <f t="array" ref="B32">INDEX(World!C:C,Basedata!C32)</f>
+      <c r="C32" s="21" cm="1">
+        <f t="array" ref="C32">INDEX(World!C:C,Basedata!D32)</f>
         <v>16718965</v>
       </c>
-      <c r="C32">
-        <f>MATCH(A32,World!B:B,0)</f>
+      <c r="D32">
+        <f>MATCH(B32,World!B:B,0)</f>
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="21" cm="1">
-        <f t="array" ref="B33">INDEX(World!C:C,Basedata!C33)</f>
+      <c r="C33" s="21" cm="1">
+        <f t="array" ref="C33">INDEX(World!C:C,Basedata!D33)</f>
         <v>26545863</v>
       </c>
-      <c r="C33">
-        <f>MATCH(A33,World!B:B,0)</f>
+      <c r="D33">
+        <f>MATCH(B33,World!B:B,0)</f>
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="52" t="s">
+        <v>682</v>
+      </c>
+      <c r="B34" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="21" cm="1">
-        <f t="array" ref="B34">INDEX(World!C:C,Basedata!C34)</f>
+      <c r="C34" s="21" cm="1">
+        <f t="array" ref="C34">INDEX(World!C:C,Basedata!D34)</f>
         <v>37742154</v>
       </c>
-      <c r="C34">
-        <f>MATCH(A34,World!B:B,0)</f>
+      <c r="D34">
+        <f>MATCH(B34,World!B:B,0)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>303</v>
       </c>
-      <c r="B35" s="22">
+      <c r="C35" s="22">
         <v>4345737</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>304</v>
       </c>
-      <c r="B36" s="22">
+      <c r="C36" s="22">
         <v>5020302</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>305</v>
       </c>
-      <c r="B37" s="22">
+      <c r="C37" s="22">
         <v>1360396</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>306</v>
       </c>
-      <c r="B38" s="22">
+      <c r="C38" s="22">
         <v>772094</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>307</v>
       </c>
-      <c r="B39" s="22">
+      <c r="C39" s="22">
         <v>14446515</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>308</v>
       </c>
-      <c r="B40" s="22">
+      <c r="C40" s="22">
         <v>8433301</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>309</v>
       </c>
-      <c r="B41" s="22">
+      <c r="C41" s="22">
         <v>1168423</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>418</v>
       </c>
-      <c r="B42" s="22">
+      <c r="C42" s="22">
         <v>965392</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>665</v>
       </c>
-      <c r="B43" s="22">
+      <c r="C43" s="22">
         <v>523790</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>666</v>
       </c>
-      <c r="B44" s="22">
+      <c r="C44" s="22">
         <v>154748</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>419</v>
       </c>
-      <c r="B45" s="22">
+      <c r="C45" s="22">
         <v>44598</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>420</v>
       </c>
-      <c r="B46" s="22">
+      <c r="C46" s="22">
         <v>40369</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>421</v>
       </c>
-      <c r="B47" s="22">
+      <c r="C47" s="22">
         <v>38787</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>679</v>
       </c>
-      <c r="B48" s="21" cm="1">
-        <f t="array" ref="B48">INDEX(World!C:C,Basedata!C48)</f>
+      <c r="C48" s="21" cm="1">
+        <f t="array" ref="C48">INDEX(World!C:C,Basedata!D48)</f>
         <v>65722</v>
       </c>
-      <c r="C48">
-        <f>MATCH(A48,World!B:B,0)</f>
+      <c r="D48">
+        <f>MATCH(B48,World!B:B,0)</f>
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
         <v>62</v>
       </c>
-      <c r="B49" s="21" cm="1">
-        <f t="array" ref="B49">INDEX(World!C:C,Basedata!C49)</f>
+      <c r="C49" s="21" cm="1">
+        <f t="array" ref="C49">INDEX(World!C:C,Basedata!D49)</f>
         <v>19116201</v>
       </c>
-      <c r="C49">
-        <f>MATCH(A49,World!B:B,0)</f>
+      <c r="D49">
+        <f>MATCH(B49,World!B:B,0)</f>
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="52" t="s">
+        <v>682</v>
+      </c>
+      <c r="B50" t="s">
         <v>63</v>
       </c>
-      <c r="B50" s="21" cm="1">
-        <f t="array" ref="B50">INDEX(World!C:C,Basedata!C50)</f>
+      <c r="C50" s="21" cm="1">
+        <f t="array" ref="C50">INDEX(World!C:C,Basedata!D50)</f>
         <v>1439323776</v>
       </c>
-      <c r="C50">
-        <f>MATCH(A50,World!B:B,0)</f>
+      <c r="D50">
+        <f>MATCH(B50,World!B:B,0)</f>
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
         <v>310</v>
       </c>
-      <c r="B51" s="22" cm="1">
-        <f t="array" ref="B51">INDEX(China!G:G,Basedata!C51)</f>
+      <c r="C51" s="22" cm="1">
+        <f t="array" ref="C51">INDEX(China!G:G,Basedata!D51)</f>
         <v>59500510</v>
       </c>
-      <c r="C51">
-        <f>MATCH(A51,China!K:K,0)</f>
+      <c r="D51">
+        <f>MATCH(B51,China!K:K,0)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
         <v>311</v>
       </c>
-      <c r="B52" s="22" cm="1">
-        <f t="array" ref="B52">INDEX(China!G:G,Basedata!C52)</f>
+      <c r="C52" s="22" cm="1">
+        <f t="array" ref="C52">INDEX(China!G:G,Basedata!D52)</f>
         <v>19612368</v>
       </c>
-      <c r="C52">
-        <f>MATCH(A52,China!K:K,0)</f>
+      <c r="D52">
+        <f>MATCH(B52,China!K:K,0)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
         <v>312</v>
       </c>
-      <c r="B53" s="22" cm="1">
-        <f t="array" ref="B53">INDEX(China!G:G,Basedata!C53)</f>
+      <c r="C53" s="22" cm="1">
+        <f t="array" ref="C53">INDEX(China!G:G,Basedata!D53)</f>
         <v>28846170</v>
       </c>
-      <c r="C53">
-        <f>MATCH(A53,China!K:K,0)</f>
+      <c r="D53">
+        <f>MATCH(B53,China!K:K,0)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
         <v>313</v>
       </c>
-      <c r="B54" s="22" cm="1">
-        <f t="array" ref="B54">INDEX(China!G:G,Basedata!C54)</f>
+      <c r="C54" s="22" cm="1">
+        <f t="array" ref="C54">INDEX(China!G:G,Basedata!D54)</f>
         <v>36894216</v>
       </c>
-      <c r="C54">
-        <f>MATCH(A54,China!K:K,0)</f>
+      <c r="D54">
+        <f>MATCH(B54,China!K:K,0)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
         <v>314</v>
       </c>
-      <c r="B55" s="22" cm="1">
-        <f t="array" ref="B55">INDEX(China!G:G,Basedata!C55)</f>
+      <c r="C55" s="22" cm="1">
+        <f t="array" ref="C55">INDEX(China!G:G,Basedata!D55)</f>
         <v>25575254</v>
       </c>
-      <c r="C55">
-        <f>MATCH(A55,China!K:K,0)</f>
+      <c r="D55">
+        <f>MATCH(B55,China!K:K,0)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
         <v>315</v>
       </c>
-      <c r="B56" s="22" cm="1">
-        <f t="array" ref="B56">INDEX(China!G:G,Basedata!C56)</f>
+      <c r="C56" s="22" cm="1">
+        <f t="array" ref="C56">INDEX(China!G:G,Basedata!D56)</f>
         <v>104303132</v>
       </c>
-      <c r="C56">
-        <f>MATCH(A56,China!K:K,0)</f>
+      <c r="D56">
+        <f>MATCH(B56,China!K:K,0)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
         <v>316</v>
       </c>
-      <c r="B57" s="22" cm="1">
-        <f t="array" ref="B57">INDEX(China!G:G,Basedata!C57)</f>
+      <c r="C57" s="22" cm="1">
+        <f t="array" ref="C57">INDEX(China!G:G,Basedata!D57)</f>
         <v>46026629</v>
       </c>
-      <c r="C57">
-        <f>MATCH(A57,China!K:K,0)</f>
+      <c r="D57">
+        <f>MATCH(B57,China!K:K,0)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
         <v>317</v>
       </c>
-      <c r="B58" s="22" cm="1">
-        <f t="array" ref="B58">INDEX(China!G:G,Basedata!C58)</f>
+      <c r="C58" s="22" cm="1">
+        <f t="array" ref="C58">INDEX(China!G:G,Basedata!D58)</f>
         <v>34746468</v>
       </c>
-      <c r="C58">
-        <f>MATCH(A58,China!K:K,0)</f>
+      <c r="D58">
+        <f>MATCH(B58,China!K:K,0)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
         <v>318</v>
       </c>
-      <c r="B59" s="22" cm="1">
-        <f t="array" ref="B59">INDEX(China!G:G,Basedata!C59)</f>
+      <c r="C59" s="22" cm="1">
+        <f t="array" ref="C59">INDEX(China!G:G,Basedata!D59)</f>
         <v>9171300</v>
       </c>
-      <c r="C59">
-        <f>MATCH(A59,China!K:K,0)</f>
+      <c r="D59">
+        <f>MATCH(B59,China!K:K,0)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
         <v>319</v>
       </c>
-      <c r="B60" s="22" cm="1">
-        <f t="array" ref="B60">INDEX(China!G:G,Basedata!C60)</f>
+      <c r="C60" s="22" cm="1">
+        <f t="array" ref="C60">INDEX(China!G:G,Basedata!D60)</f>
         <v>71854202</v>
       </c>
-      <c r="C60">
-        <f>MATCH(A60,China!K:K,0)</f>
+      <c r="D60">
+        <f>MATCH(B60,China!K:K,0)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
         <v>320</v>
       </c>
-      <c r="B61" s="22" cm="1">
-        <f t="array" ref="B61">INDEX(China!G:G,Basedata!C61)</f>
+      <c r="C61" s="22" cm="1">
+        <f t="array" ref="C61">INDEX(China!G:G,Basedata!D61)</f>
         <v>38312224</v>
       </c>
-      <c r="C61">
-        <f>MATCH(A61,China!K:K,0)</f>
+      <c r="D61">
+        <f>MATCH(B61,China!K:K,0)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
         <v>321</v>
       </c>
-      <c r="B62" s="22" cm="1">
-        <f t="array" ref="B62">INDEX(China!G:G,Basedata!C62)</f>
+      <c r="C62" s="22" cm="1">
+        <f t="array" ref="C62">INDEX(China!G:G,Basedata!D62)</f>
         <v>94023567</v>
       </c>
-      <c r="C62">
-        <f>MATCH(A62,China!K:K,0)</f>
+      <c r="D62">
+        <f>MATCH(B62,China!K:K,0)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
         <v>322</v>
       </c>
-      <c r="B63" s="22" cm="1">
-        <f t="array" ref="B63">INDEX(China!G:G,Basedata!C63)</f>
+      <c r="C63" s="22" cm="1">
+        <f t="array" ref="C63">INDEX(China!G:G,Basedata!D63)</f>
         <v>7061200</v>
       </c>
-      <c r="C63">
-        <f>MATCH(A63,China!K:K,0)</f>
+      <c r="D63">
+        <f>MATCH(B63,China!K:K,0)</f>
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
         <v>323</v>
       </c>
-      <c r="B64" s="22" cm="1">
-        <f t="array" ref="B64">INDEX(China!G:G,Basedata!C64)</f>
+      <c r="C64" s="22" cm="1">
+        <f t="array" ref="C64">INDEX(China!G:G,Basedata!D64)</f>
         <v>57237740</v>
       </c>
-      <c r="C64">
-        <f>MATCH(A64,China!K:K,0)</f>
+      <c r="D64">
+        <f>MATCH(B64,China!K:K,0)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="65" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
         <v>324</v>
       </c>
-      <c r="B65" s="22" cm="1">
-        <f t="array" ref="B65">INDEX(China!G:G,Basedata!C65)</f>
+      <c r="C65" s="22" cm="1">
+        <f t="array" ref="C65">INDEX(China!G:G,Basedata!D65)</f>
         <v>65683722</v>
       </c>
-      <c r="C65">
-        <f>MATCH(A65,China!K:K,0)</f>
+      <c r="D65">
+        <f>MATCH(B65,China!K:K,0)</f>
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="66" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
         <v>325</v>
       </c>
-      <c r="B66" s="22" cm="1">
-        <f t="array" ref="B66">INDEX(China!G:G,Basedata!C66)</f>
+      <c r="C66" s="22" cm="1">
+        <f t="array" ref="C66">INDEX(China!G:G,Basedata!D66)</f>
         <v>24706321</v>
       </c>
-      <c r="C66">
-        <f>MATCH(A66,China!K:K,0)</f>
+      <c r="D66">
+        <f>MATCH(B66,China!K:K,0)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="67" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
         <v>326</v>
       </c>
-      <c r="B67" s="22" cm="1">
-        <f t="array" ref="B67">INDEX(China!G:G,Basedata!C67)</f>
+      <c r="C67" s="22" cm="1">
+        <f t="array" ref="C67">INDEX(China!G:G,Basedata!D67)</f>
         <v>78659903</v>
       </c>
-      <c r="C67">
-        <f>MATCH(A67,China!K:K,0)</f>
+      <c r="D67">
+        <f>MATCH(B67,China!K:K,0)</f>
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="68" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
         <v>327</v>
       </c>
-      <c r="B68" s="22" cm="1">
-        <f t="array" ref="B68">INDEX(China!G:G,Basedata!C68)</f>
+      <c r="C68" s="22" cm="1">
+        <f t="array" ref="C68">INDEX(China!G:G,Basedata!D68)</f>
         <v>44567475</v>
       </c>
-      <c r="C68">
-        <f>MATCH(A68,China!K:K,0)</f>
+      <c r="D68">
+        <f>MATCH(B68,China!K:K,0)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="69" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
         <v>328</v>
       </c>
-      <c r="B69" s="22" cm="1">
-        <f t="array" ref="B69">INDEX(China!G:G,Basedata!C69)</f>
+      <c r="C69" s="22" cm="1">
+        <f t="array" ref="C69">INDEX(China!G:G,Basedata!D69)</f>
         <v>27462297</v>
       </c>
-      <c r="C69">
-        <f>MATCH(A69,China!K:K,0)</f>
+      <c r="D69">
+        <f>MATCH(B69,China!K:K,0)</f>
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="70" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
         <v>329</v>
       </c>
-      <c r="B70" s="22" cm="1">
-        <f t="array" ref="B70">INDEX(China!G:G,Basedata!C70)</f>
+      <c r="C70" s="22" cm="1">
+        <f t="array" ref="C70">INDEX(China!G:G,Basedata!D70)</f>
         <v>43746323</v>
       </c>
-      <c r="C70">
-        <f>MATCH(A70,China!K:K,0)</f>
+      <c r="D70">
+        <f>MATCH(B70,China!K:K,0)</f>
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="71" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
         <v>330</v>
       </c>
-      <c r="B71" s="22" cm="1">
-        <f t="array" ref="B71">INDEX(China!G:G,Basedata!C71)</f>
+      <c r="C71" s="22" cm="1">
+        <f t="array" ref="C71">INDEX(China!G:G,Basedata!D71)</f>
         <v>552300</v>
       </c>
-      <c r="C71">
-        <f>MATCH(A71,China!K:K,0)</f>
+      <c r="D71">
+        <f>MATCH(B71,China!K:K,0)</f>
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="72" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
         <v>331</v>
       </c>
-      <c r="B72" s="22" cm="1">
-        <f t="array" ref="B72">INDEX(China!G:G,Basedata!C72)</f>
+      <c r="C72" s="22" cm="1">
+        <f t="array" ref="C72">INDEX(China!G:G,Basedata!D72)</f>
         <v>6301350</v>
       </c>
-      <c r="C72">
-        <f>MATCH(A72,China!K:K,0)</f>
+      <c r="D72">
+        <f>MATCH(B72,China!K:K,0)</f>
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="73" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
         <v>332</v>
       </c>
-      <c r="B73" s="22" cm="1">
-        <f t="array" ref="B73">INDEX(China!G:G,Basedata!C73)</f>
+      <c r="C73" s="22" cm="1">
+        <f t="array" ref="C73">INDEX(China!G:G,Basedata!D73)</f>
         <v>5626722</v>
       </c>
-      <c r="C73">
-        <f>MATCH(A73,China!K:K,0)</f>
+      <c r="D73">
+        <f>MATCH(B73,China!K:K,0)</f>
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="74" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
         <v>333</v>
       </c>
-      <c r="B74" s="22" cm="1">
-        <f t="array" ref="B74">INDEX(China!G:G,Basedata!C74)</f>
+      <c r="C74" s="22" cm="1">
+        <f t="array" ref="C74">INDEX(China!G:G,Basedata!D74)</f>
         <v>37327378</v>
       </c>
-      <c r="C74">
-        <f>MATCH(A74,China!K:K,0)</f>
+      <c r="D74">
+        <f>MATCH(B74,China!K:K,0)</f>
         <v>33</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="75" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
         <v>334</v>
       </c>
-      <c r="B75" s="22" cm="1">
-        <f t="array" ref="B75">INDEX(China!G:G,Basedata!C75)</f>
+      <c r="C75" s="22" cm="1">
+        <f t="array" ref="C75">INDEX(China!G:G,Basedata!D75)</f>
         <v>95793065</v>
       </c>
-      <c r="C75">
-        <f>MATCH(A75,China!K:K,0)</f>
+      <c r="D75">
+        <f>MATCH(B75,China!K:K,0)</f>
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="76" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
         <v>335</v>
       </c>
-      <c r="B76" s="22" cm="1">
-        <f t="array" ref="B76">INDEX(China!G:G,Basedata!C76)</f>
+      <c r="C76" s="22" cm="1">
+        <f t="array" ref="C76">INDEX(China!G:G,Basedata!D76)</f>
         <v>23019148</v>
       </c>
-      <c r="C76">
-        <f>MATCH(A76,China!K:K,0)</f>
+      <c r="D76">
+        <f>MATCH(B76,China!K:K,0)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="77" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
         <v>336</v>
       </c>
-      <c r="B77" s="22" cm="1">
-        <f t="array" ref="B77">INDEX(China!G:G,Basedata!C77)</f>
+      <c r="C77" s="22" cm="1">
+        <f t="array" ref="C77">INDEX(China!G:G,Basedata!D77)</f>
         <v>35712111</v>
       </c>
-      <c r="C77">
-        <f>MATCH(A77,China!K:K,0)</f>
+      <c r="D77">
+        <f>MATCH(B77,China!K:K,0)</f>
         <v>34</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="78" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
         <v>337</v>
       </c>
-      <c r="B78" s="22" cm="1">
-        <f t="array" ref="B78">INDEX(China!G:G,Basedata!C78)</f>
+      <c r="C78" s="22" cm="1">
+        <f t="array" ref="C78">INDEX(China!G:G,Basedata!D78)</f>
         <v>80418200</v>
       </c>
-      <c r="C78">
-        <f>MATCH(A78,China!K:K,0)</f>
+      <c r="D78">
+        <f>MATCH(B78,China!K:K,0)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="79" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
         <v>338</v>
       </c>
-      <c r="B79" s="22" cm="1">
-        <f t="array" ref="B79">INDEX(China!G:G,Basedata!C79)</f>
+      <c r="C79" s="22" cm="1">
+        <f t="array" ref="C79">INDEX(China!G:G,Basedata!D79)</f>
         <v>12938224</v>
       </c>
-      <c r="C79">
-        <f>MATCH(A79,China!K:K,0)</f>
+      <c r="D79">
+        <f>MATCH(B79,China!K:K,0)</f>
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="80" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
         <v>339</v>
       </c>
-      <c r="B80" s="22" cm="1">
-        <f t="array" ref="B80">INDEX(China!G:G,Basedata!C80)</f>
+      <c r="C80" s="22" cm="1">
+        <f t="array" ref="C80">INDEX(China!G:G,Basedata!D80)</f>
         <v>3002166</v>
       </c>
-      <c r="C80">
-        <f>MATCH(A80,China!K:K,0)</f>
+      <c r="D80">
+        <f>MATCH(B80,China!K:K,0)</f>
         <v>38</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="81" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
         <v>340</v>
       </c>
-      <c r="B81" s="22" cm="1">
-        <f t="array" ref="B81">INDEX(China!G:G,Basedata!C81)</f>
+      <c r="C81" s="22" cm="1">
+        <f t="array" ref="C81">INDEX(China!G:G,Basedata!D81)</f>
         <v>21813334</v>
       </c>
-      <c r="C81">
-        <f>MATCH(A81,China!K:K,0)</f>
+      <c r="D81">
+        <f>MATCH(B81,China!K:K,0)</f>
         <v>37</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="82" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
         <v>341</v>
       </c>
-      <c r="B82" s="22" cm="1">
-        <f t="array" ref="B82">INDEX(China!G:G,Basedata!C82)</f>
+      <c r="C82" s="22" cm="1">
+        <f t="array" ref="C82">INDEX(China!G:G,Basedata!D82)</f>
         <v>45966239</v>
       </c>
-      <c r="C82">
-        <f>MATCH(A82,China!K:K,0)</f>
+      <c r="D82">
+        <f>MATCH(B82,China!K:K,0)</f>
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="83" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
         <v>342</v>
       </c>
-      <c r="B83" s="22" cm="1">
-        <f t="array" ref="B83">INDEX(China!G:G,Basedata!C83)</f>
+      <c r="C83" s="22" cm="1">
+        <f t="array" ref="C83">INDEX(China!G:G,Basedata!D83)</f>
         <v>54426891</v>
       </c>
-      <c r="C83">
-        <f>MATCH(A83,China!K:K,0)</f>
+      <c r="D83">
+        <f>MATCH(B83,China!K:K,0)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="84" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
         <v>59</v>
       </c>
-      <c r="B84" s="21" cm="1">
-        <f t="array" ref="B84">INDEX(World!C:C,Basedata!C84)</f>
+      <c r="C84" s="21" cm="1">
+        <f t="array" ref="C84">INDEX(World!C:C,Basedata!D84)</f>
         <v>4829767</v>
       </c>
-      <c r="C84">
-        <f>MATCH(A84,World!B:B,0)</f>
+      <c r="D84">
+        <f>MATCH(B84,World!B:B,0)</f>
         <v>43</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="85" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
         <v>64</v>
       </c>
-      <c r="B85" s="21" cm="1">
-        <f t="array" ref="B85">INDEX(World!C:C,Basedata!C85)</f>
+      <c r="C85" s="21" cm="1">
+        <f t="array" ref="C85">INDEX(World!C:C,Basedata!D85)</f>
         <v>50882891</v>
       </c>
-      <c r="C85">
-        <f>MATCH(A85,World!B:B,0)</f>
+      <c r="D85">
+        <f>MATCH(B85,World!B:B,0)</f>
         <v>48</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="86" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
         <v>343</v>
       </c>
-      <c r="B86" s="21" cm="1">
-        <f t="array" ref="B86">INDEX(World!C:C,Basedata!C86)</f>
+      <c r="C86" s="21" cm="1">
+        <f t="array" ref="C86">INDEX(World!C:C,Basedata!D86)</f>
         <v>81340000</v>
       </c>
-      <c r="C86">
-        <f>MATCH(A86,World!B:B,0)</f>
+      <c r="D86">
+        <f>MATCH(B86,World!B:B,0)</f>
         <v>50</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="87" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
         <v>667</v>
       </c>
-      <c r="B87" s="21" cm="1">
-        <f t="array" ref="B87">INDEX(World!C:C,Basedata!C87)</f>
+      <c r="C87" s="21" cm="1">
+        <f t="array" ref="C87">INDEX(World!C:C,Basedata!D87)</f>
         <v>5518087</v>
       </c>
-      <c r="C87">
-        <f>MATCH(A87,World!B:B,0)</f>
+      <c r="D87">
+        <f>MATCH(B87,World!B:B,0)</f>
         <v>51</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="88" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
         <v>67</v>
       </c>
-      <c r="B88" s="21" cm="1">
-        <f t="array" ref="B88">INDEX(World!C:C,Basedata!C88)</f>
+      <c r="C88" s="21" cm="1">
+        <f t="array" ref="C88">INDEX(World!C:C,Basedata!D88)</f>
         <v>5094118</v>
       </c>
-      <c r="C88">
-        <f>MATCH(A88,World!B:B,0)</f>
+      <c r="D88">
+        <f>MATCH(B88,World!B:B,0)</f>
         <v>53</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="89" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
         <v>344</v>
       </c>
-      <c r="B89" s="21" cm="1">
-        <f t="array" ref="B89">INDEX(World!C:C,Basedata!C89)</f>
+      <c r="C89" s="21" cm="1">
+        <f t="array" ref="C89">INDEX(World!C:C,Basedata!D89)</f>
         <v>26378274</v>
       </c>
-      <c r="C89">
-        <f>MATCH(A89,World!B:B,0)</f>
+      <c r="D89">
+        <f>MATCH(B89,World!B:B,0)</f>
         <v>59</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="90" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
         <v>68</v>
       </c>
-      <c r="B90" s="21" cm="1">
-        <f t="array" ref="B90">INDEX(World!C:C,Basedata!C90)</f>
+      <c r="C90" s="21" cm="1">
+        <f t="array" ref="C90">INDEX(World!C:C,Basedata!D90)</f>
         <v>4105267</v>
       </c>
-      <c r="C90">
-        <f>MATCH(A90,World!B:B,0)</f>
+      <c r="D90">
+        <f>MATCH(B90,World!B:B,0)</f>
         <v>54</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="91" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
         <v>69</v>
       </c>
-      <c r="B91" s="21" cm="1">
-        <f t="array" ref="B91">INDEX(World!C:C,Basedata!C91)</f>
+      <c r="C91" s="21" cm="1">
+        <f t="array" ref="C91">INDEX(World!C:C,Basedata!D91)</f>
         <v>11326616</v>
       </c>
-      <c r="C91">
-        <f>MATCH(A91,World!B:B,0)</f>
+      <c r="D91">
+        <f>MATCH(B91,World!B:B,0)</f>
         <v>55</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="92" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
         <v>70</v>
       </c>
-      <c r="B92" s="21" cm="1">
-        <f t="array" ref="B92">INDEX(World!C:C,Basedata!C92)</f>
+      <c r="C92" s="21" cm="1">
+        <f t="array" ref="C92">INDEX(World!C:C,Basedata!D92)</f>
         <v>1207359</v>
       </c>
-      <c r="C92">
-        <f>MATCH(A92,World!B:B,0)</f>
+      <c r="D92">
+        <f>MATCH(B92,World!B:B,0)</f>
         <v>57</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="93" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
         <v>345</v>
       </c>
-      <c r="B93" s="21" cm="1">
-        <f t="array" ref="B93">INDEX(World!C:C,Basedata!C93)</f>
+      <c r="C93" s="21" cm="1">
+        <f t="array" ref="C93">INDEX(World!C:C,Basedata!D93)</f>
         <v>10708981</v>
       </c>
-      <c r="C93">
-        <f>MATCH(A93,World!B:B,0)</f>
+      <c r="D93">
+        <f>MATCH(B93,World!B:B,0)</f>
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="94" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
         <v>71</v>
       </c>
-      <c r="B94" s="21" cm="1">
-        <f t="array" ref="B94">INDEX(World!C:C,Basedata!C94)</f>
+      <c r="C94" s="21" cm="1">
+        <f t="array" ref="C94">INDEX(World!C:C,Basedata!D94)</f>
         <v>5792202</v>
       </c>
-      <c r="C94">
-        <f>MATCH(A94,World!B:B,0)</f>
+      <c r="D94">
+        <f>MATCH(B94,World!B:B,0)</f>
         <v>60</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="95" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
         <v>346</v>
       </c>
-      <c r="B95" s="22">
-        <f>B94-B96</f>
+      <c r="C95" s="22">
+        <f>C94-C96</f>
         <v>5742912</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="96" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
         <v>347</v>
       </c>
-      <c r="B96" s="22">
+      <c r="C96" s="22">
         <v>49290</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
         <v>74</v>
       </c>
-      <c r="B97" s="21" cm="1">
-        <f t="array" ref="B97">INDEX(World!C:C,Basedata!C97)</f>
+      <c r="C97" s="21" cm="1">
+        <f t="array" ref="C97">INDEX(World!C:C,Basedata!D97)</f>
         <v>10847910</v>
       </c>
-      <c r="C97">
-        <f>MATCH(A97,World!B:B,0)</f>
+      <c r="D97">
+        <f>MATCH(B97,World!B:B,0)</f>
         <v>63</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
         <v>75</v>
       </c>
-      <c r="B98" s="21" cm="1">
-        <f t="array" ref="B98">INDEX(World!C:C,Basedata!C98)</f>
+      <c r="C98" s="21" cm="1">
+        <f t="array" ref="C98">INDEX(World!C:C,Basedata!D98)</f>
         <v>17643054</v>
       </c>
-      <c r="C98">
-        <f>MATCH(A98,World!B:B,0)</f>
+      <c r="D98">
+        <f>MATCH(B98,World!B:B,0)</f>
         <v>65</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
         <v>76</v>
       </c>
-      <c r="B99" s="21" cm="1">
-        <f t="array" ref="B99">INDEX(World!C:C,Basedata!C99)</f>
+      <c r="C99" s="21" cm="1">
+        <f t="array" ref="C99">INDEX(World!C:C,Basedata!D99)</f>
         <v>102334404</v>
       </c>
-      <c r="C99">
-        <f>MATCH(A99,World!B:B,0)</f>
+      <c r="D99">
+        <f>MATCH(B99,World!B:B,0)</f>
         <v>66</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
         <v>80</v>
       </c>
-      <c r="B100" s="21" cm="1">
-        <f t="array" ref="B100">INDEX(World!C:C,Basedata!C100)</f>
+      <c r="C100" s="21" cm="1">
+        <f t="array" ref="C100">INDEX(World!C:C,Basedata!D100)</f>
         <v>1326535</v>
       </c>
-      <c r="C100">
-        <f>MATCH(A100,World!B:B,0)</f>
+      <c r="D100">
+        <f>MATCH(B100,World!B:B,0)</f>
         <v>70</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
         <v>81</v>
       </c>
-      <c r="B101" s="21" cm="1">
-        <f t="array" ref="B101">INDEX(World!C:C,Basedata!C101)</f>
+      <c r="C101" s="21" cm="1">
+        <f t="array" ref="C101">INDEX(World!C:C,Basedata!D101)</f>
         <v>1160164</v>
       </c>
-      <c r="C101">
-        <f>MATCH(A101,World!B:B,0)</f>
+      <c r="D101">
+        <f>MATCH(B101,World!B:B,0)</f>
         <v>71</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
         <v>82</v>
       </c>
-      <c r="B102" s="21" cm="1">
-        <f t="array" ref="B102">INDEX(World!C:C,Basedata!C102)</f>
+      <c r="C102" s="21" cm="1">
+        <f t="array" ref="C102">INDEX(World!C:C,Basedata!D102)</f>
         <v>114963588</v>
       </c>
-      <c r="C102">
-        <f>MATCH(A102,World!B:B,0)</f>
+      <c r="D102">
+        <f>MATCH(B102,World!B:B,0)</f>
         <v>72</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
         <v>86</v>
       </c>
-      <c r="B103" s="21" cm="1">
-        <f t="array" ref="B103">INDEX(World!C:C,Basedata!C103)</f>
+      <c r="C103" s="21" cm="1">
+        <f t="array" ref="C103">INDEX(World!C:C,Basedata!D103)</f>
         <v>5540720</v>
       </c>
-      <c r="C103">
-        <f>MATCH(A103,World!B:B,0)</f>
+      <c r="D103">
+        <f>MATCH(B103,World!B:B,0)</f>
         <v>76</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="52" t="s">
+        <v>682</v>
+      </c>
+      <c r="B104" t="s">
         <v>87</v>
       </c>
-      <c r="B104" s="21" cm="1">
-        <f t="array" ref="B104">INDEX(World!C:C,Basedata!C104)</f>
+      <c r="C104" s="21" cm="1">
+        <f t="array" ref="C104">INDEX(World!C:C,Basedata!D104)</f>
         <v>65273511</v>
       </c>
-      <c r="C104">
-        <f>MATCH(A104,World!B:B,0)</f>
+      <c r="D104">
+        <f>MATCH(B104,World!B:B,0)</f>
         <v>77</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
         <v>348</v>
       </c>
-      <c r="B105" s="22">
+      <c r="C105" s="22">
         <v>268700</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
         <v>349</v>
       </c>
-      <c r="B106" s="22">
-        <f>B104-B105-B108-B110-B111-B112</f>
+      <c r="C106" s="22">
+        <f>C104-C105-C108-C110-C111-C112</f>
         <v>64385922</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
         <v>668</v>
       </c>
-      <c r="B107" s="22">
+      <c r="C107" s="22">
         <v>290691</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
         <v>350</v>
       </c>
-      <c r="B108" s="22">
+      <c r="C108" s="22">
         <v>238007</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
         <v>669</v>
       </c>
-      <c r="B109" s="21" cm="1">
-        <f t="array" ref="B109">INDEX(World!C:C,Basedata!C109)</f>
+      <c r="C109" s="21" cm="1">
+        <f t="array" ref="C109">INDEX(World!C:C,Basedata!D109)</f>
         <v>272815</v>
       </c>
-      <c r="C109">
-        <f>MATCH(A109,World!B:B,0)</f>
+      <c r="D109">
+        <f>MATCH(B109,World!B:B,0)</f>
         <v>137</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
         <v>351</v>
       </c>
-      <c r="B110" s="22">
+      <c r="C110" s="22">
         <v>9961</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
         <v>352</v>
       </c>
-      <c r="B111" s="22">
+      <c r="C111" s="22">
         <v>72239</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
         <v>88</v>
       </c>
-      <c r="B112" s="21" cm="1">
-        <f t="array" ref="B112">INDEX(World!C:C,Basedata!C112)</f>
+      <c r="C112" s="21" cm="1">
+        <f t="array" ref="C112">INDEX(World!C:C,Basedata!D112)</f>
         <v>298682</v>
       </c>
-      <c r="C112">
-        <f>MATCH(A112,World!B:B,0)</f>
+      <c r="D112">
+        <f>MATCH(B112,World!B:B,0)</f>
         <v>78</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
         <v>90</v>
       </c>
-      <c r="B113" s="21" cm="1">
-        <f t="array" ref="B113">INDEX(World!C:C,Basedata!C113)</f>
+      <c r="C113" s="21" cm="1">
+        <f t="array" ref="C113">INDEX(World!C:C,Basedata!D113)</f>
         <v>2225734</v>
       </c>
-      <c r="C113">
-        <f>MATCH(A113,World!B:B,0)</f>
+      <c r="D113">
+        <f>MATCH(B113,World!B:B,0)</f>
         <v>80</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
         <v>92</v>
       </c>
-      <c r="B114" s="21" cm="1">
-        <f t="array" ref="B114">INDEX(World!C:C,Basedata!C114)</f>
+      <c r="C114" s="21" cm="1">
+        <f t="array" ref="C114">INDEX(World!C:C,Basedata!D114)</f>
         <v>3989167</v>
       </c>
-      <c r="C114">
-        <f>MATCH(A114,World!B:B,0)</f>
+      <c r="D114">
+        <f>MATCH(B114,World!B:B,0)</f>
         <v>82</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="52" t="s">
+        <v>682</v>
+      </c>
+      <c r="B115" t="s">
         <v>93</v>
       </c>
-      <c r="B115" s="21" cm="1">
-        <f t="array" ref="B115">INDEX(World!C:C,Basedata!C115)</f>
+      <c r="C115" s="21" cm="1">
+        <f t="array" ref="C115">INDEX(World!C:C,Basedata!D115)</f>
         <v>83783942</v>
       </c>
-      <c r="C115">
-        <f>MATCH(A115,World!B:B,0)</f>
+      <c r="D115">
+        <f>MATCH(B115,World!B:B,0)</f>
         <v>83</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
         <v>94</v>
       </c>
-      <c r="B116" s="21" cm="1">
-        <f t="array" ref="B116">INDEX(World!C:C,Basedata!C116)</f>
+      <c r="C116" s="21" cm="1">
+        <f t="array" ref="C116">INDEX(World!C:C,Basedata!D116)</f>
         <v>31072940</v>
       </c>
-      <c r="C116">
-        <f>MATCH(A116,World!B:B,0)</f>
+      <c r="D116">
+        <f>MATCH(B116,World!B:B,0)</f>
         <v>84</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
         <v>96</v>
       </c>
-      <c r="B117" s="21" cm="1">
-        <f t="array" ref="B117">INDEX(World!C:C,Basedata!C117)</f>
+      <c r="C117" s="21" cm="1">
+        <f t="array" ref="C117">INDEX(World!C:C,Basedata!D117)</f>
         <v>10423054</v>
       </c>
-      <c r="C117">
-        <f>MATCH(A117,World!B:B,0)</f>
+      <c r="D117">
+        <f>MATCH(B117,World!B:B,0)</f>
         <v>86</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
         <v>681</v>
       </c>
-      <c r="B118" s="51">
+      <c r="C118" s="51">
         <v>390253</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
         <v>680</v>
       </c>
-      <c r="B119" s="21" cm="1">
-        <f t="array" ref="B119">INDEX(World!C:C,Basedata!C119)</f>
+      <c r="C119" s="21" cm="1">
+        <f t="array" ref="C119">INDEX(World!C:C,Basedata!D119)</f>
         <v>400124</v>
       </c>
-      <c r="C119">
-        <f>MATCH(A119,World!B:B,0)</f>
+      <c r="D119">
+        <f>MATCH(B119,World!B:B,0)</f>
         <v>89</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
         <v>100</v>
       </c>
-      <c r="B120" s="21" cm="1">
-        <f t="array" ref="B120">INDEX(World!C:C,Basedata!C120)</f>
+      <c r="C120" s="21" cm="1">
+        <f t="array" ref="C120">INDEX(World!C:C,Basedata!D120)</f>
         <v>17915568</v>
       </c>
-      <c r="C120">
-        <f>MATCH(A120,World!B:B,0)</f>
+      <c r="D120">
+        <f>MATCH(B120,World!B:B,0)</f>
         <v>91</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
         <v>353</v>
       </c>
-      <c r="B121" s="22">
+      <c r="C121" s="22">
         <v>62307</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
         <v>101</v>
       </c>
-      <c r="B122" s="21" cm="1">
-        <f t="array" ref="B122">INDEX(World!C:C,Basedata!C122)</f>
+      <c r="C122" s="21" cm="1">
+        <f t="array" ref="C122">INDEX(World!C:C,Basedata!D122)</f>
         <v>13132795</v>
       </c>
-      <c r="C122">
-        <f>MATCH(A122,World!B:B,0)</f>
+      <c r="D122">
+        <f>MATCH(B122,World!B:B,0)</f>
         <v>92</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
         <v>103</v>
       </c>
-      <c r="B123" s="21" cm="1">
-        <f t="array" ref="B123">INDEX(World!C:C,Basedata!C123)</f>
+      <c r="C123" s="21" cm="1">
+        <f t="array" ref="C123">INDEX(World!C:C,Basedata!D123)</f>
         <v>786552</v>
       </c>
-      <c r="C123">
-        <f>MATCH(A123,World!B:B,0)</f>
+      <c r="D123">
+        <f>MATCH(B123,World!B:B,0)</f>
         <v>94</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
         <v>78</v>
       </c>
-      <c r="B124" s="21" cm="1">
-        <f t="array" ref="B124">INDEX(World!C:C,Basedata!C124)</f>
+      <c r="C124" s="21" cm="1">
+        <f t="array" ref="C124">INDEX(World!C:C,Basedata!D124)</f>
         <v>1402985</v>
       </c>
-      <c r="C124">
-        <f>MATCH(A124,World!B:B,0)</f>
+      <c r="D124">
+        <f>MATCH(B124,World!B:B,0)</f>
         <v>68</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
         <v>105</v>
       </c>
-      <c r="B125" s="21" cm="1">
-        <f t="array" ref="B125">INDEX(World!C:C,Basedata!C125)</f>
+      <c r="C125" s="21" cm="1">
+        <f t="array" ref="C125">INDEX(World!C:C,Basedata!D125)</f>
         <v>801</v>
       </c>
-      <c r="C125">
-        <f>MATCH(A125,World!B:B,0)</f>
+      <c r="D125">
+        <f>MATCH(B125,World!B:B,0)</f>
         <v>96</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
         <v>106</v>
       </c>
-      <c r="B126" s="21" cm="1">
-        <f t="array" ref="B126">INDEX(World!C:C,Basedata!C126)</f>
+      <c r="C126" s="21" cm="1">
+        <f t="array" ref="C126">INDEX(World!C:C,Basedata!D126)</f>
         <v>9904607</v>
       </c>
-      <c r="C126">
-        <f>MATCH(A126,World!B:B,0)</f>
+      <c r="D126">
+        <f>MATCH(B126,World!B:B,0)</f>
         <v>97</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
         <v>108</v>
       </c>
-      <c r="B127" s="21" cm="1">
-        <f t="array" ref="B127">INDEX(World!C:C,Basedata!C127)</f>
+      <c r="C127" s="21" cm="1">
+        <f t="array" ref="C127">INDEX(World!C:C,Basedata!D127)</f>
         <v>9660351</v>
       </c>
-      <c r="C127">
-        <f>MATCH(A127,World!B:B,0)</f>
+      <c r="D127">
+        <f>MATCH(B127,World!B:B,0)</f>
         <v>99</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
         <v>109</v>
       </c>
-      <c r="B128" s="21" cm="1">
-        <f t="array" ref="B128">INDEX(World!C:C,Basedata!C128)</f>
+      <c r="C128" s="21" cm="1">
+        <f t="array" ref="C128">INDEX(World!C:C,Basedata!D128)</f>
         <v>341243</v>
       </c>
-      <c r="C128">
-        <f>MATCH(A128,World!B:B,0)</f>
+      <c r="D128">
+        <f>MATCH(B128,World!B:B,0)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="52" t="s">
+        <v>682</v>
+      </c>
+      <c r="B129" t="s">
         <v>110</v>
       </c>
-      <c r="B129" s="21" cm="1">
-        <f t="array" ref="B129">INDEX(World!C:C,Basedata!C129)</f>
+      <c r="C129" s="21" cm="1">
+        <f t="array" ref="C129">INDEX(World!C:C,Basedata!D129)</f>
         <v>1380004385</v>
       </c>
-      <c r="C129">
-        <f>MATCH(A129,World!B:B,0)</f>
+      <c r="D129">
+        <f>MATCH(B129,World!B:B,0)</f>
         <v>101</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
         <v>111</v>
       </c>
-      <c r="B130" s="21" cm="1">
-        <f t="array" ref="B130">INDEX(World!C:C,Basedata!C130)</f>
+      <c r="C130" s="21" cm="1">
+        <f t="array" ref="C130">INDEX(World!C:C,Basedata!D130)</f>
         <v>273523615</v>
       </c>
-      <c r="C130">
-        <f>MATCH(A130,World!B:B,0)</f>
+      <c r="D130">
+        <f>MATCH(B130,World!B:B,0)</f>
         <v>102</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="52" t="s">
+        <v>682</v>
+      </c>
+      <c r="B131" t="s">
         <v>112</v>
       </c>
-      <c r="B131" s="21" cm="1">
-        <f t="array" ref="B131">INDEX(World!C:C,Basedata!C131)</f>
+      <c r="C131" s="21" cm="1">
+        <f t="array" ref="C131">INDEX(World!C:C,Basedata!D131)</f>
         <v>83992949</v>
       </c>
-      <c r="C131">
-        <f>MATCH(A131,World!B:B,0)</f>
+      <c r="D131">
+        <f>MATCH(B131,World!B:B,0)</f>
         <v>103</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
         <v>113</v>
       </c>
-      <c r="B132" s="21" cm="1">
-        <f t="array" ref="B132">INDEX(World!C:C,Basedata!C132)</f>
+      <c r="C132" s="21" cm="1">
+        <f t="array" ref="C132">INDEX(World!C:C,Basedata!D132)</f>
         <v>40222493</v>
       </c>
-      <c r="C132">
-        <f>MATCH(A132,World!B:B,0)</f>
+      <c r="D132">
+        <f>MATCH(B132,World!B:B,0)</f>
         <v>104</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
         <v>114</v>
       </c>
-      <c r="B133" s="21" cm="1">
-        <f t="array" ref="B133">INDEX(World!C:C,Basedata!C133)</f>
+      <c r="C133" s="21" cm="1">
+        <f t="array" ref="C133">INDEX(World!C:C,Basedata!D133)</f>
         <v>4937786</v>
       </c>
-      <c r="C133">
-        <f>MATCH(A133,World!B:B,0)</f>
+      <c r="D133">
+        <f>MATCH(B133,World!B:B,0)</f>
         <v>105</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
         <v>116</v>
       </c>
-      <c r="B134" s="21" cm="1">
-        <f t="array" ref="B134">INDEX(World!C:C,Basedata!C134)</f>
+      <c r="C134" s="21" cm="1">
+        <f t="array" ref="C134">INDEX(World!C:C,Basedata!D134)</f>
         <v>8655535</v>
       </c>
-      <c r="C134">
-        <f>MATCH(A134,World!B:B,0)</f>
+      <c r="D134">
+        <f>MATCH(B134,World!B:B,0)</f>
         <v>107</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="52" t="s">
+        <v>682</v>
+      </c>
+      <c r="B135" t="s">
         <v>117</v>
       </c>
-      <c r="B135" s="21" cm="1">
-        <f t="array" ref="B135">INDEX(World!C:C,Basedata!C135)</f>
+      <c r="C135" s="21" cm="1">
+        <f t="array" ref="C135">INDEX(World!C:C,Basedata!D135)</f>
         <v>60461826</v>
       </c>
-      <c r="C135">
-        <f>MATCH(A135,World!B:B,0)</f>
+      <c r="D135">
+        <f>MATCH(B135,World!B:B,0)</f>
         <v>108</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
         <v>118</v>
       </c>
-      <c r="B136" s="21" cm="1">
-        <f t="array" ref="B136">INDEX(World!C:C,Basedata!C136)</f>
+      <c r="C136" s="21" cm="1">
+        <f t="array" ref="C136">INDEX(World!C:C,Basedata!D136)</f>
         <v>2961167</v>
       </c>
-      <c r="C136">
-        <f>MATCH(A136,World!B:B,0)</f>
+      <c r="D136">
+        <f>MATCH(B136,World!B:B,0)</f>
         <v>109</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
         <v>119</v>
       </c>
-      <c r="B137" s="21" cm="1">
-        <f t="array" ref="B137">INDEX(World!C:C,Basedata!C137)</f>
+      <c r="C137" s="21" cm="1">
+        <f t="array" ref="C137">INDEX(World!C:C,Basedata!D137)</f>
         <v>126476461</v>
       </c>
-      <c r="C137">
-        <f>MATCH(A137,World!B:B,0)</f>
+      <c r="D137">
+        <f>MATCH(B137,World!B:B,0)</f>
         <v>110</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
         <v>354</v>
       </c>
-      <c r="B138" s="22">
+      <c r="C138" s="22">
         <v>102700</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
         <v>120</v>
       </c>
-      <c r="B139" s="21" cm="1">
-        <f t="array" ref="B139">INDEX(World!C:C,Basedata!C139)</f>
+      <c r="C139" s="21" cm="1">
+        <f t="array" ref="C139">INDEX(World!C:C,Basedata!D139)</f>
         <v>10203134</v>
       </c>
-      <c r="C139">
-        <f>MATCH(A139,World!B:B,0)</f>
+      <c r="D139">
+        <f>MATCH(B139,World!B:B,0)</f>
         <v>111</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
         <v>121</v>
       </c>
-      <c r="B140" s="21" cm="1">
-        <f t="array" ref="B140">INDEX(World!C:C,Basedata!C140)</f>
+      <c r="C140" s="21" cm="1">
+        <f t="array" ref="C140">INDEX(World!C:C,Basedata!D140)</f>
         <v>18776707</v>
       </c>
-      <c r="C140">
-        <f>MATCH(A140,World!B:B,0)</f>
+      <c r="D140">
+        <f>MATCH(B140,World!B:B,0)</f>
         <v>112</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
         <v>122</v>
       </c>
-      <c r="B141" s="21" cm="1">
-        <f t="array" ref="B141">INDEX(World!C:C,Basedata!C141)</f>
+      <c r="C141" s="21" cm="1">
+        <f t="array" ref="C141">INDEX(World!C:C,Basedata!D141)</f>
         <v>53771296</v>
       </c>
-      <c r="C141">
-        <f>MATCH(A141,World!B:B,0)</f>
+      <c r="D141">
+        <f>MATCH(B141,World!B:B,0)</f>
         <v>113</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="52" t="s">
+        <v>682</v>
+      </c>
+      <c r="B142" t="s">
         <v>355</v>
       </c>
-      <c r="B142" s="21" cm="1">
-        <f t="array" ref="B142">INDEX(World!C:C,Basedata!C142)</f>
+      <c r="C142" s="21" cm="1">
+        <f t="array" ref="C142">INDEX(World!C:C,Basedata!D142)</f>
         <v>51269185</v>
       </c>
-      <c r="C142">
-        <f>MATCH(A142,World!B:B,0)</f>
+      <c r="D142">
+        <f>MATCH(B142,World!B:B,0)</f>
         <v>199</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
         <v>670</v>
       </c>
-      <c r="B143" s="22">
+      <c r="C143" s="22">
         <v>1810463</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
         <v>124</v>
       </c>
-      <c r="B144" s="21" cm="1">
-        <f t="array" ref="B144">INDEX(World!C:C,Basedata!C144)</f>
+      <c r="C144" s="21" cm="1">
+        <f t="array" ref="C144">INDEX(World!C:C,Basedata!D144)</f>
         <v>4270571</v>
       </c>
-      <c r="C144">
-        <f>MATCH(A144,World!B:B,0)</f>
+      <c r="D144">
+        <f>MATCH(B144,World!B:B,0)</f>
         <v>115</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+    <row r="145" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
         <v>127</v>
       </c>
-      <c r="B145" s="21" cm="1">
-        <f t="array" ref="B145">INDEX(World!C:C,Basedata!C145)</f>
+      <c r="C145" s="21" cm="1">
+        <f t="array" ref="C145">INDEX(World!C:C,Basedata!D145)</f>
         <v>1886198</v>
       </c>
-      <c r="C145">
-        <f>MATCH(A145,World!B:B,0)</f>
+      <c r="D145">
+        <f>MATCH(B145,World!B:B,0)</f>
         <v>118</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+    <row r="146" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
         <v>128</v>
       </c>
-      <c r="B146" s="21" cm="1">
-        <f t="array" ref="B146">INDEX(World!C:C,Basedata!C146)</f>
+      <c r="C146" s="21" cm="1">
+        <f t="array" ref="C146">INDEX(World!C:C,Basedata!D146)</f>
         <v>6825445</v>
       </c>
-      <c r="C146">
-        <f>MATCH(A146,World!B:B,0)</f>
+      <c r="D146">
+        <f>MATCH(B146,World!B:B,0)</f>
         <v>119</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+    <row r="147" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
         <v>132</v>
       </c>
-      <c r="B147" s="21" cm="1">
-        <f t="array" ref="B147">INDEX(World!C:C,Basedata!C147)</f>
+      <c r="C147" s="21" cm="1">
+        <f t="array" ref="C147">INDEX(World!C:C,Basedata!D147)</f>
         <v>38128</v>
       </c>
-      <c r="C147">
-        <f>MATCH(A147,World!B:B,0)</f>
+      <c r="D147">
+        <f>MATCH(B147,World!B:B,0)</f>
         <v>123</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+    <row r="148" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
         <v>133</v>
       </c>
-      <c r="B148" s="21" cm="1">
-        <f t="array" ref="B148">INDEX(World!C:C,Basedata!C148)</f>
+      <c r="C148" s="21" cm="1">
+        <f t="array" ref="C148">INDEX(World!C:C,Basedata!D148)</f>
         <v>2722289</v>
       </c>
-      <c r="C148">
-        <f>MATCH(A148,World!B:B,0)</f>
+      <c r="D148">
+        <f>MATCH(B148,World!B:B,0)</f>
         <v>124</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+    <row r="149" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
         <v>134</v>
       </c>
-      <c r="B149" s="21" cm="1">
-        <f t="array" ref="B149">INDEX(World!C:C,Basedata!C149)</f>
+      <c r="C149" s="21" cm="1">
+        <f t="array" ref="C149">INDEX(World!C:C,Basedata!D149)</f>
         <v>625978</v>
       </c>
-      <c r="C149">
-        <f>MATCH(A149,World!B:B,0)</f>
+      <c r="D149">
+        <f>MATCH(B149,World!B:B,0)</f>
         <v>125</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+    <row r="150" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
         <v>138</v>
       </c>
-      <c r="B150" s="21" cm="1">
-        <f t="array" ref="B150">INDEX(World!C:C,Basedata!C150)</f>
+      <c r="C150" s="21" cm="1">
+        <f t="array" ref="C150">INDEX(World!C:C,Basedata!D150)</f>
         <v>32365999</v>
       </c>
-      <c r="C150">
-        <f>MATCH(A150,World!B:B,0)</f>
+      <c r="D150">
+        <f>MATCH(B150,World!B:B,0)</f>
         <v>129</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+    <row r="151" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
         <v>139</v>
       </c>
-      <c r="B151" s="21" cm="1">
-        <f t="array" ref="B151">INDEX(World!C:C,Basedata!C151)</f>
+      <c r="C151" s="21" cm="1">
+        <f t="array" ref="C151">INDEX(World!C:C,Basedata!D151)</f>
         <v>540544</v>
       </c>
-      <c r="C151">
-        <f>MATCH(A151,World!B:B,0)</f>
+      <c r="D151">
+        <f>MATCH(B151,World!B:B,0)</f>
         <v>130</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+    <row r="152" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
         <v>141</v>
       </c>
-      <c r="B152" s="21" cm="1">
-        <f t="array" ref="B152">INDEX(World!C:C,Basedata!C152)</f>
+      <c r="C152" s="21" cm="1">
+        <f t="array" ref="C152">INDEX(World!C:C,Basedata!D152)</f>
         <v>441543</v>
       </c>
-      <c r="C152">
-        <f>MATCH(A152,World!B:B,0)</f>
+      <c r="D152">
+        <f>MATCH(B152,World!B:B,0)</f>
         <v>132</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+    <row r="153" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
         <v>143</v>
       </c>
-      <c r="B153" s="21" cm="1">
-        <f t="array" ref="B153">INDEX(World!C:C,Basedata!C153)</f>
+      <c r="C153" s="21" cm="1">
+        <f t="array" ref="C153">INDEX(World!C:C,Basedata!D153)</f>
         <v>375265</v>
       </c>
-      <c r="C153">
-        <f>MATCH(A153,World!B:B,0)</f>
+      <c r="D153">
+        <f>MATCH(B153,World!B:B,0)</f>
         <v>134</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+    <row r="154" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
         <v>144</v>
       </c>
-      <c r="B154" s="21" cm="1">
-        <f t="array" ref="B154">INDEX(World!C:C,Basedata!C154)</f>
+      <c r="C154" s="21" cm="1">
+        <f t="array" ref="C154">INDEX(World!C:C,Basedata!D154)</f>
         <v>4649658</v>
       </c>
-      <c r="C154">
-        <f>MATCH(A154,World!B:B,0)</f>
+      <c r="D154">
+        <f>MATCH(B154,World!B:B,0)</f>
         <v>135</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+    <row r="155" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
         <v>672</v>
       </c>
-      <c r="B155" s="51">
+      <c r="C155" s="51">
         <v>272815</v>
       </c>
-      <c r="D155" t="s">
+      <c r="E155" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+    <row r="156" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
         <v>146</v>
       </c>
-      <c r="B156" s="21" cm="1">
-        <f t="array" ref="B156">INDEX(World!C:C,Basedata!C156)</f>
+      <c r="C156" s="21" cm="1">
+        <f t="array" ref="C156">INDEX(World!C:C,Basedata!D156)</f>
         <v>128932753</v>
       </c>
-      <c r="C156">
-        <f>MATCH(A156,World!B:B,0)</f>
+      <c r="D156">
+        <f>MATCH(B156,World!B:B,0)</f>
         <v>138</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+    <row r="157" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
         <v>148</v>
       </c>
-      <c r="B157" s="21" cm="1">
-        <f t="array" ref="B157">INDEX(World!C:C,Basedata!C157)</f>
+      <c r="C157" s="21" cm="1">
+        <f t="array" ref="C157">INDEX(World!C:C,Basedata!D157)</f>
         <v>4033963</v>
       </c>
-      <c r="C157">
-        <f>MATCH(A157,World!B:B,0)</f>
+      <c r="D157">
+        <f>MATCH(B157,World!B:B,0)</f>
         <v>140</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+    <row r="158" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
         <v>149</v>
       </c>
-      <c r="B158" s="21" cm="1">
-        <f t="array" ref="B158">INDEX(World!C:C,Basedata!C158)</f>
+      <c r="C158" s="21" cm="1">
+        <f t="array" ref="C158">INDEX(World!C:C,Basedata!D158)</f>
         <v>39242</v>
       </c>
-      <c r="C158">
-        <f>MATCH(A158,World!B:B,0)</f>
+      <c r="D158">
+        <f>MATCH(B158,World!B:B,0)</f>
         <v>141</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+    <row r="159" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
         <v>150</v>
       </c>
-      <c r="B159" s="21" cm="1">
-        <f t="array" ref="B159">INDEX(World!C:C,Basedata!C159)</f>
+      <c r="C159" s="21" cm="1">
+        <f t="array" ref="C159">INDEX(World!C:C,Basedata!D159)</f>
         <v>3278290</v>
       </c>
-      <c r="C159">
-        <f>MATCH(A159,World!B:B,0)</f>
+      <c r="D159">
+        <f>MATCH(B159,World!B:B,0)</f>
         <v>142</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+    <row r="160" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
         <v>153</v>
       </c>
-      <c r="B160" s="21" cm="1">
-        <f t="array" ref="B160">INDEX(World!C:C,Basedata!C160)</f>
+      <c r="C160" s="21" cm="1">
+        <f t="array" ref="C160">INDEX(World!C:C,Basedata!D160)</f>
         <v>36910560</v>
       </c>
-      <c r="C160">
-        <f>MATCH(A160,World!B:B,0)</f>
+      <c r="D160">
+        <f>MATCH(B160,World!B:B,0)</f>
         <v>145</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+    <row r="161" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
         <v>156</v>
       </c>
-      <c r="B161" s="21" cm="1">
-        <f t="array" ref="B161">INDEX(World!C:C,Basedata!C161)</f>
+      <c r="C161" s="21" cm="1">
+        <f t="array" ref="C161">INDEX(World!C:C,Basedata!D161)</f>
         <v>2540905</v>
       </c>
-      <c r="C161">
-        <f>MATCH(A161,World!B:B,0)</f>
+      <c r="D161">
+        <f>MATCH(B161,World!B:B,0)</f>
         <v>148</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+    <row r="162" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
         <v>158</v>
       </c>
-      <c r="B162" s="21" cm="1">
-        <f t="array" ref="B162">INDEX(World!C:C,Basedata!C162)</f>
+      <c r="C162" s="21" cm="1">
+        <f t="array" ref="C162">INDEX(World!C:C,Basedata!D162)</f>
         <v>29136808</v>
       </c>
-      <c r="C162">
-        <f>MATCH(A162,World!B:B,0)</f>
+      <c r="D162">
+        <f>MATCH(B162,World!B:B,0)</f>
         <v>150</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+    <row r="163" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
         <v>159</v>
       </c>
-      <c r="B163" s="21" cm="1">
-        <f t="array" ref="B163">INDEX(World!C:C,Basedata!C163)</f>
+      <c r="C163" s="21" cm="1">
+        <f t="array" ref="C163">INDEX(World!C:C,Basedata!D163)</f>
         <v>17134872</v>
       </c>
-      <c r="C163">
-        <f>MATCH(A163,World!B:B,0)</f>
+      <c r="D163">
+        <f>MATCH(B163,World!B:B,0)</f>
         <v>151</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+    <row r="164" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
         <v>675</v>
       </c>
-      <c r="B164" s="22">
-        <f>B163-B165</f>
+      <c r="C164" s="22">
+        <f>C163-C165</f>
         <v>16970779</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+    <row r="165" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
         <v>674</v>
       </c>
-      <c r="B165" s="21" cm="1">
-        <f t="array" ref="B165">INDEX(World!C:C,Basedata!C165)</f>
+      <c r="C165" s="21" cm="1">
+        <f t="array" ref="C165">INDEX(World!C:C,Basedata!D165)</f>
         <v>164093</v>
       </c>
-      <c r="C165">
-        <f>MATCH(A165,World!B:B,0)</f>
+      <c r="D165">
+        <f>MATCH(B165,World!B:B,0)</f>
         <v>56</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+    <row r="166" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
         <v>161</v>
       </c>
-      <c r="B166" s="21" cm="1">
-        <f t="array" ref="B166">INDEX(World!C:C,Basedata!C166)</f>
+      <c r="C166" s="21" cm="1">
+        <f t="array" ref="C166">INDEX(World!C:C,Basedata!D166)</f>
         <v>4822233</v>
       </c>
-      <c r="C166">
-        <f>MATCH(A166,World!B:B,0)</f>
+      <c r="D166">
+        <f>MATCH(B166,World!B:B,0)</f>
         <v>153</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+    <row r="167" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
         <v>164</v>
       </c>
-      <c r="B167" s="21" cm="1">
-        <f t="array" ref="B167">INDEX(World!C:C,Basedata!C167)</f>
+      <c r="C167" s="21" cm="1">
+        <f t="array" ref="C167">INDEX(World!C:C,Basedata!D167)</f>
         <v>206139589</v>
       </c>
-      <c r="C167">
-        <f>MATCH(A167,World!B:B,0)</f>
+      <c r="D167">
+        <f>MATCH(B167,World!B:B,0)</f>
         <v>156</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+    <row r="168" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
         <v>167</v>
       </c>
-      <c r="B168" s="21" cm="1">
-        <f t="array" ref="B168">INDEX(World!C:C,Basedata!C168)</f>
+      <c r="C168" s="21" cm="1">
+        <f t="array" ref="C168">INDEX(World!C:C,Basedata!D168)</f>
         <v>2083374</v>
       </c>
-      <c r="C168">
-        <f>MATCH(A168,World!B:B,0)</f>
+      <c r="D168">
+        <f>MATCH(B168,World!B:B,0)</f>
         <v>159</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+    <row r="169" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
         <v>169</v>
       </c>
-      <c r="B169" s="21" cm="1">
-        <f t="array" ref="B169">INDEX(World!C:C,Basedata!C169)</f>
+      <c r="C169" s="21" cm="1">
+        <f t="array" ref="C169">INDEX(World!C:C,Basedata!D169)</f>
         <v>5421241</v>
       </c>
-      <c r="C169">
-        <f>MATCH(A169,World!B:B,0)</f>
+      <c r="D169">
+        <f>MATCH(B169,World!B:B,0)</f>
         <v>161</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+    <row r="170" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
         <v>170</v>
       </c>
-      <c r="B170" s="21" cm="1">
-        <f t="array" ref="B170">INDEX(World!C:C,Basedata!C170)</f>
+      <c r="C170" s="21" cm="1">
+        <f t="array" ref="C170">INDEX(World!C:C,Basedata!D170)</f>
         <v>5106626</v>
       </c>
-      <c r="C170">
-        <f>MATCH(A170,World!B:B,0)</f>
+      <c r="D170">
+        <f>MATCH(B170,World!B:B,0)</f>
         <v>162</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+    <row r="171" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
         <v>171</v>
       </c>
-      <c r="B171" s="21" cm="1">
-        <f t="array" ref="B171">INDEX(World!C:C,Basedata!C171)</f>
+      <c r="C171" s="21" cm="1">
+        <f t="array" ref="C171">INDEX(World!C:C,Basedata!D171)</f>
         <v>220892340</v>
       </c>
-      <c r="C171">
-        <f>MATCH(A171,World!B:B,0)</f>
+      <c r="D171">
+        <f>MATCH(B171,World!B:B,0)</f>
         <v>163</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+    <row r="172" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
         <v>173</v>
       </c>
-      <c r="B172" s="21" cm="1">
-        <f t="array" ref="B172">INDEX(World!C:C,Basedata!C172)</f>
+      <c r="C172" s="21" cm="1">
+        <f t="array" ref="C172">INDEX(World!C:C,Basedata!D172)</f>
         <v>4314767</v>
       </c>
-      <c r="C172">
-        <f>MATCH(A172,World!B:B,0)</f>
+      <c r="D172">
+        <f>MATCH(B172,World!B:B,0)</f>
         <v>165</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+    <row r="173" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
         <v>175</v>
       </c>
-      <c r="B173" s="21" cm="1">
-        <f t="array" ref="B173">INDEX(World!C:C,Basedata!C173)</f>
+      <c r="C173" s="21" cm="1">
+        <f t="array" ref="C173">INDEX(World!C:C,Basedata!D173)</f>
         <v>7132538</v>
       </c>
-      <c r="C173">
-        <f>MATCH(A173,World!B:B,0)</f>
+      <c r="D173">
+        <f>MATCH(B173,World!B:B,0)</f>
         <v>167</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+    <row r="174" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
         <v>176</v>
       </c>
-      <c r="B174" s="21" cm="1">
-        <f t="array" ref="B174">INDEX(World!C:C,Basedata!C174)</f>
+      <c r="C174" s="21" cm="1">
+        <f t="array" ref="C174">INDEX(World!C:C,Basedata!D174)</f>
         <v>32971854</v>
       </c>
-      <c r="C174">
-        <f>MATCH(A174,World!B:B,0)</f>
+      <c r="D174">
+        <f>MATCH(B174,World!B:B,0)</f>
         <v>168</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+    <row r="175" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B175" t="s">
         <v>177</v>
       </c>
-      <c r="B175" s="21" cm="1">
-        <f t="array" ref="B175">INDEX(World!C:C,Basedata!C175)</f>
+      <c r="C175" s="21" cm="1">
+        <f t="array" ref="C175">INDEX(World!C:C,Basedata!D175)</f>
         <v>109581078</v>
       </c>
-      <c r="C175">
-        <f>MATCH(A175,World!B:B,0)</f>
+      <c r="D175">
+        <f>MATCH(B175,World!B:B,0)</f>
         <v>169</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+    <row r="176" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
         <v>178</v>
       </c>
-      <c r="B176" s="21" cm="1">
-        <f t="array" ref="B176">INDEX(World!C:C,Basedata!C176)</f>
+      <c r="C176" s="21" cm="1">
+        <f t="array" ref="C176">INDEX(World!C:C,Basedata!D176)</f>
         <v>37846611</v>
       </c>
-      <c r="C176">
-        <f>MATCH(A176,World!B:B,0)</f>
+      <c r="D176">
+        <f>MATCH(B176,World!B:B,0)</f>
         <v>170</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+    <row r="177" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B177" t="s">
         <v>179</v>
       </c>
-      <c r="B177" s="21" cm="1">
-        <f t="array" ref="B177">INDEX(World!C:C,Basedata!C177)</f>
+      <c r="C177" s="21" cm="1">
+        <f t="array" ref="C177">INDEX(World!C:C,Basedata!D177)</f>
         <v>10196709</v>
       </c>
-      <c r="C177">
-        <f>MATCH(A177,World!B:B,0)</f>
+      <c r="D177">
+        <f>MATCH(B177,World!B:B,0)</f>
         <v>171</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+    <row r="178" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
         <v>181</v>
       </c>
-      <c r="B178" s="21" cm="1">
-        <f t="array" ref="B178">INDEX(World!C:C,Basedata!C178)</f>
+      <c r="C178" s="21" cm="1">
+        <f t="array" ref="C178">INDEX(World!C:C,Basedata!D178)</f>
         <v>2881053</v>
       </c>
-      <c r="C178">
-        <f>MATCH(A178,World!B:B,0)</f>
+      <c r="D178">
+        <f>MATCH(B178,World!B:B,0)</f>
         <v>173</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+    <row r="179" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B179" t="s">
         <v>356</v>
       </c>
-      <c r="B179" s="21" cm="1">
-        <f t="array" ref="B179">INDEX(World!C:C,Basedata!C179)</f>
+      <c r="C179" s="21" cm="1">
+        <f t="array" ref="C179">INDEX(World!C:C,Basedata!D179)</f>
         <v>895312</v>
       </c>
-      <c r="C179">
-        <f>MATCH(A179,World!B:B,0)</f>
+      <c r="D179">
+        <f>MATCH(B179,World!B:B,0)</f>
         <v>177</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+    <row r="180" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B180" t="s">
         <v>182</v>
       </c>
-      <c r="B180" s="21" cm="1">
-        <f t="array" ref="B180">INDEX(World!C:C,Basedata!C180)</f>
+      <c r="C180" s="21" cm="1">
+        <f t="array" ref="C180">INDEX(World!C:C,Basedata!D180)</f>
         <v>19237691</v>
       </c>
-      <c r="C180">
-        <f>MATCH(A180,World!B:B,0)</f>
+      <c r="D180">
+        <f>MATCH(B180,World!B:B,0)</f>
         <v>174</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+    <row r="181" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
         <v>183</v>
       </c>
-      <c r="B181" s="21" cm="1">
-        <f t="array" ref="B181">INDEX(World!C:C,Basedata!C181)</f>
+      <c r="C181" s="21" cm="1">
+        <f t="array" ref="C181">INDEX(World!C:C,Basedata!D181)</f>
         <v>145934462</v>
       </c>
-      <c r="C181">
-        <f>MATCH(A181,World!B:B,0)</f>
+      <c r="D181">
+        <f>MATCH(B181,World!B:B,0)</f>
         <v>175</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+    <row r="182" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
         <v>184</v>
       </c>
-      <c r="B182" s="21" cm="1">
-        <f t="array" ref="B182">INDEX(World!C:C,Basedata!C182)</f>
+      <c r="C182" s="21" cm="1">
+        <f t="array" ref="C182">INDEX(World!C:C,Basedata!D182)</f>
         <v>12952218</v>
       </c>
-      <c r="C182">
-        <f>MATCH(A182,World!B:B,0)</f>
+      <c r="D182">
+        <f>MATCH(B182,World!B:B,0)</f>
         <v>176</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+    <row r="183" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
         <v>188</v>
       </c>
-      <c r="B183" s="21" cm="1">
-        <f t="array" ref="B183">INDEX(World!C:C,Basedata!C183)</f>
+      <c r="C183" s="21" cm="1">
+        <f t="array" ref="C183">INDEX(World!C:C,Basedata!D183)</f>
         <v>183627</v>
       </c>
-      <c r="C183">
-        <f>MATCH(A183,World!B:B,0)</f>
+      <c r="D183">
+        <f>MATCH(B183,World!B:B,0)</f>
         <v>181</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+    <row r="184" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B184" t="s">
         <v>357</v>
       </c>
-      <c r="B184" s="21" cm="1">
-        <f t="array" ref="B184">INDEX(World!C:C,Basedata!C184)</f>
+      <c r="C184" s="21" cm="1">
+        <f t="array" ref="C184">INDEX(World!C:C,Basedata!D184)</f>
         <v>110940</v>
       </c>
-      <c r="C184">
-        <f>MATCH(A184,World!B:B,0)</f>
+      <c r="D184">
+        <f>MATCH(B184,World!B:B,0)</f>
         <v>203</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+    <row r="185" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B185" t="s">
         <v>192</v>
       </c>
-      <c r="B185" s="21" cm="1">
-        <f t="array" ref="B185">INDEX(World!C:C,Basedata!C185)</f>
+      <c r="C185" s="21" cm="1">
+        <f t="array" ref="C185">INDEX(World!C:C,Basedata!D185)</f>
         <v>33931</v>
       </c>
-      <c r="C185">
-        <f>MATCH(A185,World!B:B,0)</f>
+      <c r="D185">
+        <f>MATCH(B185,World!B:B,0)</f>
         <v>185</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+    <row r="186" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
         <v>194</v>
       </c>
-      <c r="B186" s="21" cm="1">
-        <f t="array" ref="B186">INDEX(World!C:C,Basedata!C186)</f>
+      <c r="C186" s="21" cm="1">
+        <f t="array" ref="C186">INDEX(World!C:C,Basedata!D186)</f>
         <v>34813871</v>
       </c>
-      <c r="C186">
-        <f>MATCH(A186,World!B:B,0)</f>
+      <c r="D186">
+        <f>MATCH(B186,World!B:B,0)</f>
         <v>187</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+    <row r="187" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
         <v>195</v>
       </c>
-      <c r="B187" s="21" cm="1">
-        <f t="array" ref="B187">INDEX(World!C:C,Basedata!C187)</f>
+      <c r="C187" s="21" cm="1">
+        <f t="array" ref="C187">INDEX(World!C:C,Basedata!D187)</f>
         <v>16743927</v>
       </c>
-      <c r="C187">
-        <f>MATCH(A187,World!B:B,0)</f>
+      <c r="D187">
+        <f>MATCH(B187,World!B:B,0)</f>
         <v>188</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+    <row r="188" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
         <v>196</v>
       </c>
-      <c r="B188" s="21" cm="1">
-        <f t="array" ref="B188">INDEX(World!C:C,Basedata!C188)</f>
+      <c r="C188" s="21" cm="1">
+        <f t="array" ref="C188">INDEX(World!C:C,Basedata!D188)</f>
         <v>8737371</v>
       </c>
-      <c r="C188">
-        <f>MATCH(A188,World!B:B,0)</f>
+      <c r="D188">
+        <f>MATCH(B188,World!B:B,0)</f>
         <v>189</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+    <row r="189" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
         <v>197</v>
       </c>
-      <c r="B189" s="21" cm="1">
-        <f t="array" ref="B189">INDEX(World!C:C,Basedata!C189)</f>
+      <c r="C189" s="21" cm="1">
+        <f t="array" ref="C189">INDEX(World!C:C,Basedata!D189)</f>
         <v>98347</v>
       </c>
-      <c r="C189">
-        <f>MATCH(A189,World!B:B,0)</f>
+      <c r="D189">
+        <f>MATCH(B189,World!B:B,0)</f>
         <v>190</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+    <row r="190" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B190" t="s">
         <v>199</v>
       </c>
-      <c r="B190" s="21" cm="1">
-        <f t="array" ref="B190">INDEX(World!C:C,Basedata!C190)</f>
+      <c r="C190" s="21" cm="1">
+        <f t="array" ref="C190">INDEX(World!C:C,Basedata!D190)</f>
         <v>5850342</v>
       </c>
-      <c r="C190">
-        <f>MATCH(A190,World!B:B,0)</f>
+      <c r="D190">
+        <f>MATCH(B190,World!B:B,0)</f>
         <v>192</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+    <row r="191" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B191" t="s">
         <v>201</v>
       </c>
-      <c r="B191" s="21" cm="1">
-        <f t="array" ref="B191">INDEX(World!C:C,Basedata!C191)</f>
+      <c r="C191" s="21" cm="1">
+        <f t="array" ref="C191">INDEX(World!C:C,Basedata!D191)</f>
         <v>5459642</v>
       </c>
-      <c r="C191">
-        <f>MATCH(A191,World!B:B,0)</f>
+      <c r="D191">
+        <f>MATCH(B191,World!B:B,0)</f>
         <v>194</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+    <row r="192" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B192" t="s">
         <v>202</v>
       </c>
-      <c r="B192" s="21" cm="1">
-        <f t="array" ref="B192">INDEX(World!C:C,Basedata!C192)</f>
+      <c r="C192" s="21" cm="1">
+        <f t="array" ref="C192">INDEX(World!C:C,Basedata!D192)</f>
         <v>2078938</v>
       </c>
-      <c r="C192">
-        <f>MATCH(A192,World!B:B,0)</f>
+      <c r="D192">
+        <f>MATCH(B192,World!B:B,0)</f>
         <v>195</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B193" t="s">
         <v>205</v>
       </c>
-      <c r="B193" s="21" cm="1">
-        <f t="array" ref="B193">INDEX(World!C:C,Basedata!C193)</f>
+      <c r="C193" s="21" cm="1">
+        <f t="array" ref="C193">INDEX(World!C:C,Basedata!D193)</f>
         <v>59308690</v>
       </c>
-      <c r="C193">
-        <f>MATCH(A193,World!B:B,0)</f>
+      <c r="D193">
+        <f>MATCH(B193,World!B:B,0)</f>
         <v>198</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="52" t="s">
+        <v>682</v>
+      </c>
+      <c r="B194" t="s">
         <v>207</v>
       </c>
-      <c r="B194" s="21" cm="1">
-        <f t="array" ref="B194">INDEX(World!C:C,Basedata!C194)</f>
+      <c r="C194" s="21" cm="1">
+        <f t="array" ref="C194">INDEX(World!C:C,Basedata!D194)</f>
         <v>46754778</v>
       </c>
-      <c r="C194">
-        <f>MATCH(A194,World!B:B,0)</f>
+      <c r="D194">
+        <f>MATCH(B194,World!B:B,0)</f>
         <v>201</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B195" t="s">
         <v>208</v>
       </c>
-      <c r="B195" s="21" cm="1">
-        <f t="array" ref="B195">INDEX(World!C:C,Basedata!C195)</f>
+      <c r="C195" s="21" cm="1">
+        <f t="array" ref="C195">INDEX(World!C:C,Basedata!D195)</f>
         <v>21413249</v>
       </c>
-      <c r="C195">
-        <f>MATCH(A195,World!B:B,0)</f>
+      <c r="D195">
+        <f>MATCH(B195,World!B:B,0)</f>
         <v>202</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B196" t="s">
         <v>209</v>
       </c>
-      <c r="B196" s="21" cm="1">
-        <f t="array" ref="B196">INDEX(World!C:C,Basedata!C196)</f>
+      <c r="C196" s="21" cm="1">
+        <f t="array" ref="C196">INDEX(World!C:C,Basedata!D196)</f>
         <v>43849260</v>
       </c>
-      <c r="C196">
-        <f>MATCH(A196,World!B:B,0)</f>
+      <c r="D196">
+        <f>MATCH(B196,World!B:B,0)</f>
         <v>205</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B197" t="s">
         <v>210</v>
       </c>
-      <c r="B197" s="21" cm="1">
-        <f t="array" ref="B197">INDEX(World!C:C,Basedata!C197)</f>
+      <c r="C197" s="21" cm="1">
+        <f t="array" ref="C197">INDEX(World!C:C,Basedata!D197)</f>
         <v>586632</v>
       </c>
-      <c r="C197">
-        <f>MATCH(A197,World!B:B,0)</f>
+      <c r="D197">
+        <f>MATCH(B197,World!B:B,0)</f>
         <v>206</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="52" t="s">
+        <v>682</v>
+      </c>
+      <c r="B198" t="s">
         <v>211</v>
       </c>
-      <c r="B198" s="21" cm="1">
-        <f t="array" ref="B198">INDEX(World!C:C,Basedata!C198)</f>
+      <c r="C198" s="21" cm="1">
+        <f t="array" ref="C198">INDEX(World!C:C,Basedata!D198)</f>
         <v>10099265</v>
       </c>
-      <c r="C198">
-        <f>MATCH(A198,World!B:B,0)</f>
+      <c r="D198">
+        <f>MATCH(B198,World!B:B,0)</f>
         <v>207</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="52" t="s">
+        <v>682</v>
+      </c>
+      <c r="B199" t="s">
         <v>212</v>
       </c>
-      <c r="B199" s="21" cm="1">
-        <f t="array" ref="B199">INDEX(World!C:C,Basedata!C199)</f>
+      <c r="C199" s="21" cm="1">
+        <f t="array" ref="C199">INDEX(World!C:C,Basedata!D199)</f>
         <v>8654622</v>
       </c>
-      <c r="C199">
-        <f>MATCH(A199,World!B:B,0)</f>
+      <c r="D199">
+        <f>MATCH(B199,World!B:B,0)</f>
         <v>208</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B200" t="s">
         <v>358</v>
       </c>
-      <c r="B200" s="21" cm="1">
-        <f t="array" ref="B200">INDEX(World!C:C,Basedata!C200)</f>
+      <c r="C200" s="21" cm="1">
+        <f t="array" ref="C200">INDEX(World!C:C,Basedata!D200)</f>
         <v>23816775</v>
       </c>
-      <c r="C200">
-        <f>MATCH(A200,World!B:B,0)</f>
+      <c r="D200">
+        <f>MATCH(B200,World!B:B,0)</f>
         <v>210</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B201" t="s">
         <v>217</v>
       </c>
-      <c r="B201" s="21" cm="1">
-        <f t="array" ref="B201">INDEX(World!C:C,Basedata!C201)</f>
+      <c r="C201" s="21" cm="1">
+        <f t="array" ref="C201">INDEX(World!C:C,Basedata!D201)</f>
         <v>69799978</v>
       </c>
-      <c r="C201">
-        <f>MATCH(A201,World!B:B,0)</f>
+      <c r="D201">
+        <f>MATCH(B201,World!B:B,0)</f>
         <v>213</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B202" t="s">
         <v>219</v>
       </c>
-      <c r="B202" s="21" cm="1">
-        <f t="array" ref="B202">INDEX(World!C:C,Basedata!C202)</f>
+      <c r="C202" s="21" cm="1">
+        <f t="array" ref="C202">INDEX(World!C:C,Basedata!D202)</f>
         <v>8278724</v>
       </c>
-      <c r="C202">
-        <f>MATCH(A202,World!B:B,0)</f>
+      <c r="D202">
+        <f>MATCH(B202,World!B:B,0)</f>
         <v>215</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B203" t="s">
         <v>222</v>
       </c>
-      <c r="B203" s="21" cm="1">
-        <f t="array" ref="B203">INDEX(World!C:C,Basedata!C203)</f>
+      <c r="C203" s="21" cm="1">
+        <f t="array" ref="C203">INDEX(World!C:C,Basedata!D203)</f>
         <v>1399488</v>
       </c>
-      <c r="C203">
-        <f>MATCH(A203,World!B:B,0)</f>
+      <c r="D203">
+        <f>MATCH(B203,World!B:B,0)</f>
         <v>218</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B204" t="s">
         <v>223</v>
       </c>
-      <c r="B204" s="21" cm="1">
-        <f t="array" ref="B204">INDEX(World!C:C,Basedata!C204)</f>
+      <c r="C204" s="21" cm="1">
+        <f t="array" ref="C204">INDEX(World!C:C,Basedata!D204)</f>
         <v>11818619</v>
       </c>
-      <c r="C204">
-        <f>MATCH(A204,World!B:B,0)</f>
+      <c r="D204">
+        <f>MATCH(B204,World!B:B,0)</f>
         <v>219</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B205" t="s">
         <v>224</v>
       </c>
-      <c r="B205" s="21" cm="1">
-        <f t="array" ref="B205">INDEX(World!C:C,Basedata!C205)</f>
+      <c r="C205" s="21" cm="1">
+        <f t="array" ref="C205">INDEX(World!C:C,Basedata!D205)</f>
         <v>84339067</v>
       </c>
-      <c r="C205">
-        <f>MATCH(A205,World!B:B,0)</f>
+      <c r="D205">
+        <f>MATCH(B205,World!B:B,0)</f>
         <v>220</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="52" t="s">
+        <v>684</v>
+      </c>
+      <c r="B206" t="s">
         <v>359</v>
       </c>
-      <c r="B206" s="21" cm="1">
-        <f t="array" ref="B206">INDEX(World!C:C,Basedata!C206)</f>
+      <c r="C206" s="21" cm="1">
+        <f t="array" ref="C206">INDEX(World!C:C,Basedata!D206)</f>
         <v>331002651</v>
       </c>
-      <c r="C206">
-        <f>MATCH(A206,World!B:B,0)</f>
+      <c r="D206">
+        <f>MATCH(B206,World!B:B,0)</f>
         <v>229</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="B207" t="s">
         <v>360</v>
       </c>
-      <c r="B207" s="22" cm="1">
-        <f t="array" ref="B207">INDEX(USA!B:B,Basedata!C207)</f>
+      <c r="C207" s="22" cm="1">
+        <f t="array" ref="C207">INDEX(USA!B:B,Basedata!D207)</f>
         <v>4903185</v>
       </c>
-      <c r="C207">
-        <f>MATCH(A207,USA!D:D,0)</f>
+      <c r="D207">
+        <f>MATCH(B207,USA!D:D,0)</f>
         <v>21</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="B208" t="s">
         <v>361</v>
       </c>
-      <c r="B208" s="22" cm="1">
-        <f t="array" ref="B208">INDEX(USA!B:B,Basedata!C208)</f>
+      <c r="C208" s="22" cm="1">
+        <f t="array" ref="C208">INDEX(USA!B:B,Basedata!D208)</f>
         <v>731545</v>
       </c>
-      <c r="C208">
-        <f>MATCH(A208,USA!D:D,0)</f>
+      <c r="D208">
+        <f>MATCH(B208,USA!D:D,0)</f>
         <v>52</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="B209" t="s">
         <v>362</v>
       </c>
-      <c r="B209" s="22" cm="1">
-        <f t="array" ref="B209">INDEX(USA!B:B,Basedata!C209)</f>
+      <c r="C209" s="22" cm="1">
+        <f t="array" ref="C209">INDEX(USA!B:B,Basedata!D209)</f>
         <v>7278717</v>
       </c>
-      <c r="C209">
-        <f>MATCH(A209,USA!D:D,0)</f>
+      <c r="D209">
+        <f>MATCH(B209,USA!D:D,0)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="B210" t="s">
         <v>363</v>
       </c>
-      <c r="B210" s="22" cm="1">
-        <f t="array" ref="B210">INDEX(USA!B:B,Basedata!C210)</f>
+      <c r="C210" s="22" cm="1">
+        <f t="array" ref="C210">INDEX(USA!B:B,Basedata!D210)</f>
         <v>3017804</v>
       </c>
-      <c r="C210">
-        <f>MATCH(A210,USA!D:D,0)</f>
+      <c r="D210">
+        <f>MATCH(B210,USA!D:D,0)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="B211" t="s">
         <v>364</v>
       </c>
-      <c r="B211" s="22" cm="1">
-        <f t="array" ref="B211">INDEX(USA!B:B,Basedata!C211)</f>
+      <c r="C211" s="22" cm="1">
+        <f t="array" ref="C211">INDEX(USA!B:B,Basedata!D211)</f>
         <v>39512223</v>
       </c>
-      <c r="C211">
-        <f>MATCH(A211,USA!D:D,0)</f>
+      <c r="D211">
+        <f>MATCH(B211,USA!D:D,0)</f>
         <v>48</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="B212" t="s">
         <v>365</v>
       </c>
-      <c r="B212" s="22" cm="1">
-        <f t="array" ref="B212">INDEX(USA!B:B,Basedata!C212)</f>
+      <c r="C212" s="22" cm="1">
+        <f t="array" ref="C212">INDEX(USA!B:B,Basedata!D212)</f>
         <v>5758736</v>
       </c>
-      <c r="C212">
-        <f>MATCH(A212,USA!D:D,0)</f>
+      <c r="D212">
+        <f>MATCH(B212,USA!D:D,0)</f>
         <v>41</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="B213" t="s">
         <v>366</v>
       </c>
-      <c r="B213" s="22" cm="1">
-        <f t="array" ref="B213">INDEX(USA!B:B,Basedata!C213)</f>
+      <c r="C213" s="22" cm="1">
+        <f t="array" ref="C213">INDEX(USA!B:B,Basedata!D213)</f>
         <v>3565287</v>
       </c>
-      <c r="C213">
-        <f>MATCH(A213,USA!D:D,0)</f>
+      <c r="D213">
+        <f>MATCH(B213,USA!D:D,0)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="B214" t="s">
         <v>367</v>
       </c>
-      <c r="B214" s="22" cm="1">
-        <f t="array" ref="B214">INDEX(USA!B:B,Basedata!C214)</f>
+      <c r="C214" s="22" cm="1">
+        <f t="array" ref="C214">INDEX(USA!B:B,Basedata!D214)</f>
         <v>973764</v>
       </c>
-      <c r="C214">
-        <f>MATCH(A214,USA!D:D,0)</f>
+      <c r="D214">
+        <f>MATCH(B214,USA!D:D,0)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="B215" t="s">
         <v>368</v>
       </c>
-      <c r="B215" s="22" cm="1">
-        <f t="array" ref="B215">INDEX(USA!B:B,Basedata!C215)</f>
+      <c r="C215" s="22" cm="1">
+        <f t="array" ref="C215">INDEX(USA!B:B,Basedata!D215)</f>
         <v>705749</v>
       </c>
-      <c r="C215">
-        <f>MATCH(A215,USA!D:D,0)</f>
+      <c r="D215">
+        <f>MATCH(B215,USA!D:D,0)</f>
         <v>19</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="B216" t="s">
         <v>369</v>
       </c>
-      <c r="B216" s="22" cm="1">
-        <f t="array" ref="B216">INDEX(USA!B:B,Basedata!C216)</f>
+      <c r="C216" s="22" cm="1">
+        <f t="array" ref="C216">INDEX(USA!B:B,Basedata!D216)</f>
         <v>21477737</v>
       </c>
-      <c r="C216">
-        <f>MATCH(A216,USA!D:D,0)</f>
+      <c r="D216">
+        <f>MATCH(B216,USA!D:D,0)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="B217" t="s">
         <v>370</v>
       </c>
-      <c r="B217" s="22" cm="1">
-        <f t="array" ref="B217">INDEX(USA!B:B,Basedata!C217)</f>
+      <c r="C217" s="22" cm="1">
+        <f t="array" ref="C217">INDEX(USA!B:B,Basedata!D217)</f>
         <v>10617423</v>
       </c>
-      <c r="C217">
-        <f>MATCH(A217,USA!D:D,0)</f>
+      <c r="D217">
+        <f>MATCH(B217,USA!D:D,0)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="B218" t="s">
         <v>671</v>
       </c>
-      <c r="B218" s="51">
+      <c r="C218" s="51">
         <v>162742</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="B219" t="s">
         <v>371</v>
       </c>
-      <c r="B219" s="22" cm="1">
-        <f t="array" ref="B219">INDEX(USA!B:B,Basedata!C219)</f>
+      <c r="C219" s="22" cm="1">
+        <f t="array" ref="C219">INDEX(USA!B:B,Basedata!D219)</f>
         <v>1415872</v>
       </c>
-      <c r="C219">
-        <f>MATCH(A219,USA!D:D,0)</f>
+      <c r="D219">
+        <f>MATCH(B219,USA!D:D,0)</f>
         <v>51</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="B220" t="s">
         <v>372</v>
       </c>
-      <c r="B220" s="22" cm="1">
-        <f t="array" ref="B220">INDEX(USA!B:B,Basedata!C220)</f>
+      <c r="C220" s="22" cm="1">
+        <f t="array" ref="C220">INDEX(USA!B:B,Basedata!D220)</f>
         <v>1787065</v>
       </c>
-      <c r="C220">
-        <f>MATCH(A220,USA!D:D,0)</f>
+      <c r="D220">
+        <f>MATCH(B220,USA!D:D,0)</f>
         <v>45</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="B221" t="s">
         <v>373</v>
       </c>
-      <c r="B221" s="22" cm="1">
-        <f t="array" ref="B221">INDEX(USA!B:B,Basedata!C221)</f>
+      <c r="C221" s="22" cm="1">
+        <f t="array" ref="C221">INDEX(USA!B:B,Basedata!D221)</f>
         <v>12671821</v>
       </c>
-      <c r="C221">
-        <f>MATCH(A221,USA!D:D,0)</f>
+      <c r="D221">
+        <f>MATCH(B221,USA!D:D,0)</f>
         <v>28</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="B222" t="s">
         <v>374</v>
       </c>
-      <c r="B222" s="22" cm="1">
-        <f t="array" ref="B222">INDEX(USA!B:B,Basedata!C222)</f>
+      <c r="C222" s="22" cm="1">
+        <f t="array" ref="C222">INDEX(USA!B:B,Basedata!D222)</f>
         <v>6732219</v>
       </c>
-      <c r="C222">
-        <f>MATCH(A222,USA!D:D,0)</f>
+      <c r="D222">
+        <f>MATCH(B222,USA!D:D,0)</f>
         <v>31</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="B223" t="s">
         <v>375</v>
       </c>
-      <c r="B223" s="22" cm="1">
-        <f t="array" ref="B223">INDEX(USA!B:B,Basedata!C223)</f>
+      <c r="C223" s="22" cm="1">
+        <f t="array" ref="C223">INDEX(USA!B:B,Basedata!D223)</f>
         <v>3155070</v>
       </c>
-      <c r="C223">
-        <f>MATCH(A223,USA!D:D,0)</f>
+      <c r="D223">
+        <f>MATCH(B223,USA!D:D,0)</f>
         <v>35</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="B224" t="s">
         <v>376</v>
       </c>
-      <c r="B224" s="22" cm="1">
-        <f t="array" ref="B224">INDEX(USA!B:B,Basedata!C224)</f>
+      <c r="C224" s="22" cm="1">
+        <f t="array" ref="C224">INDEX(USA!B:B,Basedata!D224)</f>
         <v>2913314</v>
       </c>
-      <c r="C224">
-        <f>MATCH(A224,USA!D:D,0)</f>
+      <c r="D224">
+        <f>MATCH(B224,USA!D:D,0)</f>
         <v>36</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="B225" t="s">
         <v>377</v>
       </c>
-      <c r="B225" s="22" cm="1">
-        <f t="array" ref="B225">INDEX(USA!B:B,Basedata!C225)</f>
+      <c r="C225" s="22" cm="1">
+        <f t="array" ref="C225">INDEX(USA!B:B,Basedata!D225)</f>
         <v>4467673</v>
       </c>
-      <c r="C225">
-        <f>MATCH(A225,USA!D:D,0)</f>
+      <c r="D225">
+        <f>MATCH(B225,USA!D:D,0)</f>
         <v>22</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="B226" t="s">
         <v>378</v>
       </c>
-      <c r="B226" s="22" cm="1">
-        <f t="array" ref="B226">INDEX(USA!B:B,Basedata!C226)</f>
+      <c r="C226" s="22" cm="1">
+        <f t="array" ref="C226">INDEX(USA!B:B,Basedata!D226)</f>
         <v>4648794</v>
       </c>
-      <c r="C226">
-        <f>MATCH(A226,USA!D:D,0)</f>
+      <c r="D226">
+        <f>MATCH(B226,USA!D:D,0)</f>
         <v>25</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="B227" t="s">
         <v>379</v>
       </c>
-      <c r="B227" s="22" cm="1">
-        <f t="array" ref="B227">INDEX(USA!B:B,Basedata!C227)</f>
+      <c r="C227" s="22" cm="1">
+        <f t="array" ref="C227">INDEX(USA!B:B,Basedata!D227)</f>
         <v>1344212</v>
       </c>
-      <c r="C227">
-        <f>MATCH(A227,USA!D:D,0)</f>
+      <c r="D227">
+        <f>MATCH(B227,USA!D:D,0)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="B228" t="s">
         <v>380</v>
       </c>
-      <c r="B228" s="22" cm="1">
-        <f t="array" ref="B228">INDEX(USA!B:B,Basedata!C228)</f>
+      <c r="C228" s="22" cm="1">
+        <f t="array" ref="C228">INDEX(USA!B:B,Basedata!D228)</f>
         <v>6045680</v>
       </c>
-      <c r="C228">
-        <f>MATCH(A228,USA!D:D,0)</f>
+      <c r="D228">
+        <f>MATCH(B228,USA!D:D,0)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="B229" t="s">
         <v>381</v>
       </c>
-      <c r="B229" s="22" cm="1">
-        <f t="array" ref="B229">INDEX(USA!B:B,Basedata!C229)</f>
+      <c r="C229" s="22" cm="1">
+        <f t="array" ref="C229">INDEX(USA!B:B,Basedata!D229)</f>
         <v>6892503</v>
       </c>
-      <c r="C229">
-        <f>MATCH(A229,USA!D:D,0)</f>
+      <c r="D229">
+        <f>MATCH(B229,USA!D:D,0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="B230" t="s">
         <v>382</v>
       </c>
-      <c r="B230" s="22" cm="1">
-        <f t="array" ref="B230">INDEX(USA!B:B,Basedata!C230)</f>
+      <c r="C230" s="22" cm="1">
+        <f t="array" ref="C230">INDEX(USA!B:B,Basedata!D230)</f>
         <v>9986857</v>
       </c>
-      <c r="C230">
-        <f>MATCH(A230,USA!D:D,0)</f>
+      <c r="D230">
+        <f>MATCH(B230,USA!D:D,0)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="B231" t="s">
         <v>383</v>
       </c>
-      <c r="B231" s="22" cm="1">
-        <f t="array" ref="B231">INDEX(USA!B:B,Basedata!C231)</f>
+      <c r="C231" s="22" cm="1">
+        <f t="array" ref="C231">INDEX(USA!B:B,Basedata!D231)</f>
         <v>5639632</v>
       </c>
-      <c r="C231">
-        <f>MATCH(A231,USA!D:D,0)</f>
+      <c r="D231">
+        <f>MATCH(B231,USA!D:D,0)</f>
         <v>34</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="B232" t="s">
         <v>384</v>
       </c>
-      <c r="B232" s="22" cm="1">
-        <f t="array" ref="B232">INDEX(USA!B:B,Basedata!C232)</f>
+      <c r="C232" s="22" cm="1">
+        <f t="array" ref="C232">INDEX(USA!B:B,Basedata!D232)</f>
         <v>2976149</v>
       </c>
-      <c r="C232">
-        <f>MATCH(A232,USA!D:D,0)</f>
+      <c r="D232">
+        <f>MATCH(B232,USA!D:D,0)</f>
         <v>23</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="B233" t="s">
         <v>385</v>
       </c>
-      <c r="B233" s="22" cm="1">
-        <f t="array" ref="B233">INDEX(USA!B:B,Basedata!C233)</f>
+      <c r="C233" s="22" cm="1">
+        <f t="array" ref="C233">INDEX(USA!B:B,Basedata!D233)</f>
         <v>6137428</v>
       </c>
-      <c r="C233">
-        <f>MATCH(A233,USA!D:D,0)</f>
+      <c r="D233">
+        <f>MATCH(B233,USA!D:D,0)</f>
         <v>33</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="B234" t="s">
         <v>386</v>
       </c>
-      <c r="B234" s="22" cm="1">
-        <f t="array" ref="B234">INDEX(USA!B:B,Basedata!C234)</f>
+      <c r="C234" s="22" cm="1">
+        <f t="array" ref="C234">INDEX(USA!B:B,Basedata!D234)</f>
         <v>1068778</v>
       </c>
-      <c r="C234">
-        <f>MATCH(A234,USA!D:D,0)</f>
+      <c r="D234">
+        <f>MATCH(B234,USA!D:D,0)</f>
         <v>46</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="B235" t="s">
         <v>387</v>
       </c>
-      <c r="B235" s="22" cm="1">
-        <f t="array" ref="B235">INDEX(USA!B:B,Basedata!C235)</f>
+      <c r="C235" s="22" cm="1">
+        <f t="array" ref="C235">INDEX(USA!B:B,Basedata!D235)</f>
         <v>1934408</v>
       </c>
-      <c r="C235">
-        <f>MATCH(A235,USA!D:D,0)</f>
+      <c r="D235">
+        <f>MATCH(B235,USA!D:D,0)</f>
         <v>37</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="B236" t="s">
         <v>388</v>
       </c>
-      <c r="B236" s="22" cm="1">
-        <f t="array" ref="B236">INDEX(USA!B:B,Basedata!C236)</f>
+      <c r="C236" s="22" cm="1">
+        <f t="array" ref="C236">INDEX(USA!B:B,Basedata!D236)</f>
         <v>3080156</v>
       </c>
-      <c r="C236">
-        <f>MATCH(A236,USA!D:D,0)</f>
+      <c r="D236">
+        <f>MATCH(B236,USA!D:D,0)</f>
         <v>43</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="B237" t="s">
         <v>389</v>
       </c>
-      <c r="B237" s="22" cm="1">
-        <f t="array" ref="B237">INDEX(USA!B:B,Basedata!C237)</f>
+      <c r="C237" s="22" cm="1">
+        <f t="array" ref="C237">INDEX(USA!B:B,Basedata!D237)</f>
         <v>1359711</v>
       </c>
-      <c r="C237">
-        <f>MATCH(A237,USA!D:D,0)</f>
+      <c r="D237">
+        <f>MATCH(B237,USA!D:D,0)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="B238" t="s">
         <v>390</v>
       </c>
-      <c r="B238" s="22" cm="1">
-        <f t="array" ref="B238">INDEX(USA!B:B,Basedata!C238)</f>
+      <c r="C238" s="22" cm="1">
+        <f t="array" ref="C238">INDEX(USA!B:B,Basedata!D238)</f>
         <v>8882190</v>
       </c>
-      <c r="C238">
-        <f>MATCH(A238,USA!D:D,0)</f>
+      <c r="D238">
+        <f>MATCH(B238,USA!D:D,0)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="B239" t="s">
         <v>391</v>
       </c>
-      <c r="B239" s="22" cm="1">
-        <f t="array" ref="B239">INDEX(USA!B:B,Basedata!C239)</f>
+      <c r="C239" s="22" cm="1">
+        <f t="array" ref="C239">INDEX(USA!B:B,Basedata!D239)</f>
         <v>2096829</v>
       </c>
-      <c r="C239">
-        <f>MATCH(A239,USA!D:D,0)</f>
+      <c r="D239">
+        <f>MATCH(B239,USA!D:D,0)</f>
         <v>44</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="B240" t="s">
         <v>392</v>
       </c>
-      <c r="B240" s="22" cm="1">
-        <f t="array" ref="B240">INDEX(USA!B:B,Basedata!C240)</f>
+      <c r="C240" s="22" cm="1">
+        <f t="array" ref="C240">INDEX(USA!B:B,Basedata!D240)</f>
         <v>19453561</v>
       </c>
-      <c r="C240">
-        <f>MATCH(A240,USA!D:D,0)</f>
+      <c r="D240">
+        <f>MATCH(B240,USA!D:D,0)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="B241" t="s">
         <v>393</v>
       </c>
-      <c r="B241" s="22" cm="1">
-        <f t="array" ref="B241">INDEX(USA!B:B,Basedata!C241)</f>
+      <c r="C241" s="22" cm="1">
+        <f t="array" ref="C241">INDEX(USA!B:B,Basedata!D241)</f>
         <v>10488084</v>
       </c>
-      <c r="C241">
-        <f>MATCH(A241,USA!D:D,0)</f>
+      <c r="D241">
+        <f>MATCH(B241,USA!D:D,0)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="B242" t="s">
         <v>394</v>
       </c>
-      <c r="B242" s="22" cm="1">
-        <f t="array" ref="B242">INDEX(USA!B:B,Basedata!C242)</f>
+      <c r="C242" s="22" cm="1">
+        <f t="array" ref="C242">INDEX(USA!B:B,Basedata!D242)</f>
         <v>762062</v>
       </c>
-      <c r="C242">
-        <f>MATCH(A242,USA!D:D,0)</f>
+      <c r="D242">
+        <f>MATCH(B242,USA!D:D,0)</f>
         <v>39</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="B243" t="s">
         <v>395</v>
       </c>
-      <c r="B243" s="22" cm="1">
-        <f t="array" ref="B243">INDEX(USA!B:B,Basedata!C243)</f>
+      <c r="C243" s="22" cm="1">
+        <f t="array" ref="C243">INDEX(USA!B:B,Basedata!D243)</f>
         <v>11689100</v>
       </c>
-      <c r="C243">
-        <f>MATCH(A243,USA!D:D,0)</f>
+      <c r="D243">
+        <f>MATCH(B243,USA!D:D,0)</f>
         <v>29</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="B244" t="s">
         <v>396</v>
       </c>
-      <c r="B244" s="22" cm="1">
-        <f t="array" ref="B244">INDEX(USA!B:B,Basedata!C244)</f>
+      <c r="C244" s="22" cm="1">
+        <f t="array" ref="C244">INDEX(USA!B:B,Basedata!D244)</f>
         <v>3956971</v>
       </c>
-      <c r="C244">
-        <f>MATCH(A244,USA!D:D,0)</f>
+      <c r="D244">
+        <f>MATCH(B244,USA!D:D,0)</f>
         <v>26</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="B245" t="s">
         <v>397</v>
       </c>
-      <c r="B245" s="22" cm="1">
-        <f t="array" ref="B245">INDEX(USA!B:B,Basedata!C245)</f>
+      <c r="C245" s="22" cm="1">
+        <f t="array" ref="C245">INDEX(USA!B:B,Basedata!D245)</f>
         <v>4217737</v>
       </c>
-      <c r="C245">
-        <f>MATCH(A245,USA!D:D,0)</f>
+      <c r="D245">
+        <f>MATCH(B245,USA!D:D,0)</f>
         <v>50</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="B246" t="s">
         <v>398</v>
       </c>
-      <c r="B246" s="22" cm="1">
-        <f t="array" ref="B246">INDEX(USA!B:B,Basedata!C246)</f>
+      <c r="C246" s="22" cm="1">
+        <f t="array" ref="C246">INDEX(USA!B:B,Basedata!D246)</f>
         <v>12801989</v>
       </c>
-      <c r="C246">
-        <f>MATCH(A246,USA!D:D,0)</f>
+      <c r="D246">
+        <f>MATCH(B246,USA!D:D,0)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="B247" t="s">
         <v>399</v>
       </c>
-      <c r="B247" s="22" cm="1">
-        <f t="array" ref="B247">INDEX(USA!B:B,Basedata!C247)</f>
+      <c r="C247" s="22" cm="1">
+        <f t="array" ref="C247">INDEX(USA!B:B,Basedata!D247)</f>
         <v>3193694</v>
       </c>
-      <c r="C247">
-        <f>MATCH(A247,USA!D:D,0)</f>
+      <c r="D247">
+        <f>MATCH(B247,USA!D:D,0)</f>
         <v>54</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="B248" t="s">
         <v>400</v>
       </c>
-      <c r="B248" s="22" cm="1">
-        <f t="array" ref="B248">INDEX(USA!B:B,Basedata!C248)</f>
+      <c r="C248" s="22" cm="1">
+        <f t="array" ref="C248">INDEX(USA!B:B,Basedata!D248)</f>
         <v>1059361</v>
       </c>
-      <c r="C248">
-        <f>MATCH(A248,USA!D:D,0)</f>
+      <c r="D248">
+        <f>MATCH(B248,USA!D:D,0)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="B249" t="s">
         <v>401</v>
       </c>
-      <c r="B249" s="22" cm="1">
-        <f t="array" ref="B249">INDEX(USA!B:B,Basedata!C249)</f>
+      <c r="C249" s="22" cm="1">
+        <f t="array" ref="C249">INDEX(USA!B:B,Basedata!D249)</f>
         <v>5148714</v>
       </c>
-      <c r="C249">
-        <f>MATCH(A249,USA!D:D,0)</f>
+      <c r="D249">
+        <f>MATCH(B249,USA!D:D,0)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="B250" t="s">
         <v>402</v>
       </c>
-      <c r="B250" s="22" cm="1">
-        <f t="array" ref="B250">INDEX(USA!B:B,Basedata!C250)</f>
+      <c r="C250" s="22" cm="1">
+        <f t="array" ref="C250">INDEX(USA!B:B,Basedata!D250)</f>
         <v>884659</v>
       </c>
-      <c r="C250">
-        <f>MATCH(A250,USA!D:D,0)</f>
+      <c r="D250">
+        <f>MATCH(B250,USA!D:D,0)</f>
         <v>38</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="B251" t="s">
         <v>403</v>
       </c>
-      <c r="B251" s="22" cm="1">
-        <f t="array" ref="B251">INDEX(USA!B:B,Basedata!C251)</f>
+      <c r="C251" s="22" cm="1">
+        <f t="array" ref="C251">INDEX(USA!B:B,Basedata!D251)</f>
         <v>6829174</v>
       </c>
-      <c r="C251">
-        <f>MATCH(A251,USA!D:D,0)</f>
+      <c r="D251">
+        <f>MATCH(B251,USA!D:D,0)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="B252" t="s">
         <v>404</v>
       </c>
-      <c r="B252" s="22" cm="1">
-        <f t="array" ref="B252">INDEX(USA!B:B,Basedata!C252)</f>
+      <c r="C252" s="22" cm="1">
+        <f t="array" ref="C252">INDEX(USA!B:B,Basedata!D252)</f>
         <v>28995881</v>
       </c>
-      <c r="C252">
-        <f>MATCH(A252,USA!D:D,0)</f>
+      <c r="D252">
+        <f>MATCH(B252,USA!D:D,0)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="B253" t="s">
         <v>405</v>
       </c>
-      <c r="B253" s="22" cm="1">
-        <f t="array" ref="B253">INDEX(USA!B:B,Basedata!C253)</f>
+      <c r="C253" s="22" cm="1">
+        <f t="array" ref="C253">INDEX(USA!B:B,Basedata!D253)</f>
         <v>3205958</v>
       </c>
-      <c r="C253">
-        <f>MATCH(A253,USA!D:D,0)</f>
+      <c r="D253">
+        <f>MATCH(B253,USA!D:D,0)</f>
         <v>42</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="B254" t="s">
         <v>406</v>
       </c>
-      <c r="B254" s="22" cm="1">
-        <f t="array" ref="B254">INDEX(USA!B:B,Basedata!C254)</f>
+      <c r="C254" s="22" cm="1">
+        <f t="array" ref="C254">INDEX(USA!B:B,Basedata!D254)</f>
         <v>623989</v>
       </c>
-      <c r="C254">
-        <f>MATCH(A254,USA!D:D,0)</f>
+      <c r="D254">
+        <f>MATCH(B254,USA!D:D,0)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="B255" t="s">
         <v>407</v>
       </c>
-      <c r="B255" s="22" cm="1">
-        <f t="array" ref="B255">INDEX(USA!B:B,Basedata!C255)</f>
+      <c r="C255" s="22" cm="1">
+        <f t="array" ref="C255">INDEX(USA!B:B,Basedata!D255)</f>
         <v>8535519</v>
       </c>
-      <c r="C255">
-        <f>MATCH(A255,USA!D:D,0)</f>
+      <c r="D255">
+        <f>MATCH(B255,USA!D:D,0)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="B256" t="s">
         <v>408</v>
       </c>
-      <c r="B256" s="22" cm="1">
-        <f t="array" ref="B256">INDEX(USA!B:B,Basedata!C256)</f>
+      <c r="C256" s="22" cm="1">
+        <f t="array" ref="C256">INDEX(USA!B:B,Basedata!D256)</f>
         <v>7614893</v>
       </c>
-      <c r="C256">
-        <f>MATCH(A256,USA!D:D,0)</f>
+      <c r="D256">
+        <f>MATCH(B256,USA!D:D,0)</f>
         <v>49</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="B257" t="s">
         <v>409</v>
       </c>
-      <c r="B257" s="22" cm="1">
-        <f t="array" ref="B257">INDEX(USA!B:B,Basedata!C257)</f>
+      <c r="C257" s="22" cm="1">
+        <f t="array" ref="C257">INDEX(USA!B:B,Basedata!D257)</f>
         <v>1792147</v>
       </c>
-      <c r="C257">
-        <f>MATCH(A257,USA!D:D,0)</f>
+      <c r="D257">
+        <f>MATCH(B257,USA!D:D,0)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="B258" t="s">
         <v>410</v>
       </c>
-      <c r="B258" s="22" cm="1">
-        <f t="array" ref="B258">INDEX(USA!B:B,Basedata!C258)</f>
+      <c r="C258" s="22" cm="1">
+        <f t="array" ref="C258">INDEX(USA!B:B,Basedata!D258)</f>
         <v>5822434</v>
       </c>
-      <c r="C258">
-        <f>MATCH(A258,USA!D:D,0)</f>
+      <c r="D258">
+        <f>MATCH(B258,USA!D:D,0)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="B259" t="s">
         <v>411</v>
       </c>
-      <c r="B259" s="22" cm="1">
-        <f t="array" ref="B259">INDEX(USA!B:B,Basedata!C259)</f>
+      <c r="C259" s="22" cm="1">
+        <f t="array" ref="C259">INDEX(USA!B:B,Basedata!D259)</f>
         <v>578759</v>
       </c>
-      <c r="C259">
-        <f>MATCH(A259,USA!D:D,0)</f>
+      <c r="D259">
+        <f>MATCH(B259,USA!D:D,0)</f>
         <v>47</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
+    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B260" t="s">
         <v>229</v>
       </c>
-      <c r="B260" s="21" cm="1">
-        <f t="array" ref="B260">INDEX(World!C:C,Basedata!C260)</f>
+      <c r="C260" s="21" cm="1">
+        <f t="array" ref="C260">INDEX(World!C:C,Basedata!D260)</f>
         <v>43733762</v>
       </c>
-      <c r="C260">
-        <f>MATCH(A260,World!B:B,0)</f>
+      <c r="D260">
+        <f>MATCH(B260,World!B:B,0)</f>
         <v>226</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
+    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B261" t="s">
         <v>230</v>
       </c>
-      <c r="B261" s="21" cm="1">
-        <f t="array" ref="B261">INDEX(World!C:C,Basedata!C261)</f>
+      <c r="C261" s="21" cm="1">
+        <f t="array" ref="C261">INDEX(World!C:C,Basedata!D261)</f>
         <v>9890402</v>
       </c>
-      <c r="C261">
-        <f>MATCH(A261,World!B:B,0)</f>
+      <c r="D261">
+        <f>MATCH(B261,World!B:B,0)</f>
         <v>227</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
+    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="52" t="s">
+        <v>682</v>
+      </c>
+      <c r="B262" t="s">
         <v>231</v>
       </c>
-      <c r="B262" s="21" cm="1">
-        <f t="array" ref="B262">INDEX(World!C:C,Basedata!C262)</f>
+      <c r="C262" s="21" cm="1">
+        <f t="array" ref="C262">INDEX(World!C:C,Basedata!D262)</f>
         <v>67886011</v>
       </c>
-      <c r="C262">
-        <f>MATCH(A262,World!B:B,0)</f>
+      <c r="D262">
+        <f>MATCH(B262,World!B:B,0)</f>
         <v>228</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
+    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B263" t="s">
         <v>412</v>
       </c>
-      <c r="B263" s="22">
+      <c r="C263" s="22">
         <v>166000</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
+    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B264" t="s">
         <v>413</v>
       </c>
-      <c r="B264" s="22">
+      <c r="C264" s="22">
         <v>34571</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
+    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B265" t="s">
         <v>414</v>
       </c>
-      <c r="B265" s="22">
-        <f>B262-B263-B264</f>
+      <c r="C265" s="22">
+        <f>C262-C263-C264</f>
         <v>67685440</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
+    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B266" t="s">
         <v>232</v>
       </c>
-      <c r="B266" s="21" cm="1">
-        <f t="array" ref="B266">INDEX(World!C:C,Basedata!C266)</f>
+      <c r="C266" s="21" cm="1">
+        <f t="array" ref="C266">INDEX(World!C:C,Basedata!D266)</f>
         <v>3473730</v>
       </c>
-      <c r="C266">
-        <f>MATCH(A266,World!B:B,0)</f>
+      <c r="D266">
+        <f>MATCH(B266,World!B:B,0)</f>
         <v>230</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
+    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B267" t="s">
         <v>233</v>
       </c>
-      <c r="B267" s="21" cm="1">
-        <f t="array" ref="B267">INDEX(World!C:C,Basedata!C267)</f>
+      <c r="C267" s="21" cm="1">
+        <f t="array" ref="C267">INDEX(World!C:C,Basedata!D267)</f>
         <v>33469203</v>
       </c>
-      <c r="C267">
-        <f>MATCH(A267,World!B:B,0)</f>
+      <c r="D267">
+        <f>MATCH(B267,World!B:B,0)</f>
         <v>231</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
+    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B268" t="s">
         <v>235</v>
       </c>
-      <c r="B268" s="21" cm="1">
-        <f t="array" ref="B268">INDEX(World!C:C,Basedata!C268)</f>
+      <c r="C268" s="21" cm="1">
+        <f t="array" ref="C268">INDEX(World!C:C,Basedata!D268)</f>
         <v>28435940</v>
       </c>
-      <c r="C268">
-        <f>MATCH(A268,World!B:B,0)</f>
+      <c r="D268">
+        <f>MATCH(B268,World!B:B,0)</f>
         <v>233</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
+    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B269" t="s">
         <v>236</v>
       </c>
-      <c r="B269" s="21" cm="1">
-        <f t="array" ref="B269">INDEX(World!C:C,Basedata!C269)</f>
+      <c r="C269" s="21" cm="1">
+        <f t="array" ref="C269">INDEX(World!C:C,Basedata!D269)</f>
         <v>97338579</v>
       </c>
-      <c r="C269">
-        <f>MATCH(A269,World!B:B,0)</f>
+      <c r="D269">
+        <f>MATCH(B269,World!B:B,0)</f>
         <v>234</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
+    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B270" t="s">
         <v>415</v>
       </c>
-      <c r="B270" s="21" cm="1">
-        <f t="array" ref="B270">INDEX(World!C:C,Basedata!C270)</f>
+      <c r="C270" s="21" cm="1">
+        <f t="array" ref="C270">INDEX(World!C:C,Basedata!D270)</f>
         <v>5101414</v>
       </c>
-      <c r="C270">
-        <f>MATCH(A270,World!B:B,0)</f>
+      <c r="D270">
+        <f>MATCH(B270,World!B:B,0)</f>
         <v>204</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
+    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B271" t="s">
         <v>24</v>
       </c>
-      <c r="B271" s="21" cm="1">
-        <f t="array" ref="B271">INDEX(World!C:C,Basedata!C271)</f>
+      <c r="C271" s="21" cm="1">
+        <f t="array" ref="C271">INDEX(World!C:C,Basedata!D271)</f>
         <v>55191</v>
       </c>
-      <c r="C271">
-        <f>MATCH(A271,World!B:B,0)</f>
+      <c r="D271">
+        <f>MATCH(B271,World!B:B,0)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
+    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B272" t="s">
         <v>27</v>
       </c>
-      <c r="B272" s="21" cm="1">
-        <f t="array" ref="B272">INDEX(World!C:C,Basedata!C272)</f>
+      <c r="C272" s="21" cm="1">
+        <f t="array" ref="C272">INDEX(World!C:C,Basedata!D272)</f>
         <v>32866272</v>
       </c>
-      <c r="C272">
-        <f>MATCH(A272,World!B:B,0)</f>
+      <c r="D272">
+        <f>MATCH(B272,World!B:B,0)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
+    <row r="273" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B273" t="s">
         <v>28</v>
       </c>
-      <c r="B273" s="21" cm="1">
-        <f t="array" ref="B273">INDEX(World!C:C,Basedata!C273)</f>
+      <c r="C273" s="21" cm="1">
+        <f t="array" ref="C273">INDEX(World!C:C,Basedata!D273)</f>
         <v>15003</v>
       </c>
-      <c r="C273">
-        <f>MATCH(A273,World!B:B,0)</f>
+      <c r="D273">
+        <f>MATCH(B273,World!B:B,0)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
+    <row r="274" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B274" t="s">
         <v>677</v>
       </c>
-      <c r="B274" s="21" cm="1">
-        <f t="array" ref="B274">INDEX(World!C:C,Basedata!C274)</f>
+      <c r="C274" s="21" cm="1">
+        <f t="array" ref="C274">INDEX(World!C:C,Basedata!D274)</f>
         <v>393244</v>
       </c>
-      <c r="C274">
-        <f>MATCH(A274,World!B:B,0)</f>
+      <c r="D274">
+        <f>MATCH(B274,World!B:B,0)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
+    <row r="275" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B275" t="s">
         <v>38</v>
       </c>
-      <c r="B275" s="21" cm="1">
-        <f t="array" ref="B275">INDEX(World!C:C,Basedata!C275)</f>
+      <c r="C275" s="21" cm="1">
+        <f t="array" ref="C275">INDEX(World!C:C,Basedata!D275)</f>
         <v>287375</v>
       </c>
-      <c r="C275">
-        <f>MATCH(A275,World!B:B,0)</f>
+      <c r="D275">
+        <f>MATCH(B275,World!B:B,0)</f>
         <v>21</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
+    <row r="276" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B276" t="s">
         <v>41</v>
       </c>
-      <c r="B276" s="21" cm="1">
-        <f t="array" ref="B276">INDEX(World!C:C,Basedata!C276)</f>
+      <c r="C276" s="21" cm="1">
+        <f t="array" ref="C276">INDEX(World!C:C,Basedata!D276)</f>
         <v>397628</v>
       </c>
-      <c r="C276">
-        <f>MATCH(A276,World!B:B,0)</f>
+      <c r="D276">
+        <f>MATCH(B276,World!B:B,0)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
+    <row r="277" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B277" t="s">
         <v>42</v>
       </c>
-      <c r="B277" s="21" cm="1">
-        <f t="array" ref="B277">INDEX(World!C:C,Basedata!C277)</f>
+      <c r="C277" s="21" cm="1">
+        <f t="array" ref="C277">INDEX(World!C:C,Basedata!D277)</f>
         <v>12123200</v>
       </c>
-      <c r="C277">
-        <f>MATCH(A277,World!B:B,0)</f>
+      <c r="D277">
+        <f>MATCH(B277,World!B:B,0)</f>
         <v>25</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
+    <row r="278" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B278" t="s">
         <v>43</v>
       </c>
-      <c r="B278" s="21" cm="1">
-        <f t="array" ref="B278">INDEX(World!C:C,Basedata!C278)</f>
+      <c r="C278" s="21" cm="1">
+        <f t="array" ref="C278">INDEX(World!C:C,Basedata!D278)</f>
         <v>62278</v>
       </c>
-      <c r="C278">
-        <f>MATCH(A278,World!B:B,0)</f>
+      <c r="D278">
+        <f>MATCH(B278,World!B:B,0)</f>
         <v>26</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
+    <row r="279" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B279" t="s">
         <v>47</v>
       </c>
-      <c r="B279" s="21" cm="1">
-        <f t="array" ref="B279">INDEX(World!C:C,Basedata!C279)</f>
+      <c r="C279" s="21" cm="1">
+        <f t="array" ref="C279">INDEX(World!C:C,Basedata!D279)</f>
         <v>2351627</v>
       </c>
-      <c r="C279">
-        <f>MATCH(A279,World!B:B,0)</f>
+      <c r="D279">
+        <f>MATCH(B279,World!B:B,0)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
+    <row r="280" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B280" t="s">
         <v>49</v>
       </c>
-      <c r="B280" s="21" cm="1">
-        <f t="array" ref="B280">INDEX(World!C:C,Basedata!C280)</f>
+      <c r="C280" s="21" cm="1">
+        <f t="array" ref="C280">INDEX(World!C:C,Basedata!D280)</f>
         <v>30231</v>
       </c>
-      <c r="C280">
-        <f>MATCH(A280,World!B:B,0)</f>
+      <c r="D280">
+        <f>MATCH(B280,World!B:B,0)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
+    <row r="281" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B281" t="s">
         <v>53</v>
       </c>
-      <c r="B281" s="21" cm="1">
-        <f t="array" ref="B281">INDEX(World!C:C,Basedata!C281)</f>
+      <c r="C281" s="21" cm="1">
+        <f t="array" ref="C281">INDEX(World!C:C,Basedata!D281)</f>
         <v>11890784</v>
       </c>
-      <c r="C281">
-        <f>MATCH(A281,World!B:B,0)</f>
+      <c r="D281">
+        <f>MATCH(B281,World!B:B,0)</f>
         <v>36</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
+    <row r="282" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B282" t="s">
         <v>54</v>
       </c>
-      <c r="B282" s="21" cm="1">
-        <f t="array" ref="B282">INDEX(World!C:C,Basedata!C282)</f>
+      <c r="C282" s="21" cm="1">
+        <f t="array" ref="C282">INDEX(World!C:C,Basedata!D282)</f>
         <v>555987</v>
       </c>
-      <c r="C282">
-        <f>MATCH(A282,World!B:B,0)</f>
+      <c r="D282">
+        <f>MATCH(B282,World!B:B,0)</f>
         <v>37</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
+    <row r="283" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B283" t="s">
         <v>58</v>
       </c>
-      <c r="B283" s="21" cm="1">
-        <f t="array" ref="B283">INDEX(World!C:C,Basedata!C283)</f>
+      <c r="C283" s="21" cm="1">
+        <f t="array" ref="C283">INDEX(World!C:C,Basedata!D283)</f>
         <v>26223</v>
       </c>
-      <c r="C283">
-        <f>MATCH(A283,World!B:B,0)</f>
+      <c r="D283">
+        <f>MATCH(B283,World!B:B,0)</f>
         <v>41</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
+    <row r="284" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B284" t="s">
         <v>60</v>
       </c>
-      <c r="B284" s="21" cm="1">
-        <f t="array" ref="B284">INDEX(World!C:C,Basedata!C284)</f>
+      <c r="C284" s="21" cm="1">
+        <f t="array" ref="C284">INDEX(World!C:C,Basedata!D284)</f>
         <v>16425864</v>
       </c>
-      <c r="C284">
-        <f>MATCH(A284,World!B:B,0)</f>
+      <c r="D284">
+        <f>MATCH(B284,World!B:B,0)</f>
         <v>44</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
+    <row r="285" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B285" t="s">
         <v>61</v>
       </c>
-      <c r="B285" s="21" cm="1">
-        <f t="array" ref="B285">INDEX(World!C:C,Basedata!C285)</f>
+      <c r="C285" s="21" cm="1">
+        <f t="array" ref="C285">INDEX(World!C:C,Basedata!D285)</f>
         <v>173863</v>
       </c>
-      <c r="C285">
-        <f>MATCH(A285,World!B:B,0)</f>
+      <c r="D285">
+        <f>MATCH(B285,World!B:B,0)</f>
         <v>45</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
+    <row r="286" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B286" t="s">
         <v>65</v>
       </c>
-      <c r="B286" s="21" cm="1">
-        <f t="array" ref="B286">INDEX(World!C:C,Basedata!C286)</f>
+      <c r="C286" s="21" cm="1">
+        <f t="array" ref="C286">INDEX(World!C:C,Basedata!D286)</f>
         <v>869601</v>
       </c>
-      <c r="C286">
-        <f>MATCH(A286,World!B:B,0)</f>
+      <c r="D286">
+        <f>MATCH(B286,World!B:B,0)</f>
         <v>49</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
+    <row r="287" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B287" t="s">
         <v>66</v>
       </c>
-      <c r="B287" s="21" cm="1">
-        <f t="array" ref="B287">INDEX(World!C:C,Basedata!C287)</f>
+      <c r="C287" s="21" cm="1">
+        <f t="array" ref="C287">INDEX(World!C:C,Basedata!D287)</f>
         <v>17564</v>
       </c>
-      <c r="C287">
-        <f>MATCH(A287,World!B:B,0)</f>
+      <c r="D287">
+        <f>MATCH(B287,World!B:B,0)</f>
         <v>52</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
+    <row r="288" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B288" t="s">
         <v>72</v>
       </c>
-      <c r="B288" s="21" cm="1">
-        <f t="array" ref="B288">INDEX(World!C:C,Basedata!C288)</f>
+      <c r="C288" s="21" cm="1">
+        <f t="array" ref="C288">INDEX(World!C:C,Basedata!D288)</f>
         <v>988000</v>
       </c>
-      <c r="C288">
-        <f>MATCH(A288,World!B:B,0)</f>
+      <c r="D288">
+        <f>MATCH(B288,World!B:B,0)</f>
         <v>61</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
+    <row r="289" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B289" t="s">
         <v>73</v>
       </c>
-      <c r="B289" s="21" cm="1">
-        <f t="array" ref="B289">INDEX(World!C:C,Basedata!C289)</f>
+      <c r="C289" s="21" cm="1">
+        <f t="array" ref="C289">INDEX(World!C:C,Basedata!D289)</f>
         <v>71986</v>
       </c>
-      <c r="C289">
-        <f>MATCH(A289,World!B:B,0)</f>
+      <c r="D289">
+        <f>MATCH(B289,World!B:B,0)</f>
         <v>62</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
+    <row r="290" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B290" t="s">
         <v>676</v>
       </c>
-      <c r="B290" s="21" cm="1">
-        <f t="array" ref="B290">INDEX(World!C:C,Basedata!C290)</f>
+      <c r="C290" s="21" cm="1">
+        <f t="array" ref="C290">INDEX(World!C:C,Basedata!D290)</f>
         <v>89561403</v>
       </c>
-      <c r="C290">
-        <f>MATCH(A290,World!B:B,0)</f>
+      <c r="D290">
+        <f>MATCH(B290,World!B:B,0)</f>
         <v>64</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
+    <row r="291" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B291" t="s">
         <v>77</v>
       </c>
-      <c r="B291" s="21" cm="1">
-        <f t="array" ref="B291">INDEX(World!C:C,Basedata!C291)</f>
+      <c r="C291" s="21" cm="1">
+        <f t="array" ref="C291">INDEX(World!C:C,Basedata!D291)</f>
         <v>6486205</v>
       </c>
-      <c r="C291">
-        <f>MATCH(A291,World!B:B,0)</f>
+      <c r="D291">
+        <f>MATCH(B291,World!B:B,0)</f>
         <v>67</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
+    <row r="292" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B292" t="s">
         <v>79</v>
       </c>
-      <c r="B292" s="21" cm="1">
-        <f t="array" ref="B292">INDEX(World!C:C,Basedata!C292)</f>
+      <c r="C292" s="21" cm="1">
+        <f t="array" ref="C292">INDEX(World!C:C,Basedata!D292)</f>
         <v>3546421</v>
       </c>
-      <c r="C292">
-        <f>MATCH(A292,World!B:B,0)</f>
+      <c r="D292">
+        <f>MATCH(B292,World!B:B,0)</f>
         <v>69</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
+    <row r="293" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B293" t="s">
         <v>83</v>
       </c>
-      <c r="B293" s="21" cm="1">
-        <f t="array" ref="B293">INDEX(World!C:C,Basedata!C293)</f>
+      <c r="C293" s="21" cm="1">
+        <f t="array" ref="C293">INDEX(World!C:C,Basedata!D293)</f>
         <v>48863</v>
       </c>
-      <c r="C293">
-        <f>MATCH(A293,World!B:B,0)</f>
+      <c r="D293">
+        <f>MATCH(B293,World!B:B,0)</f>
         <v>73</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
+    <row r="294" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B294" t="s">
         <v>84</v>
       </c>
-      <c r="B294" s="21" cm="1">
-        <f t="array" ref="B294">INDEX(World!C:C,Basedata!C294)</f>
+      <c r="C294" s="21" cm="1">
+        <f t="array" ref="C294">INDEX(World!C:C,Basedata!D294)</f>
         <v>3480</v>
       </c>
-      <c r="C294">
-        <f>MATCH(A294,World!B:B,0)</f>
+      <c r="D294">
+        <f>MATCH(B294,World!B:B,0)</f>
         <v>74</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
+    <row r="295" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B295" t="s">
         <v>85</v>
       </c>
-      <c r="B295" s="21" cm="1">
-        <f t="array" ref="B295">INDEX(World!C:C,Basedata!C295)</f>
+      <c r="C295" s="21" cm="1">
+        <f t="array" ref="C295">INDEX(World!C:C,Basedata!D295)</f>
         <v>896445</v>
       </c>
-      <c r="C295">
-        <f>MATCH(A295,World!B:B,0)</f>
+      <c r="D295">
+        <f>MATCH(B295,World!B:B,0)</f>
         <v>75</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
+    <row r="296" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B296" t="s">
         <v>89</v>
       </c>
-      <c r="B296" s="21" cm="1">
-        <f t="array" ref="B296">INDEX(World!C:C,Basedata!C296)</f>
+      <c r="C296" s="21" cm="1">
+        <f t="array" ref="C296">INDEX(World!C:C,Basedata!D296)</f>
         <v>280908</v>
       </c>
-      <c r="C296">
-        <f>MATCH(A296,World!B:B,0)</f>
+      <c r="D296">
+        <f>MATCH(B296,World!B:B,0)</f>
         <v>79</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
+    <row r="297" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B297" t="s">
         <v>91</v>
       </c>
-      <c r="B297" s="21" cm="1">
-        <f t="array" ref="B297">INDEX(World!C:C,Basedata!C297)</f>
+      <c r="C297" s="21" cm="1">
+        <f t="array" ref="C297">INDEX(World!C:C,Basedata!D297)</f>
         <v>2416668</v>
       </c>
-      <c r="C297">
-        <f>MATCH(A297,World!B:B,0)</f>
+      <c r="D297">
+        <f>MATCH(B297,World!B:B,0)</f>
         <v>81</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
+    <row r="298" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B298" t="s">
         <v>95</v>
       </c>
-      <c r="B298" s="21" cm="1">
-        <f t="array" ref="B298">INDEX(World!C:C,Basedata!C298)</f>
+      <c r="C298" s="21" cm="1">
+        <f t="array" ref="C298">INDEX(World!C:C,Basedata!D298)</f>
         <v>33691</v>
       </c>
-      <c r="C298">
-        <f>MATCH(A298,World!B:B,0)</f>
+      <c r="D298">
+        <f>MATCH(B298,World!B:B,0)</f>
         <v>85</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
+    <row r="299" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B299" t="s">
         <v>97</v>
       </c>
-      <c r="B299" s="21" cm="1">
-        <f t="array" ref="B299">INDEX(World!C:C,Basedata!C299)</f>
+      <c r="C299" s="21" cm="1">
+        <f t="array" ref="C299">INDEX(World!C:C,Basedata!D299)</f>
         <v>56770</v>
       </c>
-      <c r="C299">
-        <f>MATCH(A299,World!B:B,0)</f>
+      <c r="D299">
+        <f>MATCH(B299,World!B:B,0)</f>
         <v>87</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
+    <row r="300" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B300" t="s">
         <v>98</v>
       </c>
-      <c r="B300" s="21" cm="1">
-        <f t="array" ref="B300">INDEX(World!C:C,Basedata!C300)</f>
+      <c r="C300" s="21" cm="1">
+        <f t="array" ref="C300">INDEX(World!C:C,Basedata!D300)</f>
         <v>112523</v>
       </c>
-      <c r="C300">
-        <f>MATCH(A300,World!B:B,0)</f>
+      <c r="D300">
+        <f>MATCH(B300,World!B:B,0)</f>
         <v>88</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
+    <row r="301" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B301" t="s">
         <v>99</v>
       </c>
-      <c r="B301" s="21" cm="1">
-        <f t="array" ref="B301">INDEX(World!C:C,Basedata!C301)</f>
+      <c r="C301" s="21" cm="1">
+        <f t="array" ref="C301">INDEX(World!C:C,Basedata!D301)</f>
         <v>168775</v>
       </c>
-      <c r="C301">
-        <f>MATCH(A301,World!B:B,0)</f>
+      <c r="D301">
+        <f>MATCH(B301,World!B:B,0)</f>
         <v>90</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
+    <row r="302" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B302" t="s">
         <v>102</v>
       </c>
-      <c r="B302" s="21" cm="1">
-        <f t="array" ref="B302">INDEX(World!C:C,Basedata!C302)</f>
+      <c r="C302" s="21" cm="1">
+        <f t="array" ref="C302">INDEX(World!C:C,Basedata!D302)</f>
         <v>1968001</v>
       </c>
-      <c r="C302">
-        <f>MATCH(A302,World!B:B,0)</f>
+      <c r="D302">
+        <f>MATCH(B302,World!B:B,0)</f>
         <v>93</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
+    <row r="303" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B303" t="s">
         <v>104</v>
       </c>
-      <c r="B303" s="21" cm="1">
-        <f t="array" ref="B303">INDEX(World!C:C,Basedata!C303)</f>
+      <c r="C303" s="21" cm="1">
+        <f t="array" ref="C303">INDEX(World!C:C,Basedata!D303)</f>
         <v>11402528</v>
       </c>
-      <c r="C303">
-        <f>MATCH(A303,World!B:B,0)</f>
+      <c r="D303">
+        <f>MATCH(B303,World!B:B,0)</f>
         <v>95</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
+    <row r="304" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B304" t="s">
         <v>107</v>
       </c>
-      <c r="B304" s="21" cm="1">
-        <f t="array" ref="B304">INDEX(World!C:C,Basedata!C304)</f>
+      <c r="C304" s="21" cm="1">
+        <f t="array" ref="C304">INDEX(World!C:C,Basedata!D304)</f>
         <v>7496981</v>
       </c>
-      <c r="C304">
-        <f>MATCH(A304,World!B:B,0)</f>
+      <c r="D304">
+        <f>MATCH(B304,World!B:B,0)</f>
         <v>98</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
+    <row r="305" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B305" t="s">
         <v>115</v>
       </c>
-      <c r="B305" s="21" cm="1">
-        <f t="array" ref="B305">INDEX(World!C:C,Basedata!C305)</f>
+      <c r="C305" s="21" cm="1">
+        <f t="array" ref="C305">INDEX(World!C:C,Basedata!D305)</f>
         <v>85033</v>
       </c>
-      <c r="C305">
-        <f>MATCH(A305,World!B:B,0)</f>
+      <c r="D305">
+        <f>MATCH(B305,World!B:B,0)</f>
         <v>106</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
+    <row r="306" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B306" t="s">
         <v>123</v>
       </c>
-      <c r="B306" s="21" cm="1">
-        <f t="array" ref="B306">INDEX(World!C:C,Basedata!C306)</f>
+      <c r="C306" s="21" cm="1">
+        <f t="array" ref="C306">INDEX(World!C:C,Basedata!D306)</f>
         <v>119449</v>
       </c>
-      <c r="C306">
-        <f>MATCH(A306,World!B:B,0)</f>
+      <c r="D306">
+        <f>MATCH(B306,World!B:B,0)</f>
         <v>114</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
+    <row r="307" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B307" t="s">
         <v>125</v>
       </c>
-      <c r="B307" s="21" cm="1">
-        <f t="array" ref="B307">INDEX(World!C:C,Basedata!C307)</f>
+      <c r="C307" s="21" cm="1">
+        <f t="array" ref="C307">INDEX(World!C:C,Basedata!D307)</f>
         <v>6524195</v>
       </c>
-      <c r="C307">
-        <f>MATCH(A307,World!B:B,0)</f>
+      <c r="D307">
+        <f>MATCH(B307,World!B:B,0)</f>
         <v>116</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
+    <row r="308" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B308" t="s">
         <v>126</v>
       </c>
-      <c r="B308" s="21" cm="1">
-        <f t="array" ref="B308">INDEX(World!C:C,Basedata!C308)</f>
+      <c r="C308" s="21" cm="1">
+        <f t="array" ref="C308">INDEX(World!C:C,Basedata!D308)</f>
         <v>7275560</v>
       </c>
-      <c r="C308">
-        <f>MATCH(A308,World!B:B,0)</f>
+      <c r="D308">
+        <f>MATCH(B308,World!B:B,0)</f>
         <v>117</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
+    <row r="309" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B309" t="s">
         <v>129</v>
       </c>
-      <c r="B309" s="21" cm="1">
-        <f t="array" ref="B309">INDEX(World!C:C,Basedata!C309)</f>
+      <c r="C309" s="21" cm="1">
+        <f t="array" ref="C309">INDEX(World!C:C,Basedata!D309)</f>
         <v>2142249</v>
       </c>
-      <c r="C309">
-        <f>MATCH(A309,World!B:B,0)</f>
+      <c r="D309">
+        <f>MATCH(B309,World!B:B,0)</f>
         <v>120</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
+    <row r="310" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B310" t="s">
         <v>130</v>
       </c>
-      <c r="B310" s="21" cm="1">
-        <f t="array" ref="B310">INDEX(World!C:C,Basedata!C310)</f>
+      <c r="C310" s="21" cm="1">
+        <f t="array" ref="C310">INDEX(World!C:C,Basedata!D310)</f>
         <v>5057681</v>
       </c>
-      <c r="C310">
-        <f>MATCH(A310,World!B:B,0)</f>
+      <c r="D310">
+        <f>MATCH(B310,World!B:B,0)</f>
         <v>121</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
+    <row r="311" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B311" t="s">
         <v>131</v>
       </c>
-      <c r="B311" s="21" cm="1">
-        <f t="array" ref="B311">INDEX(World!C:C,Basedata!C311)</f>
+      <c r="C311" s="21" cm="1">
+        <f t="array" ref="C311">INDEX(World!C:C,Basedata!D311)</f>
         <v>6871292</v>
       </c>
-      <c r="C311">
-        <f>MATCH(A311,World!B:B,0)</f>
+      <c r="D311">
+        <f>MATCH(B311,World!B:B,0)</f>
         <v>122</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
+    <row r="312" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B312" t="s">
         <v>135</v>
       </c>
-      <c r="B312" s="21" cm="1">
-        <f t="array" ref="B312">INDEX(World!C:C,Basedata!C312)</f>
+      <c r="C312" s="21" cm="1">
+        <f t="array" ref="C312">INDEX(World!C:C,Basedata!D312)</f>
         <v>649335</v>
       </c>
-      <c r="C312">
-        <f>MATCH(A312,World!B:B,0)</f>
+      <c r="D312">
+        <f>MATCH(B312,World!B:B,0)</f>
         <v>126</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
+    <row r="313" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B313" t="s">
         <v>136</v>
       </c>
-      <c r="B313" s="21" cm="1">
-        <f t="array" ref="B313">INDEX(World!C:C,Basedata!C313)</f>
+      <c r="C313" s="21" cm="1">
+        <f t="array" ref="C313">INDEX(World!C:C,Basedata!D313)</f>
         <v>27691018</v>
       </c>
-      <c r="C313">
-        <f>MATCH(A313,World!B:B,0)</f>
+      <c r="D313">
+        <f>MATCH(B313,World!B:B,0)</f>
         <v>127</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
+    <row r="314" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B314" t="s">
         <v>137</v>
       </c>
-      <c r="B314" s="21" cm="1">
-        <f t="array" ref="B314">INDEX(World!C:C,Basedata!C314)</f>
+      <c r="C314" s="21" cm="1">
+        <f t="array" ref="C314">INDEX(World!C:C,Basedata!D314)</f>
         <v>19129952</v>
       </c>
-      <c r="C314">
-        <f>MATCH(A314,World!B:B,0)</f>
+      <c r="D314">
+        <f>MATCH(B314,World!B:B,0)</f>
         <v>128</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
+    <row r="315" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B315" t="s">
         <v>140</v>
       </c>
-      <c r="B315" s="21" cm="1">
-        <f t="array" ref="B315">INDEX(World!C:C,Basedata!C315)</f>
+      <c r="C315" s="21" cm="1">
+        <f t="array" ref="C315">INDEX(World!C:C,Basedata!D315)</f>
         <v>20250833</v>
       </c>
-      <c r="C315">
-        <f>MATCH(A315,World!B:B,0)</f>
+      <c r="D315">
+        <f>MATCH(B315,World!B:B,0)</f>
         <v>131</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
+    <row r="316" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B316" t="s">
         <v>142</v>
       </c>
-      <c r="B316" s="21" cm="1">
-        <f t="array" ref="B316">INDEX(World!C:C,Basedata!C316)</f>
+      <c r="C316" s="21" cm="1">
+        <f t="array" ref="C316">INDEX(World!C:C,Basedata!D316)</f>
         <v>59190</v>
       </c>
-      <c r="C316">
-        <f>MATCH(A316,World!B:B,0)</f>
+      <c r="D316">
+        <f>MATCH(B316,World!B:B,0)</f>
         <v>133</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A317" t="s">
+    <row r="317" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B317" t="s">
         <v>145</v>
       </c>
-      <c r="B317" s="21" cm="1">
-        <f t="array" ref="B317">INDEX(World!C:C,Basedata!C317)</f>
+      <c r="C317" s="21" cm="1">
+        <f t="array" ref="C317">INDEX(World!C:C,Basedata!D317)</f>
         <v>1271768</v>
       </c>
-      <c r="C317">
-        <f>MATCH(A317,World!B:B,0)</f>
+      <c r="D317">
+        <f>MATCH(B317,World!B:B,0)</f>
         <v>136</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
+    <row r="318" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B318" t="s">
         <v>147</v>
       </c>
-      <c r="B318" s="21" cm="1">
-        <f t="array" ref="B318">INDEX(World!C:C,Basedata!C318)</f>
+      <c r="C318" s="21" cm="1">
+        <f t="array" ref="C318">INDEX(World!C:C,Basedata!D318)</f>
         <v>115023</v>
       </c>
-      <c r="C318">
-        <f>MATCH(A318,World!B:B,0)</f>
+      <c r="D318">
+        <f>MATCH(B318,World!B:B,0)</f>
         <v>139</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A319" t="s">
+    <row r="319" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B319" t="s">
         <v>151</v>
       </c>
-      <c r="B319" s="21" cm="1">
-        <f t="array" ref="B319">INDEX(World!C:C,Basedata!C319)</f>
+      <c r="C319" s="21" cm="1">
+        <f t="array" ref="C319">INDEX(World!C:C,Basedata!D319)</f>
         <v>628066</v>
       </c>
-      <c r="C319">
-        <f>MATCH(A319,World!B:B,0)</f>
+      <c r="D319">
+        <f>MATCH(B319,World!B:B,0)</f>
         <v>143</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A320" t="s">
+    <row r="320" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B320" t="s">
         <v>152</v>
       </c>
-      <c r="B320" s="21" cm="1">
-        <f t="array" ref="B320">INDEX(World!C:C,Basedata!C320)</f>
+      <c r="C320" s="21" cm="1">
+        <f t="array" ref="C320">INDEX(World!C:C,Basedata!D320)</f>
         <v>4992</v>
       </c>
-      <c r="C320">
-        <f>MATCH(A320,World!B:B,0)</f>
+      <c r="D320">
+        <f>MATCH(B320,World!B:B,0)</f>
         <v>144</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
+    <row r="321" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B321" t="s">
         <v>154</v>
       </c>
-      <c r="B321" s="21" cm="1">
-        <f t="array" ref="B321">INDEX(World!C:C,Basedata!C321)</f>
+      <c r="C321" s="21" cm="1">
+        <f t="array" ref="C321">INDEX(World!C:C,Basedata!D321)</f>
         <v>31255435</v>
       </c>
-      <c r="C321">
-        <f>MATCH(A321,World!B:B,0)</f>
+      <c r="D321">
+        <f>MATCH(B321,World!B:B,0)</f>
         <v>146</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
+    <row r="322" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B322" t="s">
         <v>155</v>
       </c>
-      <c r="B322" s="21" cm="1">
-        <f t="array" ref="B322">INDEX(World!C:C,Basedata!C322)</f>
+      <c r="C322" s="21" cm="1">
+        <f t="array" ref="C322">INDEX(World!C:C,Basedata!D322)</f>
         <v>54409800</v>
       </c>
-      <c r="C322">
-        <f>MATCH(A322,World!B:B,0)</f>
+      <c r="D322">
+        <f>MATCH(B322,World!B:B,0)</f>
         <v>147</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
+    <row r="323" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B323" t="s">
         <v>157</v>
       </c>
-      <c r="B323" s="21" cm="1">
-        <f t="array" ref="B323">INDEX(World!C:C,Basedata!C323)</f>
+      <c r="C323" s="21" cm="1">
+        <f t="array" ref="C323">INDEX(World!C:C,Basedata!D323)</f>
         <v>10824</v>
       </c>
-      <c r="C323">
-        <f>MATCH(A323,World!B:B,0)</f>
+      <c r="D323">
+        <f>MATCH(B323,World!B:B,0)</f>
         <v>149</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A324" t="s">
+    <row r="324" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B324" t="s">
         <v>160</v>
       </c>
-      <c r="B324" s="21" cm="1">
-        <f t="array" ref="B324">INDEX(World!C:C,Basedata!C324)</f>
+      <c r="C324" s="21" cm="1">
+        <f t="array" ref="C324">INDEX(World!C:C,Basedata!D324)</f>
         <v>285498</v>
       </c>
-      <c r="C324">
-        <f>MATCH(A324,World!B:B,0)</f>
+      <c r="D324">
+        <f>MATCH(B324,World!B:B,0)</f>
         <v>152</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
+    <row r="325" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B325" t="s">
         <v>162</v>
       </c>
-      <c r="B325" s="21" cm="1">
-        <f t="array" ref="B325">INDEX(World!C:C,Basedata!C325)</f>
+      <c r="C325" s="21" cm="1">
+        <f t="array" ref="C325">INDEX(World!C:C,Basedata!D325)</f>
         <v>6624554</v>
       </c>
-      <c r="C325">
-        <f>MATCH(A325,World!B:B,0)</f>
+      <c r="D325">
+        <f>MATCH(B325,World!B:B,0)</f>
         <v>154</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
+    <row r="326" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B326" t="s">
         <v>163</v>
       </c>
-      <c r="B326" s="21" cm="1">
-        <f t="array" ref="B326">INDEX(World!C:C,Basedata!C326)</f>
+      <c r="C326" s="21" cm="1">
+        <f t="array" ref="C326">INDEX(World!C:C,Basedata!D326)</f>
         <v>24206644</v>
       </c>
-      <c r="C326">
-        <f>MATCH(A326,World!B:B,0)</f>
+      <c r="D326">
+        <f>MATCH(B326,World!B:B,0)</f>
         <v>155</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
+    <row r="327" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B327" t="s">
         <v>165</v>
       </c>
-      <c r="B327" s="21" cm="1">
-        <f t="array" ref="B327">INDEX(World!C:C,Basedata!C327)</f>
+      <c r="C327" s="21" cm="1">
+        <f t="array" ref="C327">INDEX(World!C:C,Basedata!D327)</f>
         <v>1626</v>
       </c>
-      <c r="C327">
-        <f>MATCH(A327,World!B:B,0)</f>
+      <c r="D327">
+        <f>MATCH(B327,World!B:B,0)</f>
         <v>157</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A328" t="s">
+    <row r="328" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B328" t="s">
         <v>166</v>
       </c>
-      <c r="B328" s="21" cm="1">
-        <f t="array" ref="B328">INDEX(World!C:C,Basedata!C328)</f>
+      <c r="C328" s="21" cm="1">
+        <f t="array" ref="C328">INDEX(World!C:C,Basedata!D328)</f>
         <v>25778816</v>
       </c>
-      <c r="C328">
-        <f>MATCH(A328,World!B:B,0)</f>
+      <c r="D328">
+        <f>MATCH(B328,World!B:B,0)</f>
         <v>158</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A329" t="s">
+    <row r="329" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B329" t="s">
         <v>168</v>
       </c>
-      <c r="B329" s="21" cm="1">
-        <f t="array" ref="B329">INDEX(World!C:C,Basedata!C329)</f>
+      <c r="C329" s="21" cm="1">
+        <f t="array" ref="C329">INDEX(World!C:C,Basedata!D329)</f>
         <v>57559</v>
       </c>
-      <c r="C329">
-        <f>MATCH(A329,World!B:B,0)</f>
+      <c r="D329">
+        <f>MATCH(B329,World!B:B,0)</f>
         <v>160</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A330" t="s">
+    <row r="330" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B330" t="s">
         <v>172</v>
       </c>
-      <c r="B330" s="21" cm="1">
-        <f t="array" ref="B330">INDEX(World!C:C,Basedata!C330)</f>
+      <c r="C330" s="21" cm="1">
+        <f t="array" ref="C330">INDEX(World!C:C,Basedata!D330)</f>
         <v>18094</v>
       </c>
-      <c r="C330">
-        <f>MATCH(A330,World!B:B,0)</f>
+      <c r="D330">
+        <f>MATCH(B330,World!B:B,0)</f>
         <v>164</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A331" t="s">
+    <row r="331" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B331" t="s">
         <v>174</v>
       </c>
-      <c r="B331" s="21" cm="1">
-        <f t="array" ref="B331">INDEX(World!C:C,Basedata!C331)</f>
+      <c r="C331" s="21" cm="1">
+        <f t="array" ref="C331">INDEX(World!C:C,Basedata!D331)</f>
         <v>8947024</v>
       </c>
-      <c r="C331">
-        <f>MATCH(A331,World!B:B,0)</f>
+      <c r="D331">
+        <f>MATCH(B331,World!B:B,0)</f>
         <v>166</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A332" t="s">
+    <row r="332" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B332" t="s">
         <v>180</v>
       </c>
-      <c r="B332" s="21" cm="1">
-        <f t="array" ref="B332">INDEX(World!C:C,Basedata!C332)</f>
+      <c r="C332" s="21" cm="1">
+        <f t="array" ref="C332">INDEX(World!C:C,Basedata!D332)</f>
         <v>2860853</v>
       </c>
-      <c r="C332">
-        <f>MATCH(A332,World!B:B,0)</f>
+      <c r="D332">
+        <f>MATCH(B332,World!B:B,0)</f>
         <v>172</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A333" t="s">
+    <row r="333" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B333" t="s">
         <v>185</v>
       </c>
-      <c r="B333" s="21" cm="1">
-        <f t="array" ref="B333">INDEX(World!C:C,Basedata!C333)</f>
+      <c r="C333" s="21" cm="1">
+        <f t="array" ref="C333">INDEX(World!C:C,Basedata!D333)</f>
         <v>9877</v>
       </c>
-      <c r="C333">
-        <f>MATCH(A333,World!B:B,0)</f>
+      <c r="D333">
+        <f>MATCH(B333,World!B:B,0)</f>
         <v>178</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A334" t="s">
+    <row r="334" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B334" t="s">
         <v>186</v>
       </c>
-      <c r="B334" s="21" cm="1">
-        <f t="array" ref="B334">INDEX(World!C:C,Basedata!C334)</f>
+      <c r="C334" s="21" cm="1">
+        <f t="array" ref="C334">INDEX(World!C:C,Basedata!D334)</f>
         <v>6077</v>
       </c>
-      <c r="C334">
-        <f>MATCH(A334,World!B:B,0)</f>
+      <c r="D334">
+        <f>MATCH(B334,World!B:B,0)</f>
         <v>179</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A335" t="s">
+    <row r="335" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B335" t="s">
         <v>187</v>
       </c>
-      <c r="B335" s="21" cm="1">
-        <f t="array" ref="B335">INDEX(World!C:C,Basedata!C335)</f>
+      <c r="C335" s="21" cm="1">
+        <f t="array" ref="C335">INDEX(World!C:C,Basedata!D335)</f>
         <v>53199</v>
       </c>
-      <c r="C335">
-        <f>MATCH(A335,World!B:B,0)</f>
+      <c r="D335">
+        <f>MATCH(B335,World!B:B,0)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A336" t="s">
+    <row r="336" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B336" t="s">
         <v>189</v>
       </c>
-      <c r="B336" s="21" cm="1">
-        <f t="array" ref="B336">INDEX(World!C:C,Basedata!C336)</f>
+      <c r="C336" s="21" cm="1">
+        <f t="array" ref="C336">INDEX(World!C:C,Basedata!D336)</f>
         <v>38666</v>
       </c>
-      <c r="C336">
-        <f>MATCH(A336,World!B:B,0)</f>
+      <c r="D336">
+        <f>MATCH(B336,World!B:B,0)</f>
         <v>182</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A337" t="s">
+    <row r="337" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B337" t="s">
         <v>190</v>
       </c>
-      <c r="B337" s="21" cm="1">
-        <f t="array" ref="B337">INDEX(World!C:C,Basedata!C337)</f>
+      <c r="C337" s="21" cm="1">
+        <f t="array" ref="C337">INDEX(World!C:C,Basedata!D337)</f>
         <v>5794</v>
       </c>
-      <c r="C337">
-        <f>MATCH(A337,World!B:B,0)</f>
+      <c r="D337">
+        <f>MATCH(B337,World!B:B,0)</f>
         <v>183</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A338" t="s">
+    <row r="338" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B338" t="s">
         <v>191</v>
       </c>
-      <c r="B338" s="21" cm="1">
-        <f t="array" ref="B338">INDEX(World!C:C,Basedata!C338)</f>
+      <c r="C338" s="21" cm="1">
+        <f t="array" ref="C338">INDEX(World!C:C,Basedata!D338)</f>
         <v>198414</v>
       </c>
-      <c r="C338">
-        <f>MATCH(A338,World!B:B,0)</f>
+      <c r="D338">
+        <f>MATCH(B338,World!B:B,0)</f>
         <v>184</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A339" t="s">
+    <row r="339" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B339" t="s">
         <v>193</v>
       </c>
-      <c r="B339" s="21" cm="1">
-        <f t="array" ref="B339">INDEX(World!C:C,Basedata!C339)</f>
+      <c r="C339" s="21" cm="1">
+        <f t="array" ref="C339">INDEX(World!C:C,Basedata!D339)</f>
         <v>219159</v>
       </c>
-      <c r="C339">
-        <f>MATCH(A339,World!B:B,0)</f>
+      <c r="D339">
+        <f>MATCH(B339,World!B:B,0)</f>
         <v>186</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A340" t="s">
+    <row r="340" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B340" t="s">
         <v>198</v>
       </c>
-      <c r="B340" s="21" cm="1">
-        <f t="array" ref="B340">INDEX(World!C:C,Basedata!C340)</f>
+      <c r="C340" s="21" cm="1">
+        <f t="array" ref="C340">INDEX(World!C:C,Basedata!D340)</f>
         <v>7976983</v>
       </c>
-      <c r="C340">
-        <f>MATCH(A340,World!B:B,0)</f>
+      <c r="D340">
+        <f>MATCH(B340,World!B:B,0)</f>
         <v>191</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A341" t="s">
+    <row r="341" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B341" t="s">
         <v>200</v>
       </c>
-      <c r="B341" s="21" cm="1">
-        <f t="array" ref="B341">INDEX(World!C:C,Basedata!C341)</f>
+      <c r="C341" s="21" cm="1">
+        <f t="array" ref="C341">INDEX(World!C:C,Basedata!D341)</f>
         <v>42876</v>
       </c>
-      <c r="C341">
-        <f>MATCH(A341,World!B:B,0)</f>
+      <c r="D341">
+        <f>MATCH(B341,World!B:B,0)</f>
         <v>193</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A342" t="s">
+    <row r="342" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B342" t="s">
         <v>203</v>
       </c>
-      <c r="B342" s="21" cm="1">
-        <f t="array" ref="B342">INDEX(World!C:C,Basedata!C342)</f>
+      <c r="C342" s="21" cm="1">
+        <f t="array" ref="C342">INDEX(World!C:C,Basedata!D342)</f>
         <v>686884</v>
       </c>
-      <c r="C342">
-        <f>MATCH(A342,World!B:B,0)</f>
+      <c r="D342">
+        <f>MATCH(B342,World!B:B,0)</f>
         <v>196</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A343" t="s">
+    <row r="343" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B343" t="s">
         <v>204</v>
       </c>
-      <c r="B343" s="21" cm="1">
-        <f t="array" ref="B343">INDEX(World!C:C,Basedata!C343)</f>
+      <c r="C343" s="21" cm="1">
+        <f t="array" ref="C343">INDEX(World!C:C,Basedata!D343)</f>
         <v>15893222</v>
       </c>
-      <c r="C343">
-        <f>MATCH(A343,World!B:B,0)</f>
+      <c r="D343">
+        <f>MATCH(B343,World!B:B,0)</f>
         <v>197</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A344" t="s">
+    <row r="344" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B344" t="s">
         <v>206</v>
       </c>
-      <c r="B344" s="21" cm="1">
-        <f t="array" ref="B344">INDEX(World!C:C,Basedata!C344)</f>
+      <c r="C344" s="21" cm="1">
+        <f t="array" ref="C344">INDEX(World!C:C,Basedata!D344)</f>
         <v>11193725</v>
       </c>
-      <c r="C344">
-        <f>MATCH(A344,World!B:B,0)</f>
+      <c r="D344">
+        <f>MATCH(B344,World!B:B,0)</f>
         <v>200</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A345" t="s">
+    <row r="345" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B345" t="s">
         <v>213</v>
       </c>
-      <c r="B345" s="21" cm="1">
-        <f t="array" ref="B345">INDEX(World!C:C,Basedata!C345)</f>
+      <c r="C345" s="21" cm="1">
+        <f t="array" ref="C345">INDEX(World!C:C,Basedata!D345)</f>
         <v>17500658</v>
       </c>
-      <c r="C345">
-        <f>MATCH(A345,World!B:B,0)</f>
+      <c r="D345">
+        <f>MATCH(B345,World!B:B,0)</f>
         <v>209</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A346" t="s">
+    <row r="346" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B346" t="s">
         <v>214</v>
       </c>
-      <c r="B346" s="21" cm="1">
-        <f t="array" ref="B346">INDEX(World!C:C,Basedata!C346)</f>
+      <c r="C346" s="21" cm="1">
+        <f t="array" ref="C346">INDEX(World!C:C,Basedata!D346)</f>
         <v>23816775</v>
       </c>
-      <c r="C346">
-        <f>MATCH(A346,World!B:B,0)</f>
+      <c r="D346">
+        <f>MATCH(B346,World!B:B,0)</f>
         <v>210</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A347" t="s">
+    <row r="347" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B347" t="s">
         <v>215</v>
       </c>
-      <c r="B347" s="21" cm="1">
-        <f t="array" ref="B347">INDEX(World!C:C,Basedata!C347)</f>
+      <c r="C347" s="21" cm="1">
+        <f t="array" ref="C347">INDEX(World!C:C,Basedata!D347)</f>
         <v>9537645</v>
       </c>
-      <c r="C347">
-        <f>MATCH(A347,World!B:B,0)</f>
+      <c r="D347">
+        <f>MATCH(B347,World!B:B,0)</f>
         <v>211</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A348" t="s">
+    <row r="348" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B348" t="s">
         <v>216</v>
       </c>
-      <c r="B348" s="21" cm="1">
-        <f t="array" ref="B348">INDEX(World!C:C,Basedata!C348)</f>
+      <c r="C348" s="21" cm="1">
+        <f t="array" ref="C348">INDEX(World!C:C,Basedata!D348)</f>
         <v>59734218</v>
       </c>
-      <c r="C348">
-        <f>MATCH(A348,World!B:B,0)</f>
+      <c r="D348">
+        <f>MATCH(B348,World!B:B,0)</f>
         <v>212</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A349" t="s">
+    <row r="349" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B349" t="s">
         <v>218</v>
       </c>
-      <c r="B349" s="21" cm="1">
-        <f t="array" ref="B349">INDEX(World!C:C,Basedata!C349)</f>
+      <c r="C349" s="21" cm="1">
+        <f t="array" ref="C349">INDEX(World!C:C,Basedata!D349)</f>
         <v>1318445</v>
       </c>
-      <c r="C349">
-        <f>MATCH(A349,World!B:B,0)</f>
+      <c r="D349">
+        <f>MATCH(B349,World!B:B,0)</f>
         <v>214</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A350" t="s">
+    <row r="350" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B350" t="s">
         <v>220</v>
       </c>
-      <c r="B350" s="21" cm="1">
-        <f t="array" ref="B350">INDEX(World!C:C,Basedata!C350)</f>
+      <c r="C350" s="21" cm="1">
+        <f t="array" ref="C350">INDEX(World!C:C,Basedata!D350)</f>
         <v>1357</v>
       </c>
-      <c r="C350">
-        <f>MATCH(A350,World!B:B,0)</f>
+      <c r="D350">
+        <f>MATCH(B350,World!B:B,0)</f>
         <v>216</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A351" t="s">
+    <row r="351" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B351" t="s">
         <v>221</v>
       </c>
-      <c r="B351" s="21" cm="1">
-        <f t="array" ref="B351">INDEX(World!C:C,Basedata!C351)</f>
+      <c r="C351" s="21" cm="1">
+        <f t="array" ref="C351">INDEX(World!C:C,Basedata!D351)</f>
         <v>105695</v>
       </c>
-      <c r="C351">
-        <f>MATCH(A351,World!B:B,0)</f>
+      <c r="D351">
+        <f>MATCH(B351,World!B:B,0)</f>
         <v>217</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A352" t="s">
+    <row r="352" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B352" t="s">
         <v>225</v>
       </c>
-      <c r="B352" s="21" cm="1">
-        <f t="array" ref="B352">INDEX(World!C:C,Basedata!C352)</f>
+      <c r="C352" s="21" cm="1">
+        <f t="array" ref="C352">INDEX(World!C:C,Basedata!D352)</f>
         <v>6031200</v>
       </c>
-      <c r="C352">
-        <f>MATCH(A352,World!B:B,0)</f>
+      <c r="D352">
+        <f>MATCH(B352,World!B:B,0)</f>
         <v>221</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A353" t="s">
+    <row r="353" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B353" t="s">
         <v>226</v>
       </c>
-      <c r="B353" s="21" cm="1">
-        <f t="array" ref="B353">INDEX(World!C:C,Basedata!C353)</f>
+      <c r="C353" s="21" cm="1">
+        <f t="array" ref="C353">INDEX(World!C:C,Basedata!D353)</f>
         <v>38717</v>
       </c>
-      <c r="C353">
-        <f>MATCH(A353,World!B:B,0)</f>
+      <c r="D353">
+        <f>MATCH(B353,World!B:B,0)</f>
         <v>222</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A354" t="s">
+    <row r="354" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B354" t="s">
         <v>227</v>
       </c>
-      <c r="B354" s="21" cm="1">
-        <f t="array" ref="B354">INDEX(World!C:C,Basedata!C354)</f>
+      <c r="C354" s="21" cm="1">
+        <f t="array" ref="C354">INDEX(World!C:C,Basedata!D354)</f>
         <v>11792</v>
       </c>
-      <c r="C354">
-        <f>MATCH(A354,World!B:B,0)</f>
+      <c r="D354">
+        <f>MATCH(B354,World!B:B,0)</f>
         <v>223</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A355" t="s">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="B355" t="s">
         <v>678</v>
       </c>
-      <c r="B355" s="21" cm="1">
-        <f t="array" ref="B355">INDEX(World!C:C,Basedata!C355)</f>
+      <c r="C355" s="21" cm="1">
+        <f t="array" ref="C355">INDEX(World!C:C,Basedata!D355)</f>
         <v>104425</v>
       </c>
-      <c r="C355">
-        <f>MATCH(A355,World!B:B,0)</f>
+      <c r="D355">
+        <f>MATCH(B355,World!B:B,0)</f>
         <v>224</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
+    <row r="356" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B356" t="s">
         <v>228</v>
       </c>
-      <c r="B356" s="21" cm="1">
-        <f t="array" ref="B356">INDEX(World!C:C,Basedata!C356)</f>
+      <c r="C356" s="21" cm="1">
+        <f t="array" ref="C356">INDEX(World!C:C,Basedata!D356)</f>
         <v>45741007</v>
       </c>
-      <c r="C356">
-        <f>MATCH(A356,World!B:B,0)</f>
+      <c r="D356">
+        <f>MATCH(B356,World!B:B,0)</f>
         <v>225</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
+    <row r="357" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B357" t="s">
         <v>234</v>
       </c>
-      <c r="B357" s="21" cm="1">
-        <f t="array" ref="B357">INDEX(World!C:C,Basedata!C357)</f>
+      <c r="C357" s="21" cm="1">
+        <f t="array" ref="C357">INDEX(World!C:C,Basedata!D357)</f>
         <v>307145</v>
       </c>
-      <c r="C357">
-        <f>MATCH(A357,World!B:B,0)</f>
+      <c r="D357">
+        <f>MATCH(B357,World!B:B,0)</f>
         <v>232</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A358" t="s">
+    <row r="358" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B358" t="s">
         <v>237</v>
       </c>
-      <c r="B358" s="21" cm="1">
-        <f t="array" ref="B358">INDEX(World!C:C,Basedata!C358)</f>
+      <c r="C358" s="21" cm="1">
+        <f t="array" ref="C358">INDEX(World!C:C,Basedata!D358)</f>
         <v>11239</v>
       </c>
-      <c r="C358">
-        <f>MATCH(A358,World!B:B,0)</f>
+      <c r="D358">
+        <f>MATCH(B358,World!B:B,0)</f>
         <v>235</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A359" t="s">
+    <row r="359" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B359" t="s">
         <v>238</v>
       </c>
-      <c r="B359" s="21" cm="1">
-        <f t="array" ref="B359">INDEX(World!C:C,Basedata!C359)</f>
+      <c r="C359" s="21" cm="1">
+        <f t="array" ref="C359">INDEX(World!C:C,Basedata!D359)</f>
         <v>597339</v>
       </c>
-      <c r="C359">
-        <f>MATCH(A359,World!B:B,0)</f>
+      <c r="D359">
+        <f>MATCH(B359,World!B:B,0)</f>
         <v>236</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A360" t="s">
+    <row r="360" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B360" t="s">
         <v>239</v>
       </c>
-      <c r="B360" s="21" cm="1">
-        <f t="array" ref="B360">INDEX(World!C:C,Basedata!C360)</f>
+      <c r="C360" s="21" cm="1">
+        <f t="array" ref="C360">INDEX(World!C:C,Basedata!D360)</f>
         <v>29825964</v>
       </c>
-      <c r="C360">
-        <f>MATCH(A360,World!B:B,0)</f>
+      <c r="D360">
+        <f>MATCH(B360,World!B:B,0)</f>
         <v>237</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A361" t="s">
+    <row r="361" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B361" t="s">
         <v>240</v>
       </c>
-      <c r="B361" s="21" cm="1">
-        <f t="array" ref="B361">INDEX(World!C:C,Basedata!C361)</f>
+      <c r="C361" s="21" cm="1">
+        <f t="array" ref="C361">INDEX(World!C:C,Basedata!D361)</f>
         <v>18383955</v>
       </c>
-      <c r="C361">
-        <f>MATCH(A361,World!B:B,0)</f>
+      <c r="D361">
+        <f>MATCH(B361,World!B:B,0)</f>
         <v>238</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A362" t="s">
+    <row r="362" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B362" t="s">
         <v>241</v>
       </c>
-      <c r="B362" s="21" cm="1">
-        <f t="array" ref="B362">INDEX(World!C:C,Basedata!C362)</f>
+      <c r="C362" s="21" cm="1">
+        <f t="array" ref="C362">INDEX(World!C:C,Basedata!D362)</f>
         <v>14862924</v>
       </c>
-      <c r="C362">
-        <f>MATCH(A362,World!B:B,0)</f>
+      <c r="D362">
+        <f>MATCH(B362,World!B:B,0)</f>
         <v>239</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D362" xr:uid="{16A59AA1-E676-469E-927A-952702C5B40E}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="US"/>
+        <filter val="US Alabama"/>
+        <filter val="US Alaska"/>
+        <filter val="US Arizona"/>
+        <filter val="US Arkansas"/>
+        <filter val="US California"/>
+        <filter val="US Colorado"/>
+        <filter val="US Connecticut"/>
+        <filter val="US Delaware"/>
+        <filter val="US District of Columbia"/>
+        <filter val="US Florida"/>
+        <filter val="US Georgia"/>
+        <filter val="US Guam"/>
+        <filter val="US Hawaii"/>
+        <filter val="US Idaho"/>
+        <filter val="US Illinois"/>
+        <filter val="US Indiana"/>
+        <filter val="US Iowa"/>
+        <filter val="US Kansas"/>
+        <filter val="US Kentucky"/>
+        <filter val="US Louisiana"/>
+        <filter val="US Maine"/>
+        <filter val="US Maryland"/>
+        <filter val="US Massachusetts"/>
+        <filter val="US Michigan"/>
+        <filter val="US Minnesota"/>
+        <filter val="US Mississippi"/>
+        <filter val="US Missouri"/>
+        <filter val="US Montana"/>
+        <filter val="US Nebraska"/>
+        <filter val="US Nevada"/>
+        <filter val="US New Hampshire"/>
+        <filter val="US New Jersey"/>
+        <filter val="US New Mexico"/>
+        <filter val="US New York"/>
+        <filter val="US North Carolina"/>
+        <filter val="US North Dakota"/>
+        <filter val="US Ohio"/>
+        <filter val="US Oklahoma"/>
+        <filter val="US Oregon"/>
+        <filter val="US Pennsylvania"/>
+        <filter val="US Puerto Rico"/>
+        <filter val="US Rhode Island"/>
+        <filter val="US South Carolina"/>
+        <filter val="US South Dakota"/>
+        <filter val="US Tennessee"/>
+        <filter val="US Texas"/>
+        <filter val="US Utah"/>
+        <filter val="US Vermont"/>
+        <filter val="US Virgin Islands"/>
+        <filter val="US Virginia"/>
+        <filter val="US Washington"/>
+        <filter val="US West Virginia"/>
+        <filter val="US Wisconsin"/>
+        <filter val="US Wyoming"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7436,10 +7725,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="53" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -7474,8 +7763,8 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
       <c r="C3" s="2">
         <v>-2020</v>
       </c>
@@ -7509,7 +7798,7 @@
     </row>
     <row r="4" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
-        <f>MATCH(B4,Basedata!A:A,0)</f>
+        <f>MATCH(B4,Basedata!B:B,0)</f>
         <v>2</v>
       </c>
       <c r="B4" s="20" t="s">
@@ -7548,7 +7837,7 @@
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
-        <f>MATCH(B5,Basedata!A:A,0)</f>
+        <f>MATCH(B5,Basedata!B:B,0)</f>
         <v>3</v>
       </c>
       <c r="B5" s="20" t="s">
@@ -7587,7 +7876,7 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
-        <f>MATCH(B6,Basedata!A:A,0)</f>
+        <f>MATCH(B6,Basedata!B:B,0)</f>
         <v>4</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -7626,7 +7915,7 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
-        <f>MATCH(B7,Basedata!A:A,0)</f>
+        <f>MATCH(B7,Basedata!B:B,0)</f>
         <v>271</v>
       </c>
       <c r="B7" s="20" t="s">
@@ -7663,7 +7952,7 @@
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
-        <f>MATCH(B8,Basedata!A:A,0)</f>
+        <f>MATCH(B8,Basedata!B:B,0)</f>
         <v>5</v>
       </c>
       <c r="B8" s="20" t="s">
@@ -7700,7 +7989,7 @@
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
-        <f>MATCH(B9,Basedata!A:A,0)</f>
+        <f>MATCH(B9,Basedata!B:B,0)</f>
         <v>272</v>
       </c>
       <c r="B9" s="20" t="s">
@@ -7739,7 +8028,7 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
-        <f>MATCH(B10,Basedata!A:A,0)</f>
+        <f>MATCH(B10,Basedata!B:B,0)</f>
         <v>273</v>
       </c>
       <c r="B10" s="20" t="s">
@@ -7776,7 +8065,7 @@
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
-        <f>MATCH(B11,Basedata!A:A,0)</f>
+        <f>MATCH(B11,Basedata!B:B,0)</f>
         <v>6</v>
       </c>
       <c r="B11" s="20" t="s">
@@ -7815,7 +8104,7 @@
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
-        <f>MATCH(B12,Basedata!A:A,0)</f>
+        <f>MATCH(B12,Basedata!B:B,0)</f>
         <v>7</v>
       </c>
       <c r="B12" s="20" t="s">
@@ -7854,7 +8143,7 @@
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
-        <f>MATCH(B13,Basedata!A:A,0)</f>
+        <f>MATCH(B13,Basedata!B:B,0)</f>
         <v>8</v>
       </c>
       <c r="B13" s="20" t="s">
@@ -7893,7 +8182,7 @@
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
-        <f>MATCH(B14,Basedata!A:A,0)</f>
+        <f>MATCH(B14,Basedata!B:B,0)</f>
         <v>9</v>
       </c>
       <c r="B14" s="20" t="s">
@@ -7932,7 +8221,7 @@
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
-        <f>MATCH(B15,Basedata!A:A,0)</f>
+        <f>MATCH(B15,Basedata!B:B,0)</f>
         <v>10</v>
       </c>
       <c r="B15" s="20" t="s">
@@ -7971,7 +8260,7 @@
     </row>
     <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
-        <f>MATCH(B16,Basedata!A:A,0)</f>
+        <f>MATCH(B16,Basedata!B:B,0)</f>
         <v>19</v>
       </c>
       <c r="B16" s="20" t="s">
@@ -8010,7 +8299,7 @@
     </row>
     <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
-        <f>MATCH(B17,Basedata!A:A,0)</f>
+        <f>MATCH(B17,Basedata!B:B,0)</f>
         <v>20</v>
       </c>
       <c r="B17" s="20" t="s">
@@ -8049,7 +8338,7 @@
     </row>
     <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
-        <f>MATCH(B18,Basedata!A:A,0)</f>
+        <f>MATCH(B18,Basedata!B:B,0)</f>
         <v>274</v>
       </c>
       <c r="B18" s="20" t="s">
@@ -8088,7 +8377,7 @@
     </row>
     <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
-        <f>MATCH(B19,Basedata!A:A,0)</f>
+        <f>MATCH(B19,Basedata!B:B,0)</f>
         <v>21</v>
       </c>
       <c r="B19" s="20" t="s">
@@ -8127,7 +8416,7 @@
     </row>
     <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
-        <f>MATCH(B20,Basedata!A:A,0)</f>
+        <f>MATCH(B20,Basedata!B:B,0)</f>
         <v>22</v>
       </c>
       <c r="B20" s="20" t="s">
@@ -8166,7 +8455,7 @@
     </row>
     <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
-        <f>MATCH(B21,Basedata!A:A,0)</f>
+        <f>MATCH(B21,Basedata!B:B,0)</f>
         <v>275</v>
       </c>
       <c r="B21" s="20" t="s">
@@ -8205,7 +8494,7 @@
     </row>
     <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
-        <f>MATCH(B22,Basedata!A:A,0)</f>
+        <f>MATCH(B22,Basedata!B:B,0)</f>
         <v>23</v>
       </c>
       <c r="B22" s="20" t="s">
@@ -8244,7 +8533,7 @@
     </row>
     <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
-        <f>MATCH(B23,Basedata!A:A,0)</f>
+        <f>MATCH(B23,Basedata!B:B,0)</f>
         <v>24</v>
       </c>
       <c r="B23" s="20" t="s">
@@ -8283,7 +8572,7 @@
     </row>
     <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
-        <f>MATCH(B24,Basedata!A:A,0)</f>
+        <f>MATCH(B24,Basedata!B:B,0)</f>
         <v>276</v>
       </c>
       <c r="B24" s="20" t="s">
@@ -8322,7 +8611,7 @@
     </row>
     <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
-        <f>MATCH(B25,Basedata!A:A,0)</f>
+        <f>MATCH(B25,Basedata!B:B,0)</f>
         <v>277</v>
       </c>
       <c r="B25" s="20" t="s">
@@ -8361,7 +8650,7 @@
     </row>
     <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
-        <f>MATCH(B26,Basedata!A:A,0)</f>
+        <f>MATCH(B26,Basedata!B:B,0)</f>
         <v>278</v>
       </c>
       <c r="B26" s="20" t="s">
@@ -8398,7 +8687,7 @@
     </row>
     <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
-        <f>MATCH(B27,Basedata!A:A,0)</f>
+        <f>MATCH(B27,Basedata!B:B,0)</f>
         <v>25</v>
       </c>
       <c r="B27" s="20" t="s">
@@ -8437,7 +8726,7 @@
     </row>
     <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
-        <f>MATCH(B28,Basedata!A:A,0)</f>
+        <f>MATCH(B28,Basedata!B:B,0)</f>
         <v>26</v>
       </c>
       <c r="B28" s="20" t="s">
@@ -8476,7 +8765,7 @@
     </row>
     <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
-        <f>MATCH(B29,Basedata!A:A,0)</f>
+        <f>MATCH(B29,Basedata!B:B,0)</f>
         <v>27</v>
       </c>
       <c r="B29" s="20" t="s">
@@ -8515,7 +8804,7 @@
     </row>
     <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
-        <f>MATCH(B30,Basedata!A:A,0)</f>
+        <f>MATCH(B30,Basedata!B:B,0)</f>
         <v>279</v>
       </c>
       <c r="B30" s="20" t="s">
@@ -8554,7 +8843,7 @@
     </row>
     <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
-        <f>MATCH(B31,Basedata!A:A,0)</f>
+        <f>MATCH(B31,Basedata!B:B,0)</f>
         <v>28</v>
       </c>
       <c r="B31" s="20" t="s">
@@ -8593,7 +8882,7 @@
     </row>
     <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
-        <f>MATCH(B32,Basedata!A:A,0)</f>
+        <f>MATCH(B32,Basedata!B:B,0)</f>
         <v>280</v>
       </c>
       <c r="B32" s="20" t="s">
@@ -8630,7 +8919,7 @@
     </row>
     <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
-        <f>MATCH(B33,Basedata!A:A,0)</f>
+        <f>MATCH(B33,Basedata!B:B,0)</f>
         <v>29</v>
       </c>
       <c r="B33" s="20" t="s">
@@ -8669,7 +8958,7 @@
     </row>
     <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
-        <f>MATCH(B34,Basedata!A:A,0)</f>
+        <f>MATCH(B34,Basedata!B:B,0)</f>
         <v>30</v>
       </c>
       <c r="B34" s="20" t="s">
@@ -8708,7 +8997,7 @@
     </row>
     <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
-        <f>MATCH(B35,Basedata!A:A,0)</f>
+        <f>MATCH(B35,Basedata!B:B,0)</f>
         <v>31</v>
       </c>
       <c r="B35" s="20" t="s">
@@ -8747,7 +9036,7 @@
     </row>
     <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12">
-        <f>MATCH(B36,Basedata!A:A,0)</f>
+        <f>MATCH(B36,Basedata!B:B,0)</f>
         <v>281</v>
       </c>
       <c r="B36" s="20" t="s">
@@ -8786,7 +9075,7 @@
     </row>
     <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12">
-        <f>MATCH(B37,Basedata!A:A,0)</f>
+        <f>MATCH(B37,Basedata!B:B,0)</f>
         <v>282</v>
       </c>
       <c r="B37" s="20" t="s">
@@ -8825,7 +9114,7 @@
     </row>
     <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
-        <f>MATCH(B38,Basedata!A:A,0)</f>
+        <f>MATCH(B38,Basedata!B:B,0)</f>
         <v>32</v>
       </c>
       <c r="B38" s="20" t="s">
@@ -8864,7 +9153,7 @@
     </row>
     <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="12">
-        <f>MATCH(B39,Basedata!A:A,0)</f>
+        <f>MATCH(B39,Basedata!B:B,0)</f>
         <v>33</v>
       </c>
       <c r="B39" s="20" t="s">
@@ -8903,7 +9192,7 @@
     </row>
     <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12">
-        <f>MATCH(B40,Basedata!A:A,0)</f>
+        <f>MATCH(B40,Basedata!B:B,0)</f>
         <v>34</v>
       </c>
       <c r="B40" s="20" t="s">
@@ -8942,7 +9231,7 @@
     </row>
     <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12">
-        <f>MATCH(B41,Basedata!A:A,0)</f>
+        <f>MATCH(B41,Basedata!B:B,0)</f>
         <v>283</v>
       </c>
       <c r="B41" s="20" t="s">
@@ -8979,7 +9268,7 @@
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12">
-        <f>MATCH(B42,Basedata!A:A,0)</f>
+        <f>MATCH(B42,Basedata!B:B,0)</f>
         <v>48</v>
       </c>
       <c r="B42" s="20" t="s">
@@ -9016,7 +9305,7 @@
     </row>
     <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="12">
-        <f>MATCH(B43,Basedata!A:A,0)</f>
+        <f>MATCH(B43,Basedata!B:B,0)</f>
         <v>84</v>
       </c>
       <c r="B43" s="20" t="s">
@@ -9055,7 +9344,7 @@
     </row>
     <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12">
-        <f>MATCH(B44,Basedata!A:A,0)</f>
+        <f>MATCH(B44,Basedata!B:B,0)</f>
         <v>284</v>
       </c>
       <c r="B44" s="20" t="s">
@@ -9094,7 +9383,7 @@
     </row>
     <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="12">
-        <f>MATCH(B45,Basedata!A:A,0)</f>
+        <f>MATCH(B45,Basedata!B:B,0)</f>
         <v>285</v>
       </c>
       <c r="B45" s="20" t="s">
@@ -9133,7 +9422,7 @@
     </row>
     <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="12">
-        <f>MATCH(B46,Basedata!A:A,0)</f>
+        <f>MATCH(B46,Basedata!B:B,0)</f>
         <v>49</v>
       </c>
       <c r="B46" s="20" t="s">
@@ -9172,7 +9461,7 @@
     </row>
     <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="12">
-        <f>MATCH(B47,Basedata!A:A,0)</f>
+        <f>MATCH(B47,Basedata!B:B,0)</f>
         <v>50</v>
       </c>
       <c r="B47" s="20" t="s">
@@ -9211,7 +9500,7 @@
     </row>
     <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="12">
-        <f>MATCH(B48,Basedata!A:A,0)</f>
+        <f>MATCH(B48,Basedata!B:B,0)</f>
         <v>85</v>
       </c>
       <c r="B48" s="20" t="s">
@@ -9250,7 +9539,7 @@
     </row>
     <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="12">
-        <f>MATCH(B49,Basedata!A:A,0)</f>
+        <f>MATCH(B49,Basedata!B:B,0)</f>
         <v>286</v>
       </c>
       <c r="B49" s="20" t="s">
@@ -9289,7 +9578,7 @@
     </row>
     <row r="50" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="12">
-        <f>MATCH(B50,Basedata!A:A,0)</f>
+        <f>MATCH(B50,Basedata!B:B,0)</f>
         <v>86</v>
       </c>
       <c r="B50" s="20" t="s">
@@ -9328,7 +9617,7 @@
     </row>
     <row r="51" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="12">
-        <f>MATCH(B51,Basedata!A:A,0)</f>
+        <f>MATCH(B51,Basedata!B:B,0)</f>
         <v>87</v>
       </c>
       <c r="B51" s="20" t="s">
@@ -9367,7 +9656,7 @@
     </row>
     <row r="52" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="12">
-        <f>MATCH(B52,Basedata!A:A,0)</f>
+        <f>MATCH(B52,Basedata!B:B,0)</f>
         <v>287</v>
       </c>
       <c r="B52" s="20" t="s">
@@ -9404,7 +9693,7 @@
     </row>
     <row r="53" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="12">
-        <f>MATCH(B53,Basedata!A:A,0)</f>
+        <f>MATCH(B53,Basedata!B:B,0)</f>
         <v>88</v>
       </c>
       <c r="B53" s="20" t="s">
@@ -9443,7 +9732,7 @@
     </row>
     <row r="54" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="12">
-        <f>MATCH(B54,Basedata!A:A,0)</f>
+        <f>MATCH(B54,Basedata!B:B,0)</f>
         <v>90</v>
       </c>
       <c r="B54" s="20" t="s">
@@ -9482,7 +9771,7 @@
     </row>
     <row r="55" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="12">
-        <f>MATCH(B55,Basedata!A:A,0)</f>
+        <f>MATCH(B55,Basedata!B:B,0)</f>
         <v>91</v>
       </c>
       <c r="B55" s="20" t="s">
@@ -9521,7 +9810,7 @@
     </row>
     <row r="56" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="12">
-        <f>MATCH(B56,Basedata!A:A,0)</f>
+        <f>MATCH(B56,Basedata!B:B,0)</f>
         <v>165</v>
       </c>
       <c r="B56" s="20" t="s">
@@ -9560,7 +9849,7 @@
     </row>
     <row r="57" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="12">
-        <f>MATCH(B57,Basedata!A:A,0)</f>
+        <f>MATCH(B57,Basedata!B:B,0)</f>
         <v>92</v>
       </c>
       <c r="B57" s="20" t="s">
@@ -9599,7 +9888,7 @@
     </row>
     <row r="58" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="12">
-        <f>MATCH(B58,Basedata!A:A,0)</f>
+        <f>MATCH(B58,Basedata!B:B,0)</f>
         <v>93</v>
       </c>
       <c r="B58" s="20" t="s">
@@ -9638,7 +9927,7 @@
     </row>
     <row r="59" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="12">
-        <f>MATCH(B59,Basedata!A:A,0)</f>
+        <f>MATCH(B59,Basedata!B:B,0)</f>
         <v>89</v>
       </c>
       <c r="B59" s="20" t="s">
@@ -9677,7 +9966,7 @@
     </row>
     <row r="60" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="12">
-        <f>MATCH(B60,Basedata!A:A,0)</f>
+        <f>MATCH(B60,Basedata!B:B,0)</f>
         <v>94</v>
       </c>
       <c r="B60" s="20" t="s">
@@ -9716,7 +10005,7 @@
     </row>
     <row r="61" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="12">
-        <f>MATCH(B61,Basedata!A:A,0)</f>
+        <f>MATCH(B61,Basedata!B:B,0)</f>
         <v>288</v>
       </c>
       <c r="B61" s="20" t="s">
@@ -9755,7 +10044,7 @@
     </row>
     <row r="62" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="12">
-        <f>MATCH(B62,Basedata!A:A,0)</f>
+        <f>MATCH(B62,Basedata!B:B,0)</f>
         <v>289</v>
       </c>
       <c r="B62" s="20" t="s">
@@ -9792,7 +10081,7 @@
     </row>
     <row r="63" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="12">
-        <f>MATCH(B63,Basedata!A:A,0)</f>
+        <f>MATCH(B63,Basedata!B:B,0)</f>
         <v>97</v>
       </c>
       <c r="B63" s="20" t="s">
@@ -9831,7 +10120,7 @@
     </row>
     <row r="64" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="12">
-        <f>MATCH(B64,Basedata!A:A,0)</f>
+        <f>MATCH(B64,Basedata!B:B,0)</f>
         <v>290</v>
       </c>
       <c r="B64" s="20" t="s">
@@ -9870,7 +10159,7 @@
     </row>
     <row r="65" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="12">
-        <f>MATCH(B65,Basedata!A:A,0)</f>
+        <f>MATCH(B65,Basedata!B:B,0)</f>
         <v>98</v>
       </c>
       <c r="B65" s="20" t="s">
@@ -9909,7 +10198,7 @@
     </row>
     <row r="66" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="12">
-        <f>MATCH(B66,Basedata!A:A,0)</f>
+        <f>MATCH(B66,Basedata!B:B,0)</f>
         <v>99</v>
       </c>
       <c r="B66" s="20" t="s">
@@ -9948,7 +10237,7 @@
     </row>
     <row r="67" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="12">
-        <f>MATCH(B67,Basedata!A:A,0)</f>
+        <f>MATCH(B67,Basedata!B:B,0)</f>
         <v>291</v>
       </c>
       <c r="B67" s="20" t="s">
@@ -9987,7 +10276,7 @@
     </row>
     <row r="68" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="12">
-        <f>MATCH(B68,Basedata!A:A,0)</f>
+        <f>MATCH(B68,Basedata!B:B,0)</f>
         <v>124</v>
       </c>
       <c r="B68" s="20" t="s">
@@ -10026,7 +10315,7 @@
     </row>
     <row r="69" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="12">
-        <f>MATCH(B69,Basedata!A:A,0)</f>
+        <f>MATCH(B69,Basedata!B:B,0)</f>
         <v>292</v>
       </c>
       <c r="B69" s="20" t="s">
@@ -10065,7 +10354,7 @@
     </row>
     <row r="70" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="12">
-        <f>MATCH(B70,Basedata!A:A,0)</f>
+        <f>MATCH(B70,Basedata!B:B,0)</f>
         <v>100</v>
       </c>
       <c r="B70" s="20" t="s">
@@ -10104,7 +10393,7 @@
     </row>
     <row r="71" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="12">
-        <f>MATCH(B71,Basedata!A:A,0)</f>
+        <f>MATCH(B71,Basedata!B:B,0)</f>
         <v>101</v>
       </c>
       <c r="B71" s="20" t="s">
@@ -10143,7 +10432,7 @@
     </row>
     <row r="72" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="12">
-        <f>MATCH(B72,Basedata!A:A,0)</f>
+        <f>MATCH(B72,Basedata!B:B,0)</f>
         <v>102</v>
       </c>
       <c r="B72" s="20" t="s">
@@ -10182,7 +10471,7 @@
     </row>
     <row r="73" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="12">
-        <f>MATCH(B73,Basedata!A:A,0)</f>
+        <f>MATCH(B73,Basedata!B:B,0)</f>
         <v>293</v>
       </c>
       <c r="B73" s="20" t="s">
@@ -10219,7 +10508,7 @@
     </row>
     <row r="74" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="12">
-        <f>MATCH(B74,Basedata!A:A,0)</f>
+        <f>MATCH(B74,Basedata!B:B,0)</f>
         <v>294</v>
       </c>
       <c r="B74" s="20" t="s">
@@ -10256,7 +10545,7 @@
     </row>
     <row r="75" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="12">
-        <f>MATCH(B75,Basedata!A:A,0)</f>
+        <f>MATCH(B75,Basedata!B:B,0)</f>
         <v>295</v>
       </c>
       <c r="B75" s="20" t="s">
@@ -10295,7 +10584,7 @@
     </row>
     <row r="76" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="12">
-        <f>MATCH(B76,Basedata!A:A,0)</f>
+        <f>MATCH(B76,Basedata!B:B,0)</f>
         <v>103</v>
       </c>
       <c r="B76" s="20" t="s">
@@ -10334,7 +10623,7 @@
     </row>
     <row r="77" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="12">
-        <f>MATCH(B77,Basedata!A:A,0)</f>
+        <f>MATCH(B77,Basedata!B:B,0)</f>
         <v>104</v>
       </c>
       <c r="B77" s="20" t="s">
@@ -10373,7 +10662,7 @@
     </row>
     <row r="78" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="12">
-        <f>MATCH(B78,Basedata!A:A,0)</f>
+        <f>MATCH(B78,Basedata!B:B,0)</f>
         <v>112</v>
       </c>
       <c r="B78" s="20" t="s">
@@ -10412,7 +10701,7 @@
     </row>
     <row r="79" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="12">
-        <f>MATCH(B79,Basedata!A:A,0)</f>
+        <f>MATCH(B79,Basedata!B:B,0)</f>
         <v>296</v>
       </c>
       <c r="B79" s="20" t="s">
@@ -10451,7 +10740,7 @@
     </row>
     <row r="80" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="12">
-        <f>MATCH(B80,Basedata!A:A,0)</f>
+        <f>MATCH(B80,Basedata!B:B,0)</f>
         <v>113</v>
       </c>
       <c r="B80" s="20" t="s">
@@ -10490,7 +10779,7 @@
     </row>
     <row r="81" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="12">
-        <f>MATCH(B81,Basedata!A:A,0)</f>
+        <f>MATCH(B81,Basedata!B:B,0)</f>
         <v>297</v>
       </c>
       <c r="B81" s="20" t="s">
@@ -10529,7 +10818,7 @@
     </row>
     <row r="82" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="12">
-        <f>MATCH(B82,Basedata!A:A,0)</f>
+        <f>MATCH(B82,Basedata!B:B,0)</f>
         <v>114</v>
       </c>
       <c r="B82" s="20" t="s">
@@ -10568,7 +10857,7 @@
     </row>
     <row r="83" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="12">
-        <f>MATCH(B83,Basedata!A:A,0)</f>
+        <f>MATCH(B83,Basedata!B:B,0)</f>
         <v>115</v>
       </c>
       <c r="B83" s="20" t="s">
@@ -10607,7 +10896,7 @@
     </row>
     <row r="84" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="12">
-        <f>MATCH(B84,Basedata!A:A,0)</f>
+        <f>MATCH(B84,Basedata!B:B,0)</f>
         <v>116</v>
       </c>
       <c r="B84" s="20" t="s">
@@ -10646,7 +10935,7 @@
     </row>
     <row r="85" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="12">
-        <f>MATCH(B85,Basedata!A:A,0)</f>
+        <f>MATCH(B85,Basedata!B:B,0)</f>
         <v>298</v>
       </c>
       <c r="B85" s="20" t="s">
@@ -10683,7 +10972,7 @@
     </row>
     <row r="86" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="12">
-        <f>MATCH(B86,Basedata!A:A,0)</f>
+        <f>MATCH(B86,Basedata!B:B,0)</f>
         <v>117</v>
       </c>
       <c r="B86" s="20" t="s">
@@ -10722,7 +11011,7 @@
     </row>
     <row r="87" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="12">
-        <f>MATCH(B87,Basedata!A:A,0)</f>
+        <f>MATCH(B87,Basedata!B:B,0)</f>
         <v>299</v>
       </c>
       <c r="B87" s="20" t="s">
@@ -10759,7 +11048,7 @@
     </row>
     <row r="88" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="12">
-        <f>MATCH(B88,Basedata!A:A,0)</f>
+        <f>MATCH(B88,Basedata!B:B,0)</f>
         <v>300</v>
       </c>
       <c r="B88" s="20" t="s">
@@ -10798,7 +11087,7 @@
     </row>
     <row r="89" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="12">
-        <f>MATCH(B89,Basedata!A:A,0)</f>
+        <f>MATCH(B89,Basedata!B:B,0)</f>
         <v>119</v>
       </c>
       <c r="B89" s="20" t="s">
@@ -10837,7 +11126,7 @@
     </row>
     <row r="90" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="12">
-        <f>MATCH(B90,Basedata!A:A,0)</f>
+        <f>MATCH(B90,Basedata!B:B,0)</f>
         <v>301</v>
       </c>
       <c r="B90" s="20" t="s">
@@ -10876,7 +11165,7 @@
     </row>
     <row r="91" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="12">
-        <f>MATCH(B91,Basedata!A:A,0)</f>
+        <f>MATCH(B91,Basedata!B:B,0)</f>
         <v>120</v>
       </c>
       <c r="B91" s="20" t="s">
@@ -10915,7 +11204,7 @@
     </row>
     <row r="92" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="12">
-        <f>MATCH(B92,Basedata!A:A,0)</f>
+        <f>MATCH(B92,Basedata!B:B,0)</f>
         <v>122</v>
       </c>
       <c r="B92" s="20" t="s">
@@ -10954,7 +11243,7 @@
     </row>
     <row r="93" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="12">
-        <f>MATCH(B93,Basedata!A:A,0)</f>
+        <f>MATCH(B93,Basedata!B:B,0)</f>
         <v>302</v>
       </c>
       <c r="B93" s="20" t="s">
@@ -10993,7 +11282,7 @@
     </row>
     <row r="94" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="12">
-        <f>MATCH(B94,Basedata!A:A,0)</f>
+        <f>MATCH(B94,Basedata!B:B,0)</f>
         <v>123</v>
       </c>
       <c r="B94" s="20" t="s">
@@ -11032,7 +11321,7 @@
     </row>
     <row r="95" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="12">
-        <f>MATCH(B95,Basedata!A:A,0)</f>
+        <f>MATCH(B95,Basedata!B:B,0)</f>
         <v>303</v>
       </c>
       <c r="B95" s="20" t="s">
@@ -11071,7 +11360,7 @@
     </row>
     <row r="96" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="12">
-        <f>MATCH(B96,Basedata!A:A,0)</f>
+        <f>MATCH(B96,Basedata!B:B,0)</f>
         <v>125</v>
       </c>
       <c r="B96" s="20" t="s">
@@ -11108,7 +11397,7 @@
     </row>
     <row r="97" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="12">
-        <f>MATCH(B97,Basedata!A:A,0)</f>
+        <f>MATCH(B97,Basedata!B:B,0)</f>
         <v>126</v>
       </c>
       <c r="B97" s="20" t="s">
@@ -11147,7 +11436,7 @@
     </row>
     <row r="98" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="12">
-        <f>MATCH(B98,Basedata!A:A,0)</f>
+        <f>MATCH(B98,Basedata!B:B,0)</f>
         <v>304</v>
       </c>
       <c r="B98" s="20" t="s">
@@ -11186,7 +11475,7 @@
     </row>
     <row r="99" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="12">
-        <f>MATCH(B99,Basedata!A:A,0)</f>
+        <f>MATCH(B99,Basedata!B:B,0)</f>
         <v>127</v>
       </c>
       <c r="B99" s="20" t="s">
@@ -11225,7 +11514,7 @@
     </row>
     <row r="100" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="12">
-        <f>MATCH(B100,Basedata!A:A,0)</f>
+        <f>MATCH(B100,Basedata!B:B,0)</f>
         <v>128</v>
       </c>
       <c r="B100" s="20" t="s">
@@ -11264,7 +11553,7 @@
     </row>
     <row r="101" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="12">
-        <f>MATCH(B101,Basedata!A:A,0)</f>
+        <f>MATCH(B101,Basedata!B:B,0)</f>
         <v>129</v>
       </c>
       <c r="B101" s="20" t="s">
@@ -11303,7 +11592,7 @@
     </row>
     <row r="102" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="12">
-        <f>MATCH(B102,Basedata!A:A,0)</f>
+        <f>MATCH(B102,Basedata!B:B,0)</f>
         <v>130</v>
       </c>
       <c r="B102" s="20" t="s">
@@ -11342,7 +11631,7 @@
     </row>
     <row r="103" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="12">
-        <f>MATCH(B103,Basedata!A:A,0)</f>
+        <f>MATCH(B103,Basedata!B:B,0)</f>
         <v>131</v>
       </c>
       <c r="B103" s="20" t="s">
@@ -11381,7 +11670,7 @@
     </row>
     <row r="104" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="12">
-        <f>MATCH(B104,Basedata!A:A,0)</f>
+        <f>MATCH(B104,Basedata!B:B,0)</f>
         <v>132</v>
       </c>
       <c r="B104" s="20" t="s">
@@ -11420,7 +11709,7 @@
     </row>
     <row r="105" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="12">
-        <f>MATCH(B105,Basedata!A:A,0)</f>
+        <f>MATCH(B105,Basedata!B:B,0)</f>
         <v>133</v>
       </c>
       <c r="B105" s="20" t="s">
@@ -11459,7 +11748,7 @@
     </row>
     <row r="106" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="12">
-        <f>MATCH(B106,Basedata!A:A,0)</f>
+        <f>MATCH(B106,Basedata!B:B,0)</f>
         <v>305</v>
       </c>
       <c r="B106" s="20" t="s">
@@ -11496,7 +11785,7 @@
     </row>
     <row r="107" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="12">
-        <f>MATCH(B107,Basedata!A:A,0)</f>
+        <f>MATCH(B107,Basedata!B:B,0)</f>
         <v>134</v>
       </c>
       <c r="B107" s="20" t="s">
@@ -11535,7 +11824,7 @@
     </row>
     <row r="108" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="12">
-        <f>MATCH(B108,Basedata!A:A,0)</f>
+        <f>MATCH(B108,Basedata!B:B,0)</f>
         <v>135</v>
       </c>
       <c r="B108" s="20" t="s">
@@ -11574,7 +11863,7 @@
     </row>
     <row r="109" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="12">
-        <f>MATCH(B109,Basedata!A:A,0)</f>
+        <f>MATCH(B109,Basedata!B:B,0)</f>
         <v>136</v>
       </c>
       <c r="B109" s="20" t="s">
@@ -11613,7 +11902,7 @@
     </row>
     <row r="110" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="12">
-        <f>MATCH(B110,Basedata!A:A,0)</f>
+        <f>MATCH(B110,Basedata!B:B,0)</f>
         <v>137</v>
       </c>
       <c r="B110" s="20" t="s">
@@ -11652,7 +11941,7 @@
     </row>
     <row r="111" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="12">
-        <f>MATCH(B111,Basedata!A:A,0)</f>
+        <f>MATCH(B111,Basedata!B:B,0)</f>
         <v>139</v>
       </c>
       <c r="B111" s="20" t="s">
@@ -11691,7 +11980,7 @@
     </row>
     <row r="112" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="12">
-        <f>MATCH(B112,Basedata!A:A,0)</f>
+        <f>MATCH(B112,Basedata!B:B,0)</f>
         <v>140</v>
       </c>
       <c r="B112" s="20" t="s">
@@ -11730,7 +12019,7 @@
     </row>
     <row r="113" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="12">
-        <f>MATCH(B113,Basedata!A:A,0)</f>
+        <f>MATCH(B113,Basedata!B:B,0)</f>
         <v>141</v>
       </c>
       <c r="B113" s="20" t="s">
@@ -11769,7 +12058,7 @@
     </row>
     <row r="114" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="12">
-        <f>MATCH(B114,Basedata!A:A,0)</f>
+        <f>MATCH(B114,Basedata!B:B,0)</f>
         <v>306</v>
       </c>
       <c r="B114" s="20" t="s">
@@ -11808,7 +12097,7 @@
     </row>
     <row r="115" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="12">
-        <f>MATCH(B115,Basedata!A:A,0)</f>
+        <f>MATCH(B115,Basedata!B:B,0)</f>
         <v>144</v>
       </c>
       <c r="B115" s="20" t="s">
@@ -11847,7 +12136,7 @@
     </row>
     <row r="116" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="12">
-        <f>MATCH(B116,Basedata!A:A,0)</f>
+        <f>MATCH(B116,Basedata!B:B,0)</f>
         <v>307</v>
       </c>
       <c r="B116" s="20" t="s">
@@ -11886,7 +12175,7 @@
     </row>
     <row r="117" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="12">
-        <f>MATCH(B117,Basedata!A:A,0)</f>
+        <f>MATCH(B117,Basedata!B:B,0)</f>
         <v>308</v>
       </c>
       <c r="B117" s="20" t="s">
@@ -11925,7 +12214,7 @@
     </row>
     <row r="118" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="12">
-        <f>MATCH(B118,Basedata!A:A,0)</f>
+        <f>MATCH(B118,Basedata!B:B,0)</f>
         <v>145</v>
       </c>
       <c r="B118" s="20" t="s">
@@ -11964,7 +12253,7 @@
     </row>
     <row r="119" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="12">
-        <f>MATCH(B119,Basedata!A:A,0)</f>
+        <f>MATCH(B119,Basedata!B:B,0)</f>
         <v>146</v>
       </c>
       <c r="B119" s="20" t="s">
@@ -12003,7 +12292,7 @@
     </row>
     <row r="120" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="12">
-        <f>MATCH(B120,Basedata!A:A,0)</f>
+        <f>MATCH(B120,Basedata!B:B,0)</f>
         <v>309</v>
       </c>
       <c r="B120" s="20" t="s">
@@ -12042,7 +12331,7 @@
     </row>
     <row r="121" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="12">
-        <f>MATCH(B121,Basedata!A:A,0)</f>
+        <f>MATCH(B121,Basedata!B:B,0)</f>
         <v>310</v>
       </c>
       <c r="B121" s="20" t="s">
@@ -12081,7 +12370,7 @@
     </row>
     <row r="122" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="12">
-        <f>MATCH(B122,Basedata!A:A,0)</f>
+        <f>MATCH(B122,Basedata!B:B,0)</f>
         <v>311</v>
       </c>
       <c r="B122" s="20" t="s">
@@ -12120,7 +12409,7 @@
     </row>
     <row r="123" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="12">
-        <f>MATCH(B123,Basedata!A:A,0)</f>
+        <f>MATCH(B123,Basedata!B:B,0)</f>
         <v>147</v>
       </c>
       <c r="B123" s="20" t="s">
@@ -12157,7 +12446,7 @@
     </row>
     <row r="124" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="12">
-        <f>MATCH(B124,Basedata!A:A,0)</f>
+        <f>MATCH(B124,Basedata!B:B,0)</f>
         <v>148</v>
       </c>
       <c r="B124" s="20" t="s">
@@ -12196,7 +12485,7 @@
     </row>
     <row r="125" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="12">
-        <f>MATCH(B125,Basedata!A:A,0)</f>
+        <f>MATCH(B125,Basedata!B:B,0)</f>
         <v>149</v>
       </c>
       <c r="B125" s="20" t="s">
@@ -12235,7 +12524,7 @@
     </row>
     <row r="126" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="12">
-        <f>MATCH(B126,Basedata!A:A,0)</f>
+        <f>MATCH(B126,Basedata!B:B,0)</f>
         <v>312</v>
       </c>
       <c r="B126" s="20" t="s">
@@ -12274,7 +12563,7 @@
     </row>
     <row r="127" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="12">
-        <f>MATCH(B127,Basedata!A:A,0)</f>
+        <f>MATCH(B127,Basedata!B:B,0)</f>
         <v>313</v>
       </c>
       <c r="B127" s="20" t="s">
@@ -12313,7 +12602,7 @@
     </row>
     <row r="128" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="12">
-        <f>MATCH(B128,Basedata!A:A,0)</f>
+        <f>MATCH(B128,Basedata!B:B,0)</f>
         <v>314</v>
       </c>
       <c r="B128" s="20" t="s">
@@ -12352,7 +12641,7 @@
     </row>
     <row r="129" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="12">
-        <f>MATCH(B129,Basedata!A:A,0)</f>
+        <f>MATCH(B129,Basedata!B:B,0)</f>
         <v>150</v>
       </c>
       <c r="B129" s="20" t="s">
@@ -12391,7 +12680,7 @@
     </row>
     <row r="130" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="12">
-        <f>MATCH(B130,Basedata!A:A,0)</f>
+        <f>MATCH(B130,Basedata!B:B,0)</f>
         <v>151</v>
       </c>
       <c r="B130" s="20" t="s">
@@ -12430,7 +12719,7 @@
     </row>
     <row r="131" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="12">
-        <f>MATCH(B131,Basedata!A:A,0)</f>
+        <f>MATCH(B131,Basedata!B:B,0)</f>
         <v>315</v>
       </c>
       <c r="B131" s="20" t="s">
@@ -12469,7 +12758,7 @@
     </row>
     <row r="132" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="12">
-        <f>MATCH(B132,Basedata!A:A,0)</f>
+        <f>MATCH(B132,Basedata!B:B,0)</f>
         <v>152</v>
       </c>
       <c r="B132" s="20" t="s">
@@ -12508,7 +12797,7 @@
     </row>
     <row r="133" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="12">
-        <f>MATCH(B133,Basedata!A:A,0)</f>
+        <f>MATCH(B133,Basedata!B:B,0)</f>
         <v>316</v>
       </c>
       <c r="B133" s="20" t="s">
@@ -12545,7 +12834,7 @@
     </row>
     <row r="134" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="12">
-        <f>MATCH(B134,Basedata!A:A,0)</f>
+        <f>MATCH(B134,Basedata!B:B,0)</f>
         <v>153</v>
       </c>
       <c r="B134" s="20" t="s">
@@ -12584,7 +12873,7 @@
     </row>
     <row r="135" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="12">
-        <f>MATCH(B135,Basedata!A:A,0)</f>
+        <f>MATCH(B135,Basedata!B:B,0)</f>
         <v>154</v>
       </c>
       <c r="B135" s="20" t="s">
@@ -12623,7 +12912,7 @@
     </row>
     <row r="136" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="12">
-        <f>MATCH(B136,Basedata!A:A,0)</f>
+        <f>MATCH(B136,Basedata!B:B,0)</f>
         <v>317</v>
       </c>
       <c r="B136" s="20" t="s">
@@ -12662,7 +12951,7 @@
     </row>
     <row r="137" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="12">
-        <f>MATCH(B137,Basedata!A:A,0)</f>
+        <f>MATCH(B137,Basedata!B:B,0)</f>
         <v>109</v>
       </c>
       <c r="B137" s="20" t="s">
@@ -12701,7 +12990,7 @@
     </row>
     <row r="138" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="12">
-        <f>MATCH(B138,Basedata!A:A,0)</f>
+        <f>MATCH(B138,Basedata!B:B,0)</f>
         <v>156</v>
       </c>
       <c r="B138" s="20" t="s">
@@ -12740,7 +13029,7 @@
     </row>
     <row r="139" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="12">
-        <f>MATCH(B139,Basedata!A:A,0)</f>
+        <f>MATCH(B139,Basedata!B:B,0)</f>
         <v>318</v>
       </c>
       <c r="B139" s="20" t="s">
@@ -12779,7 +13068,7 @@
     </row>
     <row r="140" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="12">
-        <f>MATCH(B140,Basedata!A:A,0)</f>
+        <f>MATCH(B140,Basedata!B:B,0)</f>
         <v>157</v>
       </c>
       <c r="B140" s="20" t="s">
@@ -12818,7 +13107,7 @@
     </row>
     <row r="141" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="12">
-        <f>MATCH(B141,Basedata!A:A,0)</f>
+        <f>MATCH(B141,Basedata!B:B,0)</f>
         <v>158</v>
       </c>
       <c r="B141" s="20" t="s">
@@ -12855,7 +13144,7 @@
     </row>
     <row r="142" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="12">
-        <f>MATCH(B142,Basedata!A:A,0)</f>
+        <f>MATCH(B142,Basedata!B:B,0)</f>
         <v>159</v>
       </c>
       <c r="B142" s="20" t="s">
@@ -12894,7 +13183,7 @@
     </row>
     <row r="143" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="12">
-        <f>MATCH(B143,Basedata!A:A,0)</f>
+        <f>MATCH(B143,Basedata!B:B,0)</f>
         <v>319</v>
       </c>
       <c r="B143" s="20" t="s">
@@ -12933,7 +13222,7 @@
     </row>
     <row r="144" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="12">
-        <f>MATCH(B144,Basedata!A:A,0)</f>
+        <f>MATCH(B144,Basedata!B:B,0)</f>
         <v>320</v>
       </c>
       <c r="B144" s="20" t="s">
@@ -12970,7 +13259,7 @@
     </row>
     <row r="145" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="12">
-        <f>MATCH(B145,Basedata!A:A,0)</f>
+        <f>MATCH(B145,Basedata!B:B,0)</f>
         <v>160</v>
       </c>
       <c r="B145" s="20" t="s">
@@ -13009,7 +13298,7 @@
     </row>
     <row r="146" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="12">
-        <f>MATCH(B146,Basedata!A:A,0)</f>
+        <f>MATCH(B146,Basedata!B:B,0)</f>
         <v>321</v>
       </c>
       <c r="B146" s="20" t="s">
@@ -13048,7 +13337,7 @@
     </row>
     <row r="147" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="12">
-        <f>MATCH(B147,Basedata!A:A,0)</f>
+        <f>MATCH(B147,Basedata!B:B,0)</f>
         <v>322</v>
       </c>
       <c r="B147" s="20" t="s">
@@ -13087,7 +13376,7 @@
     </row>
     <row r="148" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="12">
-        <f>MATCH(B148,Basedata!A:A,0)</f>
+        <f>MATCH(B148,Basedata!B:B,0)</f>
         <v>161</v>
       </c>
       <c r="B148" s="20" t="s">
@@ -13126,7 +13415,7 @@
     </row>
     <row r="149" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="12">
-        <f>MATCH(B149,Basedata!A:A,0)</f>
+        <f>MATCH(B149,Basedata!B:B,0)</f>
         <v>323</v>
       </c>
       <c r="B149" s="20" t="s">
@@ -13163,7 +13452,7 @@
     </row>
     <row r="150" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="12">
-        <f>MATCH(B150,Basedata!A:A,0)</f>
+        <f>MATCH(B150,Basedata!B:B,0)</f>
         <v>162</v>
       </c>
       <c r="B150" s="20" t="s">
@@ -13202,7 +13491,7 @@
     </row>
     <row r="151" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="12">
-        <f>MATCH(B151,Basedata!A:A,0)</f>
+        <f>MATCH(B151,Basedata!B:B,0)</f>
         <v>163</v>
       </c>
       <c r="B151" s="20" t="s">
@@ -13241,7 +13530,7 @@
     </row>
     <row r="152" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="12">
-        <f>MATCH(B152,Basedata!A:A,0)</f>
+        <f>MATCH(B152,Basedata!B:B,0)</f>
         <v>324</v>
       </c>
       <c r="B152" s="20" t="s">
@@ -13280,7 +13569,7 @@
     </row>
     <row r="153" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="12">
-        <f>MATCH(B153,Basedata!A:A,0)</f>
+        <f>MATCH(B153,Basedata!B:B,0)</f>
         <v>166</v>
       </c>
       <c r="B153" s="20" t="s">
@@ -13319,7 +13608,7 @@
     </row>
     <row r="154" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="12">
-        <f>MATCH(B154,Basedata!A:A,0)</f>
+        <f>MATCH(B154,Basedata!B:B,0)</f>
         <v>325</v>
       </c>
       <c r="B154" s="20" t="s">
@@ -13358,7 +13647,7 @@
     </row>
     <row r="155" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="12">
-        <f>MATCH(B155,Basedata!A:A,0)</f>
+        <f>MATCH(B155,Basedata!B:B,0)</f>
         <v>326</v>
       </c>
       <c r="B155" s="20" t="s">
@@ -13397,7 +13686,7 @@
     </row>
     <row r="156" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="12">
-        <f>MATCH(B156,Basedata!A:A,0)</f>
+        <f>MATCH(B156,Basedata!B:B,0)</f>
         <v>167</v>
       </c>
       <c r="B156" s="20" t="s">
@@ -13436,7 +13725,7 @@
     </row>
     <row r="157" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="12">
-        <f>MATCH(B157,Basedata!A:A,0)</f>
+        <f>MATCH(B157,Basedata!B:B,0)</f>
         <v>327</v>
       </c>
       <c r="B157" s="20" t="s">
@@ -13473,7 +13762,7 @@
     </row>
     <row r="158" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="12">
-        <f>MATCH(B158,Basedata!A:A,0)</f>
+        <f>MATCH(B158,Basedata!B:B,0)</f>
         <v>328</v>
       </c>
       <c r="B158" s="20" t="s">
@@ -13512,7 +13801,7 @@
     </row>
     <row r="159" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="12">
-        <f>MATCH(B159,Basedata!A:A,0)</f>
+        <f>MATCH(B159,Basedata!B:B,0)</f>
         <v>168</v>
       </c>
       <c r="B159" s="20" t="s">
@@ -13551,7 +13840,7 @@
     </row>
     <row r="160" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="12">
-        <f>MATCH(B160,Basedata!A:A,0)</f>
+        <f>MATCH(B160,Basedata!B:B,0)</f>
         <v>329</v>
       </c>
       <c r="B160" s="20" t="s">
@@ -13588,7 +13877,7 @@
     </row>
     <row r="161" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="12">
-        <f>MATCH(B161,Basedata!A:A,0)</f>
+        <f>MATCH(B161,Basedata!B:B,0)</f>
         <v>169</v>
       </c>
       <c r="B161" s="20" t="s">
@@ -13627,7 +13916,7 @@
     </row>
     <row r="162" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="12">
-        <f>MATCH(B162,Basedata!A:A,0)</f>
+        <f>MATCH(B162,Basedata!B:B,0)</f>
         <v>170</v>
       </c>
       <c r="B162" s="20" t="s">
@@ -13666,7 +13955,7 @@
     </row>
     <row r="163" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="12">
-        <f>MATCH(B163,Basedata!A:A,0)</f>
+        <f>MATCH(B163,Basedata!B:B,0)</f>
         <v>171</v>
       </c>
       <c r="B163" s="20" t="s">
@@ -13705,7 +13994,7 @@
     </row>
     <row r="164" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="12">
-        <f>MATCH(B164,Basedata!A:A,0)</f>
+        <f>MATCH(B164,Basedata!B:B,0)</f>
         <v>330</v>
       </c>
       <c r="B164" s="20" t="s">
@@ -13742,7 +14031,7 @@
     </row>
     <row r="165" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="12">
-        <f>MATCH(B165,Basedata!A:A,0)</f>
+        <f>MATCH(B165,Basedata!B:B,0)</f>
         <v>172</v>
       </c>
       <c r="B165" s="20" t="s">
@@ -13781,7 +14070,7 @@
     </row>
     <row r="166" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="12">
-        <f>MATCH(B166,Basedata!A:A,0)</f>
+        <f>MATCH(B166,Basedata!B:B,0)</f>
         <v>331</v>
       </c>
       <c r="B166" s="20" t="s">
@@ -13820,7 +14109,7 @@
     </row>
     <row r="167" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="12">
-        <f>MATCH(B167,Basedata!A:A,0)</f>
+        <f>MATCH(B167,Basedata!B:B,0)</f>
         <v>173</v>
       </c>
       <c r="B167" s="20" t="s">
@@ -13859,7 +14148,7 @@
     </row>
     <row r="168" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="12">
-        <f>MATCH(B168,Basedata!A:A,0)</f>
+        <f>MATCH(B168,Basedata!B:B,0)</f>
         <v>174</v>
       </c>
       <c r="B168" s="20" t="s">
@@ -13898,7 +14187,7 @@
     </row>
     <row r="169" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="12">
-        <f>MATCH(B169,Basedata!A:A,0)</f>
+        <f>MATCH(B169,Basedata!B:B,0)</f>
         <v>175</v>
       </c>
       <c r="B169" s="20" t="s">
@@ -13937,7 +14226,7 @@
     </row>
     <row r="170" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="12">
-        <f>MATCH(B170,Basedata!A:A,0)</f>
+        <f>MATCH(B170,Basedata!B:B,0)</f>
         <v>176</v>
       </c>
       <c r="B170" s="20" t="s">
@@ -13976,7 +14265,7 @@
     </row>
     <row r="171" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="12">
-        <f>MATCH(B171,Basedata!A:A,0)</f>
+        <f>MATCH(B171,Basedata!B:B,0)</f>
         <v>177</v>
       </c>
       <c r="B171" s="20" t="s">
@@ -14015,7 +14304,7 @@
     </row>
     <row r="172" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="12">
-        <f>MATCH(B172,Basedata!A:A,0)</f>
+        <f>MATCH(B172,Basedata!B:B,0)</f>
         <v>332</v>
       </c>
       <c r="B172" s="20" t="s">
@@ -14054,7 +14343,7 @@
     </row>
     <row r="173" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="12">
-        <f>MATCH(B173,Basedata!A:A,0)</f>
+        <f>MATCH(B173,Basedata!B:B,0)</f>
         <v>178</v>
       </c>
       <c r="B173" s="20" t="s">
@@ -14093,7 +14382,7 @@
     </row>
     <row r="174" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="12">
-        <f>MATCH(B174,Basedata!A:A,0)</f>
+        <f>MATCH(B174,Basedata!B:B,0)</f>
         <v>180</v>
       </c>
       <c r="B174" s="20" t="s">
@@ -14132,7 +14421,7 @@
     </row>
     <row r="175" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="12">
-        <f>MATCH(B175,Basedata!A:A,0)</f>
+        <f>MATCH(B175,Basedata!B:B,0)</f>
         <v>181</v>
       </c>
       <c r="B175" s="20" t="s">
@@ -14171,7 +14460,7 @@
     </row>
     <row r="176" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="12">
-        <f>MATCH(B176,Basedata!A:A,0)</f>
+        <f>MATCH(B176,Basedata!B:B,0)</f>
         <v>182</v>
       </c>
       <c r="B176" s="20" t="s">
@@ -14210,7 +14499,7 @@
     </row>
     <row r="177" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="12">
-        <f>MATCH(B177,Basedata!A:A,0)</f>
+        <f>MATCH(B177,Basedata!B:B,0)</f>
         <v>179</v>
       </c>
       <c r="B177" s="20" t="s">
@@ -14249,7 +14538,7 @@
     </row>
     <row r="178" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="12">
-        <f>MATCH(B178,Basedata!A:A,0)</f>
+        <f>MATCH(B178,Basedata!B:B,0)</f>
         <v>333</v>
       </c>
       <c r="B178" s="20" t="s">
@@ -14286,7 +14575,7 @@
     </row>
     <row r="179" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="12">
-        <f>MATCH(B179,Basedata!A:A,0)</f>
+        <f>MATCH(B179,Basedata!B:B,0)</f>
         <v>334</v>
       </c>
       <c r="B179" s="20" t="s">
@@ -14323,7 +14612,7 @@
     </row>
     <row r="180" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="12">
-        <f>MATCH(B180,Basedata!A:A,0)</f>
+        <f>MATCH(B180,Basedata!B:B,0)</f>
         <v>335</v>
       </c>
       <c r="B180" s="20" t="s">
@@ -14360,7 +14649,7 @@
     </row>
     <row r="181" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="12">
-        <f>MATCH(B181,Basedata!A:A,0)</f>
+        <f>MATCH(B181,Basedata!B:B,0)</f>
         <v>183</v>
       </c>
       <c r="B181" s="20" t="s">
@@ -14399,7 +14688,7 @@
     </row>
     <row r="182" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="12">
-        <f>MATCH(B182,Basedata!A:A,0)</f>
+        <f>MATCH(B182,Basedata!B:B,0)</f>
         <v>336</v>
       </c>
       <c r="B182" s="20" t="s">
@@ -14436,7 +14725,7 @@
     </row>
     <row r="183" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="12">
-        <f>MATCH(B183,Basedata!A:A,0)</f>
+        <f>MATCH(B183,Basedata!B:B,0)</f>
         <v>337</v>
       </c>
       <c r="B183" s="20" t="s">
@@ -14473,7 +14762,7 @@
     </row>
     <row r="184" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="12">
-        <f>MATCH(B184,Basedata!A:A,0)</f>
+        <f>MATCH(B184,Basedata!B:B,0)</f>
         <v>338</v>
       </c>
       <c r="B184" s="20" t="s">
@@ -14512,7 +14801,7 @@
     </row>
     <row r="185" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="12">
-        <f>MATCH(B185,Basedata!A:A,0)</f>
+        <f>MATCH(B185,Basedata!B:B,0)</f>
         <v>185</v>
       </c>
       <c r="B185" s="20" t="s">
@@ -14549,7 +14838,7 @@
     </row>
     <row r="186" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="12">
-        <f>MATCH(B186,Basedata!A:A,0)</f>
+        <f>MATCH(B186,Basedata!B:B,0)</f>
         <v>339</v>
       </c>
       <c r="B186" s="20" t="s">
@@ -14588,7 +14877,7 @@
     </row>
     <row r="187" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="12">
-        <f>MATCH(B187,Basedata!A:A,0)</f>
+        <f>MATCH(B187,Basedata!B:B,0)</f>
         <v>186</v>
       </c>
       <c r="B187" s="20" t="s">
@@ -14627,7 +14916,7 @@
     </row>
     <row r="188" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="12">
-        <f>MATCH(B188,Basedata!A:A,0)</f>
+        <f>MATCH(B188,Basedata!B:B,0)</f>
         <v>187</v>
       </c>
       <c r="B188" s="20" t="s">
@@ -14666,7 +14955,7 @@
     </row>
     <row r="189" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="12">
-        <f>MATCH(B189,Basedata!A:A,0)</f>
+        <f>MATCH(B189,Basedata!B:B,0)</f>
         <v>188</v>
       </c>
       <c r="B189" s="20" t="s">
@@ -14705,7 +14994,7 @@
     </row>
     <row r="190" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="12">
-        <f>MATCH(B190,Basedata!A:A,0)</f>
+        <f>MATCH(B190,Basedata!B:B,0)</f>
         <v>189</v>
       </c>
       <c r="B190" s="20" t="s">
@@ -14744,7 +15033,7 @@
     </row>
     <row r="191" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="12">
-        <f>MATCH(B191,Basedata!A:A,0)</f>
+        <f>MATCH(B191,Basedata!B:B,0)</f>
         <v>340</v>
       </c>
       <c r="B191" s="20" t="s">
@@ -14783,7 +15072,7 @@
     </row>
     <row r="192" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="12">
-        <f>MATCH(B192,Basedata!A:A,0)</f>
+        <f>MATCH(B192,Basedata!B:B,0)</f>
         <v>190</v>
       </c>
       <c r="B192" s="20" t="s">
@@ -14822,7 +15111,7 @@
     </row>
     <row r="193" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="12">
-        <f>MATCH(B193,Basedata!A:A,0)</f>
+        <f>MATCH(B193,Basedata!B:B,0)</f>
         <v>341</v>
       </c>
       <c r="B193" s="20" t="s">
@@ -14859,7 +15148,7 @@
     </row>
     <row r="194" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="12">
-        <f>MATCH(B194,Basedata!A:A,0)</f>
+        <f>MATCH(B194,Basedata!B:B,0)</f>
         <v>191</v>
       </c>
       <c r="B194" s="20" t="s">
@@ -14898,7 +15187,7 @@
     </row>
     <row r="195" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="12">
-        <f>MATCH(B195,Basedata!A:A,0)</f>
+        <f>MATCH(B195,Basedata!B:B,0)</f>
         <v>192</v>
       </c>
       <c r="B195" s="20" t="s">
@@ -14937,7 +15226,7 @@
     </row>
     <row r="196" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="12">
-        <f>MATCH(B196,Basedata!A:A,0)</f>
+        <f>MATCH(B196,Basedata!B:B,0)</f>
         <v>342</v>
       </c>
       <c r="B196" s="20" t="s">
@@ -14976,7 +15265,7 @@
     </row>
     <row r="197" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="12">
-        <f>MATCH(B197,Basedata!A:A,0)</f>
+        <f>MATCH(B197,Basedata!B:B,0)</f>
         <v>343</v>
       </c>
       <c r="B197" s="20" t="s">
@@ -15015,7 +15304,7 @@
     </row>
     <row r="198" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="12">
-        <f>MATCH(B198,Basedata!A:A,0)</f>
+        <f>MATCH(B198,Basedata!B:B,0)</f>
         <v>193</v>
       </c>
       <c r="B198" s="20" t="s">
@@ -15054,7 +15343,7 @@
     </row>
     <row r="199" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="12">
-        <f>MATCH(B199,Basedata!A:A,0)</f>
+        <f>MATCH(B199,Basedata!B:B,0)</f>
         <v>142</v>
       </c>
       <c r="B199" s="20" t="s">
@@ -15093,7 +15382,7 @@
     </row>
     <row r="200" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="12">
-        <f>MATCH(B200,Basedata!A:A,0)</f>
+        <f>MATCH(B200,Basedata!B:B,0)</f>
         <v>344</v>
       </c>
       <c r="B200" s="20" t="s">
@@ -15132,7 +15421,7 @@
     </row>
     <row r="201" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="12">
-        <f>MATCH(B201,Basedata!A:A,0)</f>
+        <f>MATCH(B201,Basedata!B:B,0)</f>
         <v>194</v>
       </c>
       <c r="B201" s="20" t="s">
@@ -15171,7 +15460,7 @@
     </row>
     <row r="202" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="12">
-        <f>MATCH(B202,Basedata!A:A,0)</f>
+        <f>MATCH(B202,Basedata!B:B,0)</f>
         <v>195</v>
       </c>
       <c r="B202" s="20" t="s">
@@ -15210,7 +15499,7 @@
     </row>
     <row r="203" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="12">
-        <f>MATCH(B203,Basedata!A:A,0)</f>
+        <f>MATCH(B203,Basedata!B:B,0)</f>
         <v>184</v>
       </c>
       <c r="B203" s="20" t="s">
@@ -15249,7 +15538,7 @@
     </row>
     <row r="204" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="12">
-        <f>MATCH(B204,Basedata!A:A,0)</f>
+        <f>MATCH(B204,Basedata!B:B,0)</f>
         <v>270</v>
       </c>
       <c r="B204" s="20" t="s">
@@ -15288,7 +15577,7 @@
     </row>
     <row r="205" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="12">
-        <f>MATCH(B205,Basedata!A:A,0)</f>
+        <f>MATCH(B205,Basedata!B:B,0)</f>
         <v>196</v>
       </c>
       <c r="B205" s="20" t="s">
@@ -15327,7 +15616,7 @@
     </row>
     <row r="206" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="12">
-        <f>MATCH(B206,Basedata!A:A,0)</f>
+        <f>MATCH(B206,Basedata!B:B,0)</f>
         <v>197</v>
       </c>
       <c r="B206" s="20" t="s">
@@ -15366,7 +15655,7 @@
     </row>
     <row r="207" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="12">
-        <f>MATCH(B207,Basedata!A:A,0)</f>
+        <f>MATCH(B207,Basedata!B:B,0)</f>
         <v>198</v>
       </c>
       <c r="B207" s="20" t="s">
@@ -15405,7 +15694,7 @@
     </row>
     <row r="208" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="12">
-        <f>MATCH(B208,Basedata!A:A,0)</f>
+        <f>MATCH(B208,Basedata!B:B,0)</f>
         <v>199</v>
       </c>
       <c r="B208" s="20" t="s">
@@ -15444,7 +15733,7 @@
     </row>
     <row r="209" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="12">
-        <f>MATCH(B209,Basedata!A:A,0)</f>
+        <f>MATCH(B209,Basedata!B:B,0)</f>
         <v>345</v>
       </c>
       <c r="B209" s="20" t="s">
@@ -15483,7 +15772,7 @@
     </row>
     <row r="210" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="12">
-        <f>MATCH(B210,Basedata!A:A,0)</f>
+        <f>MATCH(B210,Basedata!B:B,0)</f>
         <v>346</v>
       </c>
       <c r="B210" s="20" t="s">
@@ -15522,7 +15811,7 @@
     </row>
     <row r="211" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="12">
-        <f>MATCH(B211,Basedata!A:A,0)</f>
+        <f>MATCH(B211,Basedata!B:B,0)</f>
         <v>347</v>
       </c>
       <c r="B211" s="20" t="s">
@@ -15561,7 +15850,7 @@
     </row>
     <row r="212" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="12">
-        <f>MATCH(B212,Basedata!A:A,0)</f>
+        <f>MATCH(B212,Basedata!B:B,0)</f>
         <v>348</v>
       </c>
       <c r="B212" s="20" t="s">
@@ -15600,7 +15889,7 @@
     </row>
     <row r="213" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="12">
-        <f>MATCH(B213,Basedata!A:A,0)</f>
+        <f>MATCH(B213,Basedata!B:B,0)</f>
         <v>201</v>
       </c>
       <c r="B213" s="20" t="s">
@@ -15639,7 +15928,7 @@
     </row>
     <row r="214" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="12">
-        <f>MATCH(B214,Basedata!A:A,0)</f>
+        <f>MATCH(B214,Basedata!B:B,0)</f>
         <v>349</v>
       </c>
       <c r="B214" s="20" t="s">
@@ -15678,7 +15967,7 @@
     </row>
     <row r="215" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="12">
-        <f>MATCH(B215,Basedata!A:A,0)</f>
+        <f>MATCH(B215,Basedata!B:B,0)</f>
         <v>202</v>
       </c>
       <c r="B215" s="20" t="s">
@@ -15717,7 +16006,7 @@
     </row>
     <row r="216" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="12">
-        <f>MATCH(B216,Basedata!A:A,0)</f>
+        <f>MATCH(B216,Basedata!B:B,0)</f>
         <v>350</v>
       </c>
       <c r="B216" s="20" t="s">
@@ -15754,7 +16043,7 @@
     </row>
     <row r="217" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="12">
-        <f>MATCH(B217,Basedata!A:A,0)</f>
+        <f>MATCH(B217,Basedata!B:B,0)</f>
         <v>351</v>
       </c>
       <c r="B217" s="20" t="s">
@@ -15793,7 +16082,7 @@
     </row>
     <row r="218" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="12">
-        <f>MATCH(B218,Basedata!A:A,0)</f>
+        <f>MATCH(B218,Basedata!B:B,0)</f>
         <v>203</v>
       </c>
       <c r="B218" s="20" t="s">
@@ -15832,7 +16121,7 @@
     </row>
     <row r="219" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="12">
-        <f>MATCH(B219,Basedata!A:A,0)</f>
+        <f>MATCH(B219,Basedata!B:B,0)</f>
         <v>204</v>
       </c>
       <c r="B219" s="20" t="s">
@@ -15871,7 +16160,7 @@
     </row>
     <row r="220" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="12">
-        <f>MATCH(B220,Basedata!A:A,0)</f>
+        <f>MATCH(B220,Basedata!B:B,0)</f>
         <v>205</v>
       </c>
       <c r="B220" s="20" t="s">
@@ -15910,7 +16199,7 @@
     </row>
     <row r="221" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="12">
-        <f>MATCH(B221,Basedata!A:A,0)</f>
+        <f>MATCH(B221,Basedata!B:B,0)</f>
         <v>352</v>
       </c>
       <c r="B221" s="20" t="s">
@@ -15949,7 +16238,7 @@
     </row>
     <row r="222" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="12">
-        <f>MATCH(B222,Basedata!A:A,0)</f>
+        <f>MATCH(B222,Basedata!B:B,0)</f>
         <v>353</v>
       </c>
       <c r="B222" s="20" t="s">
@@ -15986,7 +16275,7 @@
     </row>
     <row r="223" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="12">
-        <f>MATCH(B223,Basedata!A:A,0)</f>
+        <f>MATCH(B223,Basedata!B:B,0)</f>
         <v>354</v>
       </c>
       <c r="B223" s="20" t="s">
@@ -16023,7 +16312,7 @@
     </row>
     <row r="224" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="12">
-        <f>MATCH(B224,Basedata!A:A,0)</f>
+        <f>MATCH(B224,Basedata!B:B,0)</f>
         <v>355</v>
       </c>
       <c r="B224" s="20" t="s">
@@ -16062,7 +16351,7 @@
     </row>
     <row r="225" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="12">
-        <f>MATCH(B225,Basedata!A:A,0)</f>
+        <f>MATCH(B225,Basedata!B:B,0)</f>
         <v>356</v>
       </c>
       <c r="B225" s="20" t="s">
@@ -16101,7 +16390,7 @@
     </row>
     <row r="226" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="12">
-        <f>MATCH(B226,Basedata!A:A,0)</f>
+        <f>MATCH(B226,Basedata!B:B,0)</f>
         <v>260</v>
       </c>
       <c r="B226" s="20" t="s">
@@ -16140,7 +16429,7 @@
     </row>
     <row r="227" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="12">
-        <f>MATCH(B227,Basedata!A:A,0)</f>
+        <f>MATCH(B227,Basedata!B:B,0)</f>
         <v>261</v>
       </c>
       <c r="B227" s="20" t="s">
@@ -16179,7 +16468,7 @@
     </row>
     <row r="228" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="12">
-        <f>MATCH(B228,Basedata!A:A,0)</f>
+        <f>MATCH(B228,Basedata!B:B,0)</f>
         <v>262</v>
       </c>
       <c r="B228" s="20" t="s">
@@ -16218,7 +16507,7 @@
     </row>
     <row r="229" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="12">
-        <f>MATCH(B229,Basedata!A:A,0)</f>
+        <f>MATCH(B229,Basedata!B:B,0)</f>
         <v>206</v>
       </c>
       <c r="B229" s="20" t="s">
@@ -16257,7 +16546,7 @@
     </row>
     <row r="230" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="12">
-        <f>MATCH(B230,Basedata!A:A,0)</f>
+        <f>MATCH(B230,Basedata!B:B,0)</f>
         <v>266</v>
       </c>
       <c r="B230" s="20" t="s">
@@ -16296,7 +16585,7 @@
     </row>
     <row r="231" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="12">
-        <f>MATCH(B231,Basedata!A:A,0)</f>
+        <f>MATCH(B231,Basedata!B:B,0)</f>
         <v>267</v>
       </c>
       <c r="B231" s="20" t="s">
@@ -16335,7 +16624,7 @@
     </row>
     <row r="232" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="12">
-        <f>MATCH(B232,Basedata!A:A,0)</f>
+        <f>MATCH(B232,Basedata!B:B,0)</f>
         <v>357</v>
       </c>
       <c r="B232" s="20" t="s">
@@ -16374,7 +16663,7 @@
     </row>
     <row r="233" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="12">
-        <f>MATCH(B233,Basedata!A:A,0)</f>
+        <f>MATCH(B233,Basedata!B:B,0)</f>
         <v>268</v>
       </c>
       <c r="B233" s="20" t="s">
@@ -16413,7 +16702,7 @@
     </row>
     <row r="234" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="12">
-        <f>MATCH(B234,Basedata!A:A,0)</f>
+        <f>MATCH(B234,Basedata!B:B,0)</f>
         <v>269</v>
       </c>
       <c r="B234" s="20" t="s">
@@ -16452,7 +16741,7 @@
     </row>
     <row r="235" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="12">
-        <f>MATCH(B235,Basedata!A:A,0)</f>
+        <f>MATCH(B235,Basedata!B:B,0)</f>
         <v>358</v>
       </c>
       <c r="B235" s="20" t="s">
@@ -16489,7 +16778,7 @@
     </row>
     <row r="236" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="12">
-        <f>MATCH(B236,Basedata!A:A,0)</f>
+        <f>MATCH(B236,Basedata!B:B,0)</f>
         <v>359</v>
       </c>
       <c r="B236" s="20" t="s">
@@ -16528,7 +16817,7 @@
     </row>
     <row r="237" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="12">
-        <f>MATCH(B237,Basedata!A:A,0)</f>
+        <f>MATCH(B237,Basedata!B:B,0)</f>
         <v>360</v>
       </c>
       <c r="B237" s="20" t="s">
@@ -16567,7 +16856,7 @@
     </row>
     <row r="238" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="12">
-        <f>MATCH(B238,Basedata!A:A,0)</f>
+        <f>MATCH(B238,Basedata!B:B,0)</f>
         <v>361</v>
       </c>
       <c r="B238" s="20" t="s">
@@ -16606,7 +16895,7 @@
     </row>
     <row r="239" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="12">
-        <f>MATCH(B239,Basedata!A:A,0)</f>
+        <f>MATCH(B239,Basedata!B:B,0)</f>
         <v>362</v>
       </c>
       <c r="B239" s="20" t="s">
@@ -17329,46 +17618,46 @@
   <sheetData>
     <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="57" t="s">
         <v>422</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="57" t="s">
         <v>423</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="59" t="s">
         <v>424</v>
       </c>
       <c r="E5" s="23" t="s">
         <v>425</v>
       </c>
-      <c r="F5" s="58" t="s">
+      <c r="F5" s="59" t="s">
         <v>427</v>
       </c>
-      <c r="G5" s="54" t="s">
+      <c r="G5" s="55" t="s">
         <v>428</v>
       </c>
-      <c r="H5" s="54" t="s">
+      <c r="H5" s="55" t="s">
         <v>429</v>
       </c>
-      <c r="I5" s="54" t="s">
+      <c r="I5" s="55" t="s">
         <v>430</v>
       </c>
-      <c r="J5" s="54" t="s">
+      <c r="J5" s="55" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="59"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="60"/>
       <c r="E6" s="24" t="s">
         <v>426</v>
       </c>
-      <c r="F6" s="59"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
     </row>
     <row r="7" spans="2:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">

--- a/COVID-19 Apps/Population Data.xlsx
+++ b/COVID-19 Apps/Population Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zur Bonsen Georg\Documents\Programme\Beyond4P_Apps\COVID-19 Apps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5A371A-20B7-4F3B-8B05-C116EFB9B0AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AC667D-9592-49A8-B418-DE2DEC39D5D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{F1D96CA6-85D8-47A9-B3B5-9350C0EB077E}"/>
   </bookViews>
@@ -337,9 +337,6 @@
     <t>Gabon</t>
   </si>
   <si>
-    <t>Gambia</t>
-  </si>
-  <si>
     <t>Georgia</t>
   </si>
   <si>
@@ -1130,9 +1127,6 @@
   </si>
   <si>
     <t>Korea, South</t>
-  </si>
-  <si>
-    <t>Reunion</t>
   </si>
   <si>
     <t>Saint Vincent and the Grenadines</t>
@@ -2144,6 +2138,12 @@
   </si>
   <si>
     <t>U</t>
+  </si>
+  <si>
+    <t>France Reunion</t>
+  </si>
+  <si>
+    <t>The Gambia</t>
   </si>
 </sst>
 </file>
@@ -2900,11 +2900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D644D2AC-849B-4939-9630-637ED8DE136D}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E362"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A219" sqref="A219"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2916,19 +2915,19 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="52" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>21</v>
       </c>
@@ -2941,7 +2940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>22</v>
       </c>
@@ -2954,7 +2953,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>23</v>
       </c>
@@ -2967,7 +2966,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>26</v>
       </c>
@@ -2980,7 +2979,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>29</v>
       </c>
@@ -2993,7 +2992,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>30</v>
       </c>
@@ -3006,7 +3005,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>31</v>
       </c>
@@ -3019,7 +3018,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>32</v>
       </c>
@@ -3032,10 +3031,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="52" t="s">
-        <v>682</v>
-      </c>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>33</v>
       </c>
@@ -3048,73 +3044,73 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C11" s="22">
         <v>366900</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C12" s="22">
         <v>7317500</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C13" s="22">
         <v>231200</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C14" s="22">
         <v>4599400</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C15" s="22">
         <v>1659800</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C16" s="22">
         <v>511000</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C17" s="22">
         <v>5640900</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C18" s="22">
         <v>2366900</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="52" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B19" t="s">
         <v>34</v>
@@ -3128,7 +3124,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>35</v>
       </c>
@@ -3141,7 +3137,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>36</v>
       </c>
@@ -3154,7 +3150,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>37</v>
       </c>
@@ -3167,7 +3163,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>39</v>
       </c>
@@ -3180,7 +3176,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="52" t="s">
+        <v>680</v>
+      </c>
       <c r="B24" t="s">
         <v>40</v>
       </c>
@@ -3193,7 +3192,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>44</v>
       </c>
@@ -3206,7 +3205,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>45</v>
       </c>
@@ -3219,7 +3218,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>46</v>
       </c>
@@ -3232,7 +3231,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>48</v>
       </c>
@@ -3245,7 +3244,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>50</v>
       </c>
@@ -3258,7 +3257,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>51</v>
       </c>
@@ -3271,7 +3270,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>52</v>
       </c>
@@ -3284,7 +3283,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>55</v>
       </c>
@@ -3297,7 +3296,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>56</v>
       </c>
@@ -3310,9 +3309,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="52" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B34" t="s">
         <v>57</v>
@@ -3326,113 +3325,113 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C35" s="22">
         <v>4345737</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C36" s="22">
         <v>5020302</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C37" s="22">
         <v>1360396</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C38" s="22">
         <v>772094</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C39" s="22">
         <v>14446515</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C40" s="22">
         <v>8433301</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C41" s="22">
         <v>1168423</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C42" s="22">
         <v>965392</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C43" s="22">
         <v>523790</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C44" s="22">
         <v>154748</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C45" s="22">
         <v>44598</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C46" s="22">
         <v>40369</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C47" s="22">
         <v>38787</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C48" s="21" cm="1">
         <f t="array" ref="C48">INDEX(World!C:C,Basedata!D48)</f>
@@ -3443,7 +3442,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>62</v>
       </c>
@@ -3456,9 +3455,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="52" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B50" t="s">
         <v>63</v>
@@ -3472,9 +3471,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C51" s="22" cm="1">
         <f t="array" ref="C51">INDEX(China!G:G,Basedata!D51)</f>
@@ -3485,9 +3484,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C52" s="22" cm="1">
         <f t="array" ref="C52">INDEX(China!G:G,Basedata!D52)</f>
@@ -3498,9 +3497,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C53" s="22" cm="1">
         <f t="array" ref="C53">INDEX(China!G:G,Basedata!D53)</f>
@@ -3511,9 +3510,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C54" s="22" cm="1">
         <f t="array" ref="C54">INDEX(China!G:G,Basedata!D54)</f>
@@ -3524,9 +3523,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C55" s="22" cm="1">
         <f t="array" ref="C55">INDEX(China!G:G,Basedata!D55)</f>
@@ -3537,9 +3536,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C56" s="22" cm="1">
         <f t="array" ref="C56">INDEX(China!G:G,Basedata!D56)</f>
@@ -3550,9 +3549,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C57" s="22" cm="1">
         <f t="array" ref="C57">INDEX(China!G:G,Basedata!D57)</f>
@@ -3563,9 +3562,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C58" s="22" cm="1">
         <f t="array" ref="C58">INDEX(China!G:G,Basedata!D58)</f>
@@ -3576,9 +3575,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C59" s="22" cm="1">
         <f t="array" ref="C59">INDEX(China!G:G,Basedata!D59)</f>
@@ -3589,9 +3588,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C60" s="22" cm="1">
         <f t="array" ref="C60">INDEX(China!G:G,Basedata!D60)</f>
@@ -3602,9 +3601,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C61" s="22" cm="1">
         <f t="array" ref="C61">INDEX(China!G:G,Basedata!D61)</f>
@@ -3615,9 +3614,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C62" s="22" cm="1">
         <f t="array" ref="C62">INDEX(China!G:G,Basedata!D62)</f>
@@ -3628,9 +3627,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C63" s="22" cm="1">
         <f t="array" ref="C63">INDEX(China!G:G,Basedata!D63)</f>
@@ -3641,9 +3640,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C64" s="22" cm="1">
         <f t="array" ref="C64">INDEX(China!G:G,Basedata!D64)</f>
@@ -3654,9 +3653,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C65" s="22" cm="1">
         <f t="array" ref="C65">INDEX(China!G:G,Basedata!D65)</f>
@@ -3667,9 +3666,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C66" s="22" cm="1">
         <f t="array" ref="C66">INDEX(China!G:G,Basedata!D66)</f>
@@ -3680,9 +3679,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C67" s="22" cm="1">
         <f t="array" ref="C67">INDEX(China!G:G,Basedata!D67)</f>
@@ -3693,9 +3692,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C68" s="22" cm="1">
         <f t="array" ref="C68">INDEX(China!G:G,Basedata!D68)</f>
@@ -3706,9 +3705,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C69" s="22" cm="1">
         <f t="array" ref="C69">INDEX(China!G:G,Basedata!D69)</f>
@@ -3719,9 +3718,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C70" s="22" cm="1">
         <f t="array" ref="C70">INDEX(China!G:G,Basedata!D70)</f>
@@ -3732,9 +3731,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C71" s="22" cm="1">
         <f t="array" ref="C71">INDEX(China!G:G,Basedata!D71)</f>
@@ -3745,9 +3744,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C72" s="22" cm="1">
         <f t="array" ref="C72">INDEX(China!G:G,Basedata!D72)</f>
@@ -3758,9 +3757,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C73" s="22" cm="1">
         <f t="array" ref="C73">INDEX(China!G:G,Basedata!D73)</f>
@@ -3771,9 +3770,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C74" s="22" cm="1">
         <f t="array" ref="C74">INDEX(China!G:G,Basedata!D74)</f>
@@ -3784,9 +3783,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="75" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C75" s="22" cm="1">
         <f t="array" ref="C75">INDEX(China!G:G,Basedata!D75)</f>
@@ -3797,9 +3796,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C76" s="22" cm="1">
         <f t="array" ref="C76">INDEX(China!G:G,Basedata!D76)</f>
@@ -3810,9 +3809,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C77" s="22" cm="1">
         <f t="array" ref="C77">INDEX(China!G:G,Basedata!D77)</f>
@@ -3823,9 +3822,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="78" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C78" s="22" cm="1">
         <f t="array" ref="C78">INDEX(China!G:G,Basedata!D78)</f>
@@ -3836,9 +3835,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C79" s="22" cm="1">
         <f t="array" ref="C79">INDEX(China!G:G,Basedata!D79)</f>
@@ -3849,9 +3848,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C80" s="22" cm="1">
         <f t="array" ref="C80">INDEX(China!G:G,Basedata!D80)</f>
@@ -3862,9 +3861,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="81" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C81" s="22" cm="1">
         <f t="array" ref="C81">INDEX(China!G:G,Basedata!D81)</f>
@@ -3875,9 +3874,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="82" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C82" s="22" cm="1">
         <f t="array" ref="C82">INDEX(China!G:G,Basedata!D82)</f>
@@ -3888,9 +3887,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C83" s="22" cm="1">
         <f t="array" ref="C83">INDEX(China!G:G,Basedata!D83)</f>
@@ -3901,7 +3900,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="84" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>59</v>
       </c>
@@ -3914,7 +3913,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="85" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>64</v>
       </c>
@@ -3927,9 +3926,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="86" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C86" s="21" cm="1">
         <f t="array" ref="C86">INDEX(World!C:C,Basedata!D86)</f>
@@ -3940,9 +3939,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="87" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C87" s="21" cm="1">
         <f t="array" ref="C87">INDEX(World!C:C,Basedata!D87)</f>
@@ -3953,7 +3952,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="88" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>67</v>
       </c>
@@ -3966,9 +3965,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="89" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C89" s="21" cm="1">
         <f t="array" ref="C89">INDEX(World!C:C,Basedata!D89)</f>
@@ -3979,7 +3978,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="90" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>68</v>
       </c>
@@ -3992,7 +3991,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="91" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>69</v>
       </c>
@@ -4005,7 +4004,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="92" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>70</v>
       </c>
@@ -4018,9 +4017,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="93" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C93" s="21" cm="1">
         <f t="array" ref="C93">INDEX(World!C:C,Basedata!D93)</f>
@@ -4031,7 +4030,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>71</v>
       </c>
@@ -4044,24 +4043,24 @@
         <v>60</v>
       </c>
     </row>
-    <row r="95" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C95" s="22">
         <f>C94-C96</f>
         <v>5742912</v>
       </c>
     </row>
-    <row r="96" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C96" s="22">
         <v>49290</v>
       </c>
     </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>74</v>
       </c>
@@ -4074,7 +4073,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>75</v>
       </c>
@@ -4087,7 +4086,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>76</v>
       </c>
@@ -4100,7 +4099,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>80</v>
       </c>
@@ -4113,7 +4112,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>81</v>
       </c>
@@ -4126,7 +4125,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>82</v>
       </c>
@@ -4139,7 +4138,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>86</v>
       </c>
@@ -4152,9 +4151,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="52" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B104" t="s">
         <v>87</v>
@@ -4168,42 +4167,42 @@
         <v>77</v>
       </c>
     </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C105" s="22">
         <v>268700</v>
       </c>
     </row>
-    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C106" s="22">
-        <f>C104-C105-C108-C110-C111-C112</f>
+        <f>C104-C105-C108-C111-C112-C113</f>
         <v>64385922</v>
       </c>
     </row>
-    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C107" s="22">
         <v>290691</v>
       </c>
     </row>
-    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C108" s="22">
         <v>238007</v>
       </c>
     </row>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C109" s="21" cm="1">
         <f t="array" ref="C109">INDEX(World!C:C,Basedata!D109)</f>
@@ -4214,898 +4213,898 @@
         <v>137</v>
       </c>
     </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
+        <v>684</v>
+      </c>
+      <c r="C110" s="21" cm="1">
+        <f t="array" ref="C110">INDEX(World!C:C,Basedata!D110)</f>
+        <v>895312</v>
+      </c>
+      <c r="D110">
+        <f>MATCH(B110,World!B:B,0)</f>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>350</v>
+      </c>
+      <c r="C111" s="22">
+        <v>9961</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
         <v>351</v>
       </c>
-      <c r="C110" s="22">
-        <v>9961</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B111" t="s">
-        <v>352</v>
-      </c>
-      <c r="C111" s="22">
+      <c r="C112" s="22">
         <v>72239</v>
       </c>
     </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B112" t="s">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
         <v>88</v>
-      </c>
-      <c r="C112" s="21" cm="1">
-        <f t="array" ref="C112">INDEX(World!C:C,Basedata!D112)</f>
-        <v>298682</v>
-      </c>
-      <c r="D112">
-        <f>MATCH(B112,World!B:B,0)</f>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B113" t="s">
-        <v>90</v>
       </c>
       <c r="C113" s="21" cm="1">
         <f t="array" ref="C113">INDEX(World!C:C,Basedata!D113)</f>
-        <v>2225734</v>
+        <v>298682</v>
       </c>
       <c r="D113">
         <f>MATCH(B113,World!B:B,0)</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C114" s="21" cm="1">
         <f t="array" ref="C114">INDEX(World!C:C,Basedata!D114)</f>
-        <v>3989167</v>
+        <v>2225734</v>
       </c>
       <c r="D114">
         <f>MATCH(B114,World!B:B,0)</f>
-        <v>82</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="52" t="s">
-        <v>682</v>
-      </c>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C115" s="21" cm="1">
         <f t="array" ref="C115">INDEX(World!C:C,Basedata!D115)</f>
-        <v>83783942</v>
+        <v>3989167</v>
       </c>
       <c r="D115">
         <f>MATCH(B115,World!B:B,0)</f>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="52" t="s">
+        <v>680</v>
+      </c>
       <c r="B116" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C116" s="21" cm="1">
         <f t="array" ref="C116">INDEX(World!C:C,Basedata!D116)</f>
-        <v>31072940</v>
+        <v>83783942</v>
       </c>
       <c r="D116">
         <f>MATCH(B116,World!B:B,0)</f>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C117" s="21" cm="1">
         <f t="array" ref="C117">INDEX(World!C:C,Basedata!D117)</f>
-        <v>10423054</v>
+        <v>31072940</v>
       </c>
       <c r="D117">
         <f>MATCH(B117,World!B:B,0)</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>95</v>
+      </c>
+      <c r="C118" s="21" cm="1">
+        <f t="array" ref="C118">INDEX(World!C:C,Basedata!D118)</f>
+        <v>10423054</v>
+      </c>
+      <c r="D118">
+        <f>MATCH(B118,World!B:B,0)</f>
         <v>86</v>
       </c>
     </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B118" t="s">
-        <v>681</v>
-      </c>
-      <c r="C118" s="51">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>679</v>
+      </c>
+      <c r="C119" s="51">
         <v>390253</v>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B119" t="s">
-        <v>680</v>
-      </c>
-      <c r="C119" s="21" cm="1">
-        <f t="array" ref="C119">INDEX(World!C:C,Basedata!D119)</f>
-        <v>400124</v>
-      </c>
-      <c r="D119">
-        <f>MATCH(B119,World!B:B,0)</f>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>100</v>
+        <v>678</v>
       </c>
       <c r="C120" s="21" cm="1">
         <f t="array" ref="C120">INDEX(World!C:C,Basedata!D120)</f>
-        <v>17915568</v>
+        <v>400124</v>
       </c>
       <c r="D120">
         <f>MATCH(B120,World!B:B,0)</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>99</v>
+      </c>
+      <c r="C121" s="21" cm="1">
+        <f t="array" ref="C121">INDEX(World!C:C,Basedata!D121)</f>
+        <v>17915568</v>
+      </c>
+      <c r="D121">
+        <f>MATCH(B121,World!B:B,0)</f>
         <v>91</v>
       </c>
     </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B121" t="s">
-        <v>353</v>
-      </c>
-      <c r="C121" s="22">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>352</v>
+      </c>
+      <c r="C122" s="22">
         <v>62307</v>
       </c>
     </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B122" t="s">
-        <v>101</v>
-      </c>
-      <c r="C122" s="21" cm="1">
-        <f t="array" ref="C122">INDEX(World!C:C,Basedata!D122)</f>
-        <v>13132795</v>
-      </c>
-      <c r="D122">
-        <f>MATCH(B122,World!B:B,0)</f>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C123" s="21" cm="1">
         <f t="array" ref="C123">INDEX(World!C:C,Basedata!D123)</f>
-        <v>786552</v>
+        <v>13132795</v>
       </c>
       <c r="D123">
         <f>MATCH(B123,World!B:B,0)</f>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="C124" s="21" cm="1">
         <f t="array" ref="C124">INDEX(World!C:C,Basedata!D124)</f>
-        <v>1402985</v>
+        <v>786552</v>
       </c>
       <c r="D124">
         <f>MATCH(B124,World!B:B,0)</f>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="C125" s="21" cm="1">
         <f t="array" ref="C125">INDEX(World!C:C,Basedata!D125)</f>
-        <v>801</v>
+        <v>1402985</v>
       </c>
       <c r="D125">
         <f>MATCH(B125,World!B:B,0)</f>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C126" s="21" cm="1">
         <f t="array" ref="C126">INDEX(World!C:C,Basedata!D126)</f>
-        <v>9904607</v>
+        <v>801</v>
       </c>
       <c r="D126">
         <f>MATCH(B126,World!B:B,0)</f>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C127" s="21" cm="1">
         <f t="array" ref="C127">INDEX(World!C:C,Basedata!D127)</f>
-        <v>9660351</v>
+        <v>9904607</v>
       </c>
       <c r="D127">
         <f>MATCH(B127,World!B:B,0)</f>
-        <v>99</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C128" s="21" cm="1">
         <f t="array" ref="C128">INDEX(World!C:C,Basedata!D128)</f>
-        <v>341243</v>
+        <v>9660351</v>
       </c>
       <c r="D128">
         <f>MATCH(B128,World!B:B,0)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="52" t="s">
-        <v>682</v>
-      </c>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C129" s="21" cm="1">
         <f t="array" ref="C129">INDEX(World!C:C,Basedata!D129)</f>
-        <v>1380004385</v>
+        <v>341243</v>
       </c>
       <c r="D129">
         <f>MATCH(B129,World!B:B,0)</f>
-        <v>101</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="52" t="s">
+        <v>680</v>
+      </c>
       <c r="B130" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C130" s="21" cm="1">
         <f t="array" ref="C130">INDEX(World!C:C,Basedata!D130)</f>
-        <v>273523615</v>
+        <v>1380004385</v>
       </c>
       <c r="D130">
         <f>MATCH(B130,World!B:B,0)</f>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="52" t="s">
-        <v>682</v>
-      </c>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C131" s="21" cm="1">
         <f t="array" ref="C131">INDEX(World!C:C,Basedata!D131)</f>
-        <v>83992949</v>
+        <v>273523615</v>
       </c>
       <c r="D131">
         <f>MATCH(B131,World!B:B,0)</f>
-        <v>103</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="52" t="s">
+        <v>680</v>
+      </c>
       <c r="B132" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C132" s="21" cm="1">
         <f t="array" ref="C132">INDEX(World!C:C,Basedata!D132)</f>
-        <v>40222493</v>
+        <v>83992949</v>
       </c>
       <c r="D132">
         <f>MATCH(B132,World!B:B,0)</f>
-        <v>104</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C133" s="21" cm="1">
         <f t="array" ref="C133">INDEX(World!C:C,Basedata!D133)</f>
-        <v>4937786</v>
+        <v>40222493</v>
       </c>
       <c r="D133">
         <f>MATCH(B133,World!B:B,0)</f>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C134" s="21" cm="1">
         <f t="array" ref="C134">INDEX(World!C:C,Basedata!D134)</f>
-        <v>8655535</v>
+        <v>4937786</v>
       </c>
       <c r="D134">
         <f>MATCH(B134,World!B:B,0)</f>
-        <v>107</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="52" t="s">
-        <v>682</v>
-      </c>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C135" s="21" cm="1">
         <f t="array" ref="C135">INDEX(World!C:C,Basedata!D135)</f>
-        <v>60461826</v>
+        <v>8655535</v>
       </c>
       <c r="D135">
         <f>MATCH(B135,World!B:B,0)</f>
-        <v>108</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="52" t="s">
+        <v>680</v>
+      </c>
       <c r="B136" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C136" s="21" cm="1">
         <f t="array" ref="C136">INDEX(World!C:C,Basedata!D136)</f>
-        <v>2961167</v>
+        <v>60461826</v>
       </c>
       <c r="D136">
         <f>MATCH(B136,World!B:B,0)</f>
-        <v>109</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C137" s="21" cm="1">
         <f t="array" ref="C137">INDEX(World!C:C,Basedata!D137)</f>
-        <v>126476461</v>
+        <v>2961167</v>
       </c>
       <c r="D137">
         <f>MATCH(B137,World!B:B,0)</f>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>118</v>
+      </c>
+      <c r="C138" s="21" cm="1">
+        <f t="array" ref="C138">INDEX(World!C:C,Basedata!D138)</f>
+        <v>126476461</v>
+      </c>
+      <c r="D138">
+        <f>MATCH(B138,World!B:B,0)</f>
         <v>110</v>
       </c>
     </row>
-    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B138" t="s">
-        <v>354</v>
-      </c>
-      <c r="C138" s="22">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>353</v>
+      </c>
+      <c r="C139" s="22">
         <v>102700</v>
       </c>
     </row>
-    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B139" t="s">
-        <v>120</v>
-      </c>
-      <c r="C139" s="21" cm="1">
-        <f t="array" ref="C139">INDEX(World!C:C,Basedata!D139)</f>
-        <v>10203134</v>
-      </c>
-      <c r="D139">
-        <f>MATCH(B139,World!B:B,0)</f>
-        <v>111</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C140" s="21" cm="1">
         <f t="array" ref="C140">INDEX(World!C:C,Basedata!D140)</f>
-        <v>18776707</v>
+        <v>10203134</v>
       </c>
       <c r="D140">
         <f>MATCH(B140,World!B:B,0)</f>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C141" s="21" cm="1">
         <f t="array" ref="C141">INDEX(World!C:C,Basedata!D141)</f>
-        <v>53771296</v>
+        <v>18776707</v>
       </c>
       <c r="D141">
         <f>MATCH(B141,World!B:B,0)</f>
-        <v>113</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="52" t="s">
-        <v>682</v>
-      </c>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>355</v>
+        <v>121</v>
       </c>
       <c r="C142" s="21" cm="1">
         <f t="array" ref="C142">INDEX(World!C:C,Basedata!D142)</f>
-        <v>51269185</v>
+        <v>53771296</v>
       </c>
       <c r="D142">
         <f>MATCH(B142,World!B:B,0)</f>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="52" t="s">
+        <v>680</v>
+      </c>
+      <c r="B143" t="s">
+        <v>354</v>
+      </c>
+      <c r="C143" s="21" cm="1">
+        <f t="array" ref="C143">INDEX(World!C:C,Basedata!D143)</f>
+        <v>51269185</v>
+      </c>
+      <c r="D143">
+        <f>MATCH(B143,World!B:B,0)</f>
         <v>199</v>
       </c>
     </row>
-    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B143" t="s">
-        <v>670</v>
-      </c>
-      <c r="C143" s="22">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>668</v>
+      </c>
+      <c r="C144" s="22">
         <v>1810463</v>
       </c>
     </row>
-    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B144" t="s">
-        <v>124</v>
-      </c>
-      <c r="C144" s="21" cm="1">
-        <f t="array" ref="C144">INDEX(World!C:C,Basedata!D144)</f>
-        <v>4270571</v>
-      </c>
-      <c r="D144">
-        <f>MATCH(B144,World!B:B,0)</f>
-        <v>115</v>
-      </c>
-    </row>
-    <row r="145" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C145" s="21" cm="1">
         <f t="array" ref="C145">INDEX(World!C:C,Basedata!D145)</f>
-        <v>1886198</v>
+        <v>4270571</v>
       </c>
       <c r="D145">
         <f>MATCH(B145,World!B:B,0)</f>
-        <v>118</v>
-      </c>
-    </row>
-    <row r="146" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C146" s="21" cm="1">
         <f t="array" ref="C146">INDEX(World!C:C,Basedata!D146)</f>
-        <v>6825445</v>
+        <v>1886198</v>
       </c>
       <c r="D146">
         <f>MATCH(B146,World!B:B,0)</f>
-        <v>119</v>
-      </c>
-    </row>
-    <row r="147" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C147" s="21" cm="1">
         <f t="array" ref="C147">INDEX(World!C:C,Basedata!D147)</f>
-        <v>38128</v>
+        <v>6825445</v>
       </c>
       <c r="D147">
         <f>MATCH(B147,World!B:B,0)</f>
-        <v>123</v>
-      </c>
-    </row>
-    <row r="148" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C148" s="21" cm="1">
         <f t="array" ref="C148">INDEX(World!C:C,Basedata!D148)</f>
-        <v>2722289</v>
+        <v>38128</v>
       </c>
       <c r="D148">
         <f>MATCH(B148,World!B:B,0)</f>
-        <v>124</v>
-      </c>
-    </row>
-    <row r="149" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C149" s="21" cm="1">
         <f t="array" ref="C149">INDEX(World!C:C,Basedata!D149)</f>
-        <v>625978</v>
+        <v>2722289</v>
       </c>
       <c r="D149">
         <f>MATCH(B149,World!B:B,0)</f>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="150" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C150" s="21" cm="1">
         <f t="array" ref="C150">INDEX(World!C:C,Basedata!D150)</f>
-        <v>32365999</v>
+        <v>625978</v>
       </c>
       <c r="D150">
         <f>MATCH(B150,World!B:B,0)</f>
-        <v>129</v>
-      </c>
-    </row>
-    <row r="151" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C151" s="21" cm="1">
         <f t="array" ref="C151">INDEX(World!C:C,Basedata!D151)</f>
-        <v>540544</v>
+        <v>32365999</v>
       </c>
       <c r="D151">
         <f>MATCH(B151,World!B:B,0)</f>
-        <v>130</v>
-      </c>
-    </row>
-    <row r="152" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C152" s="21" cm="1">
         <f t="array" ref="C152">INDEX(World!C:C,Basedata!D152)</f>
-        <v>441543</v>
+        <v>540544</v>
       </c>
       <c r="D152">
         <f>MATCH(B152,World!B:B,0)</f>
-        <v>132</v>
-      </c>
-    </row>
-    <row r="153" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C153" s="21" cm="1">
         <f t="array" ref="C153">INDEX(World!C:C,Basedata!D153)</f>
-        <v>375265</v>
+        <v>441543</v>
       </c>
       <c r="D153">
         <f>MATCH(B153,World!B:B,0)</f>
-        <v>134</v>
-      </c>
-    </row>
-    <row r="154" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C154" s="21" cm="1">
         <f t="array" ref="C154">INDEX(World!C:C,Basedata!D154)</f>
-        <v>4649658</v>
+        <v>375265</v>
       </c>
       <c r="D154">
         <f>MATCH(B154,World!B:B,0)</f>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
+        <v>143</v>
+      </c>
+      <c r="C155" s="21" cm="1">
+        <f t="array" ref="C155">INDEX(World!C:C,Basedata!D155)</f>
+        <v>4649658</v>
+      </c>
+      <c r="D155">
+        <f>MATCH(B155,World!B:B,0)</f>
         <v>135</v>
       </c>
     </row>
-    <row r="155" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B155" t="s">
-        <v>672</v>
-      </c>
-      <c r="C155" s="51">
+    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
+        <v>670</v>
+      </c>
+      <c r="C156" s="51">
         <v>272815</v>
       </c>
-      <c r="E155" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="156" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B156" t="s">
-        <v>146</v>
-      </c>
-      <c r="C156" s="21" cm="1">
-        <f t="array" ref="C156">INDEX(World!C:C,Basedata!D156)</f>
-        <v>128932753</v>
-      </c>
-      <c r="D156">
-        <f>MATCH(B156,World!B:B,0)</f>
-        <v>138</v>
-      </c>
-    </row>
-    <row r="157" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E156" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C157" s="21" cm="1">
         <f t="array" ref="C157">INDEX(World!C:C,Basedata!D157)</f>
-        <v>4033963</v>
+        <v>128932753</v>
       </c>
       <c r="D157">
         <f>MATCH(B157,World!B:B,0)</f>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="158" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C158" s="21" cm="1">
         <f t="array" ref="C158">INDEX(World!C:C,Basedata!D158)</f>
-        <v>39242</v>
+        <v>4033963</v>
       </c>
       <c r="D158">
         <f>MATCH(B158,World!B:B,0)</f>
-        <v>141</v>
-      </c>
-    </row>
-    <row r="159" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C159" s="21" cm="1">
         <f t="array" ref="C159">INDEX(World!C:C,Basedata!D159)</f>
-        <v>3278290</v>
+        <v>39242</v>
       </c>
       <c r="D159">
         <f>MATCH(B159,World!B:B,0)</f>
-        <v>142</v>
-      </c>
-    </row>
-    <row r="160" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C160" s="21" cm="1">
         <f t="array" ref="C160">INDEX(World!C:C,Basedata!D160)</f>
-        <v>36910560</v>
+        <v>3278290</v>
       </c>
       <c r="D160">
         <f>MATCH(B160,World!B:B,0)</f>
-        <v>145</v>
-      </c>
-    </row>
-    <row r="161" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C161" s="21" cm="1">
         <f t="array" ref="C161">INDEX(World!C:C,Basedata!D161)</f>
-        <v>2540905</v>
+        <v>36910560</v>
       </c>
       <c r="D161">
         <f>MATCH(B161,World!B:B,0)</f>
-        <v>148</v>
-      </c>
-    </row>
-    <row r="162" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C162" s="21" cm="1">
         <f t="array" ref="C162">INDEX(World!C:C,Basedata!D162)</f>
-        <v>29136808</v>
+        <v>2540905</v>
       </c>
       <c r="D162">
         <f>MATCH(B162,World!B:B,0)</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="163" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C163" s="21" cm="1">
         <f t="array" ref="C163">INDEX(World!C:C,Basedata!D163)</f>
-        <v>17134872</v>
+        <v>29136808</v>
       </c>
       <c r="D163">
         <f>MATCH(B163,World!B:B,0)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
+        <v>158</v>
+      </c>
+      <c r="C164" s="21" cm="1">
+        <f t="array" ref="C164">INDEX(World!C:C,Basedata!D164)</f>
+        <v>17134872</v>
+      </c>
+      <c r="D164">
+        <f>MATCH(B164,World!B:B,0)</f>
         <v>151</v>
       </c>
     </row>
-    <row r="164" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B164" t="s">
-        <v>675</v>
-      </c>
-      <c r="C164" s="22">
-        <f>C163-C165</f>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>673</v>
+      </c>
+      <c r="C165" s="22">
+        <f>C164-C166</f>
         <v>16970779</v>
       </c>
     </row>
-    <row r="165" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B165" t="s">
-        <v>674</v>
-      </c>
-      <c r="C165" s="21" cm="1">
-        <f t="array" ref="C165">INDEX(World!C:C,Basedata!D165)</f>
-        <v>164093</v>
-      </c>
-      <c r="D165">
-        <f>MATCH(B165,World!B:B,0)</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="166" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>161</v>
+        <v>672</v>
       </c>
       <c r="C166" s="21" cm="1">
         <f t="array" ref="C166">INDEX(World!C:C,Basedata!D166)</f>
-        <v>4822233</v>
+        <v>164093</v>
       </c>
       <c r="D166">
         <f>MATCH(B166,World!B:B,0)</f>
-        <v>153</v>
-      </c>
-    </row>
-    <row r="167" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C167" s="21" cm="1">
         <f t="array" ref="C167">INDEX(World!C:C,Basedata!D167)</f>
-        <v>206139589</v>
+        <v>4822233</v>
       </c>
       <c r="D167">
         <f>MATCH(B167,World!B:B,0)</f>
-        <v>156</v>
-      </c>
-    </row>
-    <row r="168" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C168" s="21" cm="1">
         <f t="array" ref="C168">INDEX(World!C:C,Basedata!D168)</f>
-        <v>2083374</v>
+        <v>206139589</v>
       </c>
       <c r="D168">
         <f>MATCH(B168,World!B:B,0)</f>
-        <v>159</v>
-      </c>
-    </row>
-    <row r="169" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C169" s="21" cm="1">
         <f t="array" ref="C169">INDEX(World!C:C,Basedata!D169)</f>
-        <v>5421241</v>
+        <v>2083374</v>
       </c>
       <c r="D169">
         <f>MATCH(B169,World!B:B,0)</f>
-        <v>161</v>
-      </c>
-    </row>
-    <row r="170" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C170" s="21" cm="1">
         <f t="array" ref="C170">INDEX(World!C:C,Basedata!D170)</f>
-        <v>5106626</v>
+        <v>5421241</v>
       </c>
       <c r="D170">
         <f>MATCH(B170,World!B:B,0)</f>
-        <v>162</v>
-      </c>
-    </row>
-    <row r="171" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C171" s="21" cm="1">
         <f t="array" ref="C171">INDEX(World!C:C,Basedata!D171)</f>
-        <v>220892340</v>
+        <v>5106626</v>
       </c>
       <c r="D171">
         <f>MATCH(B171,World!B:B,0)</f>
-        <v>163</v>
-      </c>
-    </row>
-    <row r="172" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C172" s="21" cm="1">
         <f t="array" ref="C172">INDEX(World!C:C,Basedata!D172)</f>
-        <v>4314767</v>
+        <v>220892340</v>
       </c>
       <c r="D172">
         <f>MATCH(B172,World!B:B,0)</f>
-        <v>165</v>
-      </c>
-    </row>
-    <row r="173" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C173" s="21" cm="1">
         <f t="array" ref="C173">INDEX(World!C:C,Basedata!D173)</f>
-        <v>7132538</v>
+        <v>4314767</v>
       </c>
       <c r="D173">
         <f>MATCH(B173,World!B:B,0)</f>
-        <v>167</v>
-      </c>
-    </row>
-    <row r="174" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C174" s="21" cm="1">
         <f t="array" ref="C174">INDEX(World!C:C,Basedata!D174)</f>
-        <v>32971854</v>
+        <v>7132538</v>
       </c>
       <c r="D174">
         <f>MATCH(B174,World!B:B,0)</f>
-        <v>168</v>
-      </c>
-    </row>
-    <row r="175" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C175" s="21" cm="1">
         <f t="array" ref="C175">INDEX(World!C:C,Basedata!D175)</f>
-        <v>109581078</v>
+        <v>32971854</v>
       </c>
       <c r="D175">
         <f>MATCH(B175,World!B:B,0)</f>
-        <v>169</v>
-      </c>
-    </row>
-    <row r="176" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C176" s="21" cm="1">
         <f t="array" ref="C176">INDEX(World!C:C,Basedata!D176)</f>
-        <v>37846611</v>
+        <v>109581078</v>
       </c>
       <c r="D176">
         <f>MATCH(B176,World!B:B,0)</f>
-        <v>170</v>
-      </c>
-    </row>
-    <row r="177" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C177" s="21" cm="1">
         <f t="array" ref="C177">INDEX(World!C:C,Basedata!D177)</f>
-        <v>10196709</v>
+        <v>37846611</v>
       </c>
       <c r="D177">
         <f>MATCH(B177,World!B:B,0)</f>
-        <v>171</v>
-      </c>
-    </row>
-    <row r="178" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C178" s="21" cm="1">
         <f t="array" ref="C178">INDEX(World!C:C,Basedata!D178)</f>
-        <v>2881053</v>
+        <v>10196709</v>
       </c>
       <c r="D178">
         <f>MATCH(B178,World!B:B,0)</f>
-        <v>173</v>
-      </c>
-    </row>
-    <row r="179" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
-        <v>356</v>
+        <v>180</v>
       </c>
       <c r="C179" s="21" cm="1">
         <f t="array" ref="C179">INDEX(World!C:C,Basedata!D179)</f>
-        <v>895312</v>
+        <v>2881053</v>
       </c>
       <c r="D179">
         <f>MATCH(B179,World!B:B,0)</f>
-        <v>177</v>
-      </c>
-    </row>
-    <row r="180" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C180" s="21" cm="1">
         <f t="array" ref="C180">INDEX(World!C:C,Basedata!D180)</f>
@@ -5116,9 +5115,9 @@
         <v>174</v>
       </c>
     </row>
-    <row r="181" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C181" s="21" cm="1">
         <f t="array" ref="C181">INDEX(World!C:C,Basedata!D181)</f>
@@ -5129,9 +5128,9 @@
         <v>175</v>
       </c>
     </row>
-    <row r="182" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C182" s="21" cm="1">
         <f t="array" ref="C182">INDEX(World!C:C,Basedata!D182)</f>
@@ -5142,9 +5141,9 @@
         <v>176</v>
       </c>
     </row>
-    <row r="183" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C183" s="21" cm="1">
         <f t="array" ref="C183">INDEX(World!C:C,Basedata!D183)</f>
@@ -5155,9 +5154,9 @@
         <v>181</v>
       </c>
     </row>
-    <row r="184" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C184" s="21" cm="1">
         <f t="array" ref="C184">INDEX(World!C:C,Basedata!D184)</f>
@@ -5168,9 +5167,9 @@
         <v>203</v>
       </c>
     </row>
-    <row r="185" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C185" s="21" cm="1">
         <f t="array" ref="C185">INDEX(World!C:C,Basedata!D185)</f>
@@ -5181,9 +5180,9 @@
         <v>185</v>
       </c>
     </row>
-    <row r="186" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C186" s="21" cm="1">
         <f t="array" ref="C186">INDEX(World!C:C,Basedata!D186)</f>
@@ -5194,9 +5193,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="187" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C187" s="21" cm="1">
         <f t="array" ref="C187">INDEX(World!C:C,Basedata!D187)</f>
@@ -5207,9 +5206,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="188" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C188" s="21" cm="1">
         <f t="array" ref="C188">INDEX(World!C:C,Basedata!D188)</f>
@@ -5220,9 +5219,9 @@
         <v>189</v>
       </c>
     </row>
-    <row r="189" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C189" s="21" cm="1">
         <f t="array" ref="C189">INDEX(World!C:C,Basedata!D189)</f>
@@ -5233,9 +5232,9 @@
         <v>190</v>
       </c>
     </row>
-    <row r="190" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C190" s="21" cm="1">
         <f t="array" ref="C190">INDEX(World!C:C,Basedata!D190)</f>
@@ -5246,9 +5245,9 @@
         <v>192</v>
       </c>
     </row>
-    <row r="191" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C191" s="21" cm="1">
         <f t="array" ref="C191">INDEX(World!C:C,Basedata!D191)</f>
@@ -5259,9 +5258,9 @@
         <v>194</v>
       </c>
     </row>
-    <row r="192" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C192" s="21" cm="1">
         <f t="array" ref="C192">INDEX(World!C:C,Basedata!D192)</f>
@@ -5272,9 +5271,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C193" s="21" cm="1">
         <f t="array" ref="C193">INDEX(World!C:C,Basedata!D193)</f>
@@ -5285,12 +5284,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="52" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B194" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C194" s="21" cm="1">
         <f t="array" ref="C194">INDEX(World!C:C,Basedata!D194)</f>
@@ -5301,9 +5300,9 @@
         <v>201</v>
       </c>
     </row>
-    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C195" s="21" cm="1">
         <f t="array" ref="C195">INDEX(World!C:C,Basedata!D195)</f>
@@ -5314,9 +5313,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C196" s="21" cm="1">
         <f t="array" ref="C196">INDEX(World!C:C,Basedata!D196)</f>
@@ -5327,9 +5326,9 @@
         <v>205</v>
       </c>
     </row>
-    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C197" s="21" cm="1">
         <f t="array" ref="C197">INDEX(World!C:C,Basedata!D197)</f>
@@ -5340,12 +5339,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="52" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B198" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C198" s="21" cm="1">
         <f t="array" ref="C198">INDEX(World!C:C,Basedata!D198)</f>
@@ -5356,12 +5355,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="52" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B199" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C199" s="21" cm="1">
         <f t="array" ref="C199">INDEX(World!C:C,Basedata!D199)</f>
@@ -5372,9 +5371,9 @@
         <v>208</v>
       </c>
     </row>
-    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C200" s="21" cm="1">
         <f t="array" ref="C200">INDEX(World!C:C,Basedata!D200)</f>
@@ -5385,9 +5384,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C201" s="21" cm="1">
         <f t="array" ref="C201">INDEX(World!C:C,Basedata!D201)</f>
@@ -5398,9 +5397,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C202" s="21" cm="1">
         <f t="array" ref="C202">INDEX(World!C:C,Basedata!D202)</f>
@@ -5411,9 +5410,9 @@
         <v>215</v>
       </c>
     </row>
-    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C203" s="21" cm="1">
         <f t="array" ref="C203">INDEX(World!C:C,Basedata!D203)</f>
@@ -5424,9 +5423,9 @@
         <v>218</v>
       </c>
     </row>
-    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C204" s="21" cm="1">
         <f t="array" ref="C204">INDEX(World!C:C,Basedata!D204)</f>
@@ -5437,9 +5436,9 @@
         <v>219</v>
       </c>
     </row>
-    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C205" s="21" cm="1">
         <f t="array" ref="C205">INDEX(World!C:C,Basedata!D205)</f>
@@ -5452,10 +5451,10 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="52" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B206" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C206" s="21" cm="1">
         <f t="array" ref="C206">INDEX(World!C:C,Basedata!D206)</f>
@@ -5468,10 +5467,10 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="52" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B207" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C207" s="22" cm="1">
         <f t="array" ref="C207">INDEX(USA!B:B,Basedata!D207)</f>
@@ -5484,10 +5483,10 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="52" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B208" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C208" s="22" cm="1">
         <f t="array" ref="C208">INDEX(USA!B:B,Basedata!D208)</f>
@@ -5500,10 +5499,10 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="52" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B209" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C209" s="22" cm="1">
         <f t="array" ref="C209">INDEX(USA!B:B,Basedata!D209)</f>
@@ -5516,10 +5515,10 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="52" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B210" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C210" s="22" cm="1">
         <f t="array" ref="C210">INDEX(USA!B:B,Basedata!D210)</f>
@@ -5532,10 +5531,10 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="52" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B211" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C211" s="22" cm="1">
         <f t="array" ref="C211">INDEX(USA!B:B,Basedata!D211)</f>
@@ -5548,10 +5547,10 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="52" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B212" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C212" s="22" cm="1">
         <f t="array" ref="C212">INDEX(USA!B:B,Basedata!D212)</f>
@@ -5564,10 +5563,10 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="52" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B213" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C213" s="22" cm="1">
         <f t="array" ref="C213">INDEX(USA!B:B,Basedata!D213)</f>
@@ -5580,10 +5579,10 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="52" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B214" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C214" s="22" cm="1">
         <f t="array" ref="C214">INDEX(USA!B:B,Basedata!D214)</f>
@@ -5596,10 +5595,10 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="52" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B215" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C215" s="22" cm="1">
         <f t="array" ref="C215">INDEX(USA!B:B,Basedata!D215)</f>
@@ -5612,10 +5611,10 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="52" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B216" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C216" s="22" cm="1">
         <f t="array" ref="C216">INDEX(USA!B:B,Basedata!D216)</f>
@@ -5628,10 +5627,10 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="52" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B217" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C217" s="22" cm="1">
         <f t="array" ref="C217">INDEX(USA!B:B,Basedata!D217)</f>
@@ -5644,10 +5643,10 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="52" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B218" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C218" s="51">
         <v>162742</v>
@@ -5655,10 +5654,10 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="52" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B219" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C219" s="22" cm="1">
         <f t="array" ref="C219">INDEX(USA!B:B,Basedata!D219)</f>
@@ -5671,10 +5670,10 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="52" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B220" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C220" s="22" cm="1">
         <f t="array" ref="C220">INDEX(USA!B:B,Basedata!D220)</f>
@@ -5687,10 +5686,10 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="52" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B221" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C221" s="22" cm="1">
         <f t="array" ref="C221">INDEX(USA!B:B,Basedata!D221)</f>
@@ -5703,10 +5702,10 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="52" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B222" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C222" s="22" cm="1">
         <f t="array" ref="C222">INDEX(USA!B:B,Basedata!D222)</f>
@@ -5719,10 +5718,10 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="52" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B223" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C223" s="22" cm="1">
         <f t="array" ref="C223">INDEX(USA!B:B,Basedata!D223)</f>
@@ -5735,10 +5734,10 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="52" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B224" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C224" s="22" cm="1">
         <f t="array" ref="C224">INDEX(USA!B:B,Basedata!D224)</f>
@@ -5751,10 +5750,10 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="52" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B225" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C225" s="22" cm="1">
         <f t="array" ref="C225">INDEX(USA!B:B,Basedata!D225)</f>
@@ -5767,10 +5766,10 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="52" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B226" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C226" s="22" cm="1">
         <f t="array" ref="C226">INDEX(USA!B:B,Basedata!D226)</f>
@@ -5783,10 +5782,10 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="52" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B227" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C227" s="22" cm="1">
         <f t="array" ref="C227">INDEX(USA!B:B,Basedata!D227)</f>
@@ -5799,10 +5798,10 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="52" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B228" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C228" s="22" cm="1">
         <f t="array" ref="C228">INDEX(USA!B:B,Basedata!D228)</f>
@@ -5815,10 +5814,10 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="52" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B229" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C229" s="22" cm="1">
         <f t="array" ref="C229">INDEX(USA!B:B,Basedata!D229)</f>
@@ -5831,10 +5830,10 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="52" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B230" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C230" s="22" cm="1">
         <f t="array" ref="C230">INDEX(USA!B:B,Basedata!D230)</f>
@@ -5847,10 +5846,10 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="52" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B231" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C231" s="22" cm="1">
         <f t="array" ref="C231">INDEX(USA!B:B,Basedata!D231)</f>
@@ -5863,10 +5862,10 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="52" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B232" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C232" s="22" cm="1">
         <f t="array" ref="C232">INDEX(USA!B:B,Basedata!D232)</f>
@@ -5879,10 +5878,10 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="52" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B233" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C233" s="22" cm="1">
         <f t="array" ref="C233">INDEX(USA!B:B,Basedata!D233)</f>
@@ -5895,10 +5894,10 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="52" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B234" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C234" s="22" cm="1">
         <f t="array" ref="C234">INDEX(USA!B:B,Basedata!D234)</f>
@@ -5911,10 +5910,10 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="52" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B235" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C235" s="22" cm="1">
         <f t="array" ref="C235">INDEX(USA!B:B,Basedata!D235)</f>
@@ -5927,10 +5926,10 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="52" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B236" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C236" s="22" cm="1">
         <f t="array" ref="C236">INDEX(USA!B:B,Basedata!D236)</f>
@@ -5943,10 +5942,10 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="52" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B237" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C237" s="22" cm="1">
         <f t="array" ref="C237">INDEX(USA!B:B,Basedata!D237)</f>
@@ -5959,10 +5958,10 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="52" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B238" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C238" s="22" cm="1">
         <f t="array" ref="C238">INDEX(USA!B:B,Basedata!D238)</f>
@@ -5975,10 +5974,10 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="52" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B239" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C239" s="22" cm="1">
         <f t="array" ref="C239">INDEX(USA!B:B,Basedata!D239)</f>
@@ -5991,10 +5990,10 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="52" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B240" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C240" s="22" cm="1">
         <f t="array" ref="C240">INDEX(USA!B:B,Basedata!D240)</f>
@@ -6007,10 +6006,10 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="52" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B241" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C241" s="22" cm="1">
         <f t="array" ref="C241">INDEX(USA!B:B,Basedata!D241)</f>
@@ -6023,10 +6022,10 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="52" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B242" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C242" s="22" cm="1">
         <f t="array" ref="C242">INDEX(USA!B:B,Basedata!D242)</f>
@@ -6039,10 +6038,10 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="52" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B243" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C243" s="22" cm="1">
         <f t="array" ref="C243">INDEX(USA!B:B,Basedata!D243)</f>
@@ -6055,10 +6054,10 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="52" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B244" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C244" s="22" cm="1">
         <f t="array" ref="C244">INDEX(USA!B:B,Basedata!D244)</f>
@@ -6071,10 +6070,10 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="52" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B245" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C245" s="22" cm="1">
         <f t="array" ref="C245">INDEX(USA!B:B,Basedata!D245)</f>
@@ -6087,10 +6086,10 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="52" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B246" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C246" s="22" cm="1">
         <f t="array" ref="C246">INDEX(USA!B:B,Basedata!D246)</f>
@@ -6103,10 +6102,10 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="52" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B247" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C247" s="22" cm="1">
         <f t="array" ref="C247">INDEX(USA!B:B,Basedata!D247)</f>
@@ -6119,10 +6118,10 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="52" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B248" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C248" s="22" cm="1">
         <f t="array" ref="C248">INDEX(USA!B:B,Basedata!D248)</f>
@@ -6135,10 +6134,10 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="52" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B249" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C249" s="22" cm="1">
         <f t="array" ref="C249">INDEX(USA!B:B,Basedata!D249)</f>
@@ -6151,10 +6150,10 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="52" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B250" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C250" s="22" cm="1">
         <f t="array" ref="C250">INDEX(USA!B:B,Basedata!D250)</f>
@@ -6167,10 +6166,10 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="52" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B251" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C251" s="22" cm="1">
         <f t="array" ref="C251">INDEX(USA!B:B,Basedata!D251)</f>
@@ -6183,10 +6182,10 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="52" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B252" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C252" s="22" cm="1">
         <f t="array" ref="C252">INDEX(USA!B:B,Basedata!D252)</f>
@@ -6199,10 +6198,10 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="52" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B253" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C253" s="22" cm="1">
         <f t="array" ref="C253">INDEX(USA!B:B,Basedata!D253)</f>
@@ -6215,10 +6214,10 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="52" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B254" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C254" s="22" cm="1">
         <f t="array" ref="C254">INDEX(USA!B:B,Basedata!D254)</f>
@@ -6231,10 +6230,10 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="52" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B255" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C255" s="22" cm="1">
         <f t="array" ref="C255">INDEX(USA!B:B,Basedata!D255)</f>
@@ -6247,10 +6246,10 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="52" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B256" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C256" s="22" cm="1">
         <f t="array" ref="C256">INDEX(USA!B:B,Basedata!D256)</f>
@@ -6263,10 +6262,10 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="52" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B257" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C257" s="22" cm="1">
         <f t="array" ref="C257">INDEX(USA!B:B,Basedata!D257)</f>
@@ -6279,10 +6278,10 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="52" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B258" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C258" s="22" cm="1">
         <f t="array" ref="C258">INDEX(USA!B:B,Basedata!D258)</f>
@@ -6295,10 +6294,10 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="52" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B259" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C259" s="22" cm="1">
         <f t="array" ref="C259">INDEX(USA!B:B,Basedata!D259)</f>
@@ -6309,9 +6308,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C260" s="21" cm="1">
         <f t="array" ref="C260">INDEX(World!C:C,Basedata!D260)</f>
@@ -6322,9 +6321,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C261" s="21" cm="1">
         <f t="array" ref="C261">INDEX(World!C:C,Basedata!D261)</f>
@@ -6335,12 +6334,12 @@
         <v>227</v>
       </c>
     </row>
-    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="52" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B262" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C262" s="21" cm="1">
         <f t="array" ref="C262">INDEX(World!C:C,Basedata!D262)</f>
@@ -6351,34 +6350,34 @@
         <v>228</v>
       </c>
     </row>
-    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C263" s="22">
         <v>166000</v>
       </c>
     </row>
-    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B264" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C264" s="22">
         <v>34571</v>
       </c>
     </row>
-    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B265" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C265" s="22">
         <f>C262-C263-C264</f>
         <v>67685440</v>
       </c>
     </row>
-    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B266" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C266" s="21" cm="1">
         <f t="array" ref="C266">INDEX(World!C:C,Basedata!D266)</f>
@@ -6389,9 +6388,9 @@
         <v>230</v>
       </c>
     </row>
-    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B267" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C267" s="21" cm="1">
         <f t="array" ref="C267">INDEX(World!C:C,Basedata!D267)</f>
@@ -6402,9 +6401,9 @@
         <v>231</v>
       </c>
     </row>
-    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C268" s="21" cm="1">
         <f t="array" ref="C268">INDEX(World!C:C,Basedata!D268)</f>
@@ -6415,9 +6414,9 @@
         <v>233</v>
       </c>
     </row>
-    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C269" s="21" cm="1">
         <f t="array" ref="C269">INDEX(World!C:C,Basedata!D269)</f>
@@ -6428,9 +6427,9 @@
         <v>234</v>
       </c>
     </row>
-    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C270" s="21" cm="1">
         <f t="array" ref="C270">INDEX(World!C:C,Basedata!D270)</f>
@@ -6441,7 +6440,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B271" t="s">
         <v>24</v>
       </c>
@@ -6454,7 +6453,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
         <v>27</v>
       </c>
@@ -6467,7 +6466,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="273" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
         <v>28</v>
       </c>
@@ -6480,9 +6479,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="274" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C274" s="21" cm="1">
         <f t="array" ref="C274">INDEX(World!C:C,Basedata!D274)</f>
@@ -6493,7 +6492,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="275" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
         <v>38</v>
       </c>
@@ -6506,7 +6505,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="276" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B276" t="s">
         <v>41</v>
       </c>
@@ -6519,7 +6518,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="277" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
         <v>42</v>
       </c>
@@ -6532,7 +6531,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="278" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B278" t="s">
         <v>43</v>
       </c>
@@ -6545,7 +6544,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="279" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B279" t="s">
         <v>47</v>
       </c>
@@ -6558,7 +6557,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="280" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B280" t="s">
         <v>49</v>
       </c>
@@ -6571,7 +6570,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="281" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B281" t="s">
         <v>53</v>
       </c>
@@ -6584,7 +6583,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="282" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
         <v>54</v>
       </c>
@@ -6597,7 +6596,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="283" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B283" t="s">
         <v>58</v>
       </c>
@@ -6610,7 +6609,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="284" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B284" t="s">
         <v>60</v>
       </c>
@@ -6623,7 +6622,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="285" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B285" t="s">
         <v>61</v>
       </c>
@@ -6636,7 +6635,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="286" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B286" t="s">
         <v>65</v>
       </c>
@@ -6649,7 +6648,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="287" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
         <v>66</v>
       </c>
@@ -6662,7 +6661,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="288" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B288" t="s">
         <v>72</v>
       </c>
@@ -6675,7 +6674,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="289" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B289" t="s">
         <v>73</v>
       </c>
@@ -6688,9 +6687,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="290" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B290" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C290" s="21" cm="1">
         <f t="array" ref="C290">INDEX(World!C:C,Basedata!D290)</f>
@@ -6701,7 +6700,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="291" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B291" t="s">
         <v>77</v>
       </c>
@@ -6714,7 +6713,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="292" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
         <v>79</v>
       </c>
@@ -6727,7 +6726,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="293" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B293" t="s">
         <v>83</v>
       </c>
@@ -6740,7 +6739,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="294" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B294" t="s">
         <v>84</v>
       </c>
@@ -6753,7 +6752,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="295" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B295" t="s">
         <v>85</v>
       </c>
@@ -6766,7 +6765,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="296" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B296" t="s">
         <v>89</v>
       </c>
@@ -6779,9 +6778,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="297" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B297" t="s">
-        <v>91</v>
+        <v>685</v>
       </c>
       <c r="C297" s="21" cm="1">
         <f t="array" ref="C297">INDEX(World!C:C,Basedata!D297)</f>
@@ -6792,9 +6791,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="298" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B298" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C298" s="21" cm="1">
         <f t="array" ref="C298">INDEX(World!C:C,Basedata!D298)</f>
@@ -6805,9 +6804,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="299" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B299" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C299" s="21" cm="1">
         <f t="array" ref="C299">INDEX(World!C:C,Basedata!D299)</f>
@@ -6818,9 +6817,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="300" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B300" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C300" s="21" cm="1">
         <f t="array" ref="C300">INDEX(World!C:C,Basedata!D300)</f>
@@ -6831,9 +6830,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="301" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B301" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C301" s="21" cm="1">
         <f t="array" ref="C301">INDEX(World!C:C,Basedata!D301)</f>
@@ -6844,9 +6843,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="302" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B302" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C302" s="21" cm="1">
         <f t="array" ref="C302">INDEX(World!C:C,Basedata!D302)</f>
@@ -6857,9 +6856,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="303" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B303" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C303" s="21" cm="1">
         <f t="array" ref="C303">INDEX(World!C:C,Basedata!D303)</f>
@@ -6870,9 +6869,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="304" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B304" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C304" s="21" cm="1">
         <f t="array" ref="C304">INDEX(World!C:C,Basedata!D304)</f>
@@ -6883,9 +6882,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="305" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B305" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C305" s="21" cm="1">
         <f t="array" ref="C305">INDEX(World!C:C,Basedata!D305)</f>
@@ -6896,9 +6895,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="306" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B306" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C306" s="21" cm="1">
         <f t="array" ref="C306">INDEX(World!C:C,Basedata!D306)</f>
@@ -6909,9 +6908,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="307" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B307" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C307" s="21" cm="1">
         <f t="array" ref="C307">INDEX(World!C:C,Basedata!D307)</f>
@@ -6922,9 +6921,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="308" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B308" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C308" s="21" cm="1">
         <f t="array" ref="C308">INDEX(World!C:C,Basedata!D308)</f>
@@ -6935,9 +6934,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="309" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B309" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C309" s="21" cm="1">
         <f t="array" ref="C309">INDEX(World!C:C,Basedata!D309)</f>
@@ -6948,9 +6947,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="310" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B310" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C310" s="21" cm="1">
         <f t="array" ref="C310">INDEX(World!C:C,Basedata!D310)</f>
@@ -6961,9 +6960,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="311" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B311" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C311" s="21" cm="1">
         <f t="array" ref="C311">INDEX(World!C:C,Basedata!D311)</f>
@@ -6974,9 +6973,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="312" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B312" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C312" s="21" cm="1">
         <f t="array" ref="C312">INDEX(World!C:C,Basedata!D312)</f>
@@ -6987,9 +6986,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="313" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B313" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C313" s="21" cm="1">
         <f t="array" ref="C313">INDEX(World!C:C,Basedata!D313)</f>
@@ -7000,9 +6999,9 @@
         <v>127</v>
       </c>
     </row>
-    <row r="314" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B314" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C314" s="21" cm="1">
         <f t="array" ref="C314">INDEX(World!C:C,Basedata!D314)</f>
@@ -7013,9 +7012,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="315" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B315" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C315" s="21" cm="1">
         <f t="array" ref="C315">INDEX(World!C:C,Basedata!D315)</f>
@@ -7026,9 +7025,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="316" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B316" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C316" s="21" cm="1">
         <f t="array" ref="C316">INDEX(World!C:C,Basedata!D316)</f>
@@ -7039,9 +7038,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="317" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B317" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C317" s="21" cm="1">
         <f t="array" ref="C317">INDEX(World!C:C,Basedata!D317)</f>
@@ -7052,9 +7051,9 @@
         <v>136</v>
       </c>
     </row>
-    <row r="318" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B318" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C318" s="21" cm="1">
         <f t="array" ref="C318">INDEX(World!C:C,Basedata!D318)</f>
@@ -7065,9 +7064,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="319" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B319" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C319" s="21" cm="1">
         <f t="array" ref="C319">INDEX(World!C:C,Basedata!D319)</f>
@@ -7078,9 +7077,9 @@
         <v>143</v>
       </c>
     </row>
-    <row r="320" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B320" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C320" s="21" cm="1">
         <f t="array" ref="C320">INDEX(World!C:C,Basedata!D320)</f>
@@ -7091,9 +7090,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="321" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B321" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C321" s="21" cm="1">
         <f t="array" ref="C321">INDEX(World!C:C,Basedata!D321)</f>
@@ -7104,9 +7103,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="322" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B322" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C322" s="21" cm="1">
         <f t="array" ref="C322">INDEX(World!C:C,Basedata!D322)</f>
@@ -7117,9 +7116,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="323" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B323" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C323" s="21" cm="1">
         <f t="array" ref="C323">INDEX(World!C:C,Basedata!D323)</f>
@@ -7130,9 +7129,9 @@
         <v>149</v>
       </c>
     </row>
-    <row r="324" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B324" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C324" s="21" cm="1">
         <f t="array" ref="C324">INDEX(World!C:C,Basedata!D324)</f>
@@ -7143,9 +7142,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="325" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B325" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C325" s="21" cm="1">
         <f t="array" ref="C325">INDEX(World!C:C,Basedata!D325)</f>
@@ -7156,9 +7155,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="326" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B326" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C326" s="21" cm="1">
         <f t="array" ref="C326">INDEX(World!C:C,Basedata!D326)</f>
@@ -7169,9 +7168,9 @@
         <v>155</v>
       </c>
     </row>
-    <row r="327" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B327" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C327" s="21" cm="1">
         <f t="array" ref="C327">INDEX(World!C:C,Basedata!D327)</f>
@@ -7182,9 +7181,9 @@
         <v>157</v>
       </c>
     </row>
-    <row r="328" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B328" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C328" s="21" cm="1">
         <f t="array" ref="C328">INDEX(World!C:C,Basedata!D328)</f>
@@ -7195,9 +7194,9 @@
         <v>158</v>
       </c>
     </row>
-    <row r="329" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B329" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C329" s="21" cm="1">
         <f t="array" ref="C329">INDEX(World!C:C,Basedata!D329)</f>
@@ -7208,9 +7207,9 @@
         <v>160</v>
       </c>
     </row>
-    <row r="330" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B330" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C330" s="21" cm="1">
         <f t="array" ref="C330">INDEX(World!C:C,Basedata!D330)</f>
@@ -7221,9 +7220,9 @@
         <v>164</v>
       </c>
     </row>
-    <row r="331" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B331" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C331" s="21" cm="1">
         <f t="array" ref="C331">INDEX(World!C:C,Basedata!D331)</f>
@@ -7234,9 +7233,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="332" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B332" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C332" s="21" cm="1">
         <f t="array" ref="C332">INDEX(World!C:C,Basedata!D332)</f>
@@ -7247,9 +7246,9 @@
         <v>172</v>
       </c>
     </row>
-    <row r="333" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B333" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C333" s="21" cm="1">
         <f t="array" ref="C333">INDEX(World!C:C,Basedata!D333)</f>
@@ -7260,9 +7259,9 @@
         <v>178</v>
       </c>
     </row>
-    <row r="334" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B334" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C334" s="21" cm="1">
         <f t="array" ref="C334">INDEX(World!C:C,Basedata!D334)</f>
@@ -7273,9 +7272,9 @@
         <v>179</v>
       </c>
     </row>
-    <row r="335" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B335" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C335" s="21" cm="1">
         <f t="array" ref="C335">INDEX(World!C:C,Basedata!D335)</f>
@@ -7286,9 +7285,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="336" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B336" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C336" s="21" cm="1">
         <f t="array" ref="C336">INDEX(World!C:C,Basedata!D336)</f>
@@ -7299,9 +7298,9 @@
         <v>182</v>
       </c>
     </row>
-    <row r="337" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B337" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C337" s="21" cm="1">
         <f t="array" ref="C337">INDEX(World!C:C,Basedata!D337)</f>
@@ -7312,9 +7311,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="338" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B338" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C338" s="21" cm="1">
         <f t="array" ref="C338">INDEX(World!C:C,Basedata!D338)</f>
@@ -7325,9 +7324,9 @@
         <v>184</v>
       </c>
     </row>
-    <row r="339" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B339" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C339" s="21" cm="1">
         <f t="array" ref="C339">INDEX(World!C:C,Basedata!D339)</f>
@@ -7338,9 +7337,9 @@
         <v>186</v>
       </c>
     </row>
-    <row r="340" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B340" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C340" s="21" cm="1">
         <f t="array" ref="C340">INDEX(World!C:C,Basedata!D340)</f>
@@ -7351,9 +7350,9 @@
         <v>191</v>
       </c>
     </row>
-    <row r="341" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B341" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C341" s="21" cm="1">
         <f t="array" ref="C341">INDEX(World!C:C,Basedata!D341)</f>
@@ -7364,9 +7363,9 @@
         <v>193</v>
       </c>
     </row>
-    <row r="342" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B342" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C342" s="21" cm="1">
         <f t="array" ref="C342">INDEX(World!C:C,Basedata!D342)</f>
@@ -7377,9 +7376,9 @@
         <v>196</v>
       </c>
     </row>
-    <row r="343" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B343" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C343" s="21" cm="1">
         <f t="array" ref="C343">INDEX(World!C:C,Basedata!D343)</f>
@@ -7390,9 +7389,9 @@
         <v>197</v>
       </c>
     </row>
-    <row r="344" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B344" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C344" s="21" cm="1">
         <f t="array" ref="C344">INDEX(World!C:C,Basedata!D344)</f>
@@ -7403,9 +7402,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="345" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B345" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C345" s="21" cm="1">
         <f t="array" ref="C345">INDEX(World!C:C,Basedata!D345)</f>
@@ -7416,9 +7415,9 @@
         <v>209</v>
       </c>
     </row>
-    <row r="346" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B346" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C346" s="21" cm="1">
         <f t="array" ref="C346">INDEX(World!C:C,Basedata!D346)</f>
@@ -7429,9 +7428,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="347" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B347" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C347" s="21" cm="1">
         <f t="array" ref="C347">INDEX(World!C:C,Basedata!D347)</f>
@@ -7442,9 +7441,9 @@
         <v>211</v>
       </c>
     </row>
-    <row r="348" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B348" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C348" s="21" cm="1">
         <f t="array" ref="C348">INDEX(World!C:C,Basedata!D348)</f>
@@ -7455,9 +7454,9 @@
         <v>212</v>
       </c>
     </row>
-    <row r="349" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B349" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C349" s="21" cm="1">
         <f t="array" ref="C349">INDEX(World!C:C,Basedata!D349)</f>
@@ -7468,9 +7467,9 @@
         <v>214</v>
       </c>
     </row>
-    <row r="350" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B350" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C350" s="21" cm="1">
         <f t="array" ref="C350">INDEX(World!C:C,Basedata!D350)</f>
@@ -7481,9 +7480,9 @@
         <v>216</v>
       </c>
     </row>
-    <row r="351" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B351" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C351" s="21" cm="1">
         <f t="array" ref="C351">INDEX(World!C:C,Basedata!D351)</f>
@@ -7494,9 +7493,9 @@
         <v>217</v>
       </c>
     </row>
-    <row r="352" spans="2:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B352" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C352" s="21" cm="1">
         <f t="array" ref="C352">INDEX(World!C:C,Basedata!D352)</f>
@@ -7507,9 +7506,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="353" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B353" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C353" s="21" cm="1">
         <f t="array" ref="C353">INDEX(World!C:C,Basedata!D353)</f>
@@ -7520,9 +7519,9 @@
         <v>222</v>
       </c>
     </row>
-    <row r="354" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B354" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C354" s="21" cm="1">
         <f t="array" ref="C354">INDEX(World!C:C,Basedata!D354)</f>
@@ -7535,10 +7534,10 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="52" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B355" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C355" s="21" cm="1">
         <f t="array" ref="C355">INDEX(World!C:C,Basedata!D355)</f>
@@ -7549,9 +7548,9 @@
         <v>224</v>
       </c>
     </row>
-    <row r="356" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B356" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C356" s="21" cm="1">
         <f t="array" ref="C356">INDEX(World!C:C,Basedata!D356)</f>
@@ -7562,9 +7561,9 @@
         <v>225</v>
       </c>
     </row>
-    <row r="357" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B357" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C357" s="21" cm="1">
         <f t="array" ref="C357">INDEX(World!C:C,Basedata!D357)</f>
@@ -7575,9 +7574,9 @@
         <v>232</v>
       </c>
     </row>
-    <row r="358" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B358" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C358" s="21" cm="1">
         <f t="array" ref="C358">INDEX(World!C:C,Basedata!D358)</f>
@@ -7588,9 +7587,9 @@
         <v>235</v>
       </c>
     </row>
-    <row r="359" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B359" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C359" s="21" cm="1">
         <f t="array" ref="C359">INDEX(World!C:C,Basedata!D359)</f>
@@ -7601,9 +7600,9 @@
         <v>236</v>
       </c>
     </row>
-    <row r="360" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B360" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C360" s="21" cm="1">
         <f t="array" ref="C360">INDEX(World!C:C,Basedata!D360)</f>
@@ -7614,9 +7613,9 @@
         <v>237</v>
       </c>
     </row>
-    <row r="361" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B361" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C361" s="21" cm="1">
         <f t="array" ref="C361">INDEX(World!C:C,Basedata!D361)</f>
@@ -7627,9 +7626,9 @@
         <v>238</v>
       </c>
     </row>
-    <row r="362" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B362" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C362" s="21" cm="1">
         <f t="array" ref="C362">INDEX(World!C:C,Basedata!D362)</f>
@@ -7641,67 +7640,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D362" xr:uid="{16A59AA1-E676-469E-927A-952702C5B40E}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="US"/>
-        <filter val="US Alabama"/>
-        <filter val="US Alaska"/>
-        <filter val="US Arizona"/>
-        <filter val="US Arkansas"/>
-        <filter val="US California"/>
-        <filter val="US Colorado"/>
-        <filter val="US Connecticut"/>
-        <filter val="US Delaware"/>
-        <filter val="US District of Columbia"/>
-        <filter val="US Florida"/>
-        <filter val="US Georgia"/>
-        <filter val="US Guam"/>
-        <filter val="US Hawaii"/>
-        <filter val="US Idaho"/>
-        <filter val="US Illinois"/>
-        <filter val="US Indiana"/>
-        <filter val="US Iowa"/>
-        <filter val="US Kansas"/>
-        <filter val="US Kentucky"/>
-        <filter val="US Louisiana"/>
-        <filter val="US Maine"/>
-        <filter val="US Maryland"/>
-        <filter val="US Massachusetts"/>
-        <filter val="US Michigan"/>
-        <filter val="US Minnesota"/>
-        <filter val="US Mississippi"/>
-        <filter val="US Missouri"/>
-        <filter val="US Montana"/>
-        <filter val="US Nebraska"/>
-        <filter val="US Nevada"/>
-        <filter val="US New Hampshire"/>
-        <filter val="US New Jersey"/>
-        <filter val="US New Mexico"/>
-        <filter val="US New York"/>
-        <filter val="US North Carolina"/>
-        <filter val="US North Dakota"/>
-        <filter val="US Ohio"/>
-        <filter val="US Oklahoma"/>
-        <filter val="US Oregon"/>
-        <filter val="US Pennsylvania"/>
-        <filter val="US Puerto Rico"/>
-        <filter val="US Rhode Island"/>
-        <filter val="US South Carolina"/>
-        <filter val="US South Dakota"/>
-        <filter val="US Tennessee"/>
-        <filter val="US Texas"/>
-        <filter val="US Utah"/>
-        <filter val="US Vermont"/>
-        <filter val="US Virgin Islands"/>
-        <filter val="US Virginia"/>
-        <filter val="US Washington"/>
-        <filter val="US West Virginia"/>
-        <filter val="US Wisconsin"/>
-        <filter val="US Wyoming"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D362" xr:uid="{16A59AA1-E676-469E-927A-952702C5B40E}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7710,8 +7649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F43700D7-345E-4B81-B76F-06E4CB6630EF}">
   <dimension ref="A1:L239"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8342,7 +8281,7 @@
         <v>274</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C18" s="4">
         <v>393244</v>
@@ -9272,7 +9211,7 @@
         <v>48</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C42" s="4">
         <v>65722</v>
@@ -9582,7 +9521,7 @@
         <v>86</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C50" s="4">
         <v>81340000</v>
@@ -9621,7 +9560,7 @@
         <v>87</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C51" s="4">
         <v>5518087</v>
@@ -9811,10 +9750,10 @@
     <row r="56" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="12">
         <f>MATCH(B56,Basedata!B:B,0)</f>
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C56" s="8">
         <v>164093</v>
@@ -9892,7 +9831,7 @@
         <v>93</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C58" s="8">
         <v>10708981</v>
@@ -9931,7 +9870,7 @@
         <v>89</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C59" s="4">
         <v>26378274</v>
@@ -10124,7 +10063,7 @@
         <v>290</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C64" s="8">
         <v>89561403</v>
@@ -10277,7 +10216,7 @@
     <row r="68" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="12">
         <f>MATCH(B68,Basedata!B:B,0)</f>
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B68" s="20" t="s">
         <v>78</v>
@@ -10663,7 +10602,7 @@
     <row r="78" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="12">
         <f>MATCH(B78,Basedata!B:B,0)</f>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B78" s="20" t="s">
         <v>88</v>
@@ -10741,7 +10680,7 @@
     <row r="80" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="12">
         <f>MATCH(B80,Basedata!B:B,0)</f>
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B80" s="20" t="s">
         <v>90</v>
@@ -10783,7 +10722,7 @@
         <v>297</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>91</v>
+        <v>685</v>
       </c>
       <c r="C81" s="4">
         <v>2416668</v>
@@ -10819,10 +10758,10 @@
     <row r="82" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="12">
         <f>MATCH(B82,Basedata!B:B,0)</f>
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="8">
         <v>3989167</v>
@@ -10858,10 +10797,10 @@
     <row r="83" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="12">
         <f>MATCH(B83,Basedata!B:B,0)</f>
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C83" s="4">
         <v>83783942</v>
@@ -10897,10 +10836,10 @@
     <row r="84" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="12">
         <f>MATCH(B84,Basedata!B:B,0)</f>
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C84" s="8">
         <v>31072940</v>
@@ -10939,7 +10878,7 @@
         <v>298</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C85" s="4">
         <v>33691</v>
@@ -10973,10 +10912,10 @@
     <row r="86" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="12">
         <f>MATCH(B86,Basedata!B:B,0)</f>
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C86" s="8">
         <v>10423054</v>
@@ -11015,7 +10954,7 @@
         <v>299</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C87" s="4">
         <v>56770</v>
@@ -11052,7 +10991,7 @@
         <v>300</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C88" s="8">
         <v>112523</v>
@@ -11088,10 +11027,10 @@
     <row r="89" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="12">
         <f>MATCH(B89,Basedata!B:B,0)</f>
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C89" s="4">
         <v>400124</v>
@@ -11130,7 +11069,7 @@
         <v>301</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C90" s="8">
         <v>168775</v>
@@ -11166,10 +11105,10 @@
     <row r="91" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="12">
         <f>MATCH(B91,Basedata!B:B,0)</f>
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C91" s="4">
         <v>17915568</v>
@@ -11205,10 +11144,10 @@
     <row r="92" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="12">
         <f>MATCH(B92,Basedata!B:B,0)</f>
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C92" s="8">
         <v>13132795</v>
@@ -11247,7 +11186,7 @@
         <v>302</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C93" s="4">
         <v>1968001</v>
@@ -11283,10 +11222,10 @@
     <row r="94" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="12">
         <f>MATCH(B94,Basedata!B:B,0)</f>
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C94" s="8">
         <v>786552</v>
@@ -11325,7 +11264,7 @@
         <v>303</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C95" s="4">
         <v>11402528</v>
@@ -11361,10 +11300,10 @@
     <row r="96" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="12">
         <f>MATCH(B96,Basedata!B:B,0)</f>
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C96" s="8">
         <v>801</v>
@@ -11398,10 +11337,10 @@
     <row r="97" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="12">
         <f>MATCH(B97,Basedata!B:B,0)</f>
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C97" s="4">
         <v>9904607</v>
@@ -11440,7 +11379,7 @@
         <v>304</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C98" s="8">
         <v>7496981</v>
@@ -11476,10 +11415,10 @@
     <row r="99" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="12">
         <f>MATCH(B99,Basedata!B:B,0)</f>
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C99" s="4">
         <v>9660351</v>
@@ -11515,10 +11454,10 @@
     <row r="100" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="12">
         <f>MATCH(B100,Basedata!B:B,0)</f>
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C100" s="8">
         <v>341243</v>
@@ -11554,10 +11493,10 @@
     <row r="101" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="12">
         <f>MATCH(B101,Basedata!B:B,0)</f>
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C101" s="4">
         <v>1380004385</v>
@@ -11593,10 +11532,10 @@
     <row r="102" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="12">
         <f>MATCH(B102,Basedata!B:B,0)</f>
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C102" s="8">
         <v>273523615</v>
@@ -11632,10 +11571,10 @@
     <row r="103" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="12">
         <f>MATCH(B103,Basedata!B:B,0)</f>
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C103" s="4">
         <v>83992949</v>
@@ -11671,10 +11610,10 @@
     <row r="104" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="12">
         <f>MATCH(B104,Basedata!B:B,0)</f>
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C104" s="8">
         <v>40222493</v>
@@ -11710,10 +11649,10 @@
     <row r="105" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="12">
         <f>MATCH(B105,Basedata!B:B,0)</f>
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C105" s="4">
         <v>4937786</v>
@@ -11752,7 +11691,7 @@
         <v>305</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C106" s="8">
         <v>85033</v>
@@ -11786,10 +11725,10 @@
     <row r="107" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="12">
         <f>MATCH(B107,Basedata!B:B,0)</f>
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C107" s="4">
         <v>8655535</v>
@@ -11825,10 +11764,10 @@
     <row r="108" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="12">
         <f>MATCH(B108,Basedata!B:B,0)</f>
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C108" s="8">
         <v>60461826</v>
@@ -11864,10 +11803,10 @@
     <row r="109" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="12">
         <f>MATCH(B109,Basedata!B:B,0)</f>
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C109" s="4">
         <v>2961167</v>
@@ -11903,10 +11842,10 @@
     <row r="110" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="12">
         <f>MATCH(B110,Basedata!B:B,0)</f>
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C110" s="8">
         <v>126476461</v>
@@ -11942,10 +11881,10 @@
     <row r="111" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="12">
         <f>MATCH(B111,Basedata!B:B,0)</f>
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B111" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C111" s="4">
         <v>10203134</v>
@@ -11981,10 +11920,10 @@
     <row r="112" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="12">
         <f>MATCH(B112,Basedata!B:B,0)</f>
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C112" s="8">
         <v>18776707</v>
@@ -12020,10 +11959,10 @@
     <row r="113" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="12">
         <f>MATCH(B113,Basedata!B:B,0)</f>
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C113" s="4">
         <v>53771296</v>
@@ -12062,7 +12001,7 @@
         <v>306</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C114" s="8">
         <v>119449</v>
@@ -12098,10 +12037,10 @@
     <row r="115" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="12">
         <f>MATCH(B115,Basedata!B:B,0)</f>
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C115" s="4">
         <v>4270571</v>
@@ -12140,7 +12079,7 @@
         <v>307</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C116" s="8">
         <v>6524195</v>
@@ -12179,7 +12118,7 @@
         <v>308</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C117" s="4">
         <v>7275560</v>
@@ -12215,10 +12154,10 @@
     <row r="118" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="12">
         <f>MATCH(B118,Basedata!B:B,0)</f>
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C118" s="8">
         <v>1886198</v>
@@ -12254,10 +12193,10 @@
     <row r="119" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="12">
         <f>MATCH(B119,Basedata!B:B,0)</f>
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C119" s="4">
         <v>6825445</v>
@@ -12296,7 +12235,7 @@
         <v>309</v>
       </c>
       <c r="B120" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C120" s="8">
         <v>2142249</v>
@@ -12335,7 +12274,7 @@
         <v>310</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C121" s="4">
         <v>5057681</v>
@@ -12374,7 +12313,7 @@
         <v>311</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C122" s="8">
         <v>6871292</v>
@@ -12410,10 +12349,10 @@
     <row r="123" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="12">
         <f>MATCH(B123,Basedata!B:B,0)</f>
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B123" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C123" s="4">
         <v>38128</v>
@@ -12447,10 +12386,10 @@
     <row r="124" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="12">
         <f>MATCH(B124,Basedata!B:B,0)</f>
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B124" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C124" s="8">
         <v>2722289</v>
@@ -12486,10 +12425,10 @@
     <row r="125" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="12">
         <f>MATCH(B125,Basedata!B:B,0)</f>
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C125" s="4">
         <v>625978</v>
@@ -12528,7 +12467,7 @@
         <v>312</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C126" s="8">
         <v>649335</v>
@@ -12567,7 +12506,7 @@
         <v>313</v>
       </c>
       <c r="B127" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C127" s="4">
         <v>27691018</v>
@@ -12606,7 +12545,7 @@
         <v>314</v>
       </c>
       <c r="B128" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C128" s="8">
         <v>19129952</v>
@@ -12642,10 +12581,10 @@
     <row r="129" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="12">
         <f>MATCH(B129,Basedata!B:B,0)</f>
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B129" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C129" s="4">
         <v>32365999</v>
@@ -12681,10 +12620,10 @@
     <row r="130" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="12">
         <f>MATCH(B130,Basedata!B:B,0)</f>
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B130" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C130" s="8">
         <v>540544</v>
@@ -12723,7 +12662,7 @@
         <v>315</v>
       </c>
       <c r="B131" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C131" s="4">
         <v>20250833</v>
@@ -12759,10 +12698,10 @@
     <row r="132" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="12">
         <f>MATCH(B132,Basedata!B:B,0)</f>
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B132" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C132" s="8">
         <v>441543</v>
@@ -12801,7 +12740,7 @@
         <v>316</v>
       </c>
       <c r="B133" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C133" s="4">
         <v>59190</v>
@@ -12835,10 +12774,10 @@
     <row r="134" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="12">
         <f>MATCH(B134,Basedata!B:B,0)</f>
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B134" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C134" s="8">
         <v>375265</v>
@@ -12874,10 +12813,10 @@
     <row r="135" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="12">
         <f>MATCH(B135,Basedata!B:B,0)</f>
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B135" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C135" s="4">
         <v>4649658</v>
@@ -12916,7 +12855,7 @@
         <v>317</v>
       </c>
       <c r="B136" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C136" s="8">
         <v>1271768</v>
@@ -12955,7 +12894,7 @@
         <v>109</v>
       </c>
       <c r="B137" s="20" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C137" s="4">
         <v>272815</v>
@@ -12991,10 +12930,10 @@
     <row r="138" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="12">
         <f>MATCH(B138,Basedata!B:B,0)</f>
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B138" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C138" s="8">
         <v>128932753</v>
@@ -13033,7 +12972,7 @@
         <v>318</v>
       </c>
       <c r="B139" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C139" s="4">
         <v>115023</v>
@@ -13069,10 +13008,10 @@
     <row r="140" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="12">
         <f>MATCH(B140,Basedata!B:B,0)</f>
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B140" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C140" s="8">
         <v>4033963</v>
@@ -13108,10 +13047,10 @@
     <row r="141" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="12">
         <f>MATCH(B141,Basedata!B:B,0)</f>
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B141" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C141" s="4">
         <v>39242</v>
@@ -13145,10 +13084,10 @@
     <row r="142" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="12">
         <f>MATCH(B142,Basedata!B:B,0)</f>
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B142" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C142" s="8">
         <v>3278290</v>
@@ -13187,7 +13126,7 @@
         <v>319</v>
       </c>
       <c r="B143" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C143" s="4">
         <v>628066</v>
@@ -13226,7 +13165,7 @@
         <v>320</v>
       </c>
       <c r="B144" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C144" s="8">
         <v>4992</v>
@@ -13260,10 +13199,10 @@
     <row r="145" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="12">
         <f>MATCH(B145,Basedata!B:B,0)</f>
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B145" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C145" s="4">
         <v>36910560</v>
@@ -13302,7 +13241,7 @@
         <v>321</v>
       </c>
       <c r="B146" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C146" s="8">
         <v>31255435</v>
@@ -13341,7 +13280,7 @@
         <v>322</v>
       </c>
       <c r="B147" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C147" s="4">
         <v>54409800</v>
@@ -13377,10 +13316,10 @@
     <row r="148" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="12">
         <f>MATCH(B148,Basedata!B:B,0)</f>
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B148" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C148" s="8">
         <v>2540905</v>
@@ -13419,7 +13358,7 @@
         <v>323</v>
       </c>
       <c r="B149" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C149" s="4">
         <v>10824</v>
@@ -13453,10 +13392,10 @@
     <row r="150" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="12">
         <f>MATCH(B150,Basedata!B:B,0)</f>
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B150" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C150" s="8">
         <v>29136808</v>
@@ -13492,10 +13431,10 @@
     <row r="151" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="12">
         <f>MATCH(B151,Basedata!B:B,0)</f>
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B151" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C151" s="4">
         <v>17134872</v>
@@ -13534,7 +13473,7 @@
         <v>324</v>
       </c>
       <c r="B152" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C152" s="8">
         <v>285498</v>
@@ -13570,10 +13509,10 @@
     <row r="153" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="12">
         <f>MATCH(B153,Basedata!B:B,0)</f>
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B153" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C153" s="4">
         <v>4822233</v>
@@ -13612,7 +13551,7 @@
         <v>325</v>
       </c>
       <c r="B154" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C154" s="8">
         <v>6624554</v>
@@ -13651,7 +13590,7 @@
         <v>326</v>
       </c>
       <c r="B155" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C155" s="4">
         <v>24206644</v>
@@ -13687,10 +13626,10 @@
     <row r="156" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="12">
         <f>MATCH(B156,Basedata!B:B,0)</f>
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B156" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C156" s="8">
         <v>206139589</v>
@@ -13729,7 +13668,7 @@
         <v>327</v>
       </c>
       <c r="B157" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C157" s="4">
         <v>1626</v>
@@ -13766,7 +13705,7 @@
         <v>328</v>
       </c>
       <c r="B158" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C158" s="8">
         <v>25778816</v>
@@ -13802,10 +13741,10 @@
     <row r="159" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="12">
         <f>MATCH(B159,Basedata!B:B,0)</f>
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B159" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C159" s="4">
         <v>2083374</v>
@@ -13844,7 +13783,7 @@
         <v>329</v>
       </c>
       <c r="B160" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C160" s="8">
         <v>57559</v>
@@ -13878,10 +13817,10 @@
     <row r="161" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="12">
         <f>MATCH(B161,Basedata!B:B,0)</f>
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B161" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C161" s="4">
         <v>5421241</v>
@@ -13917,10 +13856,10 @@
     <row r="162" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="12">
         <f>MATCH(B162,Basedata!B:B,0)</f>
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B162" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C162" s="8">
         <v>5106626</v>
@@ -13956,10 +13895,10 @@
     <row r="163" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="12">
         <f>MATCH(B163,Basedata!B:B,0)</f>
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B163" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C163" s="4">
         <v>220892340</v>
@@ -13998,7 +13937,7 @@
         <v>330</v>
       </c>
       <c r="B164" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C164" s="8">
         <v>18094</v>
@@ -14032,10 +13971,10 @@
     <row r="165" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="12">
         <f>MATCH(B165,Basedata!B:B,0)</f>
+        <v>173</v>
+      </c>
+      <c r="B165" s="20" t="s">
         <v>172</v>
-      </c>
-      <c r="B165" s="20" t="s">
-        <v>173</v>
       </c>
       <c r="C165" s="4">
         <v>4314767</v>
@@ -14074,7 +14013,7 @@
         <v>331</v>
       </c>
       <c r="B166" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C166" s="8">
         <v>8947024</v>
@@ -14110,10 +14049,10 @@
     <row r="167" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="12">
         <f>MATCH(B167,Basedata!B:B,0)</f>
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B167" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C167" s="4">
         <v>7132538</v>
@@ -14149,10 +14088,10 @@
     <row r="168" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="12">
         <f>MATCH(B168,Basedata!B:B,0)</f>
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B168" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C168" s="8">
         <v>32971854</v>
@@ -14188,10 +14127,10 @@
     <row r="169" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="12">
         <f>MATCH(B169,Basedata!B:B,0)</f>
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B169" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C169" s="4">
         <v>109581078</v>
@@ -14227,10 +14166,10 @@
     <row r="170" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="12">
         <f>MATCH(B170,Basedata!B:B,0)</f>
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B170" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C170" s="8">
         <v>37846611</v>
@@ -14266,10 +14205,10 @@
     <row r="171" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="12">
         <f>MATCH(B171,Basedata!B:B,0)</f>
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B171" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C171" s="4">
         <v>10196709</v>
@@ -14308,7 +14247,7 @@
         <v>332</v>
       </c>
       <c r="B172" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C172" s="8">
         <v>2860853</v>
@@ -14344,10 +14283,10 @@
     <row r="173" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="12">
         <f>MATCH(B173,Basedata!B:B,0)</f>
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B173" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C173" s="4">
         <v>2881053</v>
@@ -14386,7 +14325,7 @@
         <v>180</v>
       </c>
       <c r="B174" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C174" s="8">
         <v>19237691</v>
@@ -14425,7 +14364,7 @@
         <v>181</v>
       </c>
       <c r="B175" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C175" s="4">
         <v>145934462</v>
@@ -14464,7 +14403,7 @@
         <v>182</v>
       </c>
       <c r="B176" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C176" s="8">
         <v>12952218</v>
@@ -14500,10 +14439,10 @@
     <row r="177" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="12">
         <f>MATCH(B177,Basedata!B:B,0)</f>
-        <v>179</v>
+        <v>110</v>
       </c>
       <c r="B177" s="20" t="s">
-        <v>356</v>
+        <v>684</v>
       </c>
       <c r="C177" s="4">
         <v>895312</v>
@@ -14542,7 +14481,7 @@
         <v>333</v>
       </c>
       <c r="B178" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C178" s="8">
         <v>9877</v>
@@ -14579,7 +14518,7 @@
         <v>334</v>
       </c>
       <c r="B179" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C179" s="4">
         <v>6077</v>
@@ -14616,7 +14555,7 @@
         <v>335</v>
       </c>
       <c r="B180" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C180" s="8">
         <v>53199</v>
@@ -14653,7 +14592,7 @@
         <v>183</v>
       </c>
       <c r="B181" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C181" s="4">
         <v>183627</v>
@@ -14692,7 +14631,7 @@
         <v>336</v>
       </c>
       <c r="B182" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C182" s="8">
         <v>38666</v>
@@ -14729,7 +14668,7 @@
         <v>337</v>
       </c>
       <c r="B183" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C183" s="4">
         <v>5794</v>
@@ -14766,7 +14705,7 @@
         <v>338</v>
       </c>
       <c r="B184" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C184" s="8">
         <v>198414</v>
@@ -14805,7 +14744,7 @@
         <v>185</v>
       </c>
       <c r="B185" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C185" s="4">
         <v>33931</v>
@@ -14842,7 +14781,7 @@
         <v>339</v>
       </c>
       <c r="B186" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C186" s="8">
         <v>219159</v>
@@ -14881,7 +14820,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C187" s="4">
         <v>34813871</v>
@@ -14920,7 +14859,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C188" s="8">
         <v>16743927</v>
@@ -14959,7 +14898,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C189" s="4">
         <v>8737371</v>
@@ -14998,7 +14937,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C190" s="8">
         <v>98347</v>
@@ -15037,7 +14976,7 @@
         <v>340</v>
       </c>
       <c r="B191" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C191" s="4">
         <v>7976983</v>
@@ -15076,7 +15015,7 @@
         <v>190</v>
       </c>
       <c r="B192" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C192" s="8">
         <v>5850342</v>
@@ -15115,7 +15054,7 @@
         <v>341</v>
       </c>
       <c r="B193" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C193" s="4">
         <v>42876</v>
@@ -15152,7 +15091,7 @@
         <v>191</v>
       </c>
       <c r="B194" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C194" s="8">
         <v>5459642</v>
@@ -15191,7 +15130,7 @@
         <v>192</v>
       </c>
       <c r="B195" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C195" s="4">
         <v>2078938</v>
@@ -15230,7 +15169,7 @@
         <v>342</v>
       </c>
       <c r="B196" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C196" s="8">
         <v>686884</v>
@@ -15269,7 +15208,7 @@
         <v>343</v>
       </c>
       <c r="B197" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C197" s="4">
         <v>15893222</v>
@@ -15308,7 +15247,7 @@
         <v>193</v>
       </c>
       <c r="B198" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C198" s="8">
         <v>59308690</v>
@@ -15344,10 +15283,10 @@
     <row r="199" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="12">
         <f>MATCH(B199,Basedata!B:B,0)</f>
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B199" s="20" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C199" s="4">
         <v>51269185</v>
@@ -15386,7 +15325,7 @@
         <v>344</v>
       </c>
       <c r="B200" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C200" s="8">
         <v>11193725</v>
@@ -15425,7 +15364,7 @@
         <v>194</v>
       </c>
       <c r="B201" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C201" s="4">
         <v>46754778</v>
@@ -15464,7 +15403,7 @@
         <v>195</v>
       </c>
       <c r="B202" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C202" s="8">
         <v>21413249</v>
@@ -15503,7 +15442,7 @@
         <v>184</v>
       </c>
       <c r="B203" s="20" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C203" s="4">
         <v>110940</v>
@@ -15542,7 +15481,7 @@
         <v>270</v>
       </c>
       <c r="B204" s="20" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C204" s="8">
         <v>5101414</v>
@@ -15581,7 +15520,7 @@
         <v>196</v>
       </c>
       <c r="B205" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C205" s="4">
         <v>43849260</v>
@@ -15620,7 +15559,7 @@
         <v>197</v>
       </c>
       <c r="B206" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C206" s="8">
         <v>586632</v>
@@ -15659,7 +15598,7 @@
         <v>198</v>
       </c>
       <c r="B207" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C207" s="4">
         <v>10099265</v>
@@ -15698,7 +15637,7 @@
         <v>199</v>
       </c>
       <c r="B208" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C208" s="8">
         <v>8654622</v>
@@ -15737,7 +15676,7 @@
         <v>345</v>
       </c>
       <c r="B209" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C209" s="4">
         <v>17500658</v>
@@ -15776,7 +15715,7 @@
         <v>346</v>
       </c>
       <c r="B210" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C210" s="8">
         <v>23816775</v>
@@ -15815,7 +15754,7 @@
         <v>347</v>
       </c>
       <c r="B211" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C211" s="4">
         <v>9537645</v>
@@ -15854,7 +15793,7 @@
         <v>348</v>
       </c>
       <c r="B212" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C212" s="8">
         <v>59734218</v>
@@ -15893,7 +15832,7 @@
         <v>201</v>
       </c>
       <c r="B213" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C213" s="4">
         <v>69799978</v>
@@ -15932,7 +15871,7 @@
         <v>349</v>
       </c>
       <c r="B214" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C214" s="8">
         <v>1318445</v>
@@ -15971,7 +15910,7 @@
         <v>202</v>
       </c>
       <c r="B215" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C215" s="4">
         <v>8278724</v>
@@ -16010,7 +15949,7 @@
         <v>350</v>
       </c>
       <c r="B216" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C216" s="8">
         <v>1357</v>
@@ -16047,7 +15986,7 @@
         <v>351</v>
       </c>
       <c r="B217" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C217" s="4">
         <v>105695</v>
@@ -16086,7 +16025,7 @@
         <v>203</v>
       </c>
       <c r="B218" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C218" s="8">
         <v>1399488</v>
@@ -16125,7 +16064,7 @@
         <v>204</v>
       </c>
       <c r="B219" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C219" s="4">
         <v>11818619</v>
@@ -16164,7 +16103,7 @@
         <v>205</v>
       </c>
       <c r="B220" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C220" s="8">
         <v>84339067</v>
@@ -16203,7 +16142,7 @@
         <v>352</v>
       </c>
       <c r="B221" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C221" s="4">
         <v>6031200</v>
@@ -16242,7 +16181,7 @@
         <v>353</v>
       </c>
       <c r="B222" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C222" s="8">
         <v>38717</v>
@@ -16279,7 +16218,7 @@
         <v>354</v>
       </c>
       <c r="B223" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C223" s="4">
         <v>11792</v>
@@ -16316,7 +16255,7 @@
         <v>355</v>
       </c>
       <c r="B224" s="20" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C224" s="8">
         <v>104425</v>
@@ -16355,7 +16294,7 @@
         <v>356</v>
       </c>
       <c r="B225" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C225" s="4">
         <v>45741007</v>
@@ -16394,7 +16333,7 @@
         <v>260</v>
       </c>
       <c r="B226" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C226" s="8">
         <v>43733762</v>
@@ -16433,7 +16372,7 @@
         <v>261</v>
       </c>
       <c r="B227" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C227" s="4">
         <v>9890402</v>
@@ -16472,7 +16411,7 @@
         <v>262</v>
       </c>
       <c r="B228" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C228" s="8">
         <v>67886011</v>
@@ -16511,7 +16450,7 @@
         <v>206</v>
       </c>
       <c r="B229" s="20" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C229" s="4">
         <v>331002651</v>
@@ -16550,7 +16489,7 @@
         <v>266</v>
       </c>
       <c r="B230" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C230" s="8">
         <v>3473730</v>
@@ -16589,7 +16528,7 @@
         <v>267</v>
       </c>
       <c r="B231" s="20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C231" s="4">
         <v>33469203</v>
@@ -16628,7 +16567,7 @@
         <v>357</v>
       </c>
       <c r="B232" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C232" s="8">
         <v>307145</v>
@@ -16667,7 +16606,7 @@
         <v>268</v>
       </c>
       <c r="B233" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C233" s="4">
         <v>28435940</v>
@@ -16706,7 +16645,7 @@
         <v>269</v>
       </c>
       <c r="B234" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C234" s="8">
         <v>97338579</v>
@@ -16745,7 +16684,7 @@
         <v>358</v>
       </c>
       <c r="B235" s="20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C235" s="4">
         <v>11239</v>
@@ -16782,7 +16721,7 @@
         <v>359</v>
       </c>
       <c r="B236" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C236" s="8">
         <v>597339</v>
@@ -16821,7 +16760,7 @@
         <v>360</v>
       </c>
       <c r="B237" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C237" s="4">
         <v>29825964</v>
@@ -16860,7 +16799,7 @@
         <v>361</v>
       </c>
       <c r="B238" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C238" s="8">
         <v>18383955</v>
@@ -16899,7 +16838,7 @@
         <v>362</v>
       </c>
       <c r="B239" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C239" s="13">
         <v>14862924</v>
@@ -16956,18 +16895,18 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B2" s="17">
         <v>6892503</v>
@@ -16979,7 +16918,7 @@
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B3" s="17">
         <v>3565287</v>
@@ -16991,7 +16930,7 @@
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B4" s="17">
         <v>1359711</v>
@@ -17003,7 +16942,7 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B5" s="17">
         <v>1344212</v>
@@ -17015,7 +16954,7 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B6" s="17">
         <v>1059361</v>
@@ -17027,7 +16966,7 @@
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B7" s="17">
         <v>623989</v>
@@ -17039,7 +16978,7 @@
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B8" s="17">
         <v>19453561</v>
@@ -17051,7 +16990,7 @@
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B9" s="17">
         <v>12801989</v>
@@ -17063,7 +17002,7 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B10" s="17">
         <v>8882190</v>
@@ -17075,7 +17014,7 @@
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B11" s="17">
         <v>21477737</v>
@@ -17087,7 +17026,7 @@
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B12" s="17">
         <v>10617423</v>
@@ -17099,7 +17038,7 @@
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B13" s="17">
         <v>10488084</v>
@@ -17111,7 +17050,7 @@
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B14" s="17">
         <v>8535519</v>
@@ -17123,7 +17062,7 @@
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B15" s="17">
         <v>6045680</v>
@@ -17135,7 +17074,7 @@
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B16" s="17">
         <v>5148714</v>
@@ -17147,7 +17086,7 @@
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B17" s="17">
         <v>1792147</v>
@@ -17159,7 +17098,7 @@
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B18" s="17">
         <v>973764</v>
@@ -17171,7 +17110,7 @@
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B19" s="17">
         <v>705749</v>
@@ -17183,7 +17122,7 @@
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B20" s="17">
         <v>6829174</v>
@@ -17195,7 +17134,7 @@
     </row>
     <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B21" s="17">
         <v>4903185</v>
@@ -17207,7 +17146,7 @@
     </row>
     <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B22" s="17">
         <v>4467673</v>
@@ -17219,7 +17158,7 @@
     </row>
     <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B23" s="17">
         <v>2976149</v>
@@ -17231,7 +17170,7 @@
     </row>
     <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B24" s="17">
         <v>28995881</v>
@@ -17243,7 +17182,7 @@
     </row>
     <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B25" s="17">
         <v>4648794</v>
@@ -17255,7 +17194,7 @@
     </row>
     <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B26" s="17">
         <v>3956971</v>
@@ -17267,7 +17206,7 @@
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B27" s="17">
         <v>3017804</v>
@@ -17279,7 +17218,7 @@
     </row>
     <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B28" s="17">
         <v>12671821</v>
@@ -17291,7 +17230,7 @@
     </row>
     <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B29" s="17">
         <v>11689100</v>
@@ -17303,7 +17242,7 @@
     </row>
     <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B30" s="17">
         <v>9986857</v>
@@ -17315,7 +17254,7 @@
     </row>
     <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B31" s="17">
         <v>6732219</v>
@@ -17327,7 +17266,7 @@
     </row>
     <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B32" s="17">
         <v>5822434</v>
@@ -17339,7 +17278,7 @@
     </row>
     <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B33" s="17">
         <v>6137428</v>
@@ -17351,7 +17290,7 @@
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B34" s="17">
         <v>5639632</v>
@@ -17363,7 +17302,7 @@
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B35" s="17">
         <v>3155070</v>
@@ -17375,7 +17314,7 @@
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B36" s="17">
         <v>2913314</v>
@@ -17387,7 +17326,7 @@
     </row>
     <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B37" s="17">
         <v>1934408</v>
@@ -17399,7 +17338,7 @@
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B38" s="17">
         <v>884659</v>
@@ -17411,7 +17350,7 @@
     </row>
     <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B39" s="17">
         <v>762062</v>
@@ -17423,7 +17362,7 @@
     </row>
     <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B40" s="17">
         <v>7278717</v>
@@ -17435,7 +17374,7 @@
     </row>
     <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B41" s="17">
         <v>5758736</v>
@@ -17447,7 +17386,7 @@
     </row>
     <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B42" s="17">
         <v>3205958</v>
@@ -17459,7 +17398,7 @@
     </row>
     <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B43" s="17">
         <v>3080156</v>
@@ -17471,7 +17410,7 @@
     </row>
     <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B44" s="17">
         <v>2096829</v>
@@ -17483,7 +17422,7 @@
     </row>
     <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B45" s="17">
         <v>1787065</v>
@@ -17495,7 +17434,7 @@
     </row>
     <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B46" s="17">
         <v>1068778</v>
@@ -17507,7 +17446,7 @@
     </row>
     <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B47" s="17">
         <v>578759</v>
@@ -17519,7 +17458,7 @@
     </row>
     <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B48" s="17">
         <v>39512223</v>
@@ -17531,7 +17470,7 @@
     </row>
     <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B49" s="17">
         <v>7614893</v>
@@ -17543,7 +17482,7 @@
     </row>
     <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B50" s="17">
         <v>4217737</v>
@@ -17555,7 +17494,7 @@
     </row>
     <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B51" s="17">
         <v>1415872</v>
@@ -17567,7 +17506,7 @@
     </row>
     <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B52" s="17">
         <v>731545</v>
@@ -17579,7 +17518,7 @@
     </row>
     <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B53" s="18">
         <v>328239523</v>
@@ -17587,7 +17526,7 @@
     </row>
     <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B54" s="19">
         <v>3193694</v>
@@ -17619,31 +17558,31 @@
     <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="57" t="s">
+        <v>420</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>421</v>
+      </c>
+      <c r="D5" s="59" t="s">
         <v>422</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="E5" s="23" t="s">
         <v>423</v>
       </c>
-      <c r="D5" s="59" t="s">
-        <v>424</v>
-      </c>
-      <c r="E5" s="23" t="s">
+      <c r="F5" s="59" t="s">
         <v>425</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="G5" s="55" t="s">
+        <v>426</v>
+      </c>
+      <c r="H5" s="55" t="s">
         <v>427</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="I5" s="55" t="s">
         <v>428</v>
       </c>
-      <c r="H5" s="55" t="s">
+      <c r="J5" s="55" t="s">
         <v>429</v>
-      </c>
-      <c r="I5" s="55" t="s">
-        <v>430</v>
-      </c>
-      <c r="J5" s="55" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17651,7 +17590,7 @@
       <c r="C6" s="58"/>
       <c r="D6" s="60"/>
       <c r="E6" s="24" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F6" s="60"/>
       <c r="G6" s="56"/>
@@ -17661,19 +17600,19 @@
     </row>
     <row r="7" spans="2:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>431</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>636</v>
+      </c>
+      <c r="E7" s="27" t="s">
         <v>432</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="F7" s="26" t="s">
         <v>433</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>638</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>435</v>
       </c>
       <c r="G7" s="28">
         <v>59500510</v>
@@ -17682,10 +17621,10 @@
         <v>425.91</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J7" s="29" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="K7" t="str">
         <f>"China " &amp; D7</f>
@@ -17694,31 +17633,31 @@
     </row>
     <row r="8" spans="2:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="25" t="s">
+        <v>436</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>437</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>439</v>
+      </c>
+      <c r="E8" s="27" t="s">
         <v>438</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="F8" s="30" t="s">
         <v>439</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>441</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>440</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>441</v>
       </c>
       <c r="G8" s="28">
         <v>19612368</v>
       </c>
       <c r="H8" s="28" t="s">
+        <v>440</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>441</v>
+      </c>
+      <c r="J8" s="29" t="s">
         <v>442</v>
-      </c>
-      <c r="I8" s="28" t="s">
-        <v>443</v>
-      </c>
-      <c r="J8" s="29" t="s">
-        <v>444</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" ref="K8:K40" si="0">"China " &amp; D8</f>
@@ -17727,19 +17666,19 @@
     </row>
     <row r="9" spans="2:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="25" t="s">
+        <v>443</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>444</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>446</v>
+      </c>
+      <c r="E9" s="27" t="s">
         <v>445</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="F9" s="30" t="s">
         <v>446</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>448</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>447</v>
-      </c>
-      <c r="F9" s="30" t="s">
-        <v>448</v>
       </c>
       <c r="G9" s="28">
         <v>28846170</v>
@@ -17748,10 +17687,10 @@
         <v>350.5</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="J9" s="29" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="0"/>
@@ -17760,19 +17699,19 @@
     </row>
     <row r="10" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="31" t="s">
+        <v>449</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>450</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>655</v>
+      </c>
+      <c r="E10" s="33" t="s">
         <v>451</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="F10" s="34" t="s">
         <v>452</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>657</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>453</v>
-      </c>
-      <c r="F10" s="34" t="s">
-        <v>454</v>
       </c>
       <c r="G10" s="35">
         <v>36894216</v>
@@ -17781,10 +17720,10 @@
         <v>304.14999999999998</v>
       </c>
       <c r="I10" s="35" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="J10" s="36" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="0"/>
@@ -17793,19 +17732,19 @@
     </row>
     <row r="11" spans="2:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="31" t="s">
+        <v>455</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>456</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>656</v>
+      </c>
+      <c r="E11" s="33" t="s">
         <v>457</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="F11" s="34" t="s">
         <v>458</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>658</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="F11" s="34" t="s">
-        <v>460</v>
       </c>
       <c r="G11" s="35">
         <v>104303132</v>
@@ -17814,10 +17753,10 @@
         <v>579.46</v>
       </c>
       <c r="I11" s="35" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="0"/>
@@ -17826,19 +17765,19 @@
     </row>
     <row r="12" spans="2:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="25" t="s">
+        <v>461</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>462</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>637</v>
+      </c>
+      <c r="E12" s="27" t="s">
         <v>463</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="F12" s="26" t="s">
         <v>464</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>639</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>465</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>466</v>
       </c>
       <c r="G12" s="28">
         <v>25575254</v>
@@ -17847,10 +17786,10 @@
         <v>56.29</v>
       </c>
       <c r="I12" s="28" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="J12" s="29" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="0"/>
@@ -17859,19 +17798,19 @@
     </row>
     <row r="13" spans="2:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>468</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>662</v>
+      </c>
+      <c r="E13" s="27" t="s">
         <v>469</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="F13" s="26" t="s">
         <v>470</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>664</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>471</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>472</v>
       </c>
       <c r="G13" s="28">
         <v>46026629</v>
@@ -17880,10 +17819,10 @@
         <v>195.02</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="J13" s="29" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="0"/>
@@ -17892,19 +17831,19 @@
     </row>
     <row r="14" spans="2:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="25" t="s">
+        <v>473</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>474</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>638</v>
+      </c>
+      <c r="E14" s="27" t="s">
         <v>475</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="F14" s="26" t="s">
         <v>476</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>640</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>477</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>478</v>
       </c>
       <c r="G14" s="28">
         <v>34746468</v>
@@ -17913,10 +17852,10 @@
         <v>197.42</v>
       </c>
       <c r="I14" s="28" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="J14" s="29" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="0"/>
@@ -17925,19 +17864,19 @@
     </row>
     <row r="15" spans="2:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="25" t="s">
+        <v>479</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>480</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>639</v>
+      </c>
+      <c r="E15" s="27" t="s">
         <v>481</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="F15" s="26" t="s">
         <v>482</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>641</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>483</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>484</v>
       </c>
       <c r="G15" s="28">
         <v>94023567</v>
@@ -17946,10 +17885,10 @@
         <v>563.01</v>
       </c>
       <c r="I15" s="28" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="J15" s="29" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="0"/>
@@ -17958,19 +17897,19 @@
     </row>
     <row r="16" spans="2:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="25" t="s">
+        <v>485</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>486</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>640</v>
+      </c>
+      <c r="E16" s="27" t="s">
         <v>487</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="F16" s="26" t="s">
         <v>488</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>642</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>489</v>
-      </c>
-      <c r="F16" s="26" t="s">
-        <v>490</v>
       </c>
       <c r="G16" s="28">
         <v>57237740</v>
@@ -17979,10 +17918,10 @@
         <v>307.89</v>
       </c>
       <c r="I16" s="28" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="J16" s="29" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="0"/>
@@ -17991,19 +17930,19 @@
     </row>
     <row r="17" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="25" t="s">
+        <v>491</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>492</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>641</v>
+      </c>
+      <c r="E17" s="27" t="s">
         <v>493</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="F17" s="26" t="s">
         <v>494</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>643</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>495</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>496</v>
       </c>
       <c r="G17" s="28">
         <v>71854202</v>
@@ -18012,10 +17951,10 @@
         <v>382.81</v>
       </c>
       <c r="I17" s="28" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="J17" s="29" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" si="0"/>
@@ -18024,19 +17963,19 @@
     </row>
     <row r="18" spans="2:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="31" t="s">
+        <v>497</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>498</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>657</v>
+      </c>
+      <c r="E18" s="33" t="s">
         <v>499</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="F18" s="34" t="s">
         <v>500</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>659</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>501</v>
-      </c>
-      <c r="F18" s="34" t="s">
-        <v>502</v>
       </c>
       <c r="G18" s="37">
         <v>9171300</v>
@@ -18045,10 +17984,10 @@
         <v>255.04</v>
       </c>
       <c r="I18" s="35" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="0"/>
@@ -18057,31 +17996,31 @@
     </row>
     <row r="19" spans="2:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="38" t="s">
+        <v>503</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>504</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" s="40" t="s">
         <v>505</v>
       </c>
-      <c r="C19" s="39" t="s">
-        <v>506</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="E19" s="40" t="s">
-        <v>507</v>
-      </c>
       <c r="F19" s="41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G19" s="42">
         <v>7061200</v>
       </c>
       <c r="H19" s="42" t="s">
+        <v>506</v>
+      </c>
+      <c r="I19" s="42" t="s">
+        <v>507</v>
+      </c>
+      <c r="J19" s="43" t="s">
         <v>508</v>
-      </c>
-      <c r="I19" s="42" t="s">
-        <v>509</v>
-      </c>
-      <c r="J19" s="43" t="s">
-        <v>510</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="0"/>
@@ -18090,19 +18029,19 @@
     </row>
     <row r="20" spans="2:11" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="25" t="s">
+        <v>509</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>510</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>642</v>
+      </c>
+      <c r="E20" s="27" t="s">
         <v>511</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="F20" s="26" t="s">
         <v>512</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>644</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>513</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>514</v>
       </c>
       <c r="G20" s="28">
         <v>38312224</v>
@@ -18111,10 +18050,10 @@
         <v>84.38</v>
       </c>
       <c r="I20" s="28" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="J20" s="29" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="0"/>
@@ -18123,19 +18062,19 @@
     </row>
     <row r="21" spans="2:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="25" t="s">
+        <v>515</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>643</v>
+      </c>
+      <c r="E21" s="27" t="s">
         <v>517</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="F21" s="26" t="s">
         <v>518</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>645</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>519</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>520</v>
       </c>
       <c r="G21" s="28">
         <v>65683722</v>
@@ -18144,10 +18083,10 @@
         <v>312.77</v>
       </c>
       <c r="I21" s="28" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J21" s="29" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="0"/>
@@ -18156,19 +18095,19 @@
     </row>
     <row r="22" spans="2:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="25" t="s">
+        <v>521</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>522</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="E22" s="27" t="s">
         <v>523</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="F22" s="26" t="s">
         <v>524</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>646</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>525</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>526</v>
       </c>
       <c r="G22" s="28">
         <v>27462297</v>
@@ -18177,10 +18116,10 @@
         <v>146.54</v>
       </c>
       <c r="I22" s="28" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="J22" s="29" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="0"/>
@@ -18189,19 +18128,19 @@
     </row>
     <row r="23" spans="2:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="25" t="s">
+        <v>527</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>528</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>645</v>
+      </c>
+      <c r="E23" s="27" t="s">
         <v>529</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="F23" s="26" t="s">
         <v>530</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>647</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>531</v>
-      </c>
-      <c r="F23" s="26" t="s">
-        <v>532</v>
       </c>
       <c r="G23" s="28">
         <v>78659903</v>
@@ -18210,10 +18149,10 @@
         <v>766.66</v>
       </c>
       <c r="I23" s="28" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="J23" s="29" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="0"/>
@@ -18222,19 +18161,19 @@
     </row>
     <row r="24" spans="2:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="25" t="s">
+        <v>533</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>534</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>646</v>
+      </c>
+      <c r="E24" s="27" t="s">
         <v>535</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="F24" s="26" t="s">
         <v>536</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>648</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>537</v>
-      </c>
-      <c r="F24" s="26" t="s">
-        <v>538</v>
       </c>
       <c r="G24" s="28">
         <v>44567475</v>
@@ -18243,10 +18182,10 @@
         <v>266.87</v>
       </c>
       <c r="I24" s="28" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="J24" s="29" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="K24" t="str">
         <f t="shared" si="0"/>
@@ -18255,19 +18194,19 @@
     </row>
     <row r="25" spans="2:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="25" t="s">
+        <v>538</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>539</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>647</v>
+      </c>
+      <c r="E25" s="27" t="s">
         <v>540</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="F25" s="26" t="s">
         <v>541</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>649</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>542</v>
-      </c>
-      <c r="F25" s="26" t="s">
-        <v>543</v>
       </c>
       <c r="G25" s="28">
         <v>43746323</v>
@@ -18276,10 +18215,10 @@
         <v>299.83</v>
       </c>
       <c r="I25" s="28" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="J25" s="29" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" si="0"/>
@@ -18288,31 +18227,31 @@
     </row>
     <row r="26" spans="2:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="38" t="s">
+        <v>544</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>545</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>547</v>
+      </c>
+      <c r="E26" s="40" t="s">
         <v>546</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="F26" s="41" t="s">
         <v>547</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>549</v>
-      </c>
-      <c r="E26" s="40" t="s">
-        <v>548</v>
-      </c>
-      <c r="F26" s="41" t="s">
-        <v>549</v>
       </c>
       <c r="G26" s="42">
         <v>552300</v>
       </c>
       <c r="H26" s="42" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="I26" s="42">
         <v>29</v>
       </c>
       <c r="J26" s="43" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="K26" t="str">
         <f t="shared" si="0"/>
@@ -18321,19 +18260,19 @@
     </row>
     <row r="27" spans="2:11" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="25" t="s">
+        <v>550</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>551</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>658</v>
+      </c>
+      <c r="E27" s="27" t="s">
         <v>552</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="F27" s="26" t="s">
         <v>553</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>660</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>554</v>
-      </c>
-      <c r="F27" s="26" t="s">
-        <v>555</v>
       </c>
       <c r="G27" s="28">
         <v>24706321</v>
@@ -18342,10 +18281,10 @@
         <v>20.88</v>
       </c>
       <c r="I27" s="28" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="J27" s="29" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="K27" t="str">
         <f t="shared" si="0"/>
@@ -18354,19 +18293,19 @@
     </row>
     <row r="28" spans="2:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="25" t="s">
+        <v>556</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>557</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>659</v>
+      </c>
+      <c r="E28" s="27" t="s">
         <v>558</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="F28" s="26" t="s">
         <v>559</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>661</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>560</v>
-      </c>
-      <c r="F28" s="26" t="s">
-        <v>561</v>
       </c>
       <c r="G28" s="28">
         <v>6301350</v>
@@ -18375,10 +18314,10 @@
         <v>94.89</v>
       </c>
       <c r="I28" s="28" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="J28" s="29" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="K28" t="str">
         <f t="shared" si="0"/>
@@ -18387,19 +18326,19 @@
     </row>
     <row r="29" spans="2:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="25" t="s">
+        <v>562</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>563</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>648</v>
+      </c>
+      <c r="E29" s="27" t="s">
         <v>564</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="F29" s="26" t="s">
         <v>565</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>650</v>
-      </c>
-      <c r="E29" s="27" t="s">
-        <v>566</v>
-      </c>
-      <c r="F29" s="26" t="s">
-        <v>567</v>
       </c>
       <c r="G29" s="28">
         <v>5626722</v>
@@ -18408,10 +18347,10 @@
         <v>7.8</v>
       </c>
       <c r="I29" s="28" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="J29" s="29" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="K29" t="str">
         <f t="shared" si="0"/>
@@ -18420,19 +18359,19 @@
     </row>
     <row r="30" spans="2:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="25" t="s">
+        <v>568</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>569</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>649</v>
+      </c>
+      <c r="E30" s="27" t="s">
         <v>570</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="F30" s="26" t="s">
         <v>571</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>651</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>572</v>
-      </c>
-      <c r="F30" s="26" t="s">
-        <v>573</v>
       </c>
       <c r="G30" s="28">
         <v>80418200</v>
@@ -18441,10 +18380,10 @@
         <v>165.81</v>
       </c>
       <c r="I30" s="28" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="J30" s="29" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" si="0"/>
@@ -18453,19 +18392,19 @@
     </row>
     <row r="31" spans="2:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="25" t="s">
+        <v>574</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>575</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>650</v>
+      </c>
+      <c r="E31" s="27" t="s">
         <v>576</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="F31" s="26" t="s">
         <v>577</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>652</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>578</v>
-      </c>
-      <c r="F31" s="26" t="s">
-        <v>579</v>
       </c>
       <c r="G31" s="28">
         <v>95793065</v>
@@ -18474,10 +18413,10 @@
         <v>622.84</v>
       </c>
       <c r="I31" s="28" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="J31" s="29" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="K31" t="str">
         <f t="shared" si="0"/>
@@ -18486,31 +18425,31 @@
     </row>
     <row r="32" spans="2:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>581</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>583</v>
+      </c>
+      <c r="E32" s="27" t="s">
         <v>582</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="F32" s="30" t="s">
         <v>583</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>585</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>584</v>
-      </c>
-      <c r="F32" s="30" t="s">
-        <v>585</v>
       </c>
       <c r="G32" s="28">
         <v>23019148</v>
       </c>
       <c r="H32" s="28" t="s">
+        <v>584</v>
+      </c>
+      <c r="I32" s="28" t="s">
+        <v>585</v>
+      </c>
+      <c r="J32" s="29" t="s">
         <v>586</v>
-      </c>
-      <c r="I32" s="28" t="s">
-        <v>587</v>
-      </c>
-      <c r="J32" s="29" t="s">
-        <v>588</v>
       </c>
       <c r="K32" t="str">
         <f t="shared" si="0"/>
@@ -18519,19 +18458,19 @@
     </row>
     <row r="33" spans="2:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="25" t="s">
+        <v>587</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>588</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>651</v>
+      </c>
+      <c r="E33" s="27" t="s">
         <v>589</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="F33" s="26" t="s">
         <v>590</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>653</v>
-      </c>
-      <c r="E33" s="27" t="s">
-        <v>591</v>
-      </c>
-      <c r="F33" s="26" t="s">
-        <v>592</v>
       </c>
       <c r="G33" s="28">
         <v>37327378</v>
@@ -18540,10 +18479,10 @@
         <v>181.55</v>
       </c>
       <c r="I33" s="28" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="J33" s="29" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="K33" t="str">
         <f t="shared" si="0"/>
@@ -18552,19 +18491,19 @@
     </row>
     <row r="34" spans="2:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>594</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>652</v>
+      </c>
+      <c r="E34" s="27" t="s">
         <v>595</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="F34" s="26" t="s">
         <v>596</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>654</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>597</v>
-      </c>
-      <c r="F34" s="26" t="s">
-        <v>598</v>
       </c>
       <c r="G34" s="28">
         <v>35712111</v>
@@ -18573,10 +18512,10 @@
         <v>228.48</v>
       </c>
       <c r="I34" s="28" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="J34" s="29" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="K34" t="str">
         <f t="shared" si="0"/>
@@ -18585,31 +18524,31 @@
     </row>
     <row r="35" spans="2:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="25" t="s">
+        <v>599</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>600</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>602</v>
+      </c>
+      <c r="E35" s="27" t="s">
         <v>601</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="F35" s="30" t="s">
         <v>602</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>604</v>
-      </c>
-      <c r="E35" s="27" t="s">
-        <v>603</v>
-      </c>
-      <c r="F35" s="30" t="s">
-        <v>604</v>
       </c>
       <c r="G35" s="28">
         <v>12938224</v>
       </c>
       <c r="H35" s="28" t="s">
+        <v>603</v>
+      </c>
+      <c r="I35" s="28" t="s">
+        <v>604</v>
+      </c>
+      <c r="J35" s="29" t="s">
         <v>605</v>
-      </c>
-      <c r="I35" s="28" t="s">
-        <v>606</v>
-      </c>
-      <c r="J35" s="29" t="s">
-        <v>607</v>
       </c>
       <c r="K35" t="str">
         <f t="shared" si="0"/>
@@ -18618,19 +18557,19 @@
     </row>
     <row r="36" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="44" t="s">
+        <v>606</v>
+      </c>
+      <c r="C36" s="45" t="s">
+        <v>607</v>
+      </c>
+      <c r="D36" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="E36" s="47" t="s">
         <v>608</v>
       </c>
-      <c r="C36" s="45" t="s">
+      <c r="F36" s="48" t="s">
         <v>609</v>
-      </c>
-      <c r="D36" s="46" t="s">
-        <v>214</v>
-      </c>
-      <c r="E36" s="47" t="s">
-        <v>610</v>
-      </c>
-      <c r="F36" s="48" t="s">
-        <v>611</v>
       </c>
       <c r="G36" s="49">
         <v>23162123</v>
@@ -18639,10 +18578,10 @@
         <v>650.97</v>
       </c>
       <c r="I36" s="49" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="J36" s="50" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="K36" t="str">
         <f t="shared" si="0"/>
@@ -18651,19 +18590,19 @@
     </row>
     <row r="37" spans="2:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="25" t="s">
+        <v>612</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>613</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>661</v>
+      </c>
+      <c r="E37" s="27" t="s">
         <v>614</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="F37" s="26" t="s">
         <v>615</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>663</v>
-      </c>
-      <c r="E37" s="27" t="s">
-        <v>616</v>
-      </c>
-      <c r="F37" s="26" t="s">
-        <v>617</v>
       </c>
       <c r="G37" s="28">
         <v>21813334</v>
@@ -18672,10 +18611,10 @@
         <v>13.13</v>
       </c>
       <c r="I37" s="28" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="J37" s="29" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="K37" t="str">
         <f t="shared" si="0"/>
@@ -18684,19 +18623,19 @@
     </row>
     <row r="38" spans="2:11" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="25" t="s">
+        <v>618</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>619</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>660</v>
+      </c>
+      <c r="E38" s="27" t="s">
         <v>620</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="F38" s="26" t="s">
         <v>621</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>662</v>
-      </c>
-      <c r="E38" s="27" t="s">
-        <v>622</v>
-      </c>
-      <c r="F38" s="26" t="s">
-        <v>623</v>
       </c>
       <c r="G38" s="28">
         <v>3002166</v>
@@ -18705,10 +18644,10 @@
         <v>2.44</v>
       </c>
       <c r="I38" s="28" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="J38" s="29" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="K38" t="str">
         <f t="shared" si="0"/>
@@ -18717,19 +18656,19 @@
     </row>
     <row r="39" spans="2:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="25" t="s">
+        <v>624</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>625</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>653</v>
+      </c>
+      <c r="E39" s="27" t="s">
         <v>626</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="F39" s="26" t="s">
         <v>627</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>655</v>
-      </c>
-      <c r="E39" s="27" t="s">
-        <v>628</v>
-      </c>
-      <c r="F39" s="26" t="s">
-        <v>629</v>
       </c>
       <c r="G39" s="28">
         <v>45966239</v>
@@ -18738,10 +18677,10 @@
         <v>116.66</v>
       </c>
       <c r="I39" s="28" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="J39" s="29" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K39" t="str">
         <f t="shared" si="0"/>
@@ -18750,19 +18689,19 @@
     </row>
     <row r="40" spans="2:11" ht="18" x14ac:dyDescent="0.25">
       <c r="B40" s="25" t="s">
+        <v>630</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>631</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>654</v>
+      </c>
+      <c r="E40" s="27" t="s">
         <v>632</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="F40" s="26" t="s">
         <v>633</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>656</v>
-      </c>
-      <c r="E40" s="27" t="s">
-        <v>634</v>
-      </c>
-      <c r="F40" s="26" t="s">
-        <v>635</v>
       </c>
       <c r="G40" s="28">
         <v>54426891</v>
@@ -18771,10 +18710,10 @@
         <v>533.59</v>
       </c>
       <c r="I40" s="28" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="J40" s="29" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="K40" t="str">
         <f t="shared" si="0"/>

--- a/COVID-19 Apps/Population Data.xlsx
+++ b/COVID-19 Apps/Population Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zur Bonsen Georg\Documents\Programme\Beyond4P_Apps\COVID-19 Apps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AC667D-9592-49A8-B418-DE2DEC39D5D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60593A66-466F-495D-9A82-29182075BBF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{F1D96CA6-85D8-47A9-B3B5-9350C0EB077E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" activeTab="1" xr2:uid="{F1D96CA6-85D8-47A9-B3B5-9350C0EB077E}"/>
   </bookViews>
   <sheets>
     <sheet name="Basedata" sheetId="3" r:id="rId1"/>
@@ -160,9 +160,6 @@
     <t>Armenia</t>
   </si>
   <si>
-    <t>Aruba</t>
-  </si>
-  <si>
     <t>Australia</t>
   </si>
   <si>
@@ -515,9 +512,6 @@
   </si>
   <si>
     <t>Montenegro</t>
-  </si>
-  <si>
-    <t>Montserrat</t>
   </si>
   <si>
     <t>Morocco</t>
@@ -2143,7 +2137,13 @@
     <t>France Reunion</t>
   </si>
   <si>
-    <t>The Gambia</t>
+    <t>Gambia, The</t>
+  </si>
+  <si>
+    <t>Netherlands Aruba</t>
+  </si>
+  <si>
+    <t>United Kingdom Montserrat</t>
   </si>
 </sst>
 </file>
@@ -2902,8 +2902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D644D2AC-849B-4939-9630-637ED8DE136D}">
   <dimension ref="A1:E362"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A301" workbookViewId="0">
+      <selection activeCell="B321" sqref="B321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2915,16 +2915,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="52" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -3020,7 +3020,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>32</v>
+        <v>684</v>
       </c>
       <c r="C9" s="21" cm="1">
         <f t="array" ref="C9">INDEX(World!C:C,Basedata!D9)</f>
@@ -3033,7 +3033,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="21" cm="1">
         <f t="array" ref="C10">INDEX(World!C:C,Basedata!D10)</f>
@@ -3046,7 +3046,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C11" s="22">
         <v>366900</v>
@@ -3054,7 +3054,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C12" s="22">
         <v>7317500</v>
@@ -3062,7 +3062,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C13" s="22">
         <v>231200</v>
@@ -3070,7 +3070,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C14" s="22">
         <v>4599400</v>
@@ -3078,7 +3078,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C15" s="22">
         <v>1659800</v>
@@ -3086,7 +3086,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C16" s="22">
         <v>511000</v>
@@ -3094,7 +3094,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C17" s="22">
         <v>5640900</v>
@@ -3102,7 +3102,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C18" s="22">
         <v>2366900</v>
@@ -3110,10 +3110,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="52" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="21" cm="1">
         <f t="array" ref="C19">INDEX(World!C:C,Basedata!D19)</f>
@@ -3126,7 +3126,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="21" cm="1">
         <f t="array" ref="C20">INDEX(World!C:C,Basedata!D20)</f>
@@ -3139,7 +3139,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="21" cm="1">
         <f t="array" ref="C21">INDEX(World!C:C,Basedata!D21)</f>
@@ -3152,7 +3152,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="21" cm="1">
         <f t="array" ref="C22">INDEX(World!C:C,Basedata!D22)</f>
@@ -3165,7 +3165,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" s="21" cm="1">
         <f t="array" ref="C23">INDEX(World!C:C,Basedata!D23)</f>
@@ -3178,10 +3178,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="52" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24" s="21" cm="1">
         <f t="array" ref="C24">INDEX(World!C:C,Basedata!D24)</f>
@@ -3194,7 +3194,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" s="21" cm="1">
         <f t="array" ref="C25">INDEX(World!C:C,Basedata!D25)</f>
@@ -3207,7 +3207,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="21" cm="1">
         <f t="array" ref="C26">INDEX(World!C:C,Basedata!D26)</f>
@@ -3220,7 +3220,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" s="21" cm="1">
         <f t="array" ref="C27">INDEX(World!C:C,Basedata!D27)</f>
@@ -3233,7 +3233,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" s="21" cm="1">
         <f t="array" ref="C28">INDEX(World!C:C,Basedata!D28)</f>
@@ -3246,7 +3246,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C29" s="21" cm="1">
         <f t="array" ref="C29">INDEX(World!C:C,Basedata!D29)</f>
@@ -3259,7 +3259,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C30" s="21" cm="1">
         <f t="array" ref="C30">INDEX(World!C:C,Basedata!D30)</f>
@@ -3272,7 +3272,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31" s="21" cm="1">
         <f t="array" ref="C31">INDEX(World!C:C,Basedata!D31)</f>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C32" s="21" cm="1">
         <f t="array" ref="C32">INDEX(World!C:C,Basedata!D32)</f>
@@ -3298,7 +3298,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C33" s="21" cm="1">
         <f t="array" ref="C33">INDEX(World!C:C,Basedata!D33)</f>
@@ -3311,10 +3311,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="52" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C34" s="21" cm="1">
         <f t="array" ref="C34">INDEX(World!C:C,Basedata!D34)</f>
@@ -3327,7 +3327,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C35" s="22">
         <v>4345737</v>
@@ -3335,7 +3335,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C36" s="22">
         <v>5020302</v>
@@ -3343,7 +3343,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C37" s="22">
         <v>1360396</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C38" s="22">
         <v>772094</v>
@@ -3359,7 +3359,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C39" s="22">
         <v>14446515</v>
@@ -3367,7 +3367,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C40" s="22">
         <v>8433301</v>
@@ -3375,7 +3375,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C41" s="22">
         <v>1168423</v>
@@ -3383,7 +3383,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C42" s="22">
         <v>965392</v>
@@ -3391,7 +3391,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C43" s="22">
         <v>523790</v>
@@ -3399,7 +3399,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C44" s="22">
         <v>154748</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C45" s="22">
         <v>44598</v>
@@ -3415,7 +3415,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C46" s="22">
         <v>40369</v>
@@ -3423,7 +3423,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C47" s="22">
         <v>38787</v>
@@ -3431,7 +3431,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C48" s="21" cm="1">
         <f t="array" ref="C48">INDEX(World!C:C,Basedata!D48)</f>
@@ -3444,7 +3444,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C49" s="21" cm="1">
         <f t="array" ref="C49">INDEX(World!C:C,Basedata!D49)</f>
@@ -3457,10 +3457,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="52" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C50" s="21" cm="1">
         <f t="array" ref="C50">INDEX(World!C:C,Basedata!D50)</f>
@@ -3473,7 +3473,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C51" s="22" cm="1">
         <f t="array" ref="C51">INDEX(China!G:G,Basedata!D51)</f>
@@ -3486,7 +3486,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C52" s="22" cm="1">
         <f t="array" ref="C52">INDEX(China!G:G,Basedata!D52)</f>
@@ -3499,7 +3499,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C53" s="22" cm="1">
         <f t="array" ref="C53">INDEX(China!G:G,Basedata!D53)</f>
@@ -3512,7 +3512,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C54" s="22" cm="1">
         <f t="array" ref="C54">INDEX(China!G:G,Basedata!D54)</f>
@@ -3525,7 +3525,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C55" s="22" cm="1">
         <f t="array" ref="C55">INDEX(China!G:G,Basedata!D55)</f>
@@ -3538,7 +3538,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C56" s="22" cm="1">
         <f t="array" ref="C56">INDEX(China!G:G,Basedata!D56)</f>
@@ -3551,7 +3551,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C57" s="22" cm="1">
         <f t="array" ref="C57">INDEX(China!G:G,Basedata!D57)</f>
@@ -3564,7 +3564,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C58" s="22" cm="1">
         <f t="array" ref="C58">INDEX(China!G:G,Basedata!D58)</f>
@@ -3577,7 +3577,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C59" s="22" cm="1">
         <f t="array" ref="C59">INDEX(China!G:G,Basedata!D59)</f>
@@ -3590,7 +3590,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C60" s="22" cm="1">
         <f t="array" ref="C60">INDEX(China!G:G,Basedata!D60)</f>
@@ -3603,7 +3603,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C61" s="22" cm="1">
         <f t="array" ref="C61">INDEX(China!G:G,Basedata!D61)</f>
@@ -3616,7 +3616,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C62" s="22" cm="1">
         <f t="array" ref="C62">INDEX(China!G:G,Basedata!D62)</f>
@@ -3629,7 +3629,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C63" s="22" cm="1">
         <f t="array" ref="C63">INDEX(China!G:G,Basedata!D63)</f>
@@ -3642,7 +3642,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C64" s="22" cm="1">
         <f t="array" ref="C64">INDEX(China!G:G,Basedata!D64)</f>
@@ -3655,7 +3655,7 @@
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C65" s="22" cm="1">
         <f t="array" ref="C65">INDEX(China!G:G,Basedata!D65)</f>
@@ -3668,7 +3668,7 @@
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C66" s="22" cm="1">
         <f t="array" ref="C66">INDEX(China!G:G,Basedata!D66)</f>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C67" s="22" cm="1">
         <f t="array" ref="C67">INDEX(China!G:G,Basedata!D67)</f>
@@ -3694,7 +3694,7 @@
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C68" s="22" cm="1">
         <f t="array" ref="C68">INDEX(China!G:G,Basedata!D68)</f>
@@ -3707,7 +3707,7 @@
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C69" s="22" cm="1">
         <f t="array" ref="C69">INDEX(China!G:G,Basedata!D69)</f>
@@ -3720,7 +3720,7 @@
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C70" s="22" cm="1">
         <f t="array" ref="C70">INDEX(China!G:G,Basedata!D70)</f>
@@ -3733,7 +3733,7 @@
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C71" s="22" cm="1">
         <f t="array" ref="C71">INDEX(China!G:G,Basedata!D71)</f>
@@ -3746,7 +3746,7 @@
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C72" s="22" cm="1">
         <f t="array" ref="C72">INDEX(China!G:G,Basedata!D72)</f>
@@ -3759,7 +3759,7 @@
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C73" s="22" cm="1">
         <f t="array" ref="C73">INDEX(China!G:G,Basedata!D73)</f>
@@ -3772,7 +3772,7 @@
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C74" s="22" cm="1">
         <f t="array" ref="C74">INDEX(China!G:G,Basedata!D74)</f>
@@ -3785,7 +3785,7 @@
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C75" s="22" cm="1">
         <f t="array" ref="C75">INDEX(China!G:G,Basedata!D75)</f>
@@ -3798,7 +3798,7 @@
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C76" s="22" cm="1">
         <f t="array" ref="C76">INDEX(China!G:G,Basedata!D76)</f>
@@ -3811,7 +3811,7 @@
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C77" s="22" cm="1">
         <f t="array" ref="C77">INDEX(China!G:G,Basedata!D77)</f>
@@ -3824,7 +3824,7 @@
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C78" s="22" cm="1">
         <f t="array" ref="C78">INDEX(China!G:G,Basedata!D78)</f>
@@ -3837,7 +3837,7 @@
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C79" s="22" cm="1">
         <f t="array" ref="C79">INDEX(China!G:G,Basedata!D79)</f>
@@ -3850,7 +3850,7 @@
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C80" s="22" cm="1">
         <f t="array" ref="C80">INDEX(China!G:G,Basedata!D80)</f>
@@ -3863,7 +3863,7 @@
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C81" s="22" cm="1">
         <f t="array" ref="C81">INDEX(China!G:G,Basedata!D81)</f>
@@ -3876,7 +3876,7 @@
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C82" s="22" cm="1">
         <f t="array" ref="C82">INDEX(China!G:G,Basedata!D82)</f>
@@ -3889,7 +3889,7 @@
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C83" s="22" cm="1">
         <f t="array" ref="C83">INDEX(China!G:G,Basedata!D83)</f>
@@ -3902,7 +3902,7 @@
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C84" s="21" cm="1">
         <f t="array" ref="C84">INDEX(World!C:C,Basedata!D84)</f>
@@ -3915,7 +3915,7 @@
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C85" s="21" cm="1">
         <f t="array" ref="C85">INDEX(World!C:C,Basedata!D85)</f>
@@ -3928,7 +3928,7 @@
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C86" s="21" cm="1">
         <f t="array" ref="C86">INDEX(World!C:C,Basedata!D86)</f>
@@ -3941,7 +3941,7 @@
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C87" s="21" cm="1">
         <f t="array" ref="C87">INDEX(World!C:C,Basedata!D87)</f>
@@ -3954,7 +3954,7 @@
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C88" s="21" cm="1">
         <f t="array" ref="C88">INDEX(World!C:C,Basedata!D88)</f>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C89" s="21" cm="1">
         <f t="array" ref="C89">INDEX(World!C:C,Basedata!D89)</f>
@@ -3980,7 +3980,7 @@
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C90" s="21" cm="1">
         <f t="array" ref="C90">INDEX(World!C:C,Basedata!D90)</f>
@@ -3993,7 +3993,7 @@
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C91" s="21" cm="1">
         <f t="array" ref="C91">INDEX(World!C:C,Basedata!D91)</f>
@@ -4006,7 +4006,7 @@
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C92" s="21" cm="1">
         <f t="array" ref="C92">INDEX(World!C:C,Basedata!D92)</f>
@@ -4019,7 +4019,7 @@
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C93" s="21" cm="1">
         <f t="array" ref="C93">INDEX(World!C:C,Basedata!D93)</f>
@@ -4032,7 +4032,7 @@
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C94" s="21" cm="1">
         <f t="array" ref="C94">INDEX(World!C:C,Basedata!D94)</f>
@@ -4045,7 +4045,7 @@
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C95" s="22">
         <f>C94-C96</f>
@@ -4054,7 +4054,7 @@
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C96" s="22">
         <v>49290</v>
@@ -4062,7 +4062,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C97" s="21" cm="1">
         <f t="array" ref="C97">INDEX(World!C:C,Basedata!D97)</f>
@@ -4075,7 +4075,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C98" s="21" cm="1">
         <f t="array" ref="C98">INDEX(World!C:C,Basedata!D98)</f>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C99" s="21" cm="1">
         <f t="array" ref="C99">INDEX(World!C:C,Basedata!D99)</f>
@@ -4101,7 +4101,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C100" s="21" cm="1">
         <f t="array" ref="C100">INDEX(World!C:C,Basedata!D100)</f>
@@ -4114,7 +4114,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C101" s="21" cm="1">
         <f t="array" ref="C101">INDEX(World!C:C,Basedata!D101)</f>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C102" s="21" cm="1">
         <f t="array" ref="C102">INDEX(World!C:C,Basedata!D102)</f>
@@ -4140,7 +4140,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C103" s="21" cm="1">
         <f t="array" ref="C103">INDEX(World!C:C,Basedata!D103)</f>
@@ -4153,10 +4153,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="52" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B104" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C104" s="21" cm="1">
         <f t="array" ref="C104">INDEX(World!C:C,Basedata!D104)</f>
@@ -4169,7 +4169,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C105" s="22">
         <v>268700</v>
@@ -4177,7 +4177,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C106" s="22">
         <f>C104-C105-C108-C111-C112-C113</f>
@@ -4186,7 +4186,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C107" s="22">
         <v>290691</v>
@@ -4194,7 +4194,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C108" s="22">
         <v>238007</v>
@@ -4202,7 +4202,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C109" s="21" cm="1">
         <f t="array" ref="C109">INDEX(World!C:C,Basedata!D109)</f>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C110" s="21" cm="1">
         <f t="array" ref="C110">INDEX(World!C:C,Basedata!D110)</f>
@@ -4228,7 +4228,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C111" s="22">
         <v>9961</v>
@@ -4236,7 +4236,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C112" s="22">
         <v>72239</v>
@@ -4244,7 +4244,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C113" s="21" cm="1">
         <f t="array" ref="C113">INDEX(World!C:C,Basedata!D113)</f>
@@ -4257,7 +4257,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C114" s="21" cm="1">
         <f t="array" ref="C114">INDEX(World!C:C,Basedata!D114)</f>
@@ -4270,7 +4270,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C115" s="21" cm="1">
         <f t="array" ref="C115">INDEX(World!C:C,Basedata!D115)</f>
@@ -4283,10 +4283,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="52" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B116" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C116" s="21" cm="1">
         <f t="array" ref="C116">INDEX(World!C:C,Basedata!D116)</f>
@@ -4299,7 +4299,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C117" s="21" cm="1">
         <f t="array" ref="C117">INDEX(World!C:C,Basedata!D117)</f>
@@ -4312,7 +4312,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C118" s="21" cm="1">
         <f t="array" ref="C118">INDEX(World!C:C,Basedata!D118)</f>
@@ -4325,7 +4325,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C119" s="51">
         <v>390253</v>
@@ -4333,7 +4333,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C120" s="21" cm="1">
         <f t="array" ref="C120">INDEX(World!C:C,Basedata!D120)</f>
@@ -4346,7 +4346,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C121" s="21" cm="1">
         <f t="array" ref="C121">INDEX(World!C:C,Basedata!D121)</f>
@@ -4359,7 +4359,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C122" s="22">
         <v>62307</v>
@@ -4367,7 +4367,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C123" s="21" cm="1">
         <f t="array" ref="C123">INDEX(World!C:C,Basedata!D123)</f>
@@ -4380,7 +4380,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C124" s="21" cm="1">
         <f t="array" ref="C124">INDEX(World!C:C,Basedata!D124)</f>
@@ -4393,7 +4393,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C125" s="21" cm="1">
         <f t="array" ref="C125">INDEX(World!C:C,Basedata!D125)</f>
@@ -4406,7 +4406,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C126" s="21" cm="1">
         <f t="array" ref="C126">INDEX(World!C:C,Basedata!D126)</f>
@@ -4419,7 +4419,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C127" s="21" cm="1">
         <f t="array" ref="C127">INDEX(World!C:C,Basedata!D127)</f>
@@ -4432,7 +4432,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C128" s="21" cm="1">
         <f t="array" ref="C128">INDEX(World!C:C,Basedata!D128)</f>
@@ -4445,7 +4445,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C129" s="21" cm="1">
         <f t="array" ref="C129">INDEX(World!C:C,Basedata!D129)</f>
@@ -4458,10 +4458,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="52" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B130" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C130" s="21" cm="1">
         <f t="array" ref="C130">INDEX(World!C:C,Basedata!D130)</f>
@@ -4474,7 +4474,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C131" s="21" cm="1">
         <f t="array" ref="C131">INDEX(World!C:C,Basedata!D131)</f>
@@ -4487,10 +4487,10 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="52" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B132" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C132" s="21" cm="1">
         <f t="array" ref="C132">INDEX(World!C:C,Basedata!D132)</f>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C133" s="21" cm="1">
         <f t="array" ref="C133">INDEX(World!C:C,Basedata!D133)</f>
@@ -4516,7 +4516,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C134" s="21" cm="1">
         <f t="array" ref="C134">INDEX(World!C:C,Basedata!D134)</f>
@@ -4529,7 +4529,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C135" s="21" cm="1">
         <f t="array" ref="C135">INDEX(World!C:C,Basedata!D135)</f>
@@ -4542,10 +4542,10 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="52" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B136" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C136" s="21" cm="1">
         <f t="array" ref="C136">INDEX(World!C:C,Basedata!D136)</f>
@@ -4558,7 +4558,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C137" s="21" cm="1">
         <f t="array" ref="C137">INDEX(World!C:C,Basedata!D137)</f>
@@ -4571,7 +4571,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C138" s="21" cm="1">
         <f t="array" ref="C138">INDEX(World!C:C,Basedata!D138)</f>
@@ -4584,7 +4584,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C139" s="22">
         <v>102700</v>
@@ -4592,7 +4592,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C140" s="21" cm="1">
         <f t="array" ref="C140">INDEX(World!C:C,Basedata!D140)</f>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C141" s="21" cm="1">
         <f t="array" ref="C141">INDEX(World!C:C,Basedata!D141)</f>
@@ -4618,7 +4618,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C142" s="21" cm="1">
         <f t="array" ref="C142">INDEX(World!C:C,Basedata!D142)</f>
@@ -4631,10 +4631,10 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="52" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B143" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C143" s="21" cm="1">
         <f t="array" ref="C143">INDEX(World!C:C,Basedata!D143)</f>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C144" s="22">
         <v>1810463</v>
@@ -4655,7 +4655,7 @@
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C145" s="21" cm="1">
         <f t="array" ref="C145">INDEX(World!C:C,Basedata!D145)</f>
@@ -4668,7 +4668,7 @@
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C146" s="21" cm="1">
         <f t="array" ref="C146">INDEX(World!C:C,Basedata!D146)</f>
@@ -4681,7 +4681,7 @@
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C147" s="21" cm="1">
         <f t="array" ref="C147">INDEX(World!C:C,Basedata!D147)</f>
@@ -4694,7 +4694,7 @@
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C148" s="21" cm="1">
         <f t="array" ref="C148">INDEX(World!C:C,Basedata!D148)</f>
@@ -4707,7 +4707,7 @@
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C149" s="21" cm="1">
         <f t="array" ref="C149">INDEX(World!C:C,Basedata!D149)</f>
@@ -4720,7 +4720,7 @@
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C150" s="21" cm="1">
         <f t="array" ref="C150">INDEX(World!C:C,Basedata!D150)</f>
@@ -4733,7 +4733,7 @@
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C151" s="21" cm="1">
         <f t="array" ref="C151">INDEX(World!C:C,Basedata!D151)</f>
@@ -4746,7 +4746,7 @@
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C152" s="21" cm="1">
         <f t="array" ref="C152">INDEX(World!C:C,Basedata!D152)</f>
@@ -4759,7 +4759,7 @@
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C153" s="21" cm="1">
         <f t="array" ref="C153">INDEX(World!C:C,Basedata!D153)</f>
@@ -4772,7 +4772,7 @@
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C154" s="21" cm="1">
         <f t="array" ref="C154">INDEX(World!C:C,Basedata!D154)</f>
@@ -4785,7 +4785,7 @@
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C155" s="21" cm="1">
         <f t="array" ref="C155">INDEX(World!C:C,Basedata!D155)</f>
@@ -4798,18 +4798,18 @@
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C156" s="51">
         <v>272815</v>
       </c>
       <c r="E156" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C157" s="21" cm="1">
         <f t="array" ref="C157">INDEX(World!C:C,Basedata!D157)</f>
@@ -4822,7 +4822,7 @@
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C158" s="21" cm="1">
         <f t="array" ref="C158">INDEX(World!C:C,Basedata!D158)</f>
@@ -4835,7 +4835,7 @@
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C159" s="21" cm="1">
         <f t="array" ref="C159">INDEX(World!C:C,Basedata!D159)</f>
@@ -4848,7 +4848,7 @@
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C160" s="21" cm="1">
         <f t="array" ref="C160">INDEX(World!C:C,Basedata!D160)</f>
@@ -4861,7 +4861,7 @@
     </row>
     <row r="161" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C161" s="21" cm="1">
         <f t="array" ref="C161">INDEX(World!C:C,Basedata!D161)</f>
@@ -4874,7 +4874,7 @@
     </row>
     <row r="162" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C162" s="21" cm="1">
         <f t="array" ref="C162">INDEX(World!C:C,Basedata!D162)</f>
@@ -4887,7 +4887,7 @@
     </row>
     <row r="163" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C163" s="21" cm="1">
         <f t="array" ref="C163">INDEX(World!C:C,Basedata!D163)</f>
@@ -4900,7 +4900,7 @@
     </row>
     <row r="164" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C164" s="21" cm="1">
         <f t="array" ref="C164">INDEX(World!C:C,Basedata!D164)</f>
@@ -4913,7 +4913,7 @@
     </row>
     <row r="165" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C165" s="22">
         <f>C164-C166</f>
@@ -4922,7 +4922,7 @@
     </row>
     <row r="166" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C166" s="21" cm="1">
         <f t="array" ref="C166">INDEX(World!C:C,Basedata!D166)</f>
@@ -4935,7 +4935,7 @@
     </row>
     <row r="167" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C167" s="21" cm="1">
         <f t="array" ref="C167">INDEX(World!C:C,Basedata!D167)</f>
@@ -4948,7 +4948,7 @@
     </row>
     <row r="168" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C168" s="21" cm="1">
         <f t="array" ref="C168">INDEX(World!C:C,Basedata!D168)</f>
@@ -4961,7 +4961,7 @@
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C169" s="21" cm="1">
         <f t="array" ref="C169">INDEX(World!C:C,Basedata!D169)</f>
@@ -4974,7 +4974,7 @@
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C170" s="21" cm="1">
         <f t="array" ref="C170">INDEX(World!C:C,Basedata!D170)</f>
@@ -4987,7 +4987,7 @@
     </row>
     <row r="171" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C171" s="21" cm="1">
         <f t="array" ref="C171">INDEX(World!C:C,Basedata!D171)</f>
@@ -5000,7 +5000,7 @@
     </row>
     <row r="172" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C172" s="21" cm="1">
         <f t="array" ref="C172">INDEX(World!C:C,Basedata!D172)</f>
@@ -5013,7 +5013,7 @@
     </row>
     <row r="173" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C173" s="21" cm="1">
         <f t="array" ref="C173">INDEX(World!C:C,Basedata!D173)</f>
@@ -5026,7 +5026,7 @@
     </row>
     <row r="174" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C174" s="21" cm="1">
         <f t="array" ref="C174">INDEX(World!C:C,Basedata!D174)</f>
@@ -5039,7 +5039,7 @@
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C175" s="21" cm="1">
         <f t="array" ref="C175">INDEX(World!C:C,Basedata!D175)</f>
@@ -5052,7 +5052,7 @@
     </row>
     <row r="176" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C176" s="21" cm="1">
         <f t="array" ref="C176">INDEX(World!C:C,Basedata!D176)</f>
@@ -5065,7 +5065,7 @@
     </row>
     <row r="177" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C177" s="21" cm="1">
         <f t="array" ref="C177">INDEX(World!C:C,Basedata!D177)</f>
@@ -5078,7 +5078,7 @@
     </row>
     <row r="178" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C178" s="21" cm="1">
         <f t="array" ref="C178">INDEX(World!C:C,Basedata!D178)</f>
@@ -5091,7 +5091,7 @@
     </row>
     <row r="179" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C179" s="21" cm="1">
         <f t="array" ref="C179">INDEX(World!C:C,Basedata!D179)</f>
@@ -5104,7 +5104,7 @@
     </row>
     <row r="180" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C180" s="21" cm="1">
         <f t="array" ref="C180">INDEX(World!C:C,Basedata!D180)</f>
@@ -5117,7 +5117,7 @@
     </row>
     <row r="181" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C181" s="21" cm="1">
         <f t="array" ref="C181">INDEX(World!C:C,Basedata!D181)</f>
@@ -5130,7 +5130,7 @@
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C182" s="21" cm="1">
         <f t="array" ref="C182">INDEX(World!C:C,Basedata!D182)</f>
@@ -5143,7 +5143,7 @@
     </row>
     <row r="183" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C183" s="21" cm="1">
         <f t="array" ref="C183">INDEX(World!C:C,Basedata!D183)</f>
@@ -5156,7 +5156,7 @@
     </row>
     <row r="184" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C184" s="21" cm="1">
         <f t="array" ref="C184">INDEX(World!C:C,Basedata!D184)</f>
@@ -5169,7 +5169,7 @@
     </row>
     <row r="185" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C185" s="21" cm="1">
         <f t="array" ref="C185">INDEX(World!C:C,Basedata!D185)</f>
@@ -5182,7 +5182,7 @@
     </row>
     <row r="186" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C186" s="21" cm="1">
         <f t="array" ref="C186">INDEX(World!C:C,Basedata!D186)</f>
@@ -5195,7 +5195,7 @@
     </row>
     <row r="187" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C187" s="21" cm="1">
         <f t="array" ref="C187">INDEX(World!C:C,Basedata!D187)</f>
@@ -5208,7 +5208,7 @@
     </row>
     <row r="188" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C188" s="21" cm="1">
         <f t="array" ref="C188">INDEX(World!C:C,Basedata!D188)</f>
@@ -5221,7 +5221,7 @@
     </row>
     <row r="189" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C189" s="21" cm="1">
         <f t="array" ref="C189">INDEX(World!C:C,Basedata!D189)</f>
@@ -5234,7 +5234,7 @@
     </row>
     <row r="190" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C190" s="21" cm="1">
         <f t="array" ref="C190">INDEX(World!C:C,Basedata!D190)</f>
@@ -5247,7 +5247,7 @@
     </row>
     <row r="191" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C191" s="21" cm="1">
         <f t="array" ref="C191">INDEX(World!C:C,Basedata!D191)</f>
@@ -5260,7 +5260,7 @@
     </row>
     <row r="192" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C192" s="21" cm="1">
         <f t="array" ref="C192">INDEX(World!C:C,Basedata!D192)</f>
@@ -5273,7 +5273,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C193" s="21" cm="1">
         <f t="array" ref="C193">INDEX(World!C:C,Basedata!D193)</f>
@@ -5286,10 +5286,10 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="52" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B194" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C194" s="21" cm="1">
         <f t="array" ref="C194">INDEX(World!C:C,Basedata!D194)</f>
@@ -5302,7 +5302,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C195" s="21" cm="1">
         <f t="array" ref="C195">INDEX(World!C:C,Basedata!D195)</f>
@@ -5315,7 +5315,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C196" s="21" cm="1">
         <f t="array" ref="C196">INDEX(World!C:C,Basedata!D196)</f>
@@ -5328,7 +5328,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C197" s="21" cm="1">
         <f t="array" ref="C197">INDEX(World!C:C,Basedata!D197)</f>
@@ -5341,10 +5341,10 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="52" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B198" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C198" s="21" cm="1">
         <f t="array" ref="C198">INDEX(World!C:C,Basedata!D198)</f>
@@ -5357,10 +5357,10 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="52" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B199" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C199" s="21" cm="1">
         <f t="array" ref="C199">INDEX(World!C:C,Basedata!D199)</f>
@@ -5373,7 +5373,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C200" s="21" cm="1">
         <f t="array" ref="C200">INDEX(World!C:C,Basedata!D200)</f>
@@ -5386,7 +5386,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C201" s="21" cm="1">
         <f t="array" ref="C201">INDEX(World!C:C,Basedata!D201)</f>
@@ -5399,7 +5399,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C202" s="21" cm="1">
         <f t="array" ref="C202">INDEX(World!C:C,Basedata!D202)</f>
@@ -5412,7 +5412,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C203" s="21" cm="1">
         <f t="array" ref="C203">INDEX(World!C:C,Basedata!D203)</f>
@@ -5425,7 +5425,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C204" s="21" cm="1">
         <f t="array" ref="C204">INDEX(World!C:C,Basedata!D204)</f>
@@ -5438,7 +5438,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C205" s="21" cm="1">
         <f t="array" ref="C205">INDEX(World!C:C,Basedata!D205)</f>
@@ -5451,10 +5451,10 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="52" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B206" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C206" s="21" cm="1">
         <f t="array" ref="C206">INDEX(World!C:C,Basedata!D206)</f>
@@ -5467,10 +5467,10 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="52" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B207" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C207" s="22" cm="1">
         <f t="array" ref="C207">INDEX(USA!B:B,Basedata!D207)</f>
@@ -5483,10 +5483,10 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="52" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B208" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C208" s="22" cm="1">
         <f t="array" ref="C208">INDEX(USA!B:B,Basedata!D208)</f>
@@ -5499,10 +5499,10 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="52" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B209" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C209" s="22" cm="1">
         <f t="array" ref="C209">INDEX(USA!B:B,Basedata!D209)</f>
@@ -5515,10 +5515,10 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="52" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B210" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C210" s="22" cm="1">
         <f t="array" ref="C210">INDEX(USA!B:B,Basedata!D210)</f>
@@ -5531,10 +5531,10 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="52" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B211" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C211" s="22" cm="1">
         <f t="array" ref="C211">INDEX(USA!B:B,Basedata!D211)</f>
@@ -5547,10 +5547,10 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="52" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B212" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C212" s="22" cm="1">
         <f t="array" ref="C212">INDEX(USA!B:B,Basedata!D212)</f>
@@ -5563,10 +5563,10 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="52" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B213" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C213" s="22" cm="1">
         <f t="array" ref="C213">INDEX(USA!B:B,Basedata!D213)</f>
@@ -5579,10 +5579,10 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="52" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B214" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C214" s="22" cm="1">
         <f t="array" ref="C214">INDEX(USA!B:B,Basedata!D214)</f>
@@ -5595,10 +5595,10 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="52" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B215" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C215" s="22" cm="1">
         <f t="array" ref="C215">INDEX(USA!B:B,Basedata!D215)</f>
@@ -5611,10 +5611,10 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="52" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B216" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C216" s="22" cm="1">
         <f t="array" ref="C216">INDEX(USA!B:B,Basedata!D216)</f>
@@ -5627,10 +5627,10 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="52" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B217" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C217" s="22" cm="1">
         <f t="array" ref="C217">INDEX(USA!B:B,Basedata!D217)</f>
@@ -5643,10 +5643,10 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="52" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B218" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C218" s="51">
         <v>162742</v>
@@ -5654,10 +5654,10 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="52" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B219" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C219" s="22" cm="1">
         <f t="array" ref="C219">INDEX(USA!B:B,Basedata!D219)</f>
@@ -5670,10 +5670,10 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="52" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B220" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C220" s="22" cm="1">
         <f t="array" ref="C220">INDEX(USA!B:B,Basedata!D220)</f>
@@ -5686,10 +5686,10 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="52" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B221" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C221" s="22" cm="1">
         <f t="array" ref="C221">INDEX(USA!B:B,Basedata!D221)</f>
@@ -5702,10 +5702,10 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="52" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B222" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C222" s="22" cm="1">
         <f t="array" ref="C222">INDEX(USA!B:B,Basedata!D222)</f>
@@ -5718,10 +5718,10 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="52" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B223" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C223" s="22" cm="1">
         <f t="array" ref="C223">INDEX(USA!B:B,Basedata!D223)</f>
@@ -5734,10 +5734,10 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="52" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B224" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C224" s="22" cm="1">
         <f t="array" ref="C224">INDEX(USA!B:B,Basedata!D224)</f>
@@ -5750,10 +5750,10 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="52" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B225" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C225" s="22" cm="1">
         <f t="array" ref="C225">INDEX(USA!B:B,Basedata!D225)</f>
@@ -5766,10 +5766,10 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="52" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B226" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C226" s="22" cm="1">
         <f t="array" ref="C226">INDEX(USA!B:B,Basedata!D226)</f>
@@ -5782,10 +5782,10 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="52" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B227" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C227" s="22" cm="1">
         <f t="array" ref="C227">INDEX(USA!B:B,Basedata!D227)</f>
@@ -5798,10 +5798,10 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="52" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B228" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C228" s="22" cm="1">
         <f t="array" ref="C228">INDEX(USA!B:B,Basedata!D228)</f>
@@ -5814,10 +5814,10 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="52" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B229" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C229" s="22" cm="1">
         <f t="array" ref="C229">INDEX(USA!B:B,Basedata!D229)</f>
@@ -5830,10 +5830,10 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="52" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B230" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C230" s="22" cm="1">
         <f t="array" ref="C230">INDEX(USA!B:B,Basedata!D230)</f>
@@ -5846,10 +5846,10 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="52" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B231" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C231" s="22" cm="1">
         <f t="array" ref="C231">INDEX(USA!B:B,Basedata!D231)</f>
@@ -5862,10 +5862,10 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="52" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B232" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C232" s="22" cm="1">
         <f t="array" ref="C232">INDEX(USA!B:B,Basedata!D232)</f>
@@ -5878,10 +5878,10 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="52" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B233" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C233" s="22" cm="1">
         <f t="array" ref="C233">INDEX(USA!B:B,Basedata!D233)</f>
@@ -5894,10 +5894,10 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="52" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B234" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C234" s="22" cm="1">
         <f t="array" ref="C234">INDEX(USA!B:B,Basedata!D234)</f>
@@ -5910,10 +5910,10 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="52" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B235" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C235" s="22" cm="1">
         <f t="array" ref="C235">INDEX(USA!B:B,Basedata!D235)</f>
@@ -5926,10 +5926,10 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="52" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B236" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C236" s="22" cm="1">
         <f t="array" ref="C236">INDEX(USA!B:B,Basedata!D236)</f>
@@ -5942,10 +5942,10 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="52" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B237" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C237" s="22" cm="1">
         <f t="array" ref="C237">INDEX(USA!B:B,Basedata!D237)</f>
@@ -5958,10 +5958,10 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="52" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B238" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C238" s="22" cm="1">
         <f t="array" ref="C238">INDEX(USA!B:B,Basedata!D238)</f>
@@ -5974,10 +5974,10 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="52" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B239" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C239" s="22" cm="1">
         <f t="array" ref="C239">INDEX(USA!B:B,Basedata!D239)</f>
@@ -5990,10 +5990,10 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="52" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B240" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C240" s="22" cm="1">
         <f t="array" ref="C240">INDEX(USA!B:B,Basedata!D240)</f>
@@ -6006,10 +6006,10 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="52" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B241" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C241" s="22" cm="1">
         <f t="array" ref="C241">INDEX(USA!B:B,Basedata!D241)</f>
@@ -6022,10 +6022,10 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="52" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B242" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C242" s="22" cm="1">
         <f t="array" ref="C242">INDEX(USA!B:B,Basedata!D242)</f>
@@ -6038,10 +6038,10 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="52" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B243" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C243" s="22" cm="1">
         <f t="array" ref="C243">INDEX(USA!B:B,Basedata!D243)</f>
@@ -6054,10 +6054,10 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="52" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B244" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C244" s="22" cm="1">
         <f t="array" ref="C244">INDEX(USA!B:B,Basedata!D244)</f>
@@ -6070,10 +6070,10 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="52" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B245" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C245" s="22" cm="1">
         <f t="array" ref="C245">INDEX(USA!B:B,Basedata!D245)</f>
@@ -6086,10 +6086,10 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="52" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B246" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C246" s="22" cm="1">
         <f t="array" ref="C246">INDEX(USA!B:B,Basedata!D246)</f>
@@ -6102,10 +6102,10 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="52" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B247" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C247" s="22" cm="1">
         <f t="array" ref="C247">INDEX(USA!B:B,Basedata!D247)</f>
@@ -6118,10 +6118,10 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="52" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B248" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C248" s="22" cm="1">
         <f t="array" ref="C248">INDEX(USA!B:B,Basedata!D248)</f>
@@ -6134,10 +6134,10 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="52" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B249" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C249" s="22" cm="1">
         <f t="array" ref="C249">INDEX(USA!B:B,Basedata!D249)</f>
@@ -6150,10 +6150,10 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="52" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B250" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C250" s="22" cm="1">
         <f t="array" ref="C250">INDEX(USA!B:B,Basedata!D250)</f>
@@ -6166,10 +6166,10 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="52" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B251" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C251" s="22" cm="1">
         <f t="array" ref="C251">INDEX(USA!B:B,Basedata!D251)</f>
@@ -6182,10 +6182,10 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="52" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B252" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C252" s="22" cm="1">
         <f t="array" ref="C252">INDEX(USA!B:B,Basedata!D252)</f>
@@ -6198,10 +6198,10 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="52" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B253" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C253" s="22" cm="1">
         <f t="array" ref="C253">INDEX(USA!B:B,Basedata!D253)</f>
@@ -6214,10 +6214,10 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="52" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B254" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C254" s="22" cm="1">
         <f t="array" ref="C254">INDEX(USA!B:B,Basedata!D254)</f>
@@ -6230,10 +6230,10 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="52" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B255" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C255" s="22" cm="1">
         <f t="array" ref="C255">INDEX(USA!B:B,Basedata!D255)</f>
@@ -6246,10 +6246,10 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="52" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B256" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C256" s="22" cm="1">
         <f t="array" ref="C256">INDEX(USA!B:B,Basedata!D256)</f>
@@ -6262,10 +6262,10 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="52" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B257" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C257" s="22" cm="1">
         <f t="array" ref="C257">INDEX(USA!B:B,Basedata!D257)</f>
@@ -6278,10 +6278,10 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="52" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B258" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C258" s="22" cm="1">
         <f t="array" ref="C258">INDEX(USA!B:B,Basedata!D258)</f>
@@ -6294,10 +6294,10 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="52" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B259" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C259" s="22" cm="1">
         <f t="array" ref="C259">INDEX(USA!B:B,Basedata!D259)</f>
@@ -6310,7 +6310,7 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C260" s="21" cm="1">
         <f t="array" ref="C260">INDEX(World!C:C,Basedata!D260)</f>
@@ -6323,7 +6323,7 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C261" s="21" cm="1">
         <f t="array" ref="C261">INDEX(World!C:C,Basedata!D261)</f>
@@ -6336,10 +6336,10 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="52" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B262" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C262" s="21" cm="1">
         <f t="array" ref="C262">INDEX(World!C:C,Basedata!D262)</f>
@@ -6352,7 +6352,7 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C263" s="22">
         <v>166000</v>
@@ -6360,7 +6360,7 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B264" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C264" s="22">
         <v>34571</v>
@@ -6368,7 +6368,7 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B265" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C265" s="22">
         <f>C262-C263-C264</f>
@@ -6377,7 +6377,7 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B266" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C266" s="21" cm="1">
         <f t="array" ref="C266">INDEX(World!C:C,Basedata!D266)</f>
@@ -6390,7 +6390,7 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B267" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C267" s="21" cm="1">
         <f t="array" ref="C267">INDEX(World!C:C,Basedata!D267)</f>
@@ -6403,7 +6403,7 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C268" s="21" cm="1">
         <f t="array" ref="C268">INDEX(World!C:C,Basedata!D268)</f>
@@ -6416,7 +6416,7 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C269" s="21" cm="1">
         <f t="array" ref="C269">INDEX(World!C:C,Basedata!D269)</f>
@@ -6429,7 +6429,7 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C270" s="21" cm="1">
         <f t="array" ref="C270">INDEX(World!C:C,Basedata!D270)</f>
@@ -6481,7 +6481,7 @@
     </row>
     <row r="274" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C274" s="21" cm="1">
         <f t="array" ref="C274">INDEX(World!C:C,Basedata!D274)</f>
@@ -6494,7 +6494,7 @@
     </row>
     <row r="275" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C275" s="21" cm="1">
         <f t="array" ref="C275">INDEX(World!C:C,Basedata!D275)</f>
@@ -6507,7 +6507,7 @@
     </row>
     <row r="276" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B276" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C276" s="21" cm="1">
         <f t="array" ref="C276">INDEX(World!C:C,Basedata!D276)</f>
@@ -6520,7 +6520,7 @@
     </row>
     <row r="277" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C277" s="21" cm="1">
         <f t="array" ref="C277">INDEX(World!C:C,Basedata!D277)</f>
@@ -6533,7 +6533,7 @@
     </row>
     <row r="278" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B278" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C278" s="21" cm="1">
         <f t="array" ref="C278">INDEX(World!C:C,Basedata!D278)</f>
@@ -6546,7 +6546,7 @@
     </row>
     <row r="279" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B279" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C279" s="21" cm="1">
         <f t="array" ref="C279">INDEX(World!C:C,Basedata!D279)</f>
@@ -6559,7 +6559,7 @@
     </row>
     <row r="280" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B280" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C280" s="21" cm="1">
         <f t="array" ref="C280">INDEX(World!C:C,Basedata!D280)</f>
@@ -6572,7 +6572,7 @@
     </row>
     <row r="281" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B281" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C281" s="21" cm="1">
         <f t="array" ref="C281">INDEX(World!C:C,Basedata!D281)</f>
@@ -6585,7 +6585,7 @@
     </row>
     <row r="282" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C282" s="21" cm="1">
         <f t="array" ref="C282">INDEX(World!C:C,Basedata!D282)</f>
@@ -6598,7 +6598,7 @@
     </row>
     <row r="283" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B283" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C283" s="21" cm="1">
         <f t="array" ref="C283">INDEX(World!C:C,Basedata!D283)</f>
@@ -6611,7 +6611,7 @@
     </row>
     <row r="284" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B284" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C284" s="21" cm="1">
         <f t="array" ref="C284">INDEX(World!C:C,Basedata!D284)</f>
@@ -6624,7 +6624,7 @@
     </row>
     <row r="285" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B285" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C285" s="21" cm="1">
         <f t="array" ref="C285">INDEX(World!C:C,Basedata!D285)</f>
@@ -6637,7 +6637,7 @@
     </row>
     <row r="286" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B286" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C286" s="21" cm="1">
         <f t="array" ref="C286">INDEX(World!C:C,Basedata!D286)</f>
@@ -6650,7 +6650,7 @@
     </row>
     <row r="287" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C287" s="21" cm="1">
         <f t="array" ref="C287">INDEX(World!C:C,Basedata!D287)</f>
@@ -6663,7 +6663,7 @@
     </row>
     <row r="288" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B288" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C288" s="21" cm="1">
         <f t="array" ref="C288">INDEX(World!C:C,Basedata!D288)</f>
@@ -6676,7 +6676,7 @@
     </row>
     <row r="289" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B289" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C289" s="21" cm="1">
         <f t="array" ref="C289">INDEX(World!C:C,Basedata!D289)</f>
@@ -6689,7 +6689,7 @@
     </row>
     <row r="290" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B290" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C290" s="21" cm="1">
         <f t="array" ref="C290">INDEX(World!C:C,Basedata!D290)</f>
@@ -6702,7 +6702,7 @@
     </row>
     <row r="291" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B291" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C291" s="21" cm="1">
         <f t="array" ref="C291">INDEX(World!C:C,Basedata!D291)</f>
@@ -6715,7 +6715,7 @@
     </row>
     <row r="292" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C292" s="21" cm="1">
         <f t="array" ref="C292">INDEX(World!C:C,Basedata!D292)</f>
@@ -6728,7 +6728,7 @@
     </row>
     <row r="293" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B293" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C293" s="21" cm="1">
         <f t="array" ref="C293">INDEX(World!C:C,Basedata!D293)</f>
@@ -6741,7 +6741,7 @@
     </row>
     <row r="294" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B294" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C294" s="21" cm="1">
         <f t="array" ref="C294">INDEX(World!C:C,Basedata!D294)</f>
@@ -6754,7 +6754,7 @@
     </row>
     <row r="295" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B295" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C295" s="21" cm="1">
         <f t="array" ref="C295">INDEX(World!C:C,Basedata!D295)</f>
@@ -6767,7 +6767,7 @@
     </row>
     <row r="296" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B296" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C296" s="21" cm="1">
         <f t="array" ref="C296">INDEX(World!C:C,Basedata!D296)</f>
@@ -6780,7 +6780,7 @@
     </row>
     <row r="297" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B297" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C297" s="21" cm="1">
         <f t="array" ref="C297">INDEX(World!C:C,Basedata!D297)</f>
@@ -6793,7 +6793,7 @@
     </row>
     <row r="298" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B298" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C298" s="21" cm="1">
         <f t="array" ref="C298">INDEX(World!C:C,Basedata!D298)</f>
@@ -6806,7 +6806,7 @@
     </row>
     <row r="299" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B299" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C299" s="21" cm="1">
         <f t="array" ref="C299">INDEX(World!C:C,Basedata!D299)</f>
@@ -6819,7 +6819,7 @@
     </row>
     <row r="300" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B300" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C300" s="21" cm="1">
         <f t="array" ref="C300">INDEX(World!C:C,Basedata!D300)</f>
@@ -6832,7 +6832,7 @@
     </row>
     <row r="301" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B301" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C301" s="21" cm="1">
         <f t="array" ref="C301">INDEX(World!C:C,Basedata!D301)</f>
@@ -6845,7 +6845,7 @@
     </row>
     <row r="302" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B302" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C302" s="21" cm="1">
         <f t="array" ref="C302">INDEX(World!C:C,Basedata!D302)</f>
@@ -6858,7 +6858,7 @@
     </row>
     <row r="303" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B303" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C303" s="21" cm="1">
         <f t="array" ref="C303">INDEX(World!C:C,Basedata!D303)</f>
@@ -6871,7 +6871,7 @@
     </row>
     <row r="304" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B304" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C304" s="21" cm="1">
         <f t="array" ref="C304">INDEX(World!C:C,Basedata!D304)</f>
@@ -6884,7 +6884,7 @@
     </row>
     <row r="305" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B305" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C305" s="21" cm="1">
         <f t="array" ref="C305">INDEX(World!C:C,Basedata!D305)</f>
@@ -6897,7 +6897,7 @@
     </row>
     <row r="306" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B306" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C306" s="21" cm="1">
         <f t="array" ref="C306">INDEX(World!C:C,Basedata!D306)</f>
@@ -6910,7 +6910,7 @@
     </row>
     <row r="307" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B307" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C307" s="21" cm="1">
         <f t="array" ref="C307">INDEX(World!C:C,Basedata!D307)</f>
@@ -6923,7 +6923,7 @@
     </row>
     <row r="308" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B308" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C308" s="21" cm="1">
         <f t="array" ref="C308">INDEX(World!C:C,Basedata!D308)</f>
@@ -6936,7 +6936,7 @@
     </row>
     <row r="309" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B309" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C309" s="21" cm="1">
         <f t="array" ref="C309">INDEX(World!C:C,Basedata!D309)</f>
@@ -6949,7 +6949,7 @@
     </row>
     <row r="310" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B310" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C310" s="21" cm="1">
         <f t="array" ref="C310">INDEX(World!C:C,Basedata!D310)</f>
@@ -6962,7 +6962,7 @@
     </row>
     <row r="311" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B311" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C311" s="21" cm="1">
         <f t="array" ref="C311">INDEX(World!C:C,Basedata!D311)</f>
@@ -6975,7 +6975,7 @@
     </row>
     <row r="312" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B312" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C312" s="21" cm="1">
         <f t="array" ref="C312">INDEX(World!C:C,Basedata!D312)</f>
@@ -6988,7 +6988,7 @@
     </row>
     <row r="313" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B313" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C313" s="21" cm="1">
         <f t="array" ref="C313">INDEX(World!C:C,Basedata!D313)</f>
@@ -7001,7 +7001,7 @@
     </row>
     <row r="314" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B314" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C314" s="21" cm="1">
         <f t="array" ref="C314">INDEX(World!C:C,Basedata!D314)</f>
@@ -7014,7 +7014,7 @@
     </row>
     <row r="315" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B315" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C315" s="21" cm="1">
         <f t="array" ref="C315">INDEX(World!C:C,Basedata!D315)</f>
@@ -7027,7 +7027,7 @@
     </row>
     <row r="316" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B316" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C316" s="21" cm="1">
         <f t="array" ref="C316">INDEX(World!C:C,Basedata!D316)</f>
@@ -7040,7 +7040,7 @@
     </row>
     <row r="317" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B317" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C317" s="21" cm="1">
         <f t="array" ref="C317">INDEX(World!C:C,Basedata!D317)</f>
@@ -7053,7 +7053,7 @@
     </row>
     <row r="318" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B318" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C318" s="21" cm="1">
         <f t="array" ref="C318">INDEX(World!C:C,Basedata!D318)</f>
@@ -7066,7 +7066,7 @@
     </row>
     <row r="319" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B319" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C319" s="21" cm="1">
         <f t="array" ref="C319">INDEX(World!C:C,Basedata!D319)</f>
@@ -7079,7 +7079,7 @@
     </row>
     <row r="320" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B320" t="s">
-        <v>151</v>
+        <v>685</v>
       </c>
       <c r="C320" s="21" cm="1">
         <f t="array" ref="C320">INDEX(World!C:C,Basedata!D320)</f>
@@ -7092,7 +7092,7 @@
     </row>
     <row r="321" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B321" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C321" s="21" cm="1">
         <f t="array" ref="C321">INDEX(World!C:C,Basedata!D321)</f>
@@ -7105,7 +7105,7 @@
     </row>
     <row r="322" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B322" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C322" s="21" cm="1">
         <f t="array" ref="C322">INDEX(World!C:C,Basedata!D322)</f>
@@ -7118,7 +7118,7 @@
     </row>
     <row r="323" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B323" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C323" s="21" cm="1">
         <f t="array" ref="C323">INDEX(World!C:C,Basedata!D323)</f>
@@ -7131,7 +7131,7 @@
     </row>
     <row r="324" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B324" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C324" s="21" cm="1">
         <f t="array" ref="C324">INDEX(World!C:C,Basedata!D324)</f>
@@ -7144,7 +7144,7 @@
     </row>
     <row r="325" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B325" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C325" s="21" cm="1">
         <f t="array" ref="C325">INDEX(World!C:C,Basedata!D325)</f>
@@ -7157,7 +7157,7 @@
     </row>
     <row r="326" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B326" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C326" s="21" cm="1">
         <f t="array" ref="C326">INDEX(World!C:C,Basedata!D326)</f>
@@ -7170,7 +7170,7 @@
     </row>
     <row r="327" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B327" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C327" s="21" cm="1">
         <f t="array" ref="C327">INDEX(World!C:C,Basedata!D327)</f>
@@ -7183,7 +7183,7 @@
     </row>
     <row r="328" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B328" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C328" s="21" cm="1">
         <f t="array" ref="C328">INDEX(World!C:C,Basedata!D328)</f>
@@ -7196,7 +7196,7 @@
     </row>
     <row r="329" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B329" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C329" s="21" cm="1">
         <f t="array" ref="C329">INDEX(World!C:C,Basedata!D329)</f>
@@ -7209,7 +7209,7 @@
     </row>
     <row r="330" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B330" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C330" s="21" cm="1">
         <f t="array" ref="C330">INDEX(World!C:C,Basedata!D330)</f>
@@ -7222,7 +7222,7 @@
     </row>
     <row r="331" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B331" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C331" s="21" cm="1">
         <f t="array" ref="C331">INDEX(World!C:C,Basedata!D331)</f>
@@ -7235,7 +7235,7 @@
     </row>
     <row r="332" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B332" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C332" s="21" cm="1">
         <f t="array" ref="C332">INDEX(World!C:C,Basedata!D332)</f>
@@ -7248,7 +7248,7 @@
     </row>
     <row r="333" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B333" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C333" s="21" cm="1">
         <f t="array" ref="C333">INDEX(World!C:C,Basedata!D333)</f>
@@ -7261,7 +7261,7 @@
     </row>
     <row r="334" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B334" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C334" s="21" cm="1">
         <f t="array" ref="C334">INDEX(World!C:C,Basedata!D334)</f>
@@ -7274,7 +7274,7 @@
     </row>
     <row r="335" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B335" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C335" s="21" cm="1">
         <f t="array" ref="C335">INDEX(World!C:C,Basedata!D335)</f>
@@ -7287,7 +7287,7 @@
     </row>
     <row r="336" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B336" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C336" s="21" cm="1">
         <f t="array" ref="C336">INDEX(World!C:C,Basedata!D336)</f>
@@ -7300,7 +7300,7 @@
     </row>
     <row r="337" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B337" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C337" s="21" cm="1">
         <f t="array" ref="C337">INDEX(World!C:C,Basedata!D337)</f>
@@ -7313,7 +7313,7 @@
     </row>
     <row r="338" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B338" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C338" s="21" cm="1">
         <f t="array" ref="C338">INDEX(World!C:C,Basedata!D338)</f>
@@ -7326,7 +7326,7 @@
     </row>
     <row r="339" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B339" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C339" s="21" cm="1">
         <f t="array" ref="C339">INDEX(World!C:C,Basedata!D339)</f>
@@ -7339,7 +7339,7 @@
     </row>
     <row r="340" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B340" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C340" s="21" cm="1">
         <f t="array" ref="C340">INDEX(World!C:C,Basedata!D340)</f>
@@ -7352,7 +7352,7 @@
     </row>
     <row r="341" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B341" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C341" s="21" cm="1">
         <f t="array" ref="C341">INDEX(World!C:C,Basedata!D341)</f>
@@ -7365,7 +7365,7 @@
     </row>
     <row r="342" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B342" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C342" s="21" cm="1">
         <f t="array" ref="C342">INDEX(World!C:C,Basedata!D342)</f>
@@ -7378,7 +7378,7 @@
     </row>
     <row r="343" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B343" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C343" s="21" cm="1">
         <f t="array" ref="C343">INDEX(World!C:C,Basedata!D343)</f>
@@ -7391,7 +7391,7 @@
     </row>
     <row r="344" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B344" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C344" s="21" cm="1">
         <f t="array" ref="C344">INDEX(World!C:C,Basedata!D344)</f>
@@ -7404,7 +7404,7 @@
     </row>
     <row r="345" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B345" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C345" s="21" cm="1">
         <f t="array" ref="C345">INDEX(World!C:C,Basedata!D345)</f>
@@ -7417,7 +7417,7 @@
     </row>
     <row r="346" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B346" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C346" s="21" cm="1">
         <f t="array" ref="C346">INDEX(World!C:C,Basedata!D346)</f>
@@ -7430,7 +7430,7 @@
     </row>
     <row r="347" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B347" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C347" s="21" cm="1">
         <f t="array" ref="C347">INDEX(World!C:C,Basedata!D347)</f>
@@ -7443,7 +7443,7 @@
     </row>
     <row r="348" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B348" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C348" s="21" cm="1">
         <f t="array" ref="C348">INDEX(World!C:C,Basedata!D348)</f>
@@ -7456,7 +7456,7 @@
     </row>
     <row r="349" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B349" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C349" s="21" cm="1">
         <f t="array" ref="C349">INDEX(World!C:C,Basedata!D349)</f>
@@ -7469,7 +7469,7 @@
     </row>
     <row r="350" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B350" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C350" s="21" cm="1">
         <f t="array" ref="C350">INDEX(World!C:C,Basedata!D350)</f>
@@ -7482,7 +7482,7 @@
     </row>
     <row r="351" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B351" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C351" s="21" cm="1">
         <f t="array" ref="C351">INDEX(World!C:C,Basedata!D351)</f>
@@ -7495,7 +7495,7 @@
     </row>
     <row r="352" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B352" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C352" s="21" cm="1">
         <f t="array" ref="C352">INDEX(World!C:C,Basedata!D352)</f>
@@ -7508,7 +7508,7 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B353" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C353" s="21" cm="1">
         <f t="array" ref="C353">INDEX(World!C:C,Basedata!D353)</f>
@@ -7521,7 +7521,7 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B354" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C354" s="21" cm="1">
         <f t="array" ref="C354">INDEX(World!C:C,Basedata!D354)</f>
@@ -7534,10 +7534,10 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="52" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B355" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C355" s="21" cm="1">
         <f t="array" ref="C355">INDEX(World!C:C,Basedata!D355)</f>
@@ -7550,7 +7550,7 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B356" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C356" s="21" cm="1">
         <f t="array" ref="C356">INDEX(World!C:C,Basedata!D356)</f>
@@ -7563,7 +7563,7 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B357" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C357" s="21" cm="1">
         <f t="array" ref="C357">INDEX(World!C:C,Basedata!D357)</f>
@@ -7576,7 +7576,7 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B358" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C358" s="21" cm="1">
         <f t="array" ref="C358">INDEX(World!C:C,Basedata!D358)</f>
@@ -7589,7 +7589,7 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B359" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C359" s="21" cm="1">
         <f t="array" ref="C359">INDEX(World!C:C,Basedata!D359)</f>
@@ -7602,7 +7602,7 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B360" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C360" s="21" cm="1">
         <f t="array" ref="C360">INDEX(World!C:C,Basedata!D360)</f>
@@ -7615,7 +7615,7 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B361" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C361" s="21" cm="1">
         <f t="array" ref="C361">INDEX(World!C:C,Basedata!D361)</f>
@@ -7628,7 +7628,7 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B362" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C362" s="21" cm="1">
         <f t="array" ref="C362">INDEX(World!C:C,Basedata!D362)</f>
@@ -7649,8 +7649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F43700D7-345E-4B81-B76F-06E4CB6630EF}">
   <dimension ref="A1:L239"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="B145" sqref="B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8125,7 +8125,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>32</v>
+        <v>684</v>
       </c>
       <c r="C14" s="4">
         <v>106766</v>
@@ -8164,7 +8164,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="8">
         <v>25499884</v>
@@ -8203,7 +8203,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="4">
         <v>9006398</v>
@@ -8242,7 +8242,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="8">
         <v>10139177</v>
@@ -8281,7 +8281,7 @@
         <v>274</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C18" s="4">
         <v>393244</v>
@@ -8320,7 +8320,7 @@
         <v>21</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="8">
         <v>1701575</v>
@@ -8359,7 +8359,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="4">
         <v>164689383</v>
@@ -8398,7 +8398,7 @@
         <v>275</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="8">
         <v>287375</v>
@@ -8437,7 +8437,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="4">
         <v>9449323</v>
@@ -8476,7 +8476,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="8">
         <v>11589623</v>
@@ -8515,7 +8515,7 @@
         <v>276</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" s="4">
         <v>397628</v>
@@ -8554,7 +8554,7 @@
         <v>277</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" s="8">
         <v>12123200</v>
@@ -8593,7 +8593,7 @@
         <v>278</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="4">
         <v>62278</v>
@@ -8630,7 +8630,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" s="8">
         <v>771608</v>
@@ -8669,7 +8669,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="4">
         <v>11673021</v>
@@ -8708,7 +8708,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29" s="8">
         <v>3280819</v>
@@ -8747,7 +8747,7 @@
         <v>279</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C30" s="4">
         <v>2351627</v>
@@ -8786,7 +8786,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" s="8">
         <v>212559417</v>
@@ -8825,7 +8825,7 @@
         <v>280</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C32" s="4">
         <v>30231</v>
@@ -8862,7 +8862,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33" s="8">
         <v>437479</v>
@@ -8901,7 +8901,7 @@
         <v>30</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C34" s="4">
         <v>6948445</v>
@@ -8940,7 +8940,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C35" s="8">
         <v>20903273</v>
@@ -8979,7 +8979,7 @@
         <v>281</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C36" s="4">
         <v>11890784</v>
@@ -9018,7 +9018,7 @@
         <v>282</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C37" s="8">
         <v>555987</v>
@@ -9057,7 +9057,7 @@
         <v>32</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C38" s="4">
         <v>16718965</v>
@@ -9096,7 +9096,7 @@
         <v>33</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C39" s="8">
         <v>26545863</v>
@@ -9135,7 +9135,7 @@
         <v>34</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C40" s="4">
         <v>37742154</v>
@@ -9174,7 +9174,7 @@
         <v>283</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C41" s="8">
         <v>26223</v>
@@ -9211,7 +9211,7 @@
         <v>48</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C42" s="4">
         <v>65722</v>
@@ -9248,7 +9248,7 @@
         <v>84</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C43" s="8">
         <v>4829767</v>
@@ -9287,7 +9287,7 @@
         <v>284</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C44" s="4">
         <v>16425864</v>
@@ -9326,7 +9326,7 @@
         <v>285</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C45" s="8">
         <v>173863</v>
@@ -9365,7 +9365,7 @@
         <v>49</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C46" s="4">
         <v>19116201</v>
@@ -9404,7 +9404,7 @@
         <v>50</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C47" s="8">
         <v>1439323776</v>
@@ -9443,7 +9443,7 @@
         <v>85</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C48" s="4">
         <v>50882891</v>
@@ -9482,7 +9482,7 @@
         <v>286</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C49" s="8">
         <v>869601</v>
@@ -9521,7 +9521,7 @@
         <v>86</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C50" s="4">
         <v>81340000</v>
@@ -9560,7 +9560,7 @@
         <v>87</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C51" s="4">
         <v>5518087</v>
@@ -9599,7 +9599,7 @@
         <v>287</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C52" s="8">
         <v>17564</v>
@@ -9636,7 +9636,7 @@
         <v>88</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C53" s="4">
         <v>5094118</v>
@@ -9675,7 +9675,7 @@
         <v>90</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C54" s="8">
         <v>4105267</v>
@@ -9714,7 +9714,7 @@
         <v>91</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C55" s="4">
         <v>11326616</v>
@@ -9753,7 +9753,7 @@
         <v>166</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C56" s="8">
         <v>164093</v>
@@ -9792,7 +9792,7 @@
         <v>92</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C57" s="4">
         <v>1207359</v>
@@ -9831,7 +9831,7 @@
         <v>93</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C58" s="8">
         <v>10708981</v>
@@ -9870,7 +9870,7 @@
         <v>89</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C59" s="4">
         <v>26378274</v>
@@ -9909,7 +9909,7 @@
         <v>94</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C60" s="8">
         <v>5792202</v>
@@ -9948,7 +9948,7 @@
         <v>288</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C61" s="4">
         <v>988000</v>
@@ -9987,7 +9987,7 @@
         <v>289</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C62" s="8">
         <v>71986</v>
@@ -10024,7 +10024,7 @@
         <v>97</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C63" s="4">
         <v>10847910</v>
@@ -10063,7 +10063,7 @@
         <v>290</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C64" s="8">
         <v>89561403</v>
@@ -10102,7 +10102,7 @@
         <v>98</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C65" s="4">
         <v>17643054</v>
@@ -10141,7 +10141,7 @@
         <v>99</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C66" s="8">
         <v>102334404</v>
@@ -10180,7 +10180,7 @@
         <v>291</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C67" s="4">
         <v>6486205</v>
@@ -10219,7 +10219,7 @@
         <v>125</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C68" s="8">
         <v>1402985</v>
@@ -10258,7 +10258,7 @@
         <v>292</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C69" s="4">
         <v>3546421</v>
@@ -10297,7 +10297,7 @@
         <v>100</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C70" s="8">
         <v>1326535</v>
@@ -10336,7 +10336,7 @@
         <v>101</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C71" s="4">
         <v>1160164</v>
@@ -10375,7 +10375,7 @@
         <v>102</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C72" s="8">
         <v>114963588</v>
@@ -10414,7 +10414,7 @@
         <v>293</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C73" s="4">
         <v>48863</v>
@@ -10451,7 +10451,7 @@
         <v>294</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C74" s="8">
         <v>3480</v>
@@ -10488,7 +10488,7 @@
         <v>295</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C75" s="4">
         <v>896445</v>
@@ -10527,7 +10527,7 @@
         <v>103</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C76" s="8">
         <v>5540720</v>
@@ -10566,7 +10566,7 @@
         <v>104</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C77" s="4">
         <v>65273511</v>
@@ -10605,7 +10605,7 @@
         <v>113</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C78" s="8">
         <v>298682</v>
@@ -10644,7 +10644,7 @@
         <v>296</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C79" s="4">
         <v>280908</v>
@@ -10683,7 +10683,7 @@
         <v>114</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C80" s="8">
         <v>2225734</v>
@@ -10722,7 +10722,7 @@
         <v>297</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C81" s="4">
         <v>2416668</v>
@@ -10761,7 +10761,7 @@
         <v>115</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C82" s="8">
         <v>3989167</v>
@@ -10800,7 +10800,7 @@
         <v>116</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="4">
         <v>83783942</v>
@@ -10839,7 +10839,7 @@
         <v>117</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C84" s="8">
         <v>31072940</v>
@@ -10878,7 +10878,7 @@
         <v>298</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C85" s="4">
         <v>33691</v>
@@ -10915,7 +10915,7 @@
         <v>118</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C86" s="8">
         <v>10423054</v>
@@ -10954,7 +10954,7 @@
         <v>299</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C87" s="4">
         <v>56770</v>
@@ -10991,7 +10991,7 @@
         <v>300</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C88" s="8">
         <v>112523</v>
@@ -11030,7 +11030,7 @@
         <v>120</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C89" s="4">
         <v>400124</v>
@@ -11069,7 +11069,7 @@
         <v>301</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C90" s="8">
         <v>168775</v>
@@ -11108,7 +11108,7 @@
         <v>121</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C91" s="4">
         <v>17915568</v>
@@ -11147,7 +11147,7 @@
         <v>123</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C92" s="8">
         <v>13132795</v>
@@ -11186,7 +11186,7 @@
         <v>302</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C93" s="4">
         <v>1968001</v>
@@ -11225,7 +11225,7 @@
         <v>124</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C94" s="8">
         <v>786552</v>
@@ -11264,7 +11264,7 @@
         <v>303</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C95" s="4">
         <v>11402528</v>
@@ -11303,7 +11303,7 @@
         <v>126</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C96" s="8">
         <v>801</v>
@@ -11340,7 +11340,7 @@
         <v>127</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C97" s="4">
         <v>9904607</v>
@@ -11379,7 +11379,7 @@
         <v>304</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C98" s="8">
         <v>7496981</v>
@@ -11418,7 +11418,7 @@
         <v>128</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C99" s="4">
         <v>9660351</v>
@@ -11457,7 +11457,7 @@
         <v>129</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C100" s="8">
         <v>341243</v>
@@ -11496,7 +11496,7 @@
         <v>130</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C101" s="4">
         <v>1380004385</v>
@@ -11535,7 +11535,7 @@
         <v>131</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C102" s="8">
         <v>273523615</v>
@@ -11574,7 +11574,7 @@
         <v>132</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C103" s="4">
         <v>83992949</v>
@@ -11613,7 +11613,7 @@
         <v>133</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C104" s="8">
         <v>40222493</v>
@@ -11652,7 +11652,7 @@
         <v>134</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C105" s="4">
         <v>4937786</v>
@@ -11691,7 +11691,7 @@
         <v>305</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C106" s="8">
         <v>85033</v>
@@ -11728,7 +11728,7 @@
         <v>135</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C107" s="4">
         <v>8655535</v>
@@ -11767,7 +11767,7 @@
         <v>136</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C108" s="8">
         <v>60461826</v>
@@ -11806,7 +11806,7 @@
         <v>137</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C109" s="4">
         <v>2961167</v>
@@ -11845,7 +11845,7 @@
         <v>138</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C110" s="8">
         <v>126476461</v>
@@ -11884,7 +11884,7 @@
         <v>140</v>
       </c>
       <c r="B111" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C111" s="4">
         <v>10203134</v>
@@ -11923,7 +11923,7 @@
         <v>141</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C112" s="8">
         <v>18776707</v>
@@ -11962,7 +11962,7 @@
         <v>142</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C113" s="4">
         <v>53771296</v>
@@ -12001,7 +12001,7 @@
         <v>306</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C114" s="8">
         <v>119449</v>
@@ -12040,7 +12040,7 @@
         <v>145</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C115" s="4">
         <v>4270571</v>
@@ -12079,7 +12079,7 @@
         <v>307</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C116" s="8">
         <v>6524195</v>
@@ -12118,7 +12118,7 @@
         <v>308</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C117" s="4">
         <v>7275560</v>
@@ -12157,7 +12157,7 @@
         <v>146</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C118" s="8">
         <v>1886198</v>
@@ -12196,7 +12196,7 @@
         <v>147</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C119" s="4">
         <v>6825445</v>
@@ -12235,7 +12235,7 @@
         <v>309</v>
       </c>
       <c r="B120" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C120" s="8">
         <v>2142249</v>
@@ -12274,7 +12274,7 @@
         <v>310</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C121" s="4">
         <v>5057681</v>
@@ -12313,7 +12313,7 @@
         <v>311</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C122" s="8">
         <v>6871292</v>
@@ -12352,7 +12352,7 @@
         <v>148</v>
       </c>
       <c r="B123" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C123" s="4">
         <v>38128</v>
@@ -12389,7 +12389,7 @@
         <v>149</v>
       </c>
       <c r="B124" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C124" s="8">
         <v>2722289</v>
@@ -12428,7 +12428,7 @@
         <v>150</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C125" s="4">
         <v>625978</v>
@@ -12467,7 +12467,7 @@
         <v>312</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C126" s="8">
         <v>649335</v>
@@ -12506,7 +12506,7 @@
         <v>313</v>
       </c>
       <c r="B127" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C127" s="4">
         <v>27691018</v>
@@ -12545,7 +12545,7 @@
         <v>314</v>
       </c>
       <c r="B128" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C128" s="8">
         <v>19129952</v>
@@ -12584,7 +12584,7 @@
         <v>151</v>
       </c>
       <c r="B129" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C129" s="4">
         <v>32365999</v>
@@ -12623,7 +12623,7 @@
         <v>152</v>
       </c>
       <c r="B130" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C130" s="8">
         <v>540544</v>
@@ -12662,7 +12662,7 @@
         <v>315</v>
       </c>
       <c r="B131" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C131" s="4">
         <v>20250833</v>
@@ -12701,7 +12701,7 @@
         <v>153</v>
       </c>
       <c r="B132" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C132" s="8">
         <v>441543</v>
@@ -12740,7 +12740,7 @@
         <v>316</v>
       </c>
       <c r="B133" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C133" s="4">
         <v>59190</v>
@@ -12777,7 +12777,7 @@
         <v>154</v>
       </c>
       <c r="B134" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C134" s="8">
         <v>375265</v>
@@ -12816,7 +12816,7 @@
         <v>155</v>
       </c>
       <c r="B135" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C135" s="4">
         <v>4649658</v>
@@ -12855,7 +12855,7 @@
         <v>317</v>
       </c>
       <c r="B136" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C136" s="8">
         <v>1271768</v>
@@ -12894,7 +12894,7 @@
         <v>109</v>
       </c>
       <c r="B137" s="20" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C137" s="4">
         <v>272815</v>
@@ -12933,7 +12933,7 @@
         <v>157</v>
       </c>
       <c r="B138" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C138" s="8">
         <v>128932753</v>
@@ -12972,7 +12972,7 @@
         <v>318</v>
       </c>
       <c r="B139" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C139" s="4">
         <v>115023</v>
@@ -13011,7 +13011,7 @@
         <v>158</v>
       </c>
       <c r="B140" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C140" s="8">
         <v>4033963</v>
@@ -13050,7 +13050,7 @@
         <v>159</v>
       </c>
       <c r="B141" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C141" s="4">
         <v>39242</v>
@@ -13087,7 +13087,7 @@
         <v>160</v>
       </c>
       <c r="B142" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C142" s="8">
         <v>3278290</v>
@@ -13126,7 +13126,7 @@
         <v>319</v>
       </c>
       <c r="B143" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C143" s="4">
         <v>628066</v>
@@ -13165,7 +13165,7 @@
         <v>320</v>
       </c>
       <c r="B144" s="20" t="s">
-        <v>151</v>
+        <v>685</v>
       </c>
       <c r="C144" s="8">
         <v>4992</v>
@@ -13202,7 +13202,7 @@
         <v>161</v>
       </c>
       <c r="B145" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C145" s="4">
         <v>36910560</v>
@@ -13241,7 +13241,7 @@
         <v>321</v>
       </c>
       <c r="B146" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C146" s="8">
         <v>31255435</v>
@@ -13280,7 +13280,7 @@
         <v>322</v>
       </c>
       <c r="B147" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C147" s="4">
         <v>54409800</v>
@@ -13319,7 +13319,7 @@
         <v>162</v>
       </c>
       <c r="B148" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C148" s="8">
         <v>2540905</v>
@@ -13358,7 +13358,7 @@
         <v>323</v>
       </c>
       <c r="B149" s="20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C149" s="4">
         <v>10824</v>
@@ -13395,7 +13395,7 @@
         <v>163</v>
       </c>
       <c r="B150" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C150" s="8">
         <v>29136808</v>
@@ -13434,7 +13434,7 @@
         <v>164</v>
       </c>
       <c r="B151" s="20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C151" s="4">
         <v>17134872</v>
@@ -13473,7 +13473,7 @@
         <v>324</v>
       </c>
       <c r="B152" s="20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C152" s="8">
         <v>285498</v>
@@ -13512,7 +13512,7 @@
         <v>167</v>
       </c>
       <c r="B153" s="20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C153" s="4">
         <v>4822233</v>
@@ -13551,7 +13551,7 @@
         <v>325</v>
       </c>
       <c r="B154" s="20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C154" s="8">
         <v>6624554</v>
@@ -13590,7 +13590,7 @@
         <v>326</v>
       </c>
       <c r="B155" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C155" s="4">
         <v>24206644</v>
@@ -13629,7 +13629,7 @@
         <v>168</v>
       </c>
       <c r="B156" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C156" s="8">
         <v>206139589</v>
@@ -13668,7 +13668,7 @@
         <v>327</v>
       </c>
       <c r="B157" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C157" s="4">
         <v>1626</v>
@@ -13705,7 +13705,7 @@
         <v>328</v>
       </c>
       <c r="B158" s="20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C158" s="8">
         <v>25778816</v>
@@ -13744,7 +13744,7 @@
         <v>169</v>
       </c>
       <c r="B159" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C159" s="4">
         <v>2083374</v>
@@ -13783,7 +13783,7 @@
         <v>329</v>
       </c>
       <c r="B160" s="20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C160" s="8">
         <v>57559</v>
@@ -13820,7 +13820,7 @@
         <v>170</v>
       </c>
       <c r="B161" s="20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C161" s="4">
         <v>5421241</v>
@@ -13859,7 +13859,7 @@
         <v>171</v>
       </c>
       <c r="B162" s="20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C162" s="8">
         <v>5106626</v>
@@ -13898,7 +13898,7 @@
         <v>172</v>
       </c>
       <c r="B163" s="20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C163" s="4">
         <v>220892340</v>
@@ -13937,7 +13937,7 @@
         <v>330</v>
       </c>
       <c r="B164" s="20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C164" s="8">
         <v>18094</v>
@@ -13974,7 +13974,7 @@
         <v>173</v>
       </c>
       <c r="B165" s="20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C165" s="4">
         <v>4314767</v>
@@ -14013,7 +14013,7 @@
         <v>331</v>
       </c>
       <c r="B166" s="20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C166" s="8">
         <v>8947024</v>
@@ -14052,7 +14052,7 @@
         <v>174</v>
       </c>
       <c r="B167" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C167" s="4">
         <v>7132538</v>
@@ -14091,7 +14091,7 @@
         <v>175</v>
       </c>
       <c r="B168" s="20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C168" s="8">
         <v>32971854</v>
@@ -14130,7 +14130,7 @@
         <v>176</v>
       </c>
       <c r="B169" s="20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C169" s="4">
         <v>109581078</v>
@@ -14169,7 +14169,7 @@
         <v>177</v>
       </c>
       <c r="B170" s="20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C170" s="8">
         <v>37846611</v>
@@ -14208,7 +14208,7 @@
         <v>178</v>
       </c>
       <c r="B171" s="20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C171" s="4">
         <v>10196709</v>
@@ -14247,7 +14247,7 @@
         <v>332</v>
       </c>
       <c r="B172" s="20" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C172" s="8">
         <v>2860853</v>
@@ -14286,7 +14286,7 @@
         <v>179</v>
       </c>
       <c r="B173" s="20" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C173" s="4">
         <v>2881053</v>
@@ -14325,7 +14325,7 @@
         <v>180</v>
       </c>
       <c r="B174" s="20" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C174" s="8">
         <v>19237691</v>
@@ -14364,7 +14364,7 @@
         <v>181</v>
       </c>
       <c r="B175" s="20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C175" s="4">
         <v>145934462</v>
@@ -14403,7 +14403,7 @@
         <v>182</v>
       </c>
       <c r="B176" s="20" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C176" s="8">
         <v>12952218</v>
@@ -14442,7 +14442,7 @@
         <v>110</v>
       </c>
       <c r="B177" s="20" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C177" s="4">
         <v>895312</v>
@@ -14481,7 +14481,7 @@
         <v>333</v>
       </c>
       <c r="B178" s="20" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C178" s="8">
         <v>9877</v>
@@ -14518,7 +14518,7 @@
         <v>334</v>
       </c>
       <c r="B179" s="20" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C179" s="4">
         <v>6077</v>
@@ -14555,7 +14555,7 @@
         <v>335</v>
       </c>
       <c r="B180" s="20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C180" s="8">
         <v>53199</v>
@@ -14592,7 +14592,7 @@
         <v>183</v>
       </c>
       <c r="B181" s="20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C181" s="4">
         <v>183627</v>
@@ -14631,7 +14631,7 @@
         <v>336</v>
       </c>
       <c r="B182" s="20" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C182" s="8">
         <v>38666</v>
@@ -14668,7 +14668,7 @@
         <v>337</v>
       </c>
       <c r="B183" s="20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C183" s="4">
         <v>5794</v>
@@ -14705,7 +14705,7 @@
         <v>338</v>
       </c>
       <c r="B184" s="20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C184" s="8">
         <v>198414</v>
@@ -14744,7 +14744,7 @@
         <v>185</v>
       </c>
       <c r="B185" s="20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C185" s="4">
         <v>33931</v>
@@ -14781,7 +14781,7 @@
         <v>339</v>
       </c>
       <c r="B186" s="20" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C186" s="8">
         <v>219159</v>
@@ -14820,7 +14820,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="20" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C187" s="4">
         <v>34813871</v>
@@ -14859,7 +14859,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C188" s="8">
         <v>16743927</v>
@@ -14898,7 +14898,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C189" s="4">
         <v>8737371</v>
@@ -14937,7 +14937,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C190" s="8">
         <v>98347</v>
@@ -14976,7 +14976,7 @@
         <v>340</v>
       </c>
       <c r="B191" s="20" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C191" s="4">
         <v>7976983</v>
@@ -15015,7 +15015,7 @@
         <v>190</v>
       </c>
       <c r="B192" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C192" s="8">
         <v>5850342</v>
@@ -15054,7 +15054,7 @@
         <v>341</v>
       </c>
       <c r="B193" s="20" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C193" s="4">
         <v>42876</v>
@@ -15091,7 +15091,7 @@
         <v>191</v>
       </c>
       <c r="B194" s="20" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C194" s="8">
         <v>5459642</v>
@@ -15130,7 +15130,7 @@
         <v>192</v>
       </c>
       <c r="B195" s="20" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C195" s="4">
         <v>2078938</v>
@@ -15169,7 +15169,7 @@
         <v>342</v>
       </c>
       <c r="B196" s="20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C196" s="8">
         <v>686884</v>
@@ -15208,7 +15208,7 @@
         <v>343</v>
       </c>
       <c r="B197" s="20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C197" s="4">
         <v>15893222</v>
@@ -15247,7 +15247,7 @@
         <v>193</v>
       </c>
       <c r="B198" s="20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C198" s="8">
         <v>59308690</v>
@@ -15286,7 +15286,7 @@
         <v>143</v>
       </c>
       <c r="B199" s="20" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C199" s="4">
         <v>51269185</v>
@@ -15325,7 +15325,7 @@
         <v>344</v>
       </c>
       <c r="B200" s="20" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C200" s="8">
         <v>11193725</v>
@@ -15364,7 +15364,7 @@
         <v>194</v>
       </c>
       <c r="B201" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C201" s="4">
         <v>46754778</v>
@@ -15403,7 +15403,7 @@
         <v>195</v>
       </c>
       <c r="B202" s="20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C202" s="8">
         <v>21413249</v>
@@ -15442,7 +15442,7 @@
         <v>184</v>
       </c>
       <c r="B203" s="20" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C203" s="4">
         <v>110940</v>
@@ -15481,7 +15481,7 @@
         <v>270</v>
       </c>
       <c r="B204" s="20" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C204" s="8">
         <v>5101414</v>
@@ -15520,7 +15520,7 @@
         <v>196</v>
       </c>
       <c r="B205" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C205" s="4">
         <v>43849260</v>
@@ -15559,7 +15559,7 @@
         <v>197</v>
       </c>
       <c r="B206" s="20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C206" s="8">
         <v>586632</v>
@@ -15598,7 +15598,7 @@
         <v>198</v>
       </c>
       <c r="B207" s="20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C207" s="4">
         <v>10099265</v>
@@ -15637,7 +15637,7 @@
         <v>199</v>
       </c>
       <c r="B208" s="20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C208" s="8">
         <v>8654622</v>
@@ -15676,7 +15676,7 @@
         <v>345</v>
       </c>
       <c r="B209" s="20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C209" s="4">
         <v>17500658</v>
@@ -15715,7 +15715,7 @@
         <v>346</v>
       </c>
       <c r="B210" s="20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C210" s="8">
         <v>23816775</v>
@@ -15754,7 +15754,7 @@
         <v>347</v>
       </c>
       <c r="B211" s="20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C211" s="4">
         <v>9537645</v>
@@ -15793,7 +15793,7 @@
         <v>348</v>
       </c>
       <c r="B212" s="20" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C212" s="8">
         <v>59734218</v>
@@ -15832,7 +15832,7 @@
         <v>201</v>
       </c>
       <c r="B213" s="20" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C213" s="4">
         <v>69799978</v>
@@ -15871,7 +15871,7 @@
         <v>349</v>
       </c>
       <c r="B214" s="20" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C214" s="8">
         <v>1318445</v>
@@ -15910,7 +15910,7 @@
         <v>202</v>
       </c>
       <c r="B215" s="20" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C215" s="4">
         <v>8278724</v>
@@ -15949,7 +15949,7 @@
         <v>350</v>
       </c>
       <c r="B216" s="20" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C216" s="8">
         <v>1357</v>
@@ -15986,7 +15986,7 @@
         <v>351</v>
       </c>
       <c r="B217" s="20" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C217" s="4">
         <v>105695</v>
@@ -16025,7 +16025,7 @@
         <v>203</v>
       </c>
       <c r="B218" s="20" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C218" s="8">
         <v>1399488</v>
@@ -16064,7 +16064,7 @@
         <v>204</v>
       </c>
       <c r="B219" s="20" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C219" s="4">
         <v>11818619</v>
@@ -16103,7 +16103,7 @@
         <v>205</v>
       </c>
       <c r="B220" s="20" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C220" s="8">
         <v>84339067</v>
@@ -16142,7 +16142,7 @@
         <v>352</v>
       </c>
       <c r="B221" s="20" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C221" s="4">
         <v>6031200</v>
@@ -16181,7 +16181,7 @@
         <v>353</v>
       </c>
       <c r="B222" s="20" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C222" s="8">
         <v>38717</v>
@@ -16218,7 +16218,7 @@
         <v>354</v>
       </c>
       <c r="B223" s="20" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C223" s="4">
         <v>11792</v>
@@ -16255,7 +16255,7 @@
         <v>355</v>
       </c>
       <c r="B224" s="20" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C224" s="8">
         <v>104425</v>
@@ -16294,7 +16294,7 @@
         <v>356</v>
       </c>
       <c r="B225" s="20" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C225" s="4">
         <v>45741007</v>
@@ -16333,7 +16333,7 @@
         <v>260</v>
       </c>
       <c r="B226" s="20" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C226" s="8">
         <v>43733762</v>
@@ -16372,7 +16372,7 @@
         <v>261</v>
       </c>
       <c r="B227" s="20" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C227" s="4">
         <v>9890402</v>
@@ -16411,7 +16411,7 @@
         <v>262</v>
       </c>
       <c r="B228" s="20" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C228" s="8">
         <v>67886011</v>
@@ -16450,7 +16450,7 @@
         <v>206</v>
       </c>
       <c r="B229" s="20" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C229" s="4">
         <v>331002651</v>
@@ -16489,7 +16489,7 @@
         <v>266</v>
       </c>
       <c r="B230" s="20" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C230" s="8">
         <v>3473730</v>
@@ -16528,7 +16528,7 @@
         <v>267</v>
       </c>
       <c r="B231" s="20" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C231" s="4">
         <v>33469203</v>
@@ -16567,7 +16567,7 @@
         <v>357</v>
       </c>
       <c r="B232" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C232" s="8">
         <v>307145</v>
@@ -16606,7 +16606,7 @@
         <v>268</v>
       </c>
       <c r="B233" s="20" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C233" s="4">
         <v>28435940</v>
@@ -16645,7 +16645,7 @@
         <v>269</v>
       </c>
       <c r="B234" s="20" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C234" s="8">
         <v>97338579</v>
@@ -16684,7 +16684,7 @@
         <v>358</v>
       </c>
       <c r="B235" s="20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C235" s="4">
         <v>11239</v>
@@ -16721,7 +16721,7 @@
         <v>359</v>
       </c>
       <c r="B236" s="20" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C236" s="8">
         <v>597339</v>
@@ -16760,7 +16760,7 @@
         <v>360</v>
       </c>
       <c r="B237" s="20" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C237" s="4">
         <v>29825964</v>
@@ -16799,7 +16799,7 @@
         <v>361</v>
       </c>
       <c r="B238" s="20" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C238" s="8">
         <v>18383955</v>
@@ -16838,7 +16838,7 @@
         <v>362</v>
       </c>
       <c r="B239" s="20" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C239" s="13">
         <v>14862924</v>
@@ -16895,18 +16895,18 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B2" s="17">
         <v>6892503</v>
@@ -16918,7 +16918,7 @@
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B3" s="17">
         <v>3565287</v>
@@ -16930,7 +16930,7 @@
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B4" s="17">
         <v>1359711</v>
@@ -16942,7 +16942,7 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B5" s="17">
         <v>1344212</v>
@@ -16954,7 +16954,7 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B6" s="17">
         <v>1059361</v>
@@ -16966,7 +16966,7 @@
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B7" s="17">
         <v>623989</v>
@@ -16978,7 +16978,7 @@
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B8" s="17">
         <v>19453561</v>
@@ -16990,7 +16990,7 @@
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B9" s="17">
         <v>12801989</v>
@@ -17002,7 +17002,7 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B10" s="17">
         <v>8882190</v>
@@ -17014,7 +17014,7 @@
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B11" s="17">
         <v>21477737</v>
@@ -17026,7 +17026,7 @@
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B12" s="17">
         <v>10617423</v>
@@ -17038,7 +17038,7 @@
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B13" s="17">
         <v>10488084</v>
@@ -17050,7 +17050,7 @@
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B14" s="17">
         <v>8535519</v>
@@ -17062,7 +17062,7 @@
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B15" s="17">
         <v>6045680</v>
@@ -17074,7 +17074,7 @@
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B16" s="17">
         <v>5148714</v>
@@ -17086,7 +17086,7 @@
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B17" s="17">
         <v>1792147</v>
@@ -17098,7 +17098,7 @@
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B18" s="17">
         <v>973764</v>
@@ -17110,7 +17110,7 @@
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B19" s="17">
         <v>705749</v>
@@ -17122,7 +17122,7 @@
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B20" s="17">
         <v>6829174</v>
@@ -17134,7 +17134,7 @@
     </row>
     <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B21" s="17">
         <v>4903185</v>
@@ -17146,7 +17146,7 @@
     </row>
     <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B22" s="17">
         <v>4467673</v>
@@ -17158,7 +17158,7 @@
     </row>
     <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B23" s="17">
         <v>2976149</v>
@@ -17170,7 +17170,7 @@
     </row>
     <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B24" s="17">
         <v>28995881</v>
@@ -17182,7 +17182,7 @@
     </row>
     <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B25" s="17">
         <v>4648794</v>
@@ -17194,7 +17194,7 @@
     </row>
     <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B26" s="17">
         <v>3956971</v>
@@ -17206,7 +17206,7 @@
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B27" s="17">
         <v>3017804</v>
@@ -17218,7 +17218,7 @@
     </row>
     <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B28" s="17">
         <v>12671821</v>
@@ -17230,7 +17230,7 @@
     </row>
     <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B29" s="17">
         <v>11689100</v>
@@ -17242,7 +17242,7 @@
     </row>
     <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B30" s="17">
         <v>9986857</v>
@@ -17254,7 +17254,7 @@
     </row>
     <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B31" s="17">
         <v>6732219</v>
@@ -17266,7 +17266,7 @@
     </row>
     <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B32" s="17">
         <v>5822434</v>
@@ -17278,7 +17278,7 @@
     </row>
     <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B33" s="17">
         <v>6137428</v>
@@ -17290,7 +17290,7 @@
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B34" s="17">
         <v>5639632</v>
@@ -17302,7 +17302,7 @@
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B35" s="17">
         <v>3155070</v>
@@ -17314,7 +17314,7 @@
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B36" s="17">
         <v>2913314</v>
@@ -17326,7 +17326,7 @@
     </row>
     <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B37" s="17">
         <v>1934408</v>
@@ -17338,7 +17338,7 @@
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B38" s="17">
         <v>884659</v>
@@ -17350,7 +17350,7 @@
     </row>
     <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B39" s="17">
         <v>762062</v>
@@ -17362,7 +17362,7 @@
     </row>
     <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B40" s="17">
         <v>7278717</v>
@@ -17374,7 +17374,7 @@
     </row>
     <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B41" s="17">
         <v>5758736</v>
@@ -17386,7 +17386,7 @@
     </row>
     <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B42" s="17">
         <v>3205958</v>
@@ -17398,7 +17398,7 @@
     </row>
     <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B43" s="17">
         <v>3080156</v>
@@ -17410,7 +17410,7 @@
     </row>
     <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B44" s="17">
         <v>2096829</v>
@@ -17422,7 +17422,7 @@
     </row>
     <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B45" s="17">
         <v>1787065</v>
@@ -17434,7 +17434,7 @@
     </row>
     <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B46" s="17">
         <v>1068778</v>
@@ -17446,7 +17446,7 @@
     </row>
     <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B47" s="17">
         <v>578759</v>
@@ -17458,7 +17458,7 @@
     </row>
     <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B48" s="17">
         <v>39512223</v>
@@ -17470,7 +17470,7 @@
     </row>
     <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B49" s="17">
         <v>7614893</v>
@@ -17482,7 +17482,7 @@
     </row>
     <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B50" s="17">
         <v>4217737</v>
@@ -17494,7 +17494,7 @@
     </row>
     <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B51" s="17">
         <v>1415872</v>
@@ -17506,7 +17506,7 @@
     </row>
     <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B52" s="17">
         <v>731545</v>
@@ -17518,7 +17518,7 @@
     </row>
     <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B53" s="18">
         <v>328239523</v>
@@ -17526,7 +17526,7 @@
     </row>
     <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B54" s="19">
         <v>3193694</v>
@@ -17558,31 +17558,31 @@
     <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="57" t="s">
+        <v>418</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>419</v>
+      </c>
+      <c r="D5" s="59" t="s">
         <v>420</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="E5" s="23" t="s">
         <v>421</v>
       </c>
-      <c r="D5" s="59" t="s">
-        <v>422</v>
-      </c>
-      <c r="E5" s="23" t="s">
+      <c r="F5" s="59" t="s">
         <v>423</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="G5" s="55" t="s">
+        <v>424</v>
+      </c>
+      <c r="H5" s="55" t="s">
         <v>425</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="I5" s="55" t="s">
         <v>426</v>
       </c>
-      <c r="H5" s="55" t="s">
+      <c r="J5" s="55" t="s">
         <v>427</v>
-      </c>
-      <c r="I5" s="55" t="s">
-        <v>428</v>
-      </c>
-      <c r="J5" s="55" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17590,7 +17590,7 @@
       <c r="C6" s="58"/>
       <c r="D6" s="60"/>
       <c r="E6" s="24" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F6" s="60"/>
       <c r="G6" s="56"/>
@@ -17600,19 +17600,19 @@
     </row>
     <row r="7" spans="2:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>634</v>
+      </c>
+      <c r="E7" s="27" t="s">
         <v>430</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="F7" s="26" t="s">
         <v>431</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>636</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>433</v>
       </c>
       <c r="G7" s="28">
         <v>59500510</v>
@@ -17621,10 +17621,10 @@
         <v>425.91</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="J7" s="29" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="K7" t="str">
         <f>"China " &amp; D7</f>
@@ -17633,31 +17633,31 @@
     </row>
     <row r="8" spans="2:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="25" t="s">
+        <v>434</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>435</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="E8" s="27" t="s">
         <v>436</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="F8" s="30" t="s">
         <v>437</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>439</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>438</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>439</v>
       </c>
       <c r="G8" s="28">
         <v>19612368</v>
       </c>
       <c r="H8" s="28" t="s">
+        <v>438</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="J8" s="29" t="s">
         <v>440</v>
-      </c>
-      <c r="I8" s="28" t="s">
-        <v>441</v>
-      </c>
-      <c r="J8" s="29" t="s">
-        <v>442</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" ref="K8:K40" si="0">"China " &amp; D8</f>
@@ -17666,19 +17666,19 @@
     </row>
     <row r="9" spans="2:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="25" t="s">
+        <v>441</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>442</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>444</v>
+      </c>
+      <c r="E9" s="27" t="s">
         <v>443</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="F9" s="30" t="s">
         <v>444</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>445</v>
-      </c>
-      <c r="F9" s="30" t="s">
-        <v>446</v>
       </c>
       <c r="G9" s="28">
         <v>28846170</v>
@@ -17687,10 +17687,10 @@
         <v>350.5</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="J9" s="29" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="0"/>
@@ -17699,19 +17699,19 @@
     </row>
     <row r="10" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="31" t="s">
+        <v>447</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>448</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>653</v>
+      </c>
+      <c r="E10" s="33" t="s">
         <v>449</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="F10" s="34" t="s">
         <v>450</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>655</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>451</v>
-      </c>
-      <c r="F10" s="34" t="s">
-        <v>452</v>
       </c>
       <c r="G10" s="35">
         <v>36894216</v>
@@ -17720,10 +17720,10 @@
         <v>304.14999999999998</v>
       </c>
       <c r="I10" s="35" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="J10" s="36" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="0"/>
@@ -17732,19 +17732,19 @@
     </row>
     <row r="11" spans="2:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="31" t="s">
+        <v>453</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>454</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>654</v>
+      </c>
+      <c r="E11" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="F11" s="34" t="s">
         <v>456</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>656</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>457</v>
-      </c>
-      <c r="F11" s="34" t="s">
-        <v>458</v>
       </c>
       <c r="G11" s="35">
         <v>104303132</v>
@@ -17753,10 +17753,10 @@
         <v>579.46</v>
       </c>
       <c r="I11" s="35" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="0"/>
@@ -17765,19 +17765,19 @@
     </row>
     <row r="12" spans="2:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>635</v>
+      </c>
+      <c r="E12" s="27" t="s">
         <v>461</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="F12" s="26" t="s">
         <v>462</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>637</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>463</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>464</v>
       </c>
       <c r="G12" s="28">
         <v>25575254</v>
@@ -17786,10 +17786,10 @@
         <v>56.29</v>
       </c>
       <c r="I12" s="28" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="J12" s="29" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="0"/>
@@ -17798,19 +17798,19 @@
     </row>
     <row r="13" spans="2:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>466</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>660</v>
+      </c>
+      <c r="E13" s="27" t="s">
         <v>467</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="F13" s="26" t="s">
         <v>468</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>662</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>469</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>470</v>
       </c>
       <c r="G13" s="28">
         <v>46026629</v>
@@ -17819,10 +17819,10 @@
         <v>195.02</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="J13" s="29" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="0"/>
@@ -17831,19 +17831,19 @@
     </row>
     <row r="14" spans="2:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>636</v>
+      </c>
+      <c r="E14" s="27" t="s">
         <v>473</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="F14" s="26" t="s">
         <v>474</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>638</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>475</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>476</v>
       </c>
       <c r="G14" s="28">
         <v>34746468</v>
@@ -17852,10 +17852,10 @@
         <v>197.42</v>
       </c>
       <c r="I14" s="28" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="J14" s="29" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="0"/>
@@ -17864,19 +17864,19 @@
     </row>
     <row r="15" spans="2:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="25" t="s">
+        <v>477</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>637</v>
+      </c>
+      <c r="E15" s="27" t="s">
         <v>479</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="F15" s="26" t="s">
         <v>480</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>639</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>481</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>482</v>
       </c>
       <c r="G15" s="28">
         <v>94023567</v>
@@ -17885,10 +17885,10 @@
         <v>563.01</v>
       </c>
       <c r="I15" s="28" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="J15" s="29" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="0"/>
@@ -17897,19 +17897,19 @@
     </row>
     <row r="16" spans="2:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="25" t="s">
+        <v>483</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>484</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>638</v>
+      </c>
+      <c r="E16" s="27" t="s">
         <v>485</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="F16" s="26" t="s">
         <v>486</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>640</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>487</v>
-      </c>
-      <c r="F16" s="26" t="s">
-        <v>488</v>
       </c>
       <c r="G16" s="28">
         <v>57237740</v>
@@ -17918,10 +17918,10 @@
         <v>307.89</v>
       </c>
       <c r="I16" s="28" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="J16" s="29" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="0"/>
@@ -17930,19 +17930,19 @@
     </row>
     <row r="17" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="25" t="s">
+        <v>489</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>490</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>639</v>
+      </c>
+      <c r="E17" s="27" t="s">
         <v>491</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="F17" s="26" t="s">
         <v>492</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>641</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>493</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>494</v>
       </c>
       <c r="G17" s="28">
         <v>71854202</v>
@@ -17951,10 +17951,10 @@
         <v>382.81</v>
       </c>
       <c r="I17" s="28" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="J17" s="29" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" si="0"/>
@@ -17963,19 +17963,19 @@
     </row>
     <row r="18" spans="2:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="31" t="s">
+        <v>495</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>496</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>655</v>
+      </c>
+      <c r="E18" s="33" t="s">
         <v>497</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="F18" s="34" t="s">
         <v>498</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>657</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>499</v>
-      </c>
-      <c r="F18" s="34" t="s">
-        <v>500</v>
       </c>
       <c r="G18" s="37">
         <v>9171300</v>
@@ -17984,10 +17984,10 @@
         <v>255.04</v>
       </c>
       <c r="I18" s="35" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="0"/>
@@ -17996,31 +17996,31 @@
     </row>
     <row r="19" spans="2:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="38" t="s">
+        <v>501</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>502</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" s="40" t="s">
         <v>503</v>
       </c>
-      <c r="C19" s="39" t="s">
-        <v>504</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="E19" s="40" t="s">
-        <v>505</v>
-      </c>
       <c r="F19" s="41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G19" s="42">
         <v>7061200</v>
       </c>
       <c r="H19" s="42" t="s">
+        <v>504</v>
+      </c>
+      <c r="I19" s="42" t="s">
+        <v>505</v>
+      </c>
+      <c r="J19" s="43" t="s">
         <v>506</v>
-      </c>
-      <c r="I19" s="42" t="s">
-        <v>507</v>
-      </c>
-      <c r="J19" s="43" t="s">
-        <v>508</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="0"/>
@@ -18029,19 +18029,19 @@
     </row>
     <row r="20" spans="2:11" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>508</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>640</v>
+      </c>
+      <c r="E20" s="27" t="s">
         <v>509</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="F20" s="26" t="s">
         <v>510</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>642</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>511</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>512</v>
       </c>
       <c r="G20" s="28">
         <v>38312224</v>
@@ -18050,10 +18050,10 @@
         <v>84.38</v>
       </c>
       <c r="I20" s="28" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J20" s="29" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="0"/>
@@ -18062,19 +18062,19 @@
     </row>
     <row r="21" spans="2:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="25" t="s">
+        <v>513</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>514</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>641</v>
+      </c>
+      <c r="E21" s="27" t="s">
         <v>515</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="F21" s="26" t="s">
         <v>516</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>643</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>517</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>518</v>
       </c>
       <c r="G21" s="28">
         <v>65683722</v>
@@ -18083,10 +18083,10 @@
         <v>312.77</v>
       </c>
       <c r="I21" s="28" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="J21" s="29" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="0"/>
@@ -18095,19 +18095,19 @@
     </row>
     <row r="22" spans="2:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="25" t="s">
+        <v>519</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>520</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>642</v>
+      </c>
+      <c r="E22" s="27" t="s">
         <v>521</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="F22" s="26" t="s">
         <v>522</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>644</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>523</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>524</v>
       </c>
       <c r="G22" s="28">
         <v>27462297</v>
@@ -18116,10 +18116,10 @@
         <v>146.54</v>
       </c>
       <c r="I22" s="28" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="J22" s="29" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="0"/>
@@ -18128,19 +18128,19 @@
     </row>
     <row r="23" spans="2:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="25" t="s">
+        <v>525</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>526</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>643</v>
+      </c>
+      <c r="E23" s="27" t="s">
         <v>527</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="F23" s="26" t="s">
         <v>528</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>645</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>529</v>
-      </c>
-      <c r="F23" s="26" t="s">
-        <v>530</v>
       </c>
       <c r="G23" s="28">
         <v>78659903</v>
@@ -18149,10 +18149,10 @@
         <v>766.66</v>
       </c>
       <c r="I23" s="28" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="J23" s="29" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="0"/>
@@ -18161,19 +18161,19 @@
     </row>
     <row r="24" spans="2:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="25" t="s">
+        <v>531</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>532</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="E24" s="27" t="s">
         <v>533</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="F24" s="26" t="s">
         <v>534</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>646</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>535</v>
-      </c>
-      <c r="F24" s="26" t="s">
-        <v>536</v>
       </c>
       <c r="G24" s="28">
         <v>44567475</v>
@@ -18182,10 +18182,10 @@
         <v>266.87</v>
       </c>
       <c r="I24" s="28" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="J24" s="29" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="K24" t="str">
         <f t="shared" si="0"/>
@@ -18194,19 +18194,19 @@
     </row>
     <row r="25" spans="2:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="25" t="s">
+        <v>536</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>537</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>645</v>
+      </c>
+      <c r="E25" s="27" t="s">
         <v>538</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="F25" s="26" t="s">
         <v>539</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>647</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>540</v>
-      </c>
-      <c r="F25" s="26" t="s">
-        <v>541</v>
       </c>
       <c r="G25" s="28">
         <v>43746323</v>
@@ -18215,10 +18215,10 @@
         <v>299.83</v>
       </c>
       <c r="I25" s="28" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="J25" s="29" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" si="0"/>
@@ -18227,31 +18227,31 @@
     </row>
     <row r="26" spans="2:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="38" t="s">
+        <v>542</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>543</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>545</v>
+      </c>
+      <c r="E26" s="40" t="s">
         <v>544</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="F26" s="41" t="s">
         <v>545</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>547</v>
-      </c>
-      <c r="E26" s="40" t="s">
-        <v>546</v>
-      </c>
-      <c r="F26" s="41" t="s">
-        <v>547</v>
       </c>
       <c r="G26" s="42">
         <v>552300</v>
       </c>
       <c r="H26" s="42" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="I26" s="42">
         <v>29</v>
       </c>
       <c r="J26" s="43" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="K26" t="str">
         <f t="shared" si="0"/>
@@ -18260,19 +18260,19 @@
     </row>
     <row r="27" spans="2:11" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="25" t="s">
+        <v>548</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>549</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="E27" s="27" t="s">
         <v>550</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="F27" s="26" t="s">
         <v>551</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>658</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>552</v>
-      </c>
-      <c r="F27" s="26" t="s">
-        <v>553</v>
       </c>
       <c r="G27" s="28">
         <v>24706321</v>
@@ -18281,10 +18281,10 @@
         <v>20.88</v>
       </c>
       <c r="I27" s="28" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="J27" s="29" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="K27" t="str">
         <f t="shared" si="0"/>
@@ -18293,19 +18293,19 @@
     </row>
     <row r="28" spans="2:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="25" t="s">
+        <v>554</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>555</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>657</v>
+      </c>
+      <c r="E28" s="27" t="s">
         <v>556</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="F28" s="26" t="s">
         <v>557</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>659</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>558</v>
-      </c>
-      <c r="F28" s="26" t="s">
-        <v>559</v>
       </c>
       <c r="G28" s="28">
         <v>6301350</v>
@@ -18314,10 +18314,10 @@
         <v>94.89</v>
       </c>
       <c r="I28" s="28" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="J28" s="29" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="K28" t="str">
         <f t="shared" si="0"/>
@@ -18326,19 +18326,19 @@
     </row>
     <row r="29" spans="2:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="25" t="s">
+        <v>560</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>561</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>646</v>
+      </c>
+      <c r="E29" s="27" t="s">
         <v>562</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="F29" s="26" t="s">
         <v>563</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>648</v>
-      </c>
-      <c r="E29" s="27" t="s">
-        <v>564</v>
-      </c>
-      <c r="F29" s="26" t="s">
-        <v>565</v>
       </c>
       <c r="G29" s="28">
         <v>5626722</v>
@@ -18347,10 +18347,10 @@
         <v>7.8</v>
       </c>
       <c r="I29" s="28" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="J29" s="29" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="K29" t="str">
         <f t="shared" si="0"/>
@@ -18359,19 +18359,19 @@
     </row>
     <row r="30" spans="2:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="25" t="s">
+        <v>566</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>567</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>647</v>
+      </c>
+      <c r="E30" s="27" t="s">
         <v>568</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="F30" s="26" t="s">
         <v>569</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>649</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>570</v>
-      </c>
-      <c r="F30" s="26" t="s">
-        <v>571</v>
       </c>
       <c r="G30" s="28">
         <v>80418200</v>
@@ -18380,10 +18380,10 @@
         <v>165.81</v>
       </c>
       <c r="I30" s="28" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="J30" s="29" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" si="0"/>
@@ -18392,19 +18392,19 @@
     </row>
     <row r="31" spans="2:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="25" t="s">
+        <v>572</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>573</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>648</v>
+      </c>
+      <c r="E31" s="27" t="s">
         <v>574</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="F31" s="26" t="s">
         <v>575</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>650</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>576</v>
-      </c>
-      <c r="F31" s="26" t="s">
-        <v>577</v>
       </c>
       <c r="G31" s="28">
         <v>95793065</v>
@@ -18413,10 +18413,10 @@
         <v>622.84</v>
       </c>
       <c r="I31" s="28" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="J31" s="29" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="K31" t="str">
         <f t="shared" si="0"/>
@@ -18425,31 +18425,31 @@
     </row>
     <row r="32" spans="2:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="25" t="s">
+        <v>578</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>579</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>581</v>
+      </c>
+      <c r="E32" s="27" t="s">
         <v>580</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="F32" s="30" t="s">
         <v>581</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>583</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>582</v>
-      </c>
-      <c r="F32" s="30" t="s">
-        <v>583</v>
       </c>
       <c r="G32" s="28">
         <v>23019148</v>
       </c>
       <c r="H32" s="28" t="s">
+        <v>582</v>
+      </c>
+      <c r="I32" s="28" t="s">
+        <v>583</v>
+      </c>
+      <c r="J32" s="29" t="s">
         <v>584</v>
-      </c>
-      <c r="I32" s="28" t="s">
-        <v>585</v>
-      </c>
-      <c r="J32" s="29" t="s">
-        <v>586</v>
       </c>
       <c r="K32" t="str">
         <f t="shared" si="0"/>
@@ -18458,19 +18458,19 @@
     </row>
     <row r="33" spans="2:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="25" t="s">
+        <v>585</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>586</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>649</v>
+      </c>
+      <c r="E33" s="27" t="s">
         <v>587</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="F33" s="26" t="s">
         <v>588</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>651</v>
-      </c>
-      <c r="E33" s="27" t="s">
-        <v>589</v>
-      </c>
-      <c r="F33" s="26" t="s">
-        <v>590</v>
       </c>
       <c r="G33" s="28">
         <v>37327378</v>
@@ -18479,10 +18479,10 @@
         <v>181.55</v>
       </c>
       <c r="I33" s="28" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="J33" s="29" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="K33" t="str">
         <f t="shared" si="0"/>
@@ -18491,19 +18491,19 @@
     </row>
     <row r="34" spans="2:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="25" t="s">
+        <v>591</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>592</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>650</v>
+      </c>
+      <c r="E34" s="27" t="s">
         <v>593</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="F34" s="26" t="s">
         <v>594</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>652</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>595</v>
-      </c>
-      <c r="F34" s="26" t="s">
-        <v>596</v>
       </c>
       <c r="G34" s="28">
         <v>35712111</v>
@@ -18512,10 +18512,10 @@
         <v>228.48</v>
       </c>
       <c r="I34" s="28" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="J34" s="29" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="K34" t="str">
         <f t="shared" si="0"/>
@@ -18524,31 +18524,31 @@
     </row>
     <row r="35" spans="2:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="25" t="s">
+        <v>597</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>600</v>
+      </c>
+      <c r="E35" s="27" t="s">
         <v>599</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="F35" s="30" t="s">
         <v>600</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>602</v>
-      </c>
-      <c r="E35" s="27" t="s">
-        <v>601</v>
-      </c>
-      <c r="F35" s="30" t="s">
-        <v>602</v>
       </c>
       <c r="G35" s="28">
         <v>12938224</v>
       </c>
       <c r="H35" s="28" t="s">
+        <v>601</v>
+      </c>
+      <c r="I35" s="28" t="s">
+        <v>602</v>
+      </c>
+      <c r="J35" s="29" t="s">
         <v>603</v>
-      </c>
-      <c r="I35" s="28" t="s">
-        <v>604</v>
-      </c>
-      <c r="J35" s="29" t="s">
-        <v>605</v>
       </c>
       <c r="K35" t="str">
         <f t="shared" si="0"/>
@@ -18557,19 +18557,19 @@
     </row>
     <row r="36" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="44" t="s">
+        <v>604</v>
+      </c>
+      <c r="C36" s="45" t="s">
+        <v>605</v>
+      </c>
+      <c r="D36" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="E36" s="47" t="s">
         <v>606</v>
       </c>
-      <c r="C36" s="45" t="s">
+      <c r="F36" s="48" t="s">
         <v>607</v>
-      </c>
-      <c r="D36" s="46" t="s">
-        <v>213</v>
-      </c>
-      <c r="E36" s="47" t="s">
-        <v>608</v>
-      </c>
-      <c r="F36" s="48" t="s">
-        <v>609</v>
       </c>
       <c r="G36" s="49">
         <v>23162123</v>
@@ -18578,10 +18578,10 @@
         <v>650.97</v>
       </c>
       <c r="I36" s="49" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="J36" s="50" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="K36" t="str">
         <f t="shared" si="0"/>
@@ -18590,19 +18590,19 @@
     </row>
     <row r="37" spans="2:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="25" t="s">
+        <v>610</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>611</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>659</v>
+      </c>
+      <c r="E37" s="27" t="s">
         <v>612</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="F37" s="26" t="s">
         <v>613</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>661</v>
-      </c>
-      <c r="E37" s="27" t="s">
-        <v>614</v>
-      </c>
-      <c r="F37" s="26" t="s">
-        <v>615</v>
       </c>
       <c r="G37" s="28">
         <v>21813334</v>
@@ -18611,10 +18611,10 @@
         <v>13.13</v>
       </c>
       <c r="I37" s="28" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="J37" s="29" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="K37" t="str">
         <f t="shared" si="0"/>
@@ -18623,19 +18623,19 @@
     </row>
     <row r="38" spans="2:11" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="25" t="s">
+        <v>616</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>617</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>658</v>
+      </c>
+      <c r="E38" s="27" t="s">
         <v>618</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="F38" s="26" t="s">
         <v>619</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>660</v>
-      </c>
-      <c r="E38" s="27" t="s">
-        <v>620</v>
-      </c>
-      <c r="F38" s="26" t="s">
-        <v>621</v>
       </c>
       <c r="G38" s="28">
         <v>3002166</v>
@@ -18644,10 +18644,10 @@
         <v>2.44</v>
       </c>
       <c r="I38" s="28" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="J38" s="29" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="K38" t="str">
         <f t="shared" si="0"/>
@@ -18656,19 +18656,19 @@
     </row>
     <row r="39" spans="2:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="25" t="s">
+        <v>622</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>623</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>651</v>
+      </c>
+      <c r="E39" s="27" t="s">
         <v>624</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="F39" s="26" t="s">
         <v>625</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>653</v>
-      </c>
-      <c r="E39" s="27" t="s">
-        <v>626</v>
-      </c>
-      <c r="F39" s="26" t="s">
-        <v>627</v>
       </c>
       <c r="G39" s="28">
         <v>45966239</v>
@@ -18677,10 +18677,10 @@
         <v>116.66</v>
       </c>
       <c r="I39" s="28" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="J39" s="29" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="K39" t="str">
         <f t="shared" si="0"/>
@@ -18689,19 +18689,19 @@
     </row>
     <row r="40" spans="2:11" ht="18" x14ac:dyDescent="0.25">
       <c r="B40" s="25" t="s">
+        <v>628</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>629</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>652</v>
+      </c>
+      <c r="E40" s="27" t="s">
         <v>630</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="F40" s="26" t="s">
         <v>631</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>654</v>
-      </c>
-      <c r="E40" s="27" t="s">
-        <v>632</v>
-      </c>
-      <c r="F40" s="26" t="s">
-        <v>633</v>
       </c>
       <c r="G40" s="28">
         <v>54426891</v>
@@ -18710,10 +18710,10 @@
         <v>533.59</v>
       </c>
       <c r="I40" s="28" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="J40" s="29" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="K40" t="str">
         <f t="shared" si="0"/>

--- a/COVID-19 Apps/Population Data.xlsx
+++ b/COVID-19 Apps/Population Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zur Bonsen Georg\Documents\Programme\Beyond4P_Apps\COVID-19 Apps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DD8957-A574-4CC0-9F3B-CDF7BC581BBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B6196A-899B-4B70-9969-A840D2C0AFB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{F1D96CA6-85D8-47A9-B3B5-9350C0EB077E}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="China" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Basedata!$A$1:$E$361</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Basedata!$A$1:$E$362</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">World!$A$2:$L$239</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="706">
   <si>
     <t>Search:</t>
   </si>
@@ -2188,9 +2188,6 @@
     <t>*</t>
   </si>
   <si>
-    <t>(Missing Country)</t>
-  </si>
-  <si>
     <t>Congo*Kinshasa*</t>
   </si>
   <si>
@@ -2198,6 +2195,15 @@
   </si>
   <si>
     <t>Korea*South,South*Korea</t>
+  </si>
+  <si>
+    <t>Missing Country</t>
+  </si>
+  <si>
+    <t>*Sint Maarten</t>
+  </si>
+  <si>
+    <t>United Kingdom Isle of Man</t>
   </si>
 </sst>
 </file>
@@ -2954,10 +2960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D644D2AC-849B-4939-9630-637ED8DE136D}">
-  <dimension ref="A1:E362"/>
+  <dimension ref="A1:E363"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4238,7 +4244,7 @@
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C86" s="21" cm="1">
         <f t="array" ref="C86">INDEX(World!C:C,Basedata!E86)</f>
@@ -4254,7 +4260,7 @@
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C87" s="21" cm="1">
         <f t="array" ref="C87">INDEX(World!C:C,Basedata!E87)</f>
@@ -5115,7 +5121,7 @@
         <v>676</v>
       </c>
       <c r="B143" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C143" s="21" cm="1">
         <f t="array" ref="C143">INDEX(World!C:C,Basedata!E143)</f>
@@ -7201,1584 +7207,1595 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B264" t="s">
+        <v>705</v>
+      </c>
+      <c r="C264" s="22">
+        <v>84497</v>
+      </c>
+      <c r="D264" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B265" t="s">
         <v>410</v>
       </c>
-      <c r="C264" s="22">
+      <c r="C265" s="22">
         <f>C261-C262-C263</f>
         <v>67685440</v>
       </c>
-      <c r="D264" t="s">
+      <c r="D265" t="s">
         <v>410</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B265" t="s">
-        <v>229</v>
-      </c>
-      <c r="C265" s="21" cm="1">
-        <f t="array" ref="C265">INDEX(World!C:C,Basedata!E265)</f>
-        <v>3473730</v>
-      </c>
-      <c r="D265" t="s">
-        <v>229</v>
-      </c>
-      <c r="E265">
-        <f>MATCH(B265,World!B:B,0)</f>
-        <v>230</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B266" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C266" s="21" cm="1">
         <f t="array" ref="C266">INDEX(World!C:C,Basedata!E266)</f>
-        <v>33469203</v>
+        <v>3473730</v>
       </c>
       <c r="D266" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E266">
         <f>MATCH(B266,World!B:B,0)</f>
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B267" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C267" s="21" cm="1">
         <f t="array" ref="C267">INDEX(World!C:C,Basedata!E267)</f>
-        <v>28435940</v>
+        <v>33469203</v>
       </c>
       <c r="D267" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E267">
         <f>MATCH(B267,World!B:B,0)</f>
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C268" s="21" cm="1">
         <f t="array" ref="C268">INDEX(World!C:C,Basedata!E268)</f>
-        <v>97338579</v>
+        <v>28435940</v>
       </c>
       <c r="D268" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E268">
         <f>MATCH(B268,World!B:B,0)</f>
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
-        <v>411</v>
+        <v>233</v>
       </c>
       <c r="C269" s="21" cm="1">
         <f t="array" ref="C269">INDEX(World!C:C,Basedata!E269)</f>
-        <v>5101414</v>
+        <v>97338579</v>
       </c>
       <c r="D269" t="s">
-        <v>693</v>
+        <v>233</v>
       </c>
       <c r="E269">
         <f>MATCH(B269,World!B:B,0)</f>
-        <v>204</v>
+        <v>234</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
-        <v>24</v>
+        <v>411</v>
       </c>
       <c r="C270" s="21" cm="1">
         <f t="array" ref="C270">INDEX(World!C:C,Basedata!E270)</f>
-        <v>55191</v>
+        <v>5101414</v>
       </c>
       <c r="D270" t="s">
-        <v>24</v>
+        <v>693</v>
       </c>
       <c r="E270">
         <f>MATCH(B270,World!B:B,0)</f>
-        <v>7</v>
+        <v>204</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B271" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C271" s="21" cm="1">
         <f t="array" ref="C271">INDEX(World!C:C,Basedata!E271)</f>
-        <v>32866272</v>
+        <v>55191</v>
       </c>
       <c r="D271" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E271">
         <f>MATCH(B271,World!B:B,0)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C272" s="21" cm="1">
         <f t="array" ref="C272">INDEX(World!C:C,Basedata!E272)</f>
-        <v>15003</v>
+        <v>32866272</v>
       </c>
       <c r="D272" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E272">
         <f>MATCH(B272,World!B:B,0)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="273" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
-        <v>684</v>
+        <v>28</v>
       </c>
       <c r="C273" s="21" cm="1">
         <f t="array" ref="C273">INDEX(World!C:C,Basedata!E273)</f>
-        <v>393244</v>
+        <v>15003</v>
       </c>
       <c r="D273" t="s">
-        <v>687</v>
+        <v>28</v>
       </c>
       <c r="E273">
         <f>MATCH(B273,World!B:B,0)</f>
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="274" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
-        <v>37</v>
+        <v>684</v>
       </c>
       <c r="C274" s="21" cm="1">
         <f t="array" ref="C274">INDEX(World!C:C,Basedata!E274)</f>
-        <v>287375</v>
+        <v>393244</v>
       </c>
       <c r="D274" t="s">
-        <v>37</v>
+        <v>687</v>
       </c>
       <c r="E274">
         <f>MATCH(B274,World!B:B,0)</f>
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="275" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C275" s="21" cm="1">
         <f t="array" ref="C275">INDEX(World!C:C,Basedata!E275)</f>
-        <v>397628</v>
+        <v>287375</v>
       </c>
       <c r="D275" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E275">
         <f>MATCH(B275,World!B:B,0)</f>
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="276" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B276" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C276" s="21" cm="1">
         <f t="array" ref="C276">INDEX(World!C:C,Basedata!E276)</f>
-        <v>12123200</v>
+        <v>397628</v>
       </c>
       <c r="D276" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E276">
         <f>MATCH(B276,World!B:B,0)</f>
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="277" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
-        <v>698</v>
+        <v>41</v>
       </c>
       <c r="C277" s="21" cm="1">
         <f t="array" ref="C277">INDEX(World!C:C,Basedata!E277)</f>
-        <v>62278</v>
+        <v>12123200</v>
       </c>
       <c r="D277" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E277">
         <f>MATCH(B277,World!B:B,0)</f>
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="278" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B278" t="s">
-        <v>46</v>
+        <v>698</v>
       </c>
       <c r="C278" s="21" cm="1">
         <f t="array" ref="C278">INDEX(World!C:C,Basedata!E278)</f>
-        <v>2351627</v>
+        <v>62278</v>
       </c>
       <c r="D278" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E278">
         <f>MATCH(B278,World!B:B,0)</f>
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="279" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B279" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C279" s="21" cm="1">
         <f t="array" ref="C279">INDEX(World!C:C,Basedata!E279)</f>
-        <v>30231</v>
+        <v>2351627</v>
       </c>
       <c r="D279" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E279">
         <f>MATCH(B279,World!B:B,0)</f>
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="280" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B280" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C280" s="21" cm="1">
         <f t="array" ref="C280">INDEX(World!C:C,Basedata!E280)</f>
-        <v>11890784</v>
+        <v>30231</v>
       </c>
       <c r="D280" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E280">
         <f>MATCH(B280,World!B:B,0)</f>
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="281" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B281" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C281" s="21" cm="1">
         <f t="array" ref="C281">INDEX(World!C:C,Basedata!E281)</f>
-        <v>555987</v>
+        <v>11890784</v>
       </c>
       <c r="D281" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E281">
         <f>MATCH(B281,World!B:B,0)</f>
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="282" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C282" s="21" cm="1">
         <f t="array" ref="C282">INDEX(World!C:C,Basedata!E282)</f>
-        <v>26223</v>
+        <v>555987</v>
       </c>
       <c r="D282" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E282">
         <f>MATCH(B282,World!B:B,0)</f>
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="283" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B283" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C283" s="21" cm="1">
         <f t="array" ref="C283">INDEX(World!C:C,Basedata!E283)</f>
-        <v>16425864</v>
+        <v>26223</v>
       </c>
       <c r="D283" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E283">
         <f>MATCH(B283,World!B:B,0)</f>
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="284" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B284" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C284" s="21" cm="1">
         <f t="array" ref="C284">INDEX(World!C:C,Basedata!E284)</f>
-        <v>173863</v>
+        <v>16425864</v>
       </c>
       <c r="D284" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E284">
         <f>MATCH(B284,World!B:B,0)</f>
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="285" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B285" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C285" s="21" cm="1">
         <f t="array" ref="C285">INDEX(World!C:C,Basedata!E285)</f>
-        <v>869601</v>
+        <v>173863</v>
       </c>
       <c r="D285" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E285">
         <f>MATCH(B285,World!B:B,0)</f>
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="286" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B286" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C286" s="21" cm="1">
         <f t="array" ref="C286">INDEX(World!C:C,Basedata!E286)</f>
-        <v>17564</v>
+        <v>869601</v>
       </c>
       <c r="D286" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E286">
         <f>MATCH(B286,World!B:B,0)</f>
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="287" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C287" s="21" cm="1">
         <f t="array" ref="C287">INDEX(World!C:C,Basedata!E287)</f>
-        <v>988000</v>
+        <v>17564</v>
       </c>
       <c r="D287" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E287">
         <f>MATCH(B287,World!B:B,0)</f>
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="288" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B288" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C288" s="21" cm="1">
         <f t="array" ref="C288">INDEX(World!C:C,Basedata!E288)</f>
-        <v>71986</v>
+        <v>988000</v>
       </c>
       <c r="D288" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E288">
         <f>MATCH(B288,World!B:B,0)</f>
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="289" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B289" t="s">
-        <v>685</v>
+        <v>72</v>
       </c>
       <c r="C289" s="21" cm="1">
         <f t="array" ref="C289">INDEX(World!C:C,Basedata!E289)</f>
-        <v>89561403</v>
+        <v>71986</v>
       </c>
       <c r="D289" t="s">
-        <v>685</v>
+        <v>72</v>
       </c>
       <c r="E289">
         <f>MATCH(B289,World!B:B,0)</f>
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="290" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B290" t="s">
-        <v>76</v>
+        <v>685</v>
       </c>
       <c r="C290" s="21" cm="1">
         <f t="array" ref="C290">INDEX(World!C:C,Basedata!E290)</f>
-        <v>6486205</v>
+        <v>89561403</v>
       </c>
       <c r="D290" t="s">
-        <v>76</v>
+        <v>685</v>
       </c>
       <c r="E290">
         <f>MATCH(B290,World!B:B,0)</f>
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="291" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B291" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C291" s="21" cm="1">
         <f t="array" ref="C291">INDEX(World!C:C,Basedata!E291)</f>
-        <v>3546421</v>
+        <v>6486205</v>
       </c>
       <c r="D291" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E291">
         <f>MATCH(B291,World!B:B,0)</f>
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="292" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C292" s="21" cm="1">
         <f t="array" ref="C292">INDEX(World!C:C,Basedata!E292)</f>
-        <v>48863</v>
+        <v>3546421</v>
       </c>
       <c r="D292" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E292">
         <f>MATCH(B292,World!B:B,0)</f>
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="293" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B293" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C293" s="21" cm="1">
         <f t="array" ref="C293">INDEX(World!C:C,Basedata!E293)</f>
-        <v>3480</v>
+        <v>48863</v>
       </c>
       <c r="D293" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E293">
         <f>MATCH(B293,World!B:B,0)</f>
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="294" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B294" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C294" s="21" cm="1">
         <f t="array" ref="C294">INDEX(World!C:C,Basedata!E294)</f>
-        <v>896445</v>
+        <v>3480</v>
       </c>
       <c r="D294" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E294">
         <f>MATCH(B294,World!B:B,0)</f>
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="295" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B295" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C295" s="21" cm="1">
         <f t="array" ref="C295">INDEX(World!C:C,Basedata!E295)</f>
-        <v>280908</v>
+        <v>896445</v>
       </c>
       <c r="D295" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E295">
         <f>MATCH(B295,World!B:B,0)</f>
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="296" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B296" t="s">
-        <v>688</v>
+        <v>88</v>
       </c>
       <c r="C296" s="21" cm="1">
         <f t="array" ref="C296">INDEX(World!C:C,Basedata!E296)</f>
-        <v>2416668</v>
+        <v>280908</v>
       </c>
       <c r="D296" t="s">
-        <v>689</v>
+        <v>88</v>
       </c>
       <c r="E296">
         <f>MATCH(B296,World!B:B,0)</f>
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="297" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B297" t="s">
-        <v>93</v>
+        <v>688</v>
       </c>
       <c r="C297" s="21" cm="1">
         <f t="array" ref="C297">INDEX(World!C:C,Basedata!E297)</f>
-        <v>33691</v>
+        <v>2416668</v>
       </c>
       <c r="D297" t="s">
-        <v>93</v>
+        <v>689</v>
       </c>
       <c r="E297">
         <f>MATCH(B297,World!B:B,0)</f>
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="298" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B298" t="s">
-        <v>697</v>
+        <v>93</v>
       </c>
       <c r="C298" s="21" cm="1">
         <f t="array" ref="C298">INDEX(World!C:C,Basedata!E298)</f>
-        <v>56770</v>
+        <v>33691</v>
       </c>
       <c r="D298" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E298">
         <f>MATCH(B298,World!B:B,0)</f>
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="299" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B299" t="s">
-        <v>96</v>
+        <v>697</v>
       </c>
       <c r="C299" s="21" cm="1">
         <f t="array" ref="C299">INDEX(World!C:C,Basedata!E299)</f>
-        <v>112523</v>
+        <v>56770</v>
       </c>
       <c r="D299" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E299">
         <f>MATCH(B299,World!B:B,0)</f>
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="300" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B300" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C300" s="21" cm="1">
         <f t="array" ref="C300">INDEX(World!C:C,Basedata!E300)</f>
-        <v>168775</v>
+        <v>112523</v>
       </c>
       <c r="D300" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E300">
         <f>MATCH(B300,World!B:B,0)</f>
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="301" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B301" t="s">
-        <v>694</v>
+        <v>97</v>
       </c>
       <c r="C301" s="21" cm="1">
         <f t="array" ref="C301">INDEX(World!C:C,Basedata!E301)</f>
-        <v>1968001</v>
+        <v>168775</v>
       </c>
       <c r="D301" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E301">
         <f>MATCH(B301,World!B:B,0)</f>
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="302" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B302" t="s">
-        <v>102</v>
+        <v>694</v>
       </c>
       <c r="C302" s="21" cm="1">
         <f t="array" ref="C302">INDEX(World!C:C,Basedata!E302)</f>
-        <v>11402528</v>
+        <v>1968001</v>
       </c>
       <c r="D302" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E302">
         <f>MATCH(B302,World!B:B,0)</f>
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="303" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B303" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C303" s="21" cm="1">
         <f t="array" ref="C303">INDEX(World!C:C,Basedata!E303)</f>
-        <v>7496981</v>
+        <v>11402528</v>
       </c>
       <c r="D303" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E303">
         <f>MATCH(B303,World!B:B,0)</f>
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="304" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B304" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C304" s="21" cm="1">
         <f t="array" ref="C304">INDEX(World!C:C,Basedata!E304)</f>
-        <v>85033</v>
+        <v>7496981</v>
       </c>
       <c r="D304" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E304">
         <f>MATCH(B304,World!B:B,0)</f>
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="305" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B305" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C305" s="21" cm="1">
         <f t="array" ref="C305">INDEX(World!C:C,Basedata!E305)</f>
-        <v>119449</v>
+        <v>85033</v>
       </c>
       <c r="D305" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E305">
         <f>MATCH(B305,World!B:B,0)</f>
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="306" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B306" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C306" s="21" cm="1">
         <f t="array" ref="C306">INDEX(World!C:C,Basedata!E306)</f>
-        <v>6524195</v>
+        <v>119449</v>
       </c>
       <c r="D306" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E306">
         <f>MATCH(B306,World!B:B,0)</f>
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="307" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B307" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C307" s="21" cm="1">
         <f t="array" ref="C307">INDEX(World!C:C,Basedata!E307)</f>
-        <v>7275560</v>
+        <v>6524195</v>
       </c>
       <c r="D307" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E307">
         <f>MATCH(B307,World!B:B,0)</f>
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="308" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B308" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C308" s="21" cm="1">
         <f t="array" ref="C308">INDEX(World!C:C,Basedata!E308)</f>
-        <v>2142249</v>
+        <v>7275560</v>
       </c>
       <c r="D308" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E308">
         <f>MATCH(B308,World!B:B,0)</f>
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="309" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B309" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C309" s="21" cm="1">
         <f t="array" ref="C309">INDEX(World!C:C,Basedata!E309)</f>
-        <v>5057681</v>
+        <v>2142249</v>
       </c>
       <c r="D309" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E309">
         <f>MATCH(B309,World!B:B,0)</f>
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="310" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B310" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C310" s="21" cm="1">
         <f t="array" ref="C310">INDEX(World!C:C,Basedata!E310)</f>
-        <v>6871292</v>
+        <v>5057681</v>
       </c>
       <c r="D310" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E310">
         <f>MATCH(B310,World!B:B,0)</f>
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="311" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B311" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C311" s="21" cm="1">
         <f t="array" ref="C311">INDEX(World!C:C,Basedata!E311)</f>
-        <v>649335</v>
+        <v>6871292</v>
       </c>
       <c r="D311" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E311">
         <f>MATCH(B311,World!B:B,0)</f>
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="312" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B312" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C312" s="21" cm="1">
         <f t="array" ref="C312">INDEX(World!C:C,Basedata!E312)</f>
-        <v>27691018</v>
+        <v>649335</v>
       </c>
       <c r="D312" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E312">
         <f>MATCH(B312,World!B:B,0)</f>
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="313" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B313" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C313" s="21" cm="1">
         <f t="array" ref="C313">INDEX(World!C:C,Basedata!E313)</f>
-        <v>19129952</v>
+        <v>27691018</v>
       </c>
       <c r="D313" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E313">
         <f>MATCH(B313,World!B:B,0)</f>
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="314" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B314" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C314" s="21" cm="1">
         <f t="array" ref="C314">INDEX(World!C:C,Basedata!E314)</f>
-        <v>20250833</v>
+        <v>19129952</v>
       </c>
       <c r="D314" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E314">
         <f>MATCH(B314,World!B:B,0)</f>
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="315" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B315" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C315" s="21" cm="1">
         <f t="array" ref="C315">INDEX(World!C:C,Basedata!E315)</f>
-        <v>59190</v>
+        <v>20250833</v>
       </c>
       <c r="D315" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E315">
         <f>MATCH(B315,World!B:B,0)</f>
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="316" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B316" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C316" s="21" cm="1">
         <f t="array" ref="C316">INDEX(World!C:C,Basedata!E316)</f>
-        <v>1271768</v>
+        <v>59190</v>
       </c>
       <c r="D316" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E316">
         <f>MATCH(B316,World!B:B,0)</f>
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="317" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B317" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C317" s="21" cm="1">
         <f t="array" ref="C317">INDEX(World!C:C,Basedata!E317)</f>
-        <v>115023</v>
+        <v>1271768</v>
       </c>
       <c r="D317" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E317">
         <f>MATCH(B317,World!B:B,0)</f>
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="318" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B318" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C318" s="21" cm="1">
         <f t="array" ref="C318">INDEX(World!C:C,Basedata!E318)</f>
-        <v>628066</v>
+        <v>115023</v>
       </c>
       <c r="D318" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E318">
         <f>MATCH(B318,World!B:B,0)</f>
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="319" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B319" t="s">
-        <v>683</v>
+        <v>149</v>
       </c>
       <c r="C319" s="21" cm="1">
         <f t="array" ref="C319">INDEX(World!C:C,Basedata!E319)</f>
-        <v>4992</v>
+        <v>628066</v>
       </c>
       <c r="D319" t="s">
-        <v>683</v>
+        <v>149</v>
       </c>
       <c r="E319">
         <f>MATCH(B319,World!B:B,0)</f>
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="320" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B320" t="s">
-        <v>151</v>
+        <v>683</v>
       </c>
       <c r="C320" s="21" cm="1">
         <f t="array" ref="C320">INDEX(World!C:C,Basedata!E320)</f>
-        <v>31255435</v>
+        <v>4992</v>
       </c>
       <c r="D320" t="s">
-        <v>151</v>
+        <v>683</v>
       </c>
       <c r="E320">
         <f>MATCH(B320,World!B:B,0)</f>
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="321" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B321" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C321" s="21" cm="1">
         <f t="array" ref="C321">INDEX(World!C:C,Basedata!E321)</f>
-        <v>54409800</v>
+        <v>31255435</v>
       </c>
       <c r="D321" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E321">
         <f>MATCH(B321,World!B:B,0)</f>
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="322" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B322" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C322" s="21" cm="1">
         <f t="array" ref="C322">INDEX(World!C:C,Basedata!E322)</f>
-        <v>10824</v>
+        <v>54409800</v>
       </c>
       <c r="D322" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E322">
         <f>MATCH(B322,World!B:B,0)</f>
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="323" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B323" t="s">
-        <v>696</v>
+        <v>154</v>
       </c>
       <c r="C323" s="21" cm="1">
         <f t="array" ref="C323">INDEX(World!C:C,Basedata!E323)</f>
-        <v>285498</v>
+        <v>10824</v>
       </c>
       <c r="D323" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E323">
         <f>MATCH(B323,World!B:B,0)</f>
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="324" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B324" t="s">
-        <v>159</v>
+        <v>696</v>
       </c>
       <c r="C324" s="21" cm="1">
         <f t="array" ref="C324">INDEX(World!C:C,Basedata!E324)</f>
-        <v>6624554</v>
+        <v>285498</v>
       </c>
       <c r="D324" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E324">
         <f>MATCH(B324,World!B:B,0)</f>
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="325" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B325" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C325" s="21" cm="1">
         <f t="array" ref="C325">INDEX(World!C:C,Basedata!E325)</f>
-        <v>24206644</v>
+        <v>6624554</v>
       </c>
       <c r="D325" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E325">
         <f>MATCH(B325,World!B:B,0)</f>
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="326" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B326" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C326" s="21" cm="1">
         <f t="array" ref="C326">INDEX(World!C:C,Basedata!E326)</f>
-        <v>1626</v>
+        <v>24206644</v>
       </c>
       <c r="D326" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E326">
         <f>MATCH(B326,World!B:B,0)</f>
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="327" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B327" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C327" s="21" cm="1">
         <f t="array" ref="C327">INDEX(World!C:C,Basedata!E327)</f>
-        <v>25778816</v>
+        <v>1626</v>
       </c>
       <c r="D327" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E327">
         <f>MATCH(B327,World!B:B,0)</f>
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="328" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B328" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C328" s="21" cm="1">
         <f t="array" ref="C328">INDEX(World!C:C,Basedata!E328)</f>
-        <v>57559</v>
+        <v>25778816</v>
       </c>
       <c r="D328" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E328">
         <f>MATCH(B328,World!B:B,0)</f>
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="329" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B329" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C329" s="21" cm="1">
         <f t="array" ref="C329">INDEX(World!C:C,Basedata!E329)</f>
-        <v>18094</v>
+        <v>57559</v>
       </c>
       <c r="D329" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E329">
         <f>MATCH(B329,World!B:B,0)</f>
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="330" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B330" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C330" s="21" cm="1">
         <f t="array" ref="C330">INDEX(World!C:C,Basedata!E330)</f>
-        <v>8947024</v>
+        <v>18094</v>
       </c>
       <c r="D330" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E330">
         <f>MATCH(B330,World!B:B,0)</f>
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="331" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B331" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C331" s="21" cm="1">
         <f t="array" ref="C331">INDEX(World!C:C,Basedata!E331)</f>
-        <v>2860853</v>
+        <v>8947024</v>
       </c>
       <c r="D331" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E331">
         <f>MATCH(B331,World!B:B,0)</f>
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="332" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B332" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C332" s="21" cm="1">
         <f t="array" ref="C332">INDEX(World!C:C,Basedata!E332)</f>
-        <v>9877</v>
+        <v>2860853</v>
       </c>
       <c r="D332" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E332">
         <f>MATCH(B332,World!B:B,0)</f>
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="333" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B333" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C333" s="21" cm="1">
         <f t="array" ref="C333">INDEX(World!C:C,Basedata!E333)</f>
-        <v>6077</v>
+        <v>9877</v>
       </c>
       <c r="D333" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E333">
         <f>MATCH(B333,World!B:B,0)</f>
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="334" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B334" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C334" s="21" cm="1">
         <f t="array" ref="C334">INDEX(World!C:C,Basedata!E334)</f>
-        <v>53199</v>
+        <v>6077</v>
       </c>
       <c r="D334" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E334">
         <f>MATCH(B334,World!B:B,0)</f>
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="335" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B335" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C335" s="21" cm="1">
         <f t="array" ref="C335">INDEX(World!C:C,Basedata!E335)</f>
-        <v>38666</v>
+        <v>53199</v>
       </c>
       <c r="D335" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E335">
         <f>MATCH(B335,World!B:B,0)</f>
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="336" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B336" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C336" s="21" cm="1">
         <f t="array" ref="C336">INDEX(World!C:C,Basedata!E336)</f>
-        <v>5794</v>
+        <v>38666</v>
       </c>
       <c r="D336" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E336">
         <f>MATCH(B336,World!B:B,0)</f>
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="337" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B337" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C337" s="21" cm="1">
         <f t="array" ref="C337">INDEX(World!C:C,Basedata!E337)</f>
-        <v>198414</v>
+        <v>5794</v>
       </c>
       <c r="D337" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E337">
         <f>MATCH(B337,World!B:B,0)</f>
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="338" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B338" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C338" s="21" cm="1">
         <f t="array" ref="C338">INDEX(World!C:C,Basedata!E338)</f>
-        <v>219159</v>
+        <v>198414</v>
       </c>
       <c r="D338" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E338">
         <f>MATCH(B338,World!B:B,0)</f>
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="339" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B339" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C339" s="21" cm="1">
         <f t="array" ref="C339">INDEX(World!C:C,Basedata!E339)</f>
-        <v>7976983</v>
+        <v>219159</v>
       </c>
       <c r="D339" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E339">
         <f>MATCH(B339,World!B:B,0)</f>
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="340" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B340" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C340" s="21" cm="1">
         <f t="array" ref="C340">INDEX(World!C:C,Basedata!E340)</f>
-        <v>42876</v>
+        <v>7976983</v>
       </c>
       <c r="D340" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E340">
         <f>MATCH(B340,World!B:B,0)</f>
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="341" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B341" t="s">
-        <v>200</v>
+        <v>704</v>
       </c>
       <c r="C341" s="21" cm="1">
         <f t="array" ref="C341">INDEX(World!C:C,Basedata!E341)</f>
-        <v>686884</v>
+        <v>42876</v>
       </c>
       <c r="D341" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E341">
         <f>MATCH(B341,World!B:B,0)</f>
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="342" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B342" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C342" s="21" cm="1">
         <f t="array" ref="C342">INDEX(World!C:C,Basedata!E342)</f>
-        <v>15893222</v>
+        <v>686884</v>
       </c>
       <c r="D342" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E342">
         <f>MATCH(B342,World!B:B,0)</f>
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="343" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B343" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C343" s="21" cm="1">
         <f t="array" ref="C343">INDEX(World!C:C,Basedata!E343)</f>
-        <v>11193725</v>
+        <v>15893222</v>
       </c>
       <c r="D343" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E343">
         <f>MATCH(B343,World!B:B,0)</f>
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="344" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B344" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C344" s="21" cm="1">
         <f t="array" ref="C344">INDEX(World!C:C,Basedata!E344)</f>
-        <v>17500658</v>
+        <v>11193725</v>
       </c>
       <c r="D344" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E344">
         <f>MATCH(B344,World!B:B,0)</f>
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="345" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B345" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C345" s="21" cm="1">
         <f t="array" ref="C345">INDEX(World!C:C,Basedata!E345)</f>
-        <v>23816775</v>
+        <v>17500658</v>
       </c>
       <c r="D345" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E345">
         <f>MATCH(B345,World!B:B,0)</f>
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="346" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B346" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C346" s="21" cm="1">
         <f t="array" ref="C346">INDEX(World!C:C,Basedata!E346)</f>
-        <v>9537645</v>
+        <v>23816775</v>
       </c>
       <c r="D346" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E346">
         <f>MATCH(B346,World!B:B,0)</f>
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="347" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B347" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C347" s="21" cm="1">
         <f t="array" ref="C347">INDEX(World!C:C,Basedata!E347)</f>
-        <v>59734218</v>
+        <v>9537645</v>
       </c>
       <c r="D347" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E347">
         <f>MATCH(B347,World!B:B,0)</f>
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="348" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B348" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C348" s="21" cm="1">
         <f t="array" ref="C348">INDEX(World!C:C,Basedata!E348)</f>
-        <v>1318445</v>
+        <v>59734218</v>
       </c>
       <c r="D348" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E348">
         <f>MATCH(B348,World!B:B,0)</f>
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="349" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B349" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C349" s="21" cm="1">
         <f t="array" ref="C349">INDEX(World!C:C,Basedata!E349)</f>
-        <v>1357</v>
+        <v>1318445</v>
       </c>
       <c r="D349" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E349">
         <f>MATCH(B349,World!B:B,0)</f>
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="350" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B350" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C350" s="21" cm="1">
         <f t="array" ref="C350">INDEX(World!C:C,Basedata!E350)</f>
-        <v>105695</v>
+        <v>1357</v>
       </c>
       <c r="D350" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E350">
         <f>MATCH(B350,World!B:B,0)</f>
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="351" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B351" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C351" s="21" cm="1">
         <f t="array" ref="C351">INDEX(World!C:C,Basedata!E351)</f>
-        <v>6031200</v>
+        <v>105695</v>
       </c>
       <c r="D351" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E351">
         <f>MATCH(B351,World!B:B,0)</f>
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="352" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B352" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C352" s="21" cm="1">
         <f t="array" ref="C352">INDEX(World!C:C,Basedata!E352)</f>
-        <v>38717</v>
+        <v>6031200</v>
       </c>
       <c r="D352" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E352">
         <f>MATCH(B352,World!B:B,0)</f>
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B353" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C353" s="21" cm="1">
         <f t="array" ref="C353">INDEX(World!C:C,Basedata!E353)</f>
-        <v>11792</v>
+        <v>38717</v>
       </c>
       <c r="D353" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E353">
         <f>MATCH(B353,World!B:B,0)</f>
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A354" s="52" t="s">
-        <v>679</v>
-      </c>
       <c r="B354" t="s">
-        <v>672</v>
+        <v>224</v>
       </c>
       <c r="C354" s="21" cm="1">
         <f t="array" ref="C354">INDEX(World!C:C,Basedata!E354)</f>
-        <v>104425</v>
+        <v>11792</v>
       </c>
       <c r="D354" t="s">
-        <v>672</v>
+        <v>224</v>
       </c>
       <c r="E354">
         <f>MATCH(B354,World!B:B,0)</f>
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A355" s="52" t="s">
+        <v>679</v>
+      </c>
       <c r="B355" t="s">
-        <v>225</v>
+        <v>672</v>
       </c>
       <c r="C355" s="21" cm="1">
         <f t="array" ref="C355">INDEX(World!C:C,Basedata!E355)</f>
-        <v>45741007</v>
+        <v>104425</v>
       </c>
       <c r="D355" t="s">
-        <v>225</v>
+        <v>672</v>
       </c>
       <c r="E355">
         <f>MATCH(B355,World!B:B,0)</f>
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B356" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C356" s="21" cm="1">
         <f t="array" ref="C356">INDEX(World!C:C,Basedata!E356)</f>
-        <v>307145</v>
+        <v>45741007</v>
       </c>
       <c r="D356" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E356">
         <f>MATCH(B356,World!B:B,0)</f>
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B357" t="s">
-        <v>695</v>
+        <v>231</v>
       </c>
       <c r="C357" s="21" cm="1">
         <f t="array" ref="C357">INDEX(World!C:C,Basedata!E357)</f>
-        <v>11239</v>
+        <v>307145</v>
       </c>
       <c r="D357" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E357">
         <f>MATCH(B357,World!B:B,0)</f>
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B358" t="s">
-        <v>235</v>
+        <v>695</v>
       </c>
       <c r="C358" s="21" cm="1">
         <f t="array" ref="C358">INDEX(World!C:C,Basedata!E358)</f>
-        <v>597339</v>
+        <v>11239</v>
       </c>
       <c r="D358" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E358">
         <f>MATCH(B358,World!B:B,0)</f>
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B359" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C359" s="21" cm="1">
         <f t="array" ref="C359">INDEX(World!C:C,Basedata!E359)</f>
-        <v>29825964</v>
+        <v>597339</v>
       </c>
       <c r="D359" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E359">
         <f>MATCH(B359,World!B:B,0)</f>
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B360" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C360" s="21" cm="1">
         <f t="array" ref="C360">INDEX(World!C:C,Basedata!E360)</f>
-        <v>18383955</v>
+        <v>29825964</v>
       </c>
       <c r="D360" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E360">
         <f>MATCH(B360,World!B:B,0)</f>
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B361" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C361" s="21" cm="1">
         <f t="array" ref="C361">INDEX(World!C:C,Basedata!E361)</f>
-        <v>14862924</v>
+        <v>18383955</v>
       </c>
       <c r="D361" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E361">
         <f>MATCH(B361,World!B:B,0)</f>
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B362" t="s">
+        <v>238</v>
+      </c>
+      <c r="C362" s="21" cm="1">
+        <f t="array" ref="C362">INDEX(World!C:C,Basedata!E362)</f>
+        <v>14862924</v>
+      </c>
+      <c r="D362" t="s">
+        <v>238</v>
+      </c>
+      <c r="E362">
+        <f>MATCH(B362,World!B:B,0)</f>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B363" t="s">
         <v>699</v>
       </c>
-      <c r="C362" s="21">
+      <c r="C363" s="21">
         <v>0</v>
       </c>
-      <c r="D362" s="21" t="s">
-        <v>700</v>
+      <c r="D363" s="21" t="s">
+        <v>703</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E361" xr:uid="{16A59AA1-E676-469E-927A-952702C5B40E}"/>
+  <autoFilter ref="A1:E362" xr:uid="{16A59AA1-E676-469E-927A-952702C5B40E}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8993,7 +9010,7 @@
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <f>MATCH(B7,Basedata!B:B,0)</f>
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>24</v>
@@ -9067,7 +9084,7 @@
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <f>MATCH(B9,Basedata!B:B,0)</f>
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>27</v>
@@ -9106,7 +9123,7 @@
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <f>MATCH(B10,Basedata!B:B,0)</f>
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B10" s="20" t="s">
         <v>28</v>
@@ -9533,7 +9550,7 @@
     <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <f>MATCH(B21,Basedata!B:B,0)</f>
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B21" s="20" t="s">
         <v>37</v>
@@ -9650,7 +9667,7 @@
     <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <f>MATCH(B24,Basedata!B:B,0)</f>
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B24" s="20" t="s">
         <v>40</v>
@@ -9689,7 +9706,7 @@
     <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <f>MATCH(B25,Basedata!B:B,0)</f>
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B25" s="20" t="s">
         <v>41</v>
@@ -9882,7 +9899,7 @@
     <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
         <f>MATCH(B30,Basedata!B:B,0)</f>
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B30" s="20" t="s">
         <v>46</v>
@@ -9960,7 +9977,7 @@
     <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
         <f>MATCH(B32,Basedata!B:B,0)</f>
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B32" s="20" t="s">
         <v>48</v>
@@ -10114,7 +10131,7 @@
     <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12">
         <f>MATCH(B36,Basedata!B:B,0)</f>
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B36" s="20" t="s">
         <v>52</v>
@@ -10153,7 +10170,7 @@
     <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12">
         <f>MATCH(B37,Basedata!B:B,0)</f>
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B37" s="20" t="s">
         <v>53</v>
@@ -10309,7 +10326,7 @@
     <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12">
         <f>MATCH(B41,Basedata!B:B,0)</f>
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B41" s="20" t="s">
         <v>57</v>
@@ -10422,7 +10439,7 @@
     <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12">
         <f>MATCH(B44,Basedata!B:B,0)</f>
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B44" s="20" t="s">
         <v>59</v>
@@ -10461,7 +10478,7 @@
     <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="12">
         <f>MATCH(B45,Basedata!B:B,0)</f>
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B45" s="20" t="s">
         <v>60</v>
@@ -10617,7 +10634,7 @@
     <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="12">
         <f>MATCH(B49,Basedata!B:B,0)</f>
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B49" s="20" t="s">
         <v>64</v>
@@ -10734,7 +10751,7 @@
     <row r="52" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="12">
         <f>MATCH(B52,Basedata!B:B,0)</f>
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B52" s="20" t="s">
         <v>65</v>
@@ -11083,7 +11100,7 @@
     <row r="61" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="12">
         <f>MATCH(B61,Basedata!B:B,0)</f>
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B61" s="20" t="s">
         <v>71</v>
@@ -11122,7 +11139,7 @@
     <row r="62" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="12">
         <f>MATCH(B62,Basedata!B:B,0)</f>
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B62" s="20" t="s">
         <v>72</v>
@@ -11315,7 +11332,7 @@
     <row r="67" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="12">
         <f>MATCH(B67,Basedata!B:B,0)</f>
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B67" s="20" t="s">
         <v>76</v>
@@ -11393,7 +11410,7 @@
     <row r="69" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="12">
         <f>MATCH(B69,Basedata!B:B,0)</f>
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B69" s="20" t="s">
         <v>78</v>
@@ -11549,7 +11566,7 @@
     <row r="73" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="12">
         <f>MATCH(B73,Basedata!B:B,0)</f>
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B73" s="20" t="s">
         <v>82</v>
@@ -11586,7 +11603,7 @@
     <row r="74" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="12">
         <f>MATCH(B74,Basedata!B:B,0)</f>
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B74" s="20" t="s">
         <v>83</v>
@@ -11623,7 +11640,7 @@
     <row r="75" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="12">
         <f>MATCH(B75,Basedata!B:B,0)</f>
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B75" s="20" t="s">
         <v>84</v>
@@ -11779,7 +11796,7 @@
     <row r="79" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="12">
         <f>MATCH(B79,Basedata!B:B,0)</f>
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B79" s="20" t="s">
         <v>88</v>
@@ -12013,7 +12030,7 @@
     <row r="85" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="12">
         <f>MATCH(B85,Basedata!B:B,0)</f>
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B85" s="20" t="s">
         <v>93</v>
@@ -12126,7 +12143,7 @@
     <row r="88" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="12">
         <f>MATCH(B88,Basedata!B:B,0)</f>
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B88" s="20" t="s">
         <v>96</v>
@@ -12204,7 +12221,7 @@
     <row r="90" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="12">
         <f>MATCH(B90,Basedata!B:B,0)</f>
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B90" s="20" t="s">
         <v>97</v>
@@ -12399,7 +12416,7 @@
     <row r="95" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="12">
         <f>MATCH(B95,Basedata!B:B,0)</f>
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B95" s="20" t="s">
         <v>102</v>
@@ -12514,7 +12531,7 @@
     <row r="98" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="12">
         <f>MATCH(B98,Basedata!B:B,0)</f>
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B98" s="20" t="s">
         <v>105</v>
@@ -12826,7 +12843,7 @@
     <row r="106" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="12">
         <f>MATCH(B106,Basedata!B:B,0)</f>
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B106" s="20" t="s">
         <v>113</v>
@@ -13136,7 +13153,7 @@
     <row r="114" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="12">
         <f>MATCH(B114,Basedata!B:B,0)</f>
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B114" s="20" t="s">
         <v>121</v>
@@ -13214,7 +13231,7 @@
     <row r="116" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="12">
         <f>MATCH(B116,Basedata!B:B,0)</f>
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B116" s="20" t="s">
         <v>123</v>
@@ -13253,7 +13270,7 @@
     <row r="117" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="12">
         <f>MATCH(B117,Basedata!B:B,0)</f>
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B117" s="20" t="s">
         <v>124</v>
@@ -13370,7 +13387,7 @@
     <row r="120" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="12">
         <f>MATCH(B120,Basedata!B:B,0)</f>
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B120" s="20" t="s">
         <v>127</v>
@@ -13409,7 +13426,7 @@
     <row r="121" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="12">
         <f>MATCH(B121,Basedata!B:B,0)</f>
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B121" s="20" t="s">
         <v>128</v>
@@ -13448,7 +13465,7 @@
     <row r="122" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="12">
         <f>MATCH(B122,Basedata!B:B,0)</f>
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B122" s="20" t="s">
         <v>129</v>
@@ -13602,7 +13619,7 @@
     <row r="126" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="12">
         <f>MATCH(B126,Basedata!B:B,0)</f>
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B126" s="20" t="s">
         <v>133</v>
@@ -13641,7 +13658,7 @@
     <row r="127" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="12">
         <f>MATCH(B127,Basedata!B:B,0)</f>
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B127" s="20" t="s">
         <v>134</v>
@@ -13680,7 +13697,7 @@
     <row r="128" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="12">
         <f>MATCH(B128,Basedata!B:B,0)</f>
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B128" s="20" t="s">
         <v>135</v>
@@ -13797,7 +13814,7 @@
     <row r="131" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="12">
         <f>MATCH(B131,Basedata!B:B,0)</f>
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B131" s="20" t="s">
         <v>138</v>
@@ -13875,7 +13892,7 @@
     <row r="133" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="12">
         <f>MATCH(B133,Basedata!B:B,0)</f>
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B133" s="20" t="s">
         <v>140</v>
@@ -13990,7 +14007,7 @@
     <row r="136" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="12">
         <f>MATCH(B136,Basedata!B:B,0)</f>
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B136" s="20" t="s">
         <v>143</v>
@@ -14107,7 +14124,7 @@
     <row r="139" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="12">
         <f>MATCH(B139,Basedata!B:B,0)</f>
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B139" s="20" t="s">
         <v>145</v>
@@ -14261,7 +14278,7 @@
     <row r="143" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="12">
         <f>MATCH(B143,Basedata!B:B,0)</f>
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B143" s="20" t="s">
         <v>149</v>
@@ -14300,7 +14317,7 @@
     <row r="144" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="12">
         <f>MATCH(B144,Basedata!B:B,0)</f>
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B144" s="20" t="s">
         <v>683</v>
@@ -14376,7 +14393,7 @@
     <row r="146" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="12">
         <f>MATCH(B146,Basedata!B:B,0)</f>
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B146" s="20" t="s">
         <v>151</v>
@@ -14415,7 +14432,7 @@
     <row r="147" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="12">
         <f>MATCH(B147,Basedata!B:B,0)</f>
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B147" s="20" t="s">
         <v>152</v>
@@ -14493,7 +14510,7 @@
     <row r="149" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="12">
         <f>MATCH(B149,Basedata!B:B,0)</f>
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B149" s="20" t="s">
         <v>154</v>
@@ -14686,7 +14703,7 @@
     <row r="154" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="12">
         <f>MATCH(B154,Basedata!B:B,0)</f>
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B154" s="20" t="s">
         <v>159</v>
@@ -14725,7 +14742,7 @@
     <row r="155" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="12">
         <f>MATCH(B155,Basedata!B:B,0)</f>
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B155" s="20" t="s">
         <v>160</v>
@@ -14803,7 +14820,7 @@
     <row r="157" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="12">
         <f>MATCH(B157,Basedata!B:B,0)</f>
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B157" s="20" t="s">
         <v>162</v>
@@ -14840,7 +14857,7 @@
     <row r="158" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="12">
         <f>MATCH(B158,Basedata!B:B,0)</f>
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B158" s="20" t="s">
         <v>163</v>
@@ -14918,7 +14935,7 @@
     <row r="160" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="12">
         <f>MATCH(B160,Basedata!B:B,0)</f>
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B160" s="20" t="s">
         <v>165</v>
@@ -15072,7 +15089,7 @@
     <row r="164" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="12">
         <f>MATCH(B164,Basedata!B:B,0)</f>
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B164" s="20" t="s">
         <v>169</v>
@@ -15148,7 +15165,7 @@
     <row r="166" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="12">
         <f>MATCH(B166,Basedata!B:B,0)</f>
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B166" s="20" t="s">
         <v>171</v>
@@ -15382,7 +15399,7 @@
     <row r="172" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="12">
         <f>MATCH(B172,Basedata!B:B,0)</f>
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B172" s="20" t="s">
         <v>177</v>
@@ -15616,7 +15633,7 @@
     <row r="178" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="12">
         <f>MATCH(B178,Basedata!B:B,0)</f>
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B178" s="20" t="s">
         <v>182</v>
@@ -15653,7 +15670,7 @@
     <row r="179" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="12">
         <f>MATCH(B179,Basedata!B:B,0)</f>
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B179" s="20" t="s">
         <v>183</v>
@@ -15690,7 +15707,7 @@
     <row r="180" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="12">
         <f>MATCH(B180,Basedata!B:B,0)</f>
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B180" s="20" t="s">
         <v>184</v>
@@ -15766,7 +15783,7 @@
     <row r="182" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="12">
         <f>MATCH(B182,Basedata!B:B,0)</f>
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B182" s="20" t="s">
         <v>186</v>
@@ -15803,7 +15820,7 @@
     <row r="183" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="12">
         <f>MATCH(B183,Basedata!B:B,0)</f>
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B183" s="20" t="s">
         <v>187</v>
@@ -15840,7 +15857,7 @@
     <row r="184" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="12">
         <f>MATCH(B184,Basedata!B:B,0)</f>
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B184" s="20" t="s">
         <v>188</v>
@@ -15916,7 +15933,7 @@
     <row r="186" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="12">
         <f>MATCH(B186,Basedata!B:B,0)</f>
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B186" s="20" t="s">
         <v>190</v>
@@ -16111,7 +16128,7 @@
     <row r="191" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="12">
         <f>MATCH(B191,Basedata!B:B,0)</f>
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B191" s="20" t="s">
         <v>195</v>
@@ -16187,9 +16204,9 @@
       </c>
     </row>
     <row r="193" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="12">
+      <c r="A193" s="12" t="e">
         <f>MATCH(B193,Basedata!B:B,0)</f>
-        <v>340</v>
+        <v>#N/A</v>
       </c>
       <c r="B193" s="20" t="s">
         <v>197</v>
@@ -16304,7 +16321,7 @@
     <row r="196" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="12">
         <f>MATCH(B196,Basedata!B:B,0)</f>
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B196" s="20" t="s">
         <v>200</v>
@@ -16343,7 +16360,7 @@
     <row r="197" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="12">
         <f>MATCH(B197,Basedata!B:B,0)</f>
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B197" s="20" t="s">
         <v>201</v>
@@ -16460,7 +16477,7 @@
     <row r="200" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="12">
         <f>MATCH(B200,Basedata!B:B,0)</f>
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B200" s="20" t="s">
         <v>203</v>
@@ -16616,7 +16633,7 @@
     <row r="204" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="12">
         <f>MATCH(B204,Basedata!B:B,0)</f>
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B204" s="20" t="s">
         <v>411</v>
@@ -16811,7 +16828,7 @@
     <row r="209" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="12">
         <f>MATCH(B209,Basedata!B:B,0)</f>
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B209" s="20" t="s">
         <v>210</v>
@@ -16850,7 +16867,7 @@
     <row r="210" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="12">
         <f>MATCH(B210,Basedata!B:B,0)</f>
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B210" s="20" t="s">
         <v>211</v>
@@ -16889,7 +16906,7 @@
     <row r="211" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="12">
         <f>MATCH(B211,Basedata!B:B,0)</f>
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B211" s="20" t="s">
         <v>212</v>
@@ -16928,7 +16945,7 @@
     <row r="212" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="12">
         <f>MATCH(B212,Basedata!B:B,0)</f>
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B212" s="20" t="s">
         <v>213</v>
@@ -17006,7 +17023,7 @@
     <row r="214" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="12">
         <f>MATCH(B214,Basedata!B:B,0)</f>
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B214" s="20" t="s">
         <v>215</v>
@@ -17084,7 +17101,7 @@
     <row r="216" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="12">
         <f>MATCH(B216,Basedata!B:B,0)</f>
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B216" s="20" t="s">
         <v>217</v>
@@ -17121,7 +17138,7 @@
     <row r="217" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="12">
         <f>MATCH(B217,Basedata!B:B,0)</f>
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B217" s="20" t="s">
         <v>218</v>
@@ -17277,7 +17294,7 @@
     <row r="221" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="12">
         <f>MATCH(B221,Basedata!B:B,0)</f>
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B221" s="20" t="s">
         <v>222</v>
@@ -17316,7 +17333,7 @@
     <row r="222" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="12">
         <f>MATCH(B222,Basedata!B:B,0)</f>
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B222" s="20" t="s">
         <v>223</v>
@@ -17353,7 +17370,7 @@
     <row r="223" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="12">
         <f>MATCH(B223,Basedata!B:B,0)</f>
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B223" s="20" t="s">
         <v>224</v>
@@ -17390,7 +17407,7 @@
     <row r="224" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="12">
         <f>MATCH(B224,Basedata!B:B,0)</f>
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B224" s="20" t="s">
         <v>672</v>
@@ -17429,7 +17446,7 @@
     <row r="225" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="12">
         <f>MATCH(B225,Basedata!B:B,0)</f>
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B225" s="20" t="s">
         <v>225</v>
@@ -17624,7 +17641,7 @@
     <row r="230" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="12">
         <f>MATCH(B230,Basedata!B:B,0)</f>
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B230" s="20" t="s">
         <v>229</v>
@@ -17663,7 +17680,7 @@
     <row r="231" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="12">
         <f>MATCH(B231,Basedata!B:B,0)</f>
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B231" s="20" t="s">
         <v>230</v>
@@ -17702,7 +17719,7 @@
     <row r="232" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="12">
         <f>MATCH(B232,Basedata!B:B,0)</f>
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B232" s="20" t="s">
         <v>231</v>
@@ -17741,7 +17758,7 @@
     <row r="233" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="12">
         <f>MATCH(B233,Basedata!B:B,0)</f>
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B233" s="20" t="s">
         <v>232</v>
@@ -17780,7 +17797,7 @@
     <row r="234" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="12">
         <f>MATCH(B234,Basedata!B:B,0)</f>
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B234" s="20" t="s">
         <v>233</v>
@@ -17856,7 +17873,7 @@
     <row r="236" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="12">
         <f>MATCH(B236,Basedata!B:B,0)</f>
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B236" s="20" t="s">
         <v>235</v>
@@ -17895,7 +17912,7 @@
     <row r="237" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="12">
         <f>MATCH(B237,Basedata!B:B,0)</f>
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B237" s="20" t="s">
         <v>236</v>
@@ -17934,7 +17951,7 @@
     <row r="238" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="12">
         <f>MATCH(B238,Basedata!B:B,0)</f>
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B238" s="20" t="s">
         <v>237</v>
@@ -17973,7 +17990,7 @@
     <row r="239" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="12">
         <f>MATCH(B239,Basedata!B:B,0)</f>
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B239" s="20" t="s">
         <v>238</v>

--- a/COVID-19 Apps/Population Data.xlsx
+++ b/COVID-19 Apps/Population Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zur Bonsen Georg\Documents\Programme\Beyond4P_Apps\COVID-19 Apps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE84800-62D0-4FF3-BA35-64DBC95D983C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307D929A-7204-419D-8BCA-68B8E0DD9412}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{F1D96CA6-85D8-47A9-B3B5-9350C0EB077E}"/>
   </bookViews>
@@ -3131,6 +3131,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3162,7 +3163,6 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -3481,8 +3481,8 @@
   <dimension ref="A1:K376"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A344" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B367" sqref="B367"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14105,7 +14105,7 @@
       <c r="B355" s="97" t="s">
         <v>751</v>
       </c>
-      <c r="C355" s="113" t="s">
+      <c r="C355" s="102" t="s">
         <v>772</v>
       </c>
       <c r="D355" s="97"/>
@@ -14525,13 +14525,13 @@
       <c r="C6" s="53" t="s">
         <v>662</v>
       </c>
-      <c r="D6" s="104" t="s">
+      <c r="D6" s="105" t="s">
         <v>664</v>
       </c>
-      <c r="E6" s="102" t="s">
+      <c r="E6" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="103"/>
+      <c r="F6" s="104"/>
       <c r="G6" s="53" t="s">
         <v>666</v>
       </c>
@@ -14541,14 +14541,14 @@
       <c r="I6" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="104" t="s">
+      <c r="J6" s="105" t="s">
         <v>672</v>
       </c>
-      <c r="K6" s="104"/>
-      <c r="L6" s="102" t="s">
+      <c r="K6" s="105"/>
+      <c r="L6" s="103" t="s">
         <v>674</v>
       </c>
-      <c r="M6" s="103"/>
+      <c r="M6" s="104"/>
       <c r="N6" s="53" t="s">
         <v>666</v>
       </c>
@@ -14557,11 +14557,11 @@
       <c r="C7" s="57" t="s">
         <v>663</v>
       </c>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104" t="s">
+      <c r="D7" s="105"/>
+      <c r="E7" s="105" t="s">
         <v>665</v>
       </c>
-      <c r="F7" s="104"/>
+      <c r="F7" s="105"/>
       <c r="G7" s="57" t="s">
         <v>667</v>
       </c>
@@ -14571,21 +14571,21 @@
       <c r="I7" s="57" t="s">
         <v>670</v>
       </c>
-      <c r="J7" s="104" t="s">
+      <c r="J7" s="105" t="s">
         <v>673</v>
       </c>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104" t="s">
+      <c r="K7" s="105"/>
+      <c r="L7" s="105" t="s">
         <v>675</v>
       </c>
-      <c r="M7" s="104"/>
+      <c r="M7" s="105"/>
       <c r="N7" s="57" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="8" spans="3:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="54"/>
-      <c r="D8" s="104"/>
+      <c r="D8" s="105"/>
       <c r="E8" s="59" t="s">
         <v>677</v>
       </c>
@@ -15369,10 +15369,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="106" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -15407,8 +15407,8 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="106"/>
-      <c r="B3" s="106"/>
+      <c r="A3" s="107"/>
+      <c r="B3" s="107"/>
       <c r="C3" s="2">
         <v>-2020</v>
       </c>
@@ -24613,7 +24613,7 @@
       <c r="D1" t="s">
         <v>405</v>
       </c>
-      <c r="I1" s="107" t="s">
+      <c r="I1" s="108" t="s">
         <v>232</v>
       </c>
       <c r="J1" s="83"/>
@@ -24632,7 +24632,7 @@
         <f t="shared" ref="D2:D33" si="0">"US " &amp;A2</f>
         <v>US Alabama</v>
       </c>
-      <c r="I2" s="108"/>
+      <c r="I2" s="109"/>
       <c r="J2" s="59" t="s">
         <v>696</v>
       </c>
@@ -25566,46 +25566,46 @@
   <sheetData>
     <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="111" t="s">
+      <c r="B5" s="112" t="s">
         <v>409</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="112" t="s">
         <v>410</v>
       </c>
-      <c r="D5" s="107" t="s">
+      <c r="D5" s="108" t="s">
         <v>411</v>
       </c>
       <c r="E5" s="23" t="s">
         <v>412</v>
       </c>
-      <c r="F5" s="107" t="s">
+      <c r="F5" s="108" t="s">
         <v>414</v>
       </c>
-      <c r="G5" s="109" t="s">
+      <c r="G5" s="110" t="s">
         <v>415</v>
       </c>
-      <c r="H5" s="109" t="s">
+      <c r="H5" s="110" t="s">
         <v>416</v>
       </c>
-      <c r="I5" s="109" t="s">
+      <c r="I5" s="110" t="s">
         <v>417</v>
       </c>
-      <c r="J5" s="109" t="s">
+      <c r="J5" s="110" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="112"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="108"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="109"/>
       <c r="E6" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="F6" s="108"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
     </row>
     <row r="7" spans="2:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
